--- a/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
+++ b/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="514">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -216,23 +216,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>受伤百分比=max(1/(1+(a)/I(min(a,b))),25%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤百分比=100%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>物理技能伤害计算</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B总受伤=0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -508,10 +496,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>总力量=怪物本身力量+怪物升星附加力量+装备本身附加力量+装备进阶附加力量+装备镶嵌附加力量+怪物装备附加力量+装备强化附加力量</t>
     <rPh sb="1" eb="2">
       <t>li'liang</t>
@@ -1581,23 +1565,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>受伤百分比=max(1/(1+100/I(0)),25%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤百分比=max(1/(1+50/I(0)),25%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>受伤百分比=max(1/(1+50/I(5)),25%)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>受伤百分比=max(1/(1+50/I(2)),25%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤百分比=max(1/(1-50/I(2)),25%)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1620,10 +1592,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>A物理技能伤害系数=基础技能系数+技能等级*k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>A总力量为a</t>
     <rPh sb="1" eb="2">
       <t>gong'ji'li</t>
@@ -1732,14 +1700,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B总受伤=1+a+b+c+d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B总受伤=10%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>a=0，b=0，c=0，d=0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1752,10 +1712,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B总受伤=20%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>a=10%，b=10%，c=10%，d=0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1764,14 +1720,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>B总受伤=40%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B总受伤=30%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>基本</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1788,10 +1736,6 @@
   </si>
   <si>
     <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总物理攻击力为c,角色套装力量加成百分比为d,A伤害增益为e,B装备伤害减免为f,A物理技能伤害系数为g,总技能加成系数为h,弱点系数为i,副本伤害修正系数为j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=0,b=0,c=0,d=0,e=0,f=0,g=0,h=0,i=0,j=0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1891,10 +1835,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=0,b=0,c=0,d=0,e=0,f=0,g=0,h=0,i=0,j=0,k=0,l=0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总法术攻击力*属性相克系数*五行加成系数*（1+角色套装智力加成百分比+A伤害增益-B装备伤害减免）*A法术技能伤害系数*总技能加成系数*弱点系数*副本伤害修正系数</t>
   </si>
   <si>
@@ -1938,10 +1878,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=0,b=0,c=0,d=0,e=0,f=0,g=0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>修改伤害公式用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2070,30 +2006,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=1,b=0,c=0,d=0,e=0,f=0,g=0,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=0,d=0,e=0,f=0,g=0,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0,e=0,f=0,g=0,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0,f=0,g=0,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0,g=0,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=0,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=0,i=0,j=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=1,j=0</t>
-  </si>
-  <si>
     <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=1,j=1</t>
   </si>
   <si>
@@ -2157,39 +2069,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=1,b=0,c=0,d=0,e=0,f=0,g=0,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=0,d=0,e=0,f=0,g=0,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0,e=0,f=0,g=0,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=0,f=0,g=0,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0,g=0,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=0,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=0.1,h=0,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=0.1,h=0.1,i=0,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=0.1,h=0.1,i=1.5,j=0,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=0.1,h=0.1,i=1.5,j=1.5,k=0,l=0</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=1.5,h=1.5,i=2,j=2,k=1,l=0</t>
-  </si>
-  <si>
     <t>a=1,b=0.1,c=100,d=1,e=1,f=0.1,g=1.5,h=1.5,i=2,j=2,k=1,l=1.5</t>
   </si>
   <si>
@@ -2197,24 +2076,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=1,b=0,c=0,d=0,e=0,f=0,g=0</t>
-  </si>
-  <si>
-    <t>a=1,b=100,c=0,d=0,e=0,f=0,g=0</t>
-  </si>
-  <si>
-    <t>a=1,b=100,c=0.1,d=0,e=0,f=0,g=0</t>
-  </si>
-  <si>
-    <t>a=1,b=100,c=0.1,d=0.1,e=0,f=0,g=0</t>
-  </si>
-  <si>
-    <t>a=1,b=100,c=0.1,d=0.1,e=1.5,f=0,g=0</t>
-  </si>
-  <si>
-    <t>a=1,b=100,c=0.1,d=0.1,e=1.5,f=1.5,g=0</t>
-  </si>
-  <si>
     <t>a=1,b=100,c=0.1,d=0.1,e=1.5,f=1.5,g=1</t>
   </si>
   <si>
@@ -2277,6 +2138,275 @@
   </si>
   <si>
     <t>单次治疗=1170</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-16</t>
+  </si>
+  <si>
+    <t>怪物基础速度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-17</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-19</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=3，b=1，c=60%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=3，b=1，c=100%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-27</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤百分比=25%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤百分比=float.NaN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float.NaN策划配置避免出现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤百分比=max(1/(1+(a)/I(min(c,d))),25%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试记录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有与装备相关的属性，没有配置装备的地方，需要等待装备系统开发后与伤害公式属性对接后测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式中没有弱点系数加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式中没有副本伤害系数加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式中没有队长技能、阵发技能、被动技能系数加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A物理技能伤害系数=基础技能系数+技能等级*k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-28</t>
+  </si>
+  <si>
+    <t>a=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>h=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>i=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>j=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总技能加成系数=1+a+b+c+d</t>
+  </si>
+  <si>
+    <t>总技能加成系数=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总技能加成系数=110%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总技能加成系数=120%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总技能加成系数=130%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总技能加成系数=140%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>d=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>e=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>l=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行相克没有配表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>f=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-29</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗技能有bug，阻碍测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试伤害公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2284,7 +2414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2483,6 +2613,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2635,7 +2774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2875,11 +3014,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2896,7 +3047,349 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="166">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4406,7 +4899,7 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4459,7 +4952,7 @@
     </row>
     <row r="7" spans="1:256" ht="18" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="18" x14ac:dyDescent="0.35">
@@ -4472,10 +4965,10 @@
     </row>
     <row r="11" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4801,7 +5294,7 @@
         <v>42132</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>40</v>
@@ -4818,12 +5311,22 @@
       <c r="J18" s="18"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+    <row r="19" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+      <c r="B19" s="13">
+        <v>42137</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="17">
+        <v>543</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -5795,10 +6298,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N77 C77">
-    <cfRule type="cellIs" dxfId="121" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5813,10 +6316,10 @@
   <dimension ref="A1:P182"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E163" sqref="E163"/>
+      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5828,7 +6331,7 @@
     <col min="5" max="5" width="32.5" style="74" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="74" customWidth="1"/>
     <col min="7" max="7" width="32.5" style="74" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.125" style="89" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.125" style="81" customWidth="1"/>
     <col min="10" max="10" width="25" style="69" customWidth="1"/>
     <col min="11" max="11" width="5.125" style="81" bestFit="1" customWidth="1"/>
@@ -5840,14 +6343,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:16" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
@@ -5901,28 +6404,26 @@
     </row>
     <row r="3" spans="1:16" s="68" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C4" s="66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B5" s="81"/>
       <c r="E5" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="70"/>
+        <v>96</v>
+      </c>
       <c r="K5" s="70"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B6" s="81"/>
       <c r="E6" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="70"/>
+        <v>97</v>
+      </c>
       <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -5930,60 +6431,62 @@
         <v>1</v>
       </c>
       <c r="B7" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="89" t="s">
+        <v>454</v>
+      </c>
       <c r="J7" s="72"/>
       <c r="K7" s="70"/>
     </row>
     <row r="8" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B8" s="81"/>
       <c r="F8" s="74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="70"/>
+        <v>65</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="K8" s="70"/>
       <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B9" s="81"/>
-      <c r="H9" s="70"/>
       <c r="K9" s="70"/>
       <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B10" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="83" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F10" s="83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="H10" s="70"/>
+        <v>100</v>
+      </c>
       <c r="K10" s="70"/>
       <c r="L10" s="43"/>
     </row>
@@ -5993,12 +6496,14 @@
       <c r="D11" s="82"/>
       <c r="E11" s="83"/>
       <c r="F11" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="70"/>
+        <v>101</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="K11" s="70"/>
       <c r="L11" s="43"/>
     </row>
@@ -6008,12 +6513,14 @@
       <c r="D12" s="82"/>
       <c r="E12" s="83"/>
       <c r="F12" s="83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="70"/>
+        <v>101</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="K12" s="70"/>
       <c r="L12" s="43"/>
     </row>
@@ -6023,18 +6530,19 @@
       <c r="D13" s="82"/>
       <c r="E13" s="83"/>
       <c r="F13" s="83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="70"/>
+        <v>102</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="K13" s="70"/>
       <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B14" s="81"/>
-      <c r="H14" s="70"/>
       <c r="K14" s="70"/>
       <c r="L14" s="43"/>
     </row>
@@ -6043,54 +6551,59 @@
         <v>4</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="70"/>
+        <v>117</v>
+      </c>
       <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="81"/>
       <c r="F16" s="74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G16" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="70"/>
+        <v>115</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="K16" s="70"/>
     </row>
     <row r="17" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="B17" s="81"/>
       <c r="F17" s="74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="70"/>
+        <v>121</v>
+      </c>
+      <c r="H17" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="K17" s="70"/>
     </row>
     <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="B18" s="81"/>
       <c r="F18" s="74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="70"/>
+        <v>122</v>
+      </c>
+      <c r="H18" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="K18" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.35">
@@ -6098,12 +6611,14 @@
       <c r="B19" s="86"/>
       <c r="D19" s="86"/>
       <c r="F19" s="74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="H19" s="70"/>
+        <v>124</v>
+      </c>
+      <c r="H19" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I19" s="86"/>
       <c r="K19" s="70"/>
       <c r="L19" s="86"/>
@@ -6113,12 +6628,14 @@
       <c r="B20" s="86"/>
       <c r="D20" s="86"/>
       <c r="F20" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="70"/>
+        <v>126</v>
+      </c>
+      <c r="H20" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I20" s="86"/>
       <c r="K20" s="70"/>
       <c r="L20" s="86"/>
@@ -6128,12 +6645,14 @@
       <c r="B21" s="86"/>
       <c r="D21" s="86"/>
       <c r="F21" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="70"/>
+        <v>128</v>
+      </c>
+      <c r="H21" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I21" s="86"/>
       <c r="K21" s="70"/>
       <c r="L21" s="86"/>
@@ -6143,12 +6662,14 @@
       <c r="B22" s="86"/>
       <c r="D22" s="86"/>
       <c r="F22" s="74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="70"/>
+        <v>130</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I22" s="86"/>
       <c r="K22" s="70"/>
       <c r="L22" s="86"/>
@@ -6158,24 +6679,25 @@
       <c r="B23" s="86"/>
       <c r="D23" s="86"/>
       <c r="F23" s="74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="70"/>
+        <v>132</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I23" s="86"/>
       <c r="K23" s="70"/>
       <c r="L23" s="86"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="81"/>
-      <c r="H24" s="70"/>
       <c r="K24" s="70"/>
     </row>
     <row r="25" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C25" s="66" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -6183,9 +6705,8 @@
       <c r="B26" s="86"/>
       <c r="D26" s="86"/>
       <c r="E26" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" s="70"/>
+        <v>133</v>
+      </c>
       <c r="I26" s="86"/>
       <c r="K26" s="70"/>
       <c r="L26" s="86"/>
@@ -6195,9 +6716,8 @@
       <c r="B27" s="86"/>
       <c r="D27" s="86"/>
       <c r="E27" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="70"/>
+        <v>134</v>
+      </c>
       <c r="I27" s="86"/>
       <c r="K27" s="70"/>
       <c r="L27" s="86"/>
@@ -6210,11 +6730,11 @@
         <v>30</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" s="86"/>
       <c r="E28" s="83" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F28" s="74" t="s">
         <v>25</v>
@@ -6222,7 +6742,9 @@
       <c r="G28" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I28" s="86"/>
       <c r="J28" s="72"/>
       <c r="K28" s="70"/>
@@ -6233,12 +6755,14 @@
       <c r="B29" s="86"/>
       <c r="D29" s="86"/>
       <c r="F29" s="74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="89" t="s">
+        <v>455</v>
+      </c>
       <c r="I29" s="86"/>
       <c r="K29" s="70"/>
       <c r="L29" s="43"/>
@@ -6247,7 +6771,6 @@
       <c r="A30" s="86"/>
       <c r="B30" s="86"/>
       <c r="D30" s="86"/>
-      <c r="H30" s="70"/>
       <c r="I30" s="86"/>
       <c r="K30" s="70"/>
       <c r="L30" s="43"/>
@@ -6255,22 +6778,21 @@
     <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A31" s="86"/>
       <c r="B31" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D31" s="82"/>
       <c r="E31" s="83" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="70"/>
+        <v>139</v>
+      </c>
       <c r="I31" s="86"/>
       <c r="K31" s="70"/>
       <c r="L31" s="43"/>
@@ -6282,12 +6804,14 @@
       <c r="D32" s="82"/>
       <c r="E32" s="83"/>
       <c r="F32" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G32" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="70"/>
+        <v>140</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="I32" s="86"/>
       <c r="K32" s="70"/>
       <c r="L32" s="43"/>
@@ -6299,12 +6823,14 @@
       <c r="D33" s="82"/>
       <c r="E33" s="83"/>
       <c r="F33" s="83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G33" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="H33" s="70"/>
+        <v>140</v>
+      </c>
+      <c r="H33" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="I33" s="86"/>
       <c r="K33" s="70"/>
       <c r="L33" s="43"/>
@@ -6316,12 +6842,14 @@
       <c r="D34" s="82"/>
       <c r="E34" s="83"/>
       <c r="F34" s="83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G34" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="70"/>
+        <v>141</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="I34" s="86"/>
       <c r="K34" s="70"/>
       <c r="L34" s="43"/>
@@ -6330,7 +6858,6 @@
       <c r="A35" s="86"/>
       <c r="B35" s="86"/>
       <c r="D35" s="86"/>
-      <c r="H35" s="70"/>
       <c r="I35" s="86"/>
       <c r="K35" s="70"/>
       <c r="L35" s="43"/>
@@ -6343,19 +6870,18 @@
         <v>30</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" s="86"/>
       <c r="E36" s="74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F36" s="74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G36" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="H36" s="70"/>
+        <v>144</v>
+      </c>
       <c r="I36" s="86"/>
       <c r="K36" s="70"/>
       <c r="L36" s="86"/>
@@ -6365,12 +6891,14 @@
       <c r="B37" s="86"/>
       <c r="D37" s="86"/>
       <c r="F37" s="74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="H37" s="70"/>
+        <v>145</v>
+      </c>
+      <c r="H37" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I37" s="86"/>
       <c r="K37" s="70"/>
       <c r="L37" s="86"/>
@@ -6380,12 +6908,14 @@
       <c r="B38" s="86"/>
       <c r="D38" s="86"/>
       <c r="F38" s="74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="70"/>
+        <v>146</v>
+      </c>
+      <c r="H38" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I38" s="86"/>
       <c r="K38" s="70"/>
       <c r="L38" s="86"/>
@@ -6395,12 +6925,14 @@
       <c r="B39" s="86"/>
       <c r="D39" s="86"/>
       <c r="F39" s="74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="70"/>
+        <v>147</v>
+      </c>
+      <c r="H39" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I39" s="86"/>
       <c r="K39" s="70"/>
       <c r="L39" s="86"/>
@@ -6410,12 +6942,14 @@
       <c r="B40" s="86"/>
       <c r="D40" s="86"/>
       <c r="F40" s="74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="H40" s="70"/>
+        <v>148</v>
+      </c>
+      <c r="H40" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I40" s="86"/>
       <c r="K40" s="70"/>
       <c r="L40" s="86"/>
@@ -6425,12 +6959,14 @@
       <c r="B41" s="86"/>
       <c r="D41" s="86"/>
       <c r="F41" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G41" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" s="70"/>
+        <v>149</v>
+      </c>
+      <c r="H41" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I41" s="86"/>
       <c r="K41" s="70"/>
       <c r="L41" s="86"/>
@@ -6440,12 +6976,14 @@
       <c r="B42" s="86"/>
       <c r="D42" s="86"/>
       <c r="F42" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="H42" s="70"/>
+        <v>150</v>
+      </c>
+      <c r="H42" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I42" s="86"/>
       <c r="K42" s="70"/>
       <c r="L42" s="86"/>
@@ -6455,12 +6993,14 @@
       <c r="B43" s="86"/>
       <c r="D43" s="86"/>
       <c r="F43" s="74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G43" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="H43" s="70"/>
+        <v>151</v>
+      </c>
+      <c r="H43" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I43" s="86"/>
       <c r="K43" s="70"/>
       <c r="L43" s="86"/>
@@ -6470,32 +7010,32 @@
       <c r="B44" s="86"/>
       <c r="D44" s="86"/>
       <c r="F44" s="74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G44" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" s="70"/>
+        <v>152</v>
+      </c>
+      <c r="H44" s="89" t="s">
+        <v>446</v>
+      </c>
       <c r="I44" s="86"/>
       <c r="K44" s="70"/>
       <c r="L44" s="86"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="81"/>
-      <c r="H45" s="70"/>
       <c r="K45" s="70"/>
     </row>
     <row r="46" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C46" s="66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="81"/>
       <c r="E47" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="H47" s="70"/>
+        <v>168</v>
+      </c>
       <c r="K47" s="70"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -6503,9 +7043,8 @@
       <c r="B48" s="86"/>
       <c r="D48" s="86"/>
       <c r="E48" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="H48" s="70"/>
+        <v>157</v>
+      </c>
       <c r="I48" s="86"/>
       <c r="K48" s="70"/>
       <c r="L48" s="86"/>
@@ -6513,9 +7052,8 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B49" s="81"/>
       <c r="E49" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="70"/>
+        <v>103</v>
+      </c>
       <c r="K49" s="70"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -6523,60 +7061,62 @@
         <v>1</v>
       </c>
       <c r="B50" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="70"/>
+      <c r="H50" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="J50" s="72"/>
       <c r="K50" s="70"/>
     </row>
     <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B51" s="81"/>
       <c r="F51" s="74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="70"/>
+        <v>65</v>
+      </c>
+      <c r="H51" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="K51" s="70"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B52" s="81"/>
-      <c r="H52" s="70"/>
       <c r="K52" s="70"/>
       <c r="L52" s="43"/>
     </row>
     <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B53" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C53" s="83" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D53" s="82"/>
       <c r="E53" s="83" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F53" s="83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G53" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="H53" s="70"/>
+        <v>106</v>
+      </c>
       <c r="K53" s="70"/>
       <c r="L53" s="43"/>
     </row>
@@ -6586,12 +7126,17 @@
       <c r="D54" s="82"/>
       <c r="E54" s="83"/>
       <c r="F54" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="H54" s="70"/>
+        <v>107</v>
+      </c>
+      <c r="H54" s="89" t="s">
+        <v>451</v>
+      </c>
+      <c r="I54" s="85" t="s">
+        <v>452</v>
+      </c>
       <c r="K54" s="70"/>
       <c r="L54" s="43"/>
     </row>
@@ -6601,12 +7146,11 @@
       <c r="D55" s="82"/>
       <c r="E55" s="83"/>
       <c r="F55" s="83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="H55" s="70"/>
+        <v>107</v>
+      </c>
       <c r="K55" s="70"/>
       <c r="L55" s="43"/>
     </row>
@@ -6616,12 +7160,11 @@
       <c r="D56" s="82"/>
       <c r="E56" s="83"/>
       <c r="F56" s="83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G56" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="70"/>
+        <v>108</v>
+      </c>
       <c r="K56" s="70"/>
       <c r="L56" s="43"/>
     </row>
@@ -6629,7 +7172,6 @@
       <c r="A57" s="86"/>
       <c r="B57" s="82"/>
       <c r="D57" s="86"/>
-      <c r="H57" s="70"/>
       <c r="I57" s="86"/>
       <c r="K57" s="70"/>
       <c r="L57" s="43"/>
@@ -6638,19 +7180,18 @@
       <c r="A58" s="86"/>
       <c r="B58" s="82"/>
       <c r="C58" s="74" t="s">
-        <v>159</v>
+        <v>449</v>
       </c>
       <c r="D58" s="86"/>
       <c r="E58" s="74" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F58" s="74" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G58" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="H58" s="70"/>
+        <v>159</v>
+      </c>
       <c r="I58" s="86"/>
       <c r="K58" s="70"/>
       <c r="L58" s="43"/>
@@ -6660,12 +7201,14 @@
       <c r="B59" s="82"/>
       <c r="D59" s="86"/>
       <c r="F59" s="74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G59" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="70"/>
+        <v>160</v>
+      </c>
+      <c r="H59" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I59" s="86"/>
       <c r="K59" s="70"/>
       <c r="L59" s="43"/>
@@ -6675,12 +7218,14 @@
       <c r="B60" s="82"/>
       <c r="D60" s="86"/>
       <c r="F60" s="74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G60" s="74" t="s">
-        <v>165</v>
-      </c>
-      <c r="H60" s="70"/>
+        <v>161</v>
+      </c>
+      <c r="H60" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I60" s="86"/>
       <c r="K60" s="70"/>
       <c r="L60" s="43"/>
@@ -6690,12 +7235,14 @@
       <c r="B61" s="82"/>
       <c r="D61" s="86"/>
       <c r="F61" s="74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G61" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="H61" s="70"/>
+        <v>162</v>
+      </c>
+      <c r="H61" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I61" s="86"/>
       <c r="K61" s="70"/>
       <c r="L61" s="43"/>
@@ -6705,12 +7252,14 @@
       <c r="B62" s="82"/>
       <c r="D62" s="86"/>
       <c r="F62" s="74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G62" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="H62" s="70"/>
+        <v>163</v>
+      </c>
+      <c r="H62" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I62" s="86"/>
       <c r="K62" s="70"/>
       <c r="L62" s="43"/>
@@ -6720,12 +7269,14 @@
       <c r="B63" s="82"/>
       <c r="D63" s="86"/>
       <c r="F63" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G63" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="H63" s="70"/>
+        <v>164</v>
+      </c>
+      <c r="H63" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I63" s="86"/>
       <c r="K63" s="70"/>
       <c r="L63" s="43"/>
@@ -6735,12 +7286,14 @@
       <c r="B64" s="82"/>
       <c r="D64" s="86"/>
       <c r="F64" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G64" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="H64" s="70"/>
+        <v>165</v>
+      </c>
+      <c r="H64" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I64" s="86"/>
       <c r="K64" s="70"/>
       <c r="L64" s="43"/>
@@ -6750,12 +7303,14 @@
       <c r="B65" s="82"/>
       <c r="D65" s="86"/>
       <c r="F65" s="74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G65" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="70"/>
+        <v>166</v>
+      </c>
+      <c r="H65" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I65" s="86"/>
       <c r="K65" s="70"/>
       <c r="L65" s="43"/>
@@ -6765,12 +7320,14 @@
       <c r="B66" s="82"/>
       <c r="D66" s="86"/>
       <c r="F66" s="74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G66" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="H66" s="70"/>
+        <v>167</v>
+      </c>
+      <c r="H66" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I66" s="86"/>
       <c r="K66" s="70"/>
       <c r="L66" s="43"/>
@@ -6779,7 +7336,6 @@
       <c r="A67" s="86"/>
       <c r="B67" s="82"/>
       <c r="D67" s="86"/>
-      <c r="H67" s="70"/>
       <c r="I67" s="86"/>
       <c r="K67" s="70"/>
       <c r="L67" s="43"/>
@@ -6789,7 +7345,7 @@
         <v>4</v>
       </c>
       <c r="B68" s="81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C68" s="74" t="s">
         <v>42</v>
@@ -6798,12 +7354,17 @@
         <v>43</v>
       </c>
       <c r="F68" s="74" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G68" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="H68" s="70"/>
+        <v>170</v>
+      </c>
+      <c r="H68" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="I68" s="85" t="s">
+        <v>448</v>
+      </c>
       <c r="K68" s="70"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -6811,12 +7372,14 @@
       <c r="B69" s="86"/>
       <c r="D69" s="86"/>
       <c r="F69" s="74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G69" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="70"/>
+        <v>178</v>
+      </c>
+      <c r="H69" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I69" s="86"/>
       <c r="K69" s="70"/>
       <c r="L69" s="86"/>
@@ -6826,12 +7389,14 @@
       <c r="B70" s="86"/>
       <c r="D70" s="86"/>
       <c r="F70" s="74" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G70" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="70"/>
+        <v>179</v>
+      </c>
+      <c r="H70" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I70" s="86"/>
       <c r="K70" s="70"/>
       <c r="L70" s="86"/>
@@ -6841,12 +7406,14 @@
       <c r="B71" s="86"/>
       <c r="D71" s="86"/>
       <c r="F71" s="74" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G71" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="H71" s="70"/>
+        <v>180</v>
+      </c>
+      <c r="H71" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I71" s="86"/>
       <c r="K71" s="70"/>
       <c r="L71" s="86"/>
@@ -6856,12 +7423,14 @@
       <c r="B72" s="86"/>
       <c r="D72" s="86"/>
       <c r="F72" s="74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G72" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="H72" s="70"/>
+        <v>181</v>
+      </c>
+      <c r="H72" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I72" s="86"/>
       <c r="K72" s="70"/>
       <c r="L72" s="86"/>
@@ -6871,12 +7440,14 @@
       <c r="B73" s="86"/>
       <c r="D73" s="86"/>
       <c r="F73" s="74" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G73" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="H73" s="70"/>
+        <v>182</v>
+      </c>
+      <c r="H73" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I73" s="86"/>
       <c r="K73" s="70"/>
       <c r="L73" s="86"/>
@@ -6886,12 +7457,14 @@
       <c r="B74" s="86"/>
       <c r="D74" s="86"/>
       <c r="F74" s="74" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G74" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="H74" s="70"/>
+        <v>183</v>
+      </c>
+      <c r="H74" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I74" s="86"/>
       <c r="K74" s="70"/>
       <c r="L74" s="86"/>
@@ -6901,24 +7474,25 @@
       <c r="B75" s="86"/>
       <c r="D75" s="86"/>
       <c r="F75" s="74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G75" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="H75" s="70"/>
+        <v>184</v>
+      </c>
+      <c r="H75" s="89" t="s">
+        <v>453</v>
+      </c>
       <c r="I75" s="86"/>
       <c r="K75" s="70"/>
       <c r="L75" s="86"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B76" s="81"/>
-      <c r="H76" s="70"/>
       <c r="K76" s="70"/>
     </row>
     <row r="77" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C77" s="66" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -6926,9 +7500,8 @@
       <c r="B78" s="86"/>
       <c r="D78" s="86"/>
       <c r="E78" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="H78" s="70"/>
+        <v>186</v>
+      </c>
       <c r="I78" s="86"/>
       <c r="K78" s="70"/>
       <c r="L78" s="86"/>
@@ -6938,9 +7511,8 @@
       <c r="B79" s="86"/>
       <c r="D79" s="86"/>
       <c r="E79" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="H79" s="70"/>
+        <v>187</v>
+      </c>
       <c r="I79" s="86"/>
       <c r="K79" s="70"/>
       <c r="L79" s="86"/>
@@ -6950,9 +7522,8 @@
       <c r="B80" s="86"/>
       <c r="D80" s="86"/>
       <c r="E80" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="H80" s="70"/>
+        <v>188</v>
+      </c>
       <c r="I80" s="86"/>
       <c r="K80" s="70"/>
       <c r="L80" s="86"/>
@@ -6965,11 +7536,11 @@
         <v>30</v>
       </c>
       <c r="C81" s="74" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D81" s="86"/>
       <c r="E81" s="74" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F81" s="74" t="s">
         <v>25</v>
@@ -6977,7 +7548,9 @@
       <c r="G81" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="70"/>
+      <c r="H81" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I81" s="86"/>
       <c r="J81" s="72"/>
       <c r="K81" s="70"/>
@@ -6988,12 +7561,14 @@
       <c r="B82" s="86"/>
       <c r="D82" s="86"/>
       <c r="F82" s="74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G82" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="70"/>
+      <c r="H82" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I82" s="86"/>
       <c r="K82" s="70"/>
       <c r="L82" s="43"/>
@@ -7002,7 +7577,6 @@
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="D83" s="86"/>
-      <c r="H83" s="70"/>
       <c r="I83" s="86"/>
       <c r="K83" s="70"/>
       <c r="L83" s="43"/>
@@ -7010,22 +7584,21 @@
     <row r="84" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A84" s="86"/>
       <c r="B84" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C84" s="83" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D84" s="82"/>
       <c r="E84" s="83" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F84" s="83" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G84" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="H84" s="70"/>
+        <v>195</v>
+      </c>
       <c r="I84" s="86"/>
       <c r="K84" s="70"/>
       <c r="L84" s="43"/>
@@ -7037,12 +7610,14 @@
       <c r="D85" s="82"/>
       <c r="E85" s="83"/>
       <c r="F85" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G85" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="H85" s="70"/>
+        <v>196</v>
+      </c>
+      <c r="H85" s="89" t="s">
+        <v>456</v>
+      </c>
       <c r="I85" s="86"/>
       <c r="K85" s="70"/>
       <c r="L85" s="43"/>
@@ -7054,12 +7629,14 @@
       <c r="D86" s="82"/>
       <c r="E86" s="83"/>
       <c r="F86" s="83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G86" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="H86" s="70"/>
+        <v>196</v>
+      </c>
+      <c r="H86" s="89" t="s">
+        <v>456</v>
+      </c>
       <c r="I86" s="86"/>
       <c r="K86" s="70"/>
       <c r="L86" s="43"/>
@@ -7071,12 +7648,14 @@
       <c r="D87" s="82"/>
       <c r="E87" s="83"/>
       <c r="F87" s="83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G87" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="H87" s="70"/>
+        <v>197</v>
+      </c>
+      <c r="H87" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I87" s="86"/>
       <c r="K87" s="70"/>
       <c r="L87" s="43"/>
@@ -7085,7 +7664,6 @@
       <c r="A88" s="86"/>
       <c r="B88" s="82"/>
       <c r="D88" s="86"/>
-      <c r="H88" s="70"/>
       <c r="I88" s="86"/>
       <c r="K88" s="70"/>
       <c r="L88" s="43"/>
@@ -7094,19 +7672,18 @@
       <c r="A89" s="86"/>
       <c r="B89" s="82"/>
       <c r="C89" s="74" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D89" s="86"/>
       <c r="E89" s="74" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F89" s="74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G89" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="H89" s="70"/>
+        <v>199</v>
+      </c>
       <c r="I89" s="86"/>
       <c r="K89" s="70"/>
       <c r="L89" s="43"/>
@@ -7116,12 +7693,14 @@
       <c r="B90" s="82"/>
       <c r="D90" s="86"/>
       <c r="F90" s="74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G90" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="H90" s="70"/>
+        <v>200</v>
+      </c>
+      <c r="H90" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I90" s="86"/>
       <c r="K90" s="70"/>
       <c r="L90" s="43"/>
@@ -7131,12 +7710,14 @@
       <c r="B91" s="82"/>
       <c r="D91" s="86"/>
       <c r="F91" s="74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="H91" s="70"/>
+        <v>201</v>
+      </c>
+      <c r="H91" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I91" s="86"/>
       <c r="K91" s="70"/>
       <c r="L91" s="43"/>
@@ -7146,12 +7727,14 @@
       <c r="B92" s="82"/>
       <c r="D92" s="86"/>
       <c r="F92" s="74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G92" s="74" t="s">
-        <v>206</v>
-      </c>
-      <c r="H92" s="70"/>
+        <v>202</v>
+      </c>
+      <c r="H92" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I92" s="86"/>
       <c r="K92" s="70"/>
       <c r="L92" s="43"/>
@@ -7161,12 +7744,14 @@
       <c r="B93" s="82"/>
       <c r="D93" s="86"/>
       <c r="F93" s="74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G93" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="H93" s="70"/>
+        <v>203</v>
+      </c>
+      <c r="H93" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I93" s="86"/>
       <c r="K93" s="70"/>
       <c r="L93" s="43"/>
@@ -7176,12 +7761,14 @@
       <c r="B94" s="82"/>
       <c r="D94" s="86"/>
       <c r="F94" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="H94" s="70"/>
+        <v>204</v>
+      </c>
+      <c r="H94" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I94" s="86"/>
       <c r="K94" s="70"/>
       <c r="L94" s="43"/>
@@ -7191,12 +7778,14 @@
       <c r="B95" s="82"/>
       <c r="D95" s="86"/>
       <c r="F95" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G95" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="H95" s="70"/>
+        <v>205</v>
+      </c>
+      <c r="H95" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I95" s="86"/>
       <c r="K95" s="70"/>
       <c r="L95" s="43"/>
@@ -7206,12 +7795,14 @@
       <c r="B96" s="82"/>
       <c r="D96" s="86"/>
       <c r="F96" s="74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G96" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="H96" s="70"/>
+        <v>206</v>
+      </c>
+      <c r="H96" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I96" s="86"/>
       <c r="K96" s="70"/>
       <c r="L96" s="43"/>
@@ -7221,12 +7812,14 @@
       <c r="B97" s="82"/>
       <c r="D97" s="86"/>
       <c r="F97" s="74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G97" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="H97" s="70"/>
+        <v>207</v>
+      </c>
+      <c r="H97" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I97" s="86"/>
       <c r="K97" s="70"/>
       <c r="L97" s="43"/>
@@ -7235,7 +7828,6 @@
       <c r="A98" s="86"/>
       <c r="B98" s="82"/>
       <c r="D98" s="86"/>
-      <c r="H98" s="70"/>
       <c r="I98" s="86"/>
       <c r="K98" s="70"/>
       <c r="L98" s="43"/>
@@ -7248,20 +7840,24 @@
         <v>30</v>
       </c>
       <c r="C99" s="74" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D99" s="86"/>
       <c r="E99" s="74" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F99" s="74" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G99" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="H99" s="70"/>
-      <c r="I99" s="86"/>
+        <v>211</v>
+      </c>
+      <c r="H99" s="89" t="s">
+        <v>447</v>
+      </c>
+      <c r="I99" s="85" t="s">
+        <v>458</v>
+      </c>
       <c r="K99" s="70"/>
       <c r="L99" s="86"/>
     </row>
@@ -7270,12 +7866,11 @@
       <c r="B100" s="86"/>
       <c r="D100" s="86"/>
       <c r="F100" s="74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G100" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="H100" s="70"/>
+        <v>212</v>
+      </c>
       <c r="I100" s="86"/>
       <c r="K100" s="70"/>
       <c r="L100" s="86"/>
@@ -7285,12 +7880,11 @@
       <c r="B101" s="86"/>
       <c r="D101" s="86"/>
       <c r="F101" s="74" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G101" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="H101" s="70"/>
+        <v>213</v>
+      </c>
       <c r="I101" s="86"/>
       <c r="K101" s="70"/>
       <c r="L101" s="86"/>
@@ -7300,12 +7894,11 @@
       <c r="B102" s="86"/>
       <c r="D102" s="86"/>
       <c r="F102" s="74" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G102" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="H102" s="70"/>
+        <v>214</v>
+      </c>
       <c r="I102" s="86"/>
       <c r="K102" s="70"/>
       <c r="L102" s="86"/>
@@ -7315,12 +7908,11 @@
       <c r="B103" s="86"/>
       <c r="D103" s="86"/>
       <c r="F103" s="74" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="H103" s="70"/>
+        <v>215</v>
+      </c>
       <c r="I103" s="86"/>
       <c r="K103" s="70"/>
       <c r="L103" s="86"/>
@@ -7330,12 +7922,11 @@
       <c r="B104" s="86"/>
       <c r="D104" s="86"/>
       <c r="F104" s="74" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G104" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="H104" s="70"/>
+        <v>216</v>
+      </c>
       <c r="I104" s="86"/>
       <c r="K104" s="70"/>
       <c r="L104" s="86"/>
@@ -7345,12 +7936,11 @@
       <c r="B105" s="86"/>
       <c r="D105" s="86"/>
       <c r="F105" s="74" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="H105" s="70"/>
+        <v>217</v>
+      </c>
       <c r="I105" s="86"/>
       <c r="K105" s="70"/>
       <c r="L105" s="86"/>
@@ -7360,12 +7950,11 @@
       <c r="B106" s="86"/>
       <c r="D106" s="86"/>
       <c r="F106" s="74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="H106" s="70"/>
+        <v>218</v>
+      </c>
       <c r="I106" s="86"/>
       <c r="K106" s="70"/>
       <c r="L106" s="86"/>
@@ -7374,30 +7963,27 @@
       <c r="A107" s="86"/>
       <c r="B107" s="86"/>
       <c r="D107" s="86"/>
-      <c r="H107" s="70"/>
       <c r="I107" s="86"/>
       <c r="K107" s="70"/>
       <c r="L107" s="86"/>
     </row>
     <row r="108" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C108" s="66" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B109" s="81"/>
       <c r="E109" s="73" t="s">
-        <v>223</v>
-      </c>
-      <c r="H109" s="70"/>
+        <v>219</v>
+      </c>
       <c r="K109" s="70"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B110" s="81"/>
       <c r="E110" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="H110" s="70"/>
+        <v>109</v>
+      </c>
       <c r="K110" s="70"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
@@ -7405,60 +7991,62 @@
         <v>1</v>
       </c>
       <c r="B111" s="81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C111" s="74" t="s">
         <v>44</v>
       </c>
       <c r="E111" s="74" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F111" s="74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G111" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H111" s="70"/>
+        <v>75</v>
+      </c>
+      <c r="H111" s="89" t="s">
+        <v>459</v>
+      </c>
       <c r="J111" s="72"/>
       <c r="K111" s="70"/>
     </row>
     <row r="112" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B112" s="81"/>
       <c r="F112" s="74" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G112" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H112" s="70"/>
+        <v>75</v>
+      </c>
+      <c r="H112" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="K112" s="70"/>
       <c r="L112" s="43"/>
     </row>
     <row r="113" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B113" s="81"/>
-      <c r="H113" s="70"/>
       <c r="K113" s="70"/>
       <c r="L113" s="43"/>
     </row>
     <row r="114" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B114" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C114" s="83" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D114" s="82"/>
       <c r="E114" s="83" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F114" s="83" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G114" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="H114" s="70"/>
+        <v>112</v>
+      </c>
       <c r="K114" s="70"/>
       <c r="L114" s="43"/>
     </row>
@@ -7468,12 +8056,14 @@
       <c r="D115" s="82"/>
       <c r="E115" s="83"/>
       <c r="F115" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G115" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="H115" s="70"/>
+        <v>113</v>
+      </c>
+      <c r="H115" s="89" t="s">
+        <v>460</v>
+      </c>
       <c r="K115" s="70"/>
       <c r="L115" s="43"/>
     </row>
@@ -7483,12 +8073,14 @@
       <c r="D116" s="82"/>
       <c r="E116" s="83"/>
       <c r="F116" s="83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G116" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="H116" s="70"/>
+        <v>113</v>
+      </c>
+      <c r="H116" s="89" t="s">
+        <v>460</v>
+      </c>
       <c r="K116" s="70"/>
       <c r="L116" s="43"/>
     </row>
@@ -7498,18 +8090,19 @@
       <c r="D117" s="82"/>
       <c r="E117" s="83"/>
       <c r="F117" s="83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G117" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="H117" s="70"/>
+        <v>114</v>
+      </c>
+      <c r="H117" s="89" t="s">
+        <v>460</v>
+      </c>
       <c r="K117" s="70"/>
       <c r="L117" s="43"/>
     </row>
     <row r="118" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B118" s="81"/>
-      <c r="H118" s="70"/>
       <c r="K118" s="70"/>
       <c r="L118" s="43"/>
     </row>
@@ -7518,7 +8111,7 @@
         <v>4</v>
       </c>
       <c r="B119" s="81" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C119" s="74" t="s">
         <v>45</v>
@@ -7527,34 +8120,37 @@
         <v>46</v>
       </c>
       <c r="F119" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="G119" s="74" t="s">
         <v>224</v>
       </c>
-      <c r="G119" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="H119" s="70"/>
       <c r="K119" s="70"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B120" s="81"/>
       <c r="F120" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="G120" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="G120" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="H120" s="70"/>
+      <c r="H120" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="K120" s="70"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B121" s="81"/>
       <c r="F121" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="G121" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="G121" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="H121" s="70"/>
+      <c r="H121" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="K121" s="70"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -7562,24 +8158,25 @@
       <c r="B122" s="86"/>
       <c r="D122" s="86"/>
       <c r="F122" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="G122" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="H122" s="70"/>
+      <c r="H122" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I122" s="86"/>
       <c r="K122" s="70"/>
       <c r="L122" s="86"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B123" s="81"/>
-      <c r="H123" s="70"/>
       <c r="K123" s="70"/>
     </row>
     <row r="124" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C124" s="66" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -7587,9 +8184,8 @@
       <c r="B125" s="86"/>
       <c r="D125" s="86"/>
       <c r="E125" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="H125" s="70"/>
+        <v>258</v>
+      </c>
       <c r="I125" s="86"/>
       <c r="K125" s="70"/>
       <c r="L125" s="86"/>
@@ -7599,9 +8195,8 @@
       <c r="B126" s="86"/>
       <c r="D126" s="86"/>
       <c r="E126" s="73" t="s">
-        <v>233</v>
-      </c>
-      <c r="H126" s="70"/>
+        <v>229</v>
+      </c>
       <c r="I126" s="86"/>
       <c r="K126" s="70"/>
       <c r="L126" s="86"/>
@@ -7611,9 +8206,8 @@
       <c r="B127" s="86"/>
       <c r="D127" s="86"/>
       <c r="E127" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="H127" s="70"/>
+        <v>230</v>
+      </c>
       <c r="I127" s="86"/>
       <c r="K127" s="70"/>
       <c r="L127" s="86"/>
@@ -7626,11 +8220,11 @@
         <v>30</v>
       </c>
       <c r="C128" s="74" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D128" s="86"/>
       <c r="E128" s="74" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F128" s="74" t="s">
         <v>25</v>
@@ -7638,7 +8232,9 @@
       <c r="G128" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H128" s="70"/>
+      <c r="H128" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I128" s="86"/>
       <c r="J128" s="72"/>
       <c r="K128" s="70"/>
@@ -7649,12 +8245,14 @@
       <c r="B129" s="86"/>
       <c r="D129" s="86"/>
       <c r="F129" s="74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G129" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="H129" s="70"/>
+      <c r="H129" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I129" s="86"/>
       <c r="K129" s="70"/>
       <c r="L129" s="43"/>
@@ -7663,7 +8261,6 @@
       <c r="A130" s="86"/>
       <c r="B130" s="86"/>
       <c r="D130" s="86"/>
-      <c r="H130" s="70"/>
       <c r="I130" s="86"/>
       <c r="K130" s="70"/>
       <c r="L130" s="43"/>
@@ -7671,22 +8268,21 @@
     <row r="131" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A131" s="86"/>
       <c r="B131" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C131" s="83" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D131" s="82"/>
       <c r="E131" s="83" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F131" s="83" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G131" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="H131" s="70"/>
+        <v>237</v>
+      </c>
       <c r="I131" s="86"/>
       <c r="K131" s="70"/>
       <c r="L131" s="43"/>
@@ -7698,12 +8294,14 @@
       <c r="D132" s="82"/>
       <c r="E132" s="83"/>
       <c r="F132" s="83" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G132" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="H132" s="70"/>
+        <v>238</v>
+      </c>
+      <c r="H132" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I132" s="86"/>
       <c r="K132" s="70"/>
       <c r="L132" s="43"/>
@@ -7715,12 +8313,14 @@
       <c r="D133" s="82"/>
       <c r="E133" s="83"/>
       <c r="F133" s="83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G133" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="H133" s="70"/>
+        <v>238</v>
+      </c>
+      <c r="H133" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I133" s="86"/>
       <c r="K133" s="70"/>
       <c r="L133" s="43"/>
@@ -7732,12 +8332,14 @@
       <c r="D134" s="82"/>
       <c r="E134" s="83"/>
       <c r="F134" s="83" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G134" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="H134" s="70"/>
+        <v>239</v>
+      </c>
+      <c r="H134" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="I134" s="86"/>
       <c r="K134" s="70"/>
       <c r="L134" s="43"/>
@@ -7746,7 +8348,6 @@
       <c r="A135" s="86"/>
       <c r="B135" s="82"/>
       <c r="D135" s="86"/>
-      <c r="H135" s="70"/>
       <c r="I135" s="86"/>
       <c r="K135" s="70"/>
       <c r="L135" s="43"/>
@@ -7755,19 +8356,18 @@
       <c r="A136" s="86"/>
       <c r="B136" s="82"/>
       <c r="C136" s="74" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D136" s="86"/>
       <c r="E136" s="74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F136" s="74" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G136" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H136" s="70"/>
+        <v>241</v>
+      </c>
       <c r="I136" s="86"/>
       <c r="K136" s="70"/>
       <c r="L136" s="43"/>
@@ -7777,12 +8377,14 @@
       <c r="B137" s="82"/>
       <c r="D137" s="86"/>
       <c r="F137" s="74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G137" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="H137" s="70"/>
+        <v>242</v>
+      </c>
+      <c r="H137" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I137" s="86"/>
       <c r="K137" s="70"/>
       <c r="L137" s="43"/>
@@ -7792,12 +8394,14 @@
       <c r="B138" s="82"/>
       <c r="D138" s="86"/>
       <c r="F138" s="74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G138" s="74" t="s">
-        <v>247</v>
-      </c>
-      <c r="H138" s="70"/>
+        <v>243</v>
+      </c>
+      <c r="H138" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I138" s="86"/>
       <c r="K138" s="70"/>
       <c r="L138" s="43"/>
@@ -7807,12 +8411,14 @@
       <c r="B139" s="82"/>
       <c r="D139" s="86"/>
       <c r="F139" s="74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G139" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="H139" s="70"/>
+        <v>244</v>
+      </c>
+      <c r="H139" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I139" s="86"/>
       <c r="K139" s="70"/>
       <c r="L139" s="43"/>
@@ -7822,12 +8428,14 @@
       <c r="B140" s="82"/>
       <c r="D140" s="86"/>
       <c r="F140" s="74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G140" s="74" t="s">
-        <v>249</v>
-      </c>
-      <c r="H140" s="70"/>
+        <v>245</v>
+      </c>
+      <c r="H140" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I140" s="86"/>
       <c r="K140" s="70"/>
       <c r="L140" s="43"/>
@@ -7837,12 +8445,14 @@
       <c r="B141" s="82"/>
       <c r="D141" s="86"/>
       <c r="F141" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G141" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="H141" s="70"/>
+        <v>246</v>
+      </c>
+      <c r="H141" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I141" s="86"/>
       <c r="K141" s="70"/>
       <c r="L141" s="43"/>
@@ -7852,12 +8462,14 @@
       <c r="B142" s="82"/>
       <c r="D142" s="86"/>
       <c r="F142" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G142" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="H142" s="70"/>
+        <v>247</v>
+      </c>
+      <c r="H142" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I142" s="86"/>
       <c r="K142" s="70"/>
       <c r="L142" s="43"/>
@@ -7867,12 +8479,14 @@
       <c r="B143" s="82"/>
       <c r="D143" s="86"/>
       <c r="F143" s="74" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G143" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="H143" s="70"/>
+        <v>248</v>
+      </c>
+      <c r="H143" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I143" s="86"/>
       <c r="K143" s="70"/>
       <c r="L143" s="43"/>
@@ -7882,12 +8496,14 @@
       <c r="B144" s="82"/>
       <c r="D144" s="86"/>
       <c r="F144" s="74" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G144" s="74" t="s">
-        <v>253</v>
-      </c>
-      <c r="H144" s="70"/>
+        <v>249</v>
+      </c>
+      <c r="H144" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I144" s="86"/>
       <c r="K144" s="70"/>
       <c r="L144" s="43"/>
@@ -7896,7 +8512,6 @@
       <c r="A145" s="86"/>
       <c r="B145" s="82"/>
       <c r="D145" s="86"/>
-      <c r="H145" s="70"/>
       <c r="I145" s="86"/>
       <c r="K145" s="70"/>
       <c r="L145" s="43"/>
@@ -7909,19 +8524,18 @@
         <v>30</v>
       </c>
       <c r="C146" s="74" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D146" s="86"/>
       <c r="E146" s="74" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F146" s="74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G146" s="74" t="s">
-        <v>264</v>
-      </c>
-      <c r="H146" s="70"/>
+        <v>260</v>
+      </c>
       <c r="I146" s="86"/>
       <c r="K146" s="70"/>
       <c r="L146" s="86"/>
@@ -7931,12 +8545,14 @@
       <c r="B147" s="86"/>
       <c r="D147" s="86"/>
       <c r="F147" s="74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G147" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="H147" s="70"/>
+        <v>252</v>
+      </c>
+      <c r="H147" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I147" s="86"/>
       <c r="K147" s="70"/>
       <c r="L147" s="86"/>
@@ -7946,12 +8562,14 @@
       <c r="B148" s="86"/>
       <c r="D148" s="86"/>
       <c r="F148" s="74" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G148" s="74" t="s">
-        <v>257</v>
-      </c>
-      <c r="H148" s="70"/>
+        <v>253</v>
+      </c>
+      <c r="H148" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I148" s="86"/>
       <c r="K148" s="70"/>
       <c r="L148" s="86"/>
@@ -7961,12 +8579,14 @@
       <c r="B149" s="86"/>
       <c r="D149" s="86"/>
       <c r="F149" s="74" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G149" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="H149" s="70"/>
+        <v>254</v>
+      </c>
+      <c r="H149" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I149" s="86"/>
       <c r="K149" s="70"/>
       <c r="L149" s="86"/>
@@ -7976,12 +8596,14 @@
       <c r="B150" s="86"/>
       <c r="D150" s="86"/>
       <c r="F150" s="74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G150" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="H150" s="70"/>
+        <v>255</v>
+      </c>
+      <c r="H150" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I150" s="86"/>
       <c r="K150" s="70"/>
       <c r="L150" s="86"/>
@@ -7991,12 +8613,14 @@
       <c r="B151" s="86"/>
       <c r="D151" s="86"/>
       <c r="F151" s="74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G151" s="74" t="s">
-        <v>260</v>
-      </c>
-      <c r="H151" s="70"/>
+        <v>256</v>
+      </c>
+      <c r="H151" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I151" s="86"/>
       <c r="K151" s="70"/>
       <c r="L151" s="86"/>
@@ -8006,12 +8630,14 @@
       <c r="B152" s="86"/>
       <c r="D152" s="86"/>
       <c r="F152" s="74" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G152" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H152" s="70"/>
+        <v>257</v>
+      </c>
+      <c r="H152" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I152" s="86"/>
       <c r="K152" s="70"/>
       <c r="L152" s="86"/>
@@ -8020,7 +8646,6 @@
       <c r="A153" s="86"/>
       <c r="B153" s="86"/>
       <c r="D153" s="86"/>
-      <c r="H153" s="70"/>
       <c r="I153" s="86"/>
       <c r="K153" s="70"/>
       <c r="L153" s="86"/>
@@ -8033,9 +8658,8 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B155" s="81"/>
       <c r="E155" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="H155" s="70"/>
+        <v>267</v>
+      </c>
       <c r="K155" s="70"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
@@ -8043,39 +8667,42 @@
         <v>1</v>
       </c>
       <c r="B156" s="81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C156" s="74" t="s">
         <v>48</v>
       </c>
       <c r="E156" s="74" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F156" s="74" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G156" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="H156" s="70"/>
+        <v>75</v>
+      </c>
+      <c r="H156" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="J156" s="72"/>
       <c r="K156" s="70"/>
     </row>
     <row r="157" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B157" s="81"/>
       <c r="F157" s="74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G157" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="H157" s="70"/>
+        <v>65</v>
+      </c>
+      <c r="H157" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="K157" s="70"/>
       <c r="L157" s="43"/>
     </row>
     <row r="158" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B158" s="81"/>
-      <c r="H158" s="70"/>
       <c r="K158" s="70"/>
       <c r="L158" s="43"/>
     </row>
@@ -8084,7 +8711,7 @@
         <v>4</v>
       </c>
       <c r="B159" s="81" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C159" s="74" t="s">
         <v>35</v>
@@ -8093,79 +8720,91 @@
         <v>49</v>
       </c>
       <c r="F159" s="74" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G159" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="H159" s="70"/>
+        <v>275</v>
+      </c>
       <c r="K159" s="70"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B160" s="81"/>
       <c r="F160" s="74" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G160" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="H160" s="70"/>
+        <v>276</v>
+      </c>
+      <c r="H160" s="89" t="s">
+        <v>461</v>
+      </c>
       <c r="K160" s="70"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B161" s="81"/>
       <c r="F161" s="74" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G161" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="H161" s="70"/>
+        <v>277</v>
+      </c>
+      <c r="H161" s="89" t="s">
+        <v>461</v>
+      </c>
       <c r="K161" s="70"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B162" s="81"/>
       <c r="F162" s="74" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G162" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="H162" s="70"/>
+        <v>278</v>
+      </c>
+      <c r="H162" s="89" t="s">
+        <v>461</v>
+      </c>
       <c r="K162" s="70"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" s="74"/>
       <c r="B163" s="81"/>
       <c r="F163" s="74" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G163" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="H163" s="70"/>
+        <v>279</v>
+      </c>
+      <c r="H163" s="89" t="s">
+        <v>461</v>
+      </c>
       <c r="K163" s="70"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="74"/>
       <c r="B164" s="81"/>
       <c r="F164" s="74" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G164" s="74" t="s">
-        <v>284</v>
-      </c>
-      <c r="H164" s="70"/>
+        <v>280</v>
+      </c>
+      <c r="H164" s="89" t="s">
+        <v>461</v>
+      </c>
       <c r="K164" s="70"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" s="74"/>
       <c r="B165" s="81"/>
       <c r="F165" s="74" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G165" s="74" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="H165" s="89" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
@@ -8174,16 +8813,15 @@
     </row>
     <row r="167" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C167" s="66" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A168" s="74"/>
       <c r="B168" s="81"/>
       <c r="E168" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="H168" s="70"/>
+        <v>284</v>
+      </c>
       <c r="I168" s="49"/>
       <c r="K168" s="70"/>
       <c r="L168" s="49"/>
@@ -8191,7 +8829,6 @@
     <row r="169" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A169" s="74"/>
       <c r="B169" s="81"/>
-      <c r="H169" s="70"/>
       <c r="I169" s="49"/>
       <c r="K169" s="70"/>
       <c r="L169" s="49"/>
@@ -8200,18 +8837,17 @@
       <c r="A170" s="74"/>
       <c r="B170" s="81"/>
       <c r="C170" s="74" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E170" s="74" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F170" s="74" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G170" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="H170" s="70"/>
+        <v>291</v>
+      </c>
       <c r="I170" s="49"/>
       <c r="K170" s="70"/>
       <c r="L170" s="49"/>
@@ -8220,12 +8856,14 @@
       <c r="A171" s="74"/>
       <c r="B171" s="81"/>
       <c r="F171" s="74" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G171" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="H171" s="70"/>
+        <v>292</v>
+      </c>
+      <c r="H171" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I171" s="48"/>
       <c r="K171" s="70"/>
       <c r="L171" s="48"/>
@@ -8234,12 +8872,14 @@
       <c r="A172" s="74"/>
       <c r="B172" s="81"/>
       <c r="F172" s="74" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G172" s="74" t="s">
-        <v>297</v>
-      </c>
-      <c r="H172" s="70"/>
+        <v>293</v>
+      </c>
+      <c r="H172" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I172" s="49"/>
       <c r="K172" s="70"/>
       <c r="L172" s="49"/>
@@ -8248,73 +8888,87 @@
       <c r="A173" s="74"/>
       <c r="B173" s="81"/>
       <c r="F173" s="74" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G173" s="74" t="s">
-        <v>298</v>
-      </c>
-      <c r="H173" s="70"/>
+        <v>294</v>
+      </c>
+      <c r="H173" s="89" t="s">
+        <v>457</v>
+      </c>
       <c r="I173" s="50"/>
       <c r="K173" s="70"/>
       <c r="L173" s="50"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F174" s="74" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G174" s="74" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="H174" s="89" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F175" s="74" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G175" s="74" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="177" spans="3:7" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="H175" s="89" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="C177" s="66" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.35">
       <c r="E178" s="73" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C180" s="74" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D180" s="81">
         <v>1</v>
       </c>
       <c r="E180" s="74" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F180" s="74" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G180" s="74" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.35">
       <c r="F181" s="74" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="G181" s="74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+      <c r="H181" s="89" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.35">
       <c r="F182" s="74" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="G182" s="74" t="s">
-        <v>400</v>
+        <v>384</v>
+      </c>
+      <c r="H182" s="89" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8323,300 +8977,305 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A110:G110 A49:G49 F168:K170 A176:IY176 A123:G123 F46:G48 F108:G109 F154:IY155 E5:E24 A4:D24 F2:IY25 A45:G45 E163:E164 A163:D166 A68:G68 A69:E75 G69:G75 H45:IY76 A76:G76 H108:IY153 F163:G166 A168:D173 A174:E175 G171:K173 G174:IY175 H156:IY166 A178:D178 F178:IY178 A179:IY65573">
-    <cfRule type="cellIs" dxfId="119" priority="121" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A110:G110 A49:G49 F168:K170 A176:IY176 A123:G123 F46:G48 F108:G109 F154:IY155 E5:E24 A4:D24 A45:G45 E163:E164 A163:D166 A69:E75 G69:G75 H45:IY53 A76:G76 F163:G166 A168:D173 A174:E175 G171:K171 A178:D178 F178:IY178 F2:IY25 A68:H68 J68:IY68 H54 J54:IY54 H55:IY67 H69:IY76 H108:IY153 H156:IY166 I174:IY175 I172:K173 G172:H175 A179:IY65573">
+    <cfRule type="cellIs" dxfId="133" priority="121" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="122" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:G56 B57:B67">
-    <cfRule type="cellIs" dxfId="117" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L168:L170 L172:L173 E171:E173 M168:IY173 E2 A2:D3 A162:G162">
-    <cfRule type="cellIs" dxfId="115" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="105" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="106" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:D25">
-    <cfRule type="cellIs" dxfId="113" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="101" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="102" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48 A46:D48 A50:G52 A53:A67 C57:G58 C67:G67 C59:E66">
-    <cfRule type="cellIs" dxfId="111" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109 A108:D109 A111:G113 A114:A117 A118:G122">
-    <cfRule type="cellIs" dxfId="109" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155 A154:D155 A156:G161">
-    <cfRule type="cellIs" dxfId="107" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114:G117">
-    <cfRule type="cellIs" dxfId="105" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:E79 A77:D79 A81:G83 A84:A98 C88:G89 C98:G98 C90:E97">
-    <cfRule type="cellIs" dxfId="103" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:IY44">
-    <cfRule type="cellIs" dxfId="101" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F66">
-    <cfRule type="cellIs" dxfId="99" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59:G66">
-    <cfRule type="cellIs" dxfId="97" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F75">
-    <cfRule type="cellIs" dxfId="95" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80 F77:G79 A99:G99 A100:E106 G100:G106 H77:IY107 A107:G107">
-    <cfRule type="cellIs" dxfId="93" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A80:G80 F77:G79 A100:E106 G100:G106 A107:G107 H77:IY98 H100:IY107 A99:H99 J99:IY99">
+    <cfRule type="cellIs" dxfId="107" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B84:G87 B88:B98">
-    <cfRule type="cellIs" dxfId="91" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F97">
-    <cfRule type="cellIs" dxfId="89" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G90:G97">
-    <cfRule type="cellIs" dxfId="87" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F106">
-    <cfRule type="cellIs" dxfId="85" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A127:G127 F124:G126 A146:G146 A147:E152 G147:G152 A153:G153">
-    <cfRule type="cellIs" dxfId="83" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131:G134 B135:B145">
-    <cfRule type="cellIs" dxfId="81" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125:E126 A124:D126 A128:G130 A131:A145 C135:G136 C145:G145 C137:E144">
-    <cfRule type="cellIs" dxfId="79" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F137:F144">
-    <cfRule type="cellIs" dxfId="77" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G137:G144">
-    <cfRule type="cellIs" dxfId="75" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147:F152">
-    <cfRule type="cellIs" dxfId="73" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F167:IY167">
-    <cfRule type="cellIs" dxfId="71" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A167:D167">
-    <cfRule type="cellIs" dxfId="69" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" dxfId="67" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="65" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="63" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="61" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F174">
-    <cfRule type="cellIs" dxfId="59" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F175">
-    <cfRule type="cellIs" dxfId="57" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F177:IY177">
-    <cfRule type="cellIs" dxfId="55" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A177:D177">
-    <cfRule type="cellIs" dxfId="53" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="51" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I68" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-16"/>
+    <hyperlink ref="I54" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-17"/>
+    <hyperlink ref="I99" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-19"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P156"/>
+  <dimension ref="A1:P151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G154" sqref="G154"/>
+      <selection pane="bottomRight" activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8640,14 +9299,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90" t="s">
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:16" s="40" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
@@ -8721,7 +9380,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E5" s="42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -8799,169 +9458,196 @@
         <v>33</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I9" s="85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E10" s="42"/>
       <c r="F10" s="63" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="67"/>
+        <v>305</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E11" s="42"/>
       <c r="F11" s="63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="H11" s="67"/>
+        <v>304</v>
+      </c>
+      <c r="H11" s="90" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E12" s="42"/>
       <c r="F12" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="G12" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="90" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="33" x14ac:dyDescent="0.35">
       <c r="E13" s="42"/>
       <c r="F13" s="63" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="15" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="69"/>
+    </row>
+    <row r="15" spans="1:16" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="69"/>
+    </row>
+    <row r="17" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="69"/>
-    </row>
-    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.35">
-      <c r="B17" s="79" t="s">
+      <c r="D17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" s="80"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="69"/>
+    </row>
+    <row r="19" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+      <c r="B19" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C19" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="74" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="74" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C18" s="74"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F19" s="74" t="s">
-        <v>95</v>
+        <v>309</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="D20" s="86"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C20" s="74"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="74" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="69"/>
-    </row>
-    <row r="21" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="D21" s="86"/>
+        <v>467</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="J20" s="69" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F21" s="74" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>321</v>
-      </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="69"/>
+        <v>466</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="86"/>
       <c r="B22" s="86"/>
       <c r="D22" s="86"/>
       <c r="F22" s="74" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" s="86"/>
+        <v>466</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>471</v>
+      </c>
       <c r="I22" s="86"/>
       <c r="J22" s="69"/>
       <c r="K22" s="86"/>
@@ -8973,104 +9659,102 @@
       <c r="B23" s="86"/>
       <c r="D23" s="86"/>
       <c r="F23" s="74" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>323</v>
-      </c>
-      <c r="H23" s="86"/>
+        <v>315</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>471</v>
+      </c>
       <c r="I23" s="86"/>
       <c r="J23" s="69"/>
       <c r="K23" s="86"/>
       <c r="L23" s="86"/>
       <c r="M23" s="69"/>
     </row>
-    <row r="25" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="46"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E26" s="73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E27" s="73" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="D28" s="86"/>
+    <row r="24" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="F24" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>471</v>
+      </c>
+      <c r="I24" s="86"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="69"/>
+    </row>
+    <row r="25" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="F25" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="86"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="69"/>
+    </row>
+    <row r="27" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="46"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E28" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="69"/>
-    </row>
-    <row r="29" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="D29" s="81"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E29" s="73" t="s">
-        <v>324</v>
-      </c>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="69"/>
+        <v>481</v>
+      </c>
     </row>
     <row r="30" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="74" t="s">
-        <v>326</v>
-      </c>
-      <c r="G30" s="74" t="s">
-        <v>327</v>
-      </c>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
       <c r="J30" s="69"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
       <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="81"/>
       <c r="B31" s="81"/>
       <c r="D31" s="81"/>
-      <c r="F31" s="74" t="s">
-        <v>328</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>94</v>
+      <c r="E31" s="73" t="s">
+        <v>317</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
@@ -9081,15 +9765,25 @@
     </row>
     <row r="32" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="81"/>
-      <c r="B32" s="81"/>
+      <c r="B32" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>89</v>
+      </c>
       <c r="D32" s="81"/>
+      <c r="E32" s="74" t="s">
+        <v>90</v>
+      </c>
       <c r="F32" s="74" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G32" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="H32" s="81"/>
+        <v>319</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>95</v>
+      </c>
       <c r="I32" s="81"/>
       <c r="J32" s="69"/>
       <c r="K32" s="81"/>
@@ -9100,202 +9794,213 @@
       <c r="A33" s="81"/>
       <c r="B33" s="81"/>
       <c r="D33" s="81"/>
-      <c r="H33" s="81"/>
+      <c r="F33" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>95</v>
+      </c>
       <c r="I33" s="81"/>
       <c r="J33" s="69"/>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
       <c r="M33" s="69"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B34" s="79" t="s">
+    <row r="34" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="F34" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="81"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="69"/>
+    </row>
+    <row r="35" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="69"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B36" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C36" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="I36" s="85" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="F37" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="69"/>
+    </row>
+    <row r="38" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="F38" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>329</v>
+      </c>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="69"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F39" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="G39" s="74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="F40" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="F34" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="G34" s="41" t="s">
+      <c r="G40" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="69"/>
+    </row>
+    <row r="42" spans="1:13" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="H34" s="61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="F35" s="74" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35" s="74" t="s">
+      <c r="E42" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="H35" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="79"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="69"/>
-    </row>
-    <row r="36" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="F36" s="74" t="s">
+      <c r="F42" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="G36" s="74" t="s">
-        <v>337</v>
-      </c>
-      <c r="H36" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="69"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F37" s="41" t="s">
+      <c r="G42" s="41" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F43" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="G37" s="74" t="s">
-        <v>340</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="F38" s="74" t="s">
-        <v>342</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="H38" s="86"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="69"/>
-    </row>
-    <row r="40" spans="1:13" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="F40" s="74" t="s">
-        <v>346</v>
-      </c>
-      <c r="G40" s="41" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F41" s="41" t="s">
-        <v>349</v>
-      </c>
-      <c r="G41" s="74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F42" s="74" t="s">
-        <v>350</v>
-      </c>
-      <c r="G42" s="74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F43" s="74" t="s">
-        <v>351</v>
-      </c>
       <c r="G43" s="74" t="s">
-        <v>352</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="81"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F44" s="74" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G44" s="74" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="33" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+      <c r="H44" s="61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F45" s="74" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="69"/>
-    </row>
-    <row r="47" spans="1:13" s="74" customFormat="1" ht="99" x14ac:dyDescent="0.35">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="C47" s="74" t="s">
-        <v>358</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="74" t="s">
-        <v>359</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="H45" s="90" t="s">
+        <v>473</v>
+      </c>
+      <c r="I45" s="90"/>
+      <c r="J45" s="69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F46" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="74" t="s">
+        <v>498</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F47" s="74" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>363</v>
-      </c>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="69"/>
-    </row>
-    <row r="48" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>499</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="86"/>
       <c r="B48" s="86"/>
       <c r="D48" s="86"/>
-      <c r="F48" s="74" t="s">
-        <v>362</v>
-      </c>
-      <c r="G48" s="74" t="s">
-        <v>364</v>
-      </c>
       <c r="H48" s="86"/>
       <c r="I48" s="86"/>
       <c r="J48" s="69"/>
@@ -9303,15 +10008,23 @@
       <c r="L48" s="86"/>
       <c r="M48" s="69"/>
     </row>
-    <row r="49" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" s="74" customFormat="1" ht="99" x14ac:dyDescent="0.35">
       <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
+      <c r="B49" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="74" t="s">
+        <v>345</v>
+      </c>
       <c r="D49" s="86"/>
+      <c r="E49" s="74" t="s">
+        <v>346</v>
+      </c>
       <c r="F49" s="74" t="s">
-        <v>422</v>
+        <v>348</v>
       </c>
       <c r="G49" s="74" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="H49" s="86"/>
       <c r="I49" s="86"/>
@@ -9320,119 +10033,135 @@
       <c r="L49" s="86"/>
       <c r="M49" s="69"/>
     </row>
-    <row r="50" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="86"/>
       <c r="B50" s="86"/>
       <c r="D50" s="86"/>
       <c r="F50" s="74" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H50" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H50" s="86" t="s">
+        <v>95</v>
+      </c>
       <c r="I50" s="86"/>
       <c r="J50" s="69"/>
       <c r="K50" s="86"/>
       <c r="L50" s="86"/>
       <c r="M50" s="69"/>
     </row>
-    <row r="51" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="86"/>
       <c r="B51" s="86"/>
       <c r="D51" s="86"/>
       <c r="F51" s="74" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H51" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H51" s="86" t="s">
+        <v>490</v>
+      </c>
       <c r="I51" s="86"/>
       <c r="J51" s="69"/>
       <c r="K51" s="86"/>
       <c r="L51" s="86"/>
       <c r="M51" s="69"/>
     </row>
-    <row r="52" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="86"/>
       <c r="B52" s="86"/>
       <c r="D52" s="86"/>
       <c r="F52" s="74" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="G52" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H52" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H52" s="90" t="s">
+        <v>490</v>
+      </c>
       <c r="I52" s="86"/>
       <c r="J52" s="69"/>
       <c r="K52" s="86"/>
       <c r="L52" s="86"/>
       <c r="M52" s="69"/>
     </row>
-    <row r="53" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="86"/>
       <c r="B53" s="86"/>
       <c r="D53" s="86"/>
       <c r="F53" s="74" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="G53" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H53" s="90" t="s">
+        <v>472</v>
+      </c>
+      <c r="I53" s="85" t="s">
+        <v>482</v>
+      </c>
       <c r="J53" s="69"/>
       <c r="K53" s="86"/>
       <c r="L53" s="86"/>
       <c r="M53" s="69"/>
     </row>
-    <row r="54" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="86"/>
       <c r="B54" s="86"/>
       <c r="D54" s="86"/>
       <c r="F54" s="74" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="G54" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H54" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H54" s="86" t="s">
+        <v>465</v>
+      </c>
       <c r="I54" s="86"/>
       <c r="J54" s="69"/>
       <c r="K54" s="86"/>
       <c r="L54" s="86"/>
       <c r="M54" s="69"/>
     </row>
-    <row r="55" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="86"/>
       <c r="B55" s="86"/>
       <c r="D55" s="86"/>
       <c r="F55" s="74" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="G55" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H55" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H55" s="90" t="s">
+        <v>465</v>
+      </c>
       <c r="I55" s="86"/>
       <c r="J55" s="69"/>
       <c r="K55" s="86"/>
       <c r="L55" s="86"/>
       <c r="M55" s="69"/>
     </row>
-    <row r="56" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="86"/>
       <c r="B56" s="86"/>
       <c r="D56" s="86"/>
       <c r="F56" s="74" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="G56" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H56" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H56" s="90" t="s">
+        <v>465</v>
+      </c>
       <c r="I56" s="86"/>
       <c r="J56" s="69"/>
       <c r="K56" s="86"/>
@@ -9444,12 +10173,14 @@
       <c r="B57" s="86"/>
       <c r="D57" s="86"/>
       <c r="F57" s="74" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="G57" s="74" t="s">
-        <v>447</v>
-      </c>
-      <c r="H57" s="86"/>
+        <v>423</v>
+      </c>
+      <c r="H57" s="86" t="s">
+        <v>95</v>
+      </c>
       <c r="I57" s="86"/>
       <c r="J57" s="69"/>
       <c r="K57" s="86"/>
@@ -9461,12 +10192,14 @@
       <c r="B58" s="86"/>
       <c r="D58" s="86"/>
       <c r="F58" s="74" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="G58" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="H58" s="86"/>
+        <v>422</v>
+      </c>
+      <c r="H58" s="86" t="s">
+        <v>465</v>
+      </c>
       <c r="I58" s="86"/>
       <c r="J58" s="69"/>
       <c r="K58" s="86"/>
@@ -9478,12 +10211,14 @@
       <c r="B59" s="86"/>
       <c r="D59" s="86"/>
       <c r="F59" s="74" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="G59" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="H59" s="86"/>
+        <v>421</v>
+      </c>
+      <c r="H59" s="86" t="s">
+        <v>465</v>
+      </c>
       <c r="I59" s="86"/>
       <c r="K59" s="86"/>
       <c r="L59" s="86"/>
@@ -9494,12 +10229,14 @@
       <c r="B60" s="87"/>
       <c r="D60" s="87"/>
       <c r="F60" s="74" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="G60" s="74" t="s">
-        <v>444</v>
-      </c>
-      <c r="H60" s="87"/>
+        <v>420</v>
+      </c>
+      <c r="H60" s="87" t="s">
+        <v>95</v>
+      </c>
       <c r="I60" s="87"/>
       <c r="J60" s="69"/>
       <c r="K60" s="87"/>
@@ -9511,12 +10248,14 @@
       <c r="B61" s="88"/>
       <c r="D61" s="88"/>
       <c r="F61" s="74" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="G61" s="74" t="s">
-        <v>481</v>
-      </c>
-      <c r="H61" s="88"/>
+        <v>440</v>
+      </c>
+      <c r="H61" s="88" t="s">
+        <v>465</v>
+      </c>
       <c r="I61" s="88"/>
       <c r="J61" s="69"/>
       <c r="K61" s="88"/>
@@ -9528,12 +10267,14 @@
       <c r="B62" s="87"/>
       <c r="D62" s="87"/>
       <c r="F62" s="74" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="G62" s="74" t="s">
-        <v>443</v>
-      </c>
-      <c r="H62" s="87"/>
+        <v>419</v>
+      </c>
+      <c r="H62" s="87" t="s">
+        <v>491</v>
+      </c>
       <c r="I62" s="87"/>
       <c r="J62" s="69"/>
       <c r="K62" s="87"/>
@@ -9545,12 +10286,14 @@
       <c r="B63" s="87"/>
       <c r="D63" s="87"/>
       <c r="F63" s="74" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="G63" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H63" s="87"/>
+        <v>350</v>
+      </c>
+      <c r="H63" s="87" t="s">
+        <v>492</v>
+      </c>
       <c r="I63" s="87"/>
       <c r="J63" s="69"/>
       <c r="K63" s="87"/>
@@ -9562,12 +10305,14 @@
       <c r="B64" s="87"/>
       <c r="D64" s="87"/>
       <c r="F64" s="74" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="G64" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H64" s="87"/>
+        <v>350</v>
+      </c>
+      <c r="H64" s="87" t="s">
+        <v>493</v>
+      </c>
       <c r="I64" s="87"/>
       <c r="J64" s="69"/>
       <c r="K64" s="87"/>
@@ -9579,12 +10324,14 @@
       <c r="B65" s="87"/>
       <c r="D65" s="87"/>
       <c r="F65" s="74" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="G65" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="H65" s="87"/>
+        <v>418</v>
+      </c>
+      <c r="H65" s="87" t="s">
+        <v>492</v>
+      </c>
       <c r="I65" s="87"/>
       <c r="J65" s="69"/>
       <c r="K65" s="87"/>
@@ -9596,12 +10343,14 @@
       <c r="B66" s="87"/>
       <c r="D66" s="87"/>
       <c r="F66" s="74" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="G66" s="74" t="s">
-        <v>441</v>
-      </c>
-      <c r="H66" s="87"/>
+        <v>417</v>
+      </c>
+      <c r="H66" s="87" t="s">
+        <v>95</v>
+      </c>
       <c r="I66" s="87"/>
       <c r="J66" s="69"/>
       <c r="K66" s="87"/>
@@ -9613,12 +10362,14 @@
       <c r="B67" s="87"/>
       <c r="D67" s="87"/>
       <c r="F67" s="74" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="G67" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="H67" s="87"/>
+        <v>385</v>
+      </c>
+      <c r="H67" s="87" t="s">
+        <v>95</v>
+      </c>
       <c r="I67" s="87"/>
       <c r="J67" s="69"/>
       <c r="K67" s="87"/>
@@ -9630,12 +10381,14 @@
       <c r="B68" s="87"/>
       <c r="D68" s="87"/>
       <c r="F68" s="74" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="G68" s="74" t="s">
-        <v>402</v>
-      </c>
-      <c r="H68" s="87"/>
+        <v>386</v>
+      </c>
+      <c r="H68" s="87" t="s">
+        <v>95</v>
+      </c>
       <c r="I68" s="87"/>
       <c r="J68" s="69"/>
       <c r="K68" s="87"/>
@@ -9657,7 +10410,7 @@
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="66" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D71" s="44"/>
       <c r="H71" s="44"/>
@@ -9672,7 +10425,7 @@
       <c r="B72" s="86"/>
       <c r="D72" s="86"/>
       <c r="E72" s="73" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="H72" s="86"/>
       <c r="I72" s="86"/>
@@ -9686,7 +10439,7 @@
       <c r="B73" s="86"/>
       <c r="D73" s="86"/>
       <c r="E73" s="73" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="H73" s="86"/>
       <c r="I73" s="86"/>
@@ -9700,7 +10453,7 @@
       <c r="B74" s="86"/>
       <c r="D74" s="86"/>
       <c r="E74" s="73" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="H74" s="86"/>
       <c r="I74" s="86"/>
@@ -9714,7 +10467,7 @@
       <c r="B75" s="86"/>
       <c r="D75" s="86"/>
       <c r="E75" s="73" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="H75" s="86"/>
       <c r="I75" s="86"/>
@@ -9726,22 +10479,24 @@
     <row r="76" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="86"/>
       <c r="B76" s="86" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C76" s="74" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D76" s="86"/>
       <c r="E76" s="74" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="F76" s="74" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G76" s="74" t="s">
-        <v>368</v>
-      </c>
-      <c r="H76" s="86"/>
+        <v>354</v>
+      </c>
+      <c r="H76" s="90" t="s">
+        <v>95</v>
+      </c>
       <c r="I76" s="86"/>
       <c r="J76" s="69"/>
       <c r="K76" s="86"/>
@@ -9753,12 +10508,14 @@
       <c r="B77" s="86"/>
       <c r="D77" s="86"/>
       <c r="F77" s="74" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G77" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="H77" s="86"/>
+        <v>355</v>
+      </c>
+      <c r="H77" s="90" t="s">
+        <v>95</v>
+      </c>
       <c r="I77" s="86"/>
       <c r="J77" s="69"/>
       <c r="K77" s="86"/>
@@ -9770,12 +10527,14 @@
       <c r="B78" s="86"/>
       <c r="D78" s="86"/>
       <c r="F78" s="74" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G78" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="H78" s="86"/>
+        <v>356</v>
+      </c>
+      <c r="H78" s="90" t="s">
+        <v>95</v>
+      </c>
       <c r="I78" s="86"/>
       <c r="J78" s="69"/>
       <c r="K78" s="86"/>
@@ -9799,22 +10558,24 @@
         <v>24</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D80" s="86"/>
       <c r="E80" s="74" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F80" s="74" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G80" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="H80" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="I80" s="86"/>
+        <v>359</v>
+      </c>
+      <c r="H80" s="90" t="s">
+        <v>472</v>
+      </c>
+      <c r="I80" s="85" t="s">
+        <v>482</v>
+      </c>
       <c r="J80" s="69"/>
       <c r="K80" s="86"/>
       <c r="L80" s="86"/>
@@ -9825,14 +10586,12 @@
       <c r="B81" s="86"/>
       <c r="D81" s="86"/>
       <c r="F81" s="74" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G81" s="74" t="s">
-        <v>374</v>
-      </c>
-      <c r="H81" s="86" t="s">
-        <v>98</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="H81" s="86"/>
       <c r="I81" s="86"/>
       <c r="J81" s="69"/>
       <c r="K81" s="86"/>
@@ -9844,14 +10603,12 @@
       <c r="B82" s="86"/>
       <c r="D82" s="86"/>
       <c r="F82" s="74" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G82" s="74" t="s">
-        <v>375</v>
-      </c>
-      <c r="H82" s="86" t="s">
-        <v>98</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="H82" s="86"/>
       <c r="I82" s="86"/>
       <c r="J82" s="69"/>
       <c r="K82" s="86"/>
@@ -9863,14 +10620,12 @@
       <c r="B83" s="86"/>
       <c r="D83" s="86"/>
       <c r="F83" s="74" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G83" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="H83" s="86" t="s">
-        <v>98</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="H83" s="86"/>
       <c r="I83" s="86"/>
       <c r="J83" s="69"/>
       <c r="K83" s="86"/>
@@ -9882,10 +10637,10 @@
       <c r="B84" s="86"/>
       <c r="D84" s="86"/>
       <c r="F84" s="74" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G84" s="74" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="H84" s="86"/>
       <c r="I84" s="86"/>
@@ -9908,20 +10663,20 @@
     <row r="86" spans="1:13" s="74" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A86" s="86"/>
       <c r="B86" s="86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86" s="74" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D86" s="86"/>
       <c r="E86" s="74" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G86" s="74" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
       <c r="H86" s="86"/>
       <c r="I86" s="86"/>
@@ -9935,13 +10690,15 @@
       <c r="B87" s="86"/>
       <c r="D87" s="86"/>
       <c r="F87" s="74" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G87" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="H87" s="86"/>
-      <c r="I87" s="86"/>
+        <v>495</v>
+      </c>
+      <c r="H87" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I87" s="90"/>
       <c r="J87" s="69"/>
       <c r="K87" s="86"/>
       <c r="L87" s="86"/>
@@ -9952,13 +10709,15 @@
       <c r="B88" s="86"/>
       <c r="D88" s="86"/>
       <c r="F88" s="74" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G88" s="74" t="s">
-        <v>348</v>
-      </c>
-      <c r="H88" s="86"/>
-      <c r="I88" s="86"/>
+        <v>496</v>
+      </c>
+      <c r="H88" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="I88" s="90"/>
       <c r="J88" s="69"/>
       <c r="K88" s="86"/>
       <c r="L88" s="86"/>
@@ -9969,14 +10728,18 @@
       <c r="B89" s="86"/>
       <c r="D89" s="86"/>
       <c r="F89" s="74" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G89" s="74" t="s">
-        <v>352</v>
-      </c>
-      <c r="H89" s="86"/>
-      <c r="I89" s="86"/>
-      <c r="J89" s="69"/>
+        <v>497</v>
+      </c>
+      <c r="H89" s="90" t="s">
+        <v>473</v>
+      </c>
+      <c r="I89" s="90"/>
+      <c r="J89" s="69" t="s">
+        <v>474</v>
+      </c>
       <c r="K89" s="86"/>
       <c r="L89" s="86"/>
       <c r="M89" s="69"/>
@@ -9986,13 +10749,15 @@
       <c r="B90" s="86"/>
       <c r="D90" s="86"/>
       <c r="F90" s="74" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="G90" s="74" t="s">
-        <v>356</v>
-      </c>
-      <c r="H90" s="86"/>
-      <c r="I90" s="86"/>
+        <v>498</v>
+      </c>
+      <c r="H90" s="90" t="s">
+        <v>475</v>
+      </c>
+      <c r="I90" s="90"/>
       <c r="J90" s="69"/>
       <c r="K90" s="86"/>
       <c r="L90" s="86"/>
@@ -10003,13 +10768,15 @@
       <c r="B91" s="86"/>
       <c r="D91" s="86"/>
       <c r="F91" s="74" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="H91" s="86"/>
-      <c r="I91" s="86"/>
+        <v>499</v>
+      </c>
+      <c r="H91" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="I91" s="90"/>
       <c r="J91" s="69"/>
       <c r="K91" s="86"/>
       <c r="L91" s="86"/>
@@ -10029,20 +10796,20 @@
     <row r="93" spans="1:13" s="74" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A93" s="86"/>
       <c r="B93" s="86" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C93" s="74" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="D93" s="86"/>
       <c r="E93" s="74" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="G93" s="74" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="H93" s="86"/>
       <c r="I93" s="86"/>
@@ -10051,153 +10818,173 @@
       <c r="L93" s="86"/>
       <c r="M93" s="69"/>
     </row>
-    <row r="94" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="86"/>
       <c r="B94" s="86"/>
       <c r="D94" s="86"/>
       <c r="F94" s="74" t="s">
-        <v>380</v>
+        <v>483</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>379</v>
-      </c>
-      <c r="H94" s="86"/>
+        <v>365</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>95</v>
+      </c>
       <c r="I94" s="86"/>
       <c r="J94" s="69"/>
       <c r="K94" s="86"/>
       <c r="L94" s="86"/>
       <c r="M94" s="69"/>
     </row>
-    <row r="95" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="86"/>
       <c r="B95" s="86"/>
       <c r="D95" s="86"/>
       <c r="F95" s="74" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="G95" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H95" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H95" s="86" t="s">
+        <v>95</v>
+      </c>
       <c r="I95" s="86"/>
       <c r="J95" s="69"/>
       <c r="K95" s="86"/>
       <c r="L95" s="86"/>
       <c r="M95" s="69"/>
     </row>
-    <row r="96" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="86"/>
       <c r="B96" s="86"/>
       <c r="D96" s="86"/>
       <c r="F96" s="74" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="G96" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H96" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H96" s="86" t="s">
+        <v>95</v>
+      </c>
       <c r="I96" s="86"/>
       <c r="J96" s="69"/>
       <c r="K96" s="86"/>
       <c r="L96" s="86"/>
       <c r="M96" s="69"/>
     </row>
-    <row r="97" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="86"/>
       <c r="B97" s="86"/>
       <c r="D97" s="86"/>
       <c r="F97" s="74" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G97" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H97" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H97" s="86" t="s">
+        <v>95</v>
+      </c>
       <c r="I97" s="86"/>
       <c r="J97" s="69"/>
       <c r="K97" s="86"/>
       <c r="L97" s="86"/>
       <c r="M97" s="69"/>
     </row>
-    <row r="98" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="86"/>
       <c r="B98" s="86"/>
       <c r="D98" s="86"/>
       <c r="F98" s="74" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="G98" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H98" s="86"/>
-      <c r="I98" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H98" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="I98" s="90"/>
       <c r="J98" s="69"/>
       <c r="K98" s="86"/>
       <c r="L98" s="86"/>
       <c r="M98" s="69"/>
     </row>
-    <row r="99" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="86"/>
       <c r="B99" s="86"/>
       <c r="D99" s="86"/>
       <c r="F99" s="74" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="G99" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H99" s="86"/>
-      <c r="I99" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H99" s="90" t="s">
+        <v>472</v>
+      </c>
+      <c r="I99" s="85" t="s">
+        <v>482</v>
+      </c>
       <c r="J99" s="69"/>
       <c r="K99" s="86"/>
       <c r="L99" s="86"/>
       <c r="M99" s="69"/>
     </row>
-    <row r="100" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="86"/>
       <c r="B100" s="86"/>
       <c r="D100" s="86"/>
       <c r="F100" s="74" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="G100" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H100" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H100" s="90" t="s">
+        <v>465</v>
+      </c>
       <c r="I100" s="86"/>
       <c r="J100" s="69"/>
       <c r="K100" s="86"/>
       <c r="L100" s="86"/>
       <c r="M100" s="69"/>
     </row>
-    <row r="101" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="86"/>
       <c r="B101" s="86"/>
       <c r="D101" s="86"/>
       <c r="F101" s="74" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
       <c r="G101" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H101" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H101" s="90" t="s">
+        <v>465</v>
+      </c>
       <c r="I101" s="86"/>
       <c r="J101" s="69"/>
       <c r="K101" s="86"/>
       <c r="L101" s="86"/>
       <c r="M101" s="69"/>
     </row>
-    <row r="102" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="86"/>
       <c r="B102" s="86"/>
       <c r="D102" s="86"/>
       <c r="F102" s="74" t="s">
-        <v>455</v>
+        <v>503</v>
       </c>
       <c r="G102" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H102" s="86"/>
+        <v>350</v>
+      </c>
+      <c r="H102" s="90" t="s">
+        <v>465</v>
+      </c>
       <c r="I102" s="86"/>
       <c r="J102" s="69"/>
       <c r="K102" s="86"/>
@@ -10209,66 +10996,71 @@
       <c r="B103" s="86"/>
       <c r="D103" s="86"/>
       <c r="F103" s="74" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H103" s="86"/>
+        <v>425</v>
+      </c>
+      <c r="H103" s="86" t="s">
+        <v>505</v>
+      </c>
       <c r="I103" s="86"/>
-      <c r="J103" s="69"/>
       <c r="K103" s="86"/>
       <c r="L103" s="86"/>
       <c r="M103" s="69"/>
     </row>
     <row r="104" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A104" s="86"/>
-      <c r="B104" s="86"/>
-      <c r="D104" s="86"/>
+      <c r="A104" s="87"/>
+      <c r="B104" s="87"/>
+      <c r="D104" s="87"/>
       <c r="F104" s="74" t="s">
-        <v>457</v>
+        <v>387</v>
       </c>
       <c r="G104" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H104" s="86"/>
-      <c r="I104" s="86"/>
-      <c r="J104" s="69"/>
-      <c r="K104" s="86"/>
-      <c r="L104" s="86"/>
+        <v>388</v>
+      </c>
+      <c r="H104" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="I104" s="87"/>
+      <c r="K104" s="87"/>
+      <c r="L104" s="87"/>
       <c r="M104" s="69"/>
     </row>
     <row r="105" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A105" s="86"/>
-      <c r="B105" s="86"/>
-      <c r="D105" s="86"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="87"/>
+      <c r="D105" s="87"/>
       <c r="F105" s="74" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H105" s="86"/>
-      <c r="I105" s="86"/>
-      <c r="J105" s="69"/>
-      <c r="K105" s="86"/>
-      <c r="L105" s="86"/>
+        <v>390</v>
+      </c>
+      <c r="H105" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="I105" s="87"/>
+      <c r="K105" s="87"/>
+      <c r="L105" s="87"/>
       <c r="M105" s="69"/>
     </row>
     <row r="106" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A106" s="86"/>
-      <c r="B106" s="86"/>
-      <c r="D106" s="86"/>
+      <c r="A106" s="87"/>
+      <c r="B106" s="87"/>
+      <c r="D106" s="87"/>
       <c r="F106" s="74" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>460</v>
-      </c>
-      <c r="H106" s="86"/>
-      <c r="I106" s="86"/>
-      <c r="K106" s="86"/>
-      <c r="L106" s="86"/>
+        <v>392</v>
+      </c>
+      <c r="H106" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="I106" s="87"/>
+      <c r="K106" s="87"/>
+      <c r="L106" s="87"/>
       <c r="M106" s="69"/>
     </row>
     <row r="107" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10276,12 +11068,14 @@
       <c r="B107" s="87"/>
       <c r="D107" s="87"/>
       <c r="F107" s="74" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G107" s="74" t="s">
-        <v>404</v>
-      </c>
-      <c r="H107" s="87"/>
+        <v>394</v>
+      </c>
+      <c r="H107" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="I107" s="87"/>
       <c r="K107" s="87"/>
       <c r="L107" s="87"/>
@@ -10292,31 +11086,35 @@
       <c r="B108" s="87"/>
       <c r="D108" s="87"/>
       <c r="F108" s="74" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G108" s="74" t="s">
-        <v>406</v>
-      </c>
-      <c r="H108" s="87"/>
+        <v>396</v>
+      </c>
+      <c r="H108" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="I108" s="87"/>
       <c r="K108" s="87"/>
       <c r="L108" s="87"/>
       <c r="M108" s="69"/>
     </row>
     <row r="109" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A109" s="87"/>
-      <c r="B109" s="87"/>
-      <c r="D109" s="87"/>
+      <c r="A109" s="88"/>
+      <c r="B109" s="88"/>
+      <c r="D109" s="88"/>
       <c r="F109" s="74" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="G109" s="74" t="s">
-        <v>408</v>
-      </c>
-      <c r="H109" s="87"/>
-      <c r="I109" s="87"/>
-      <c r="K109" s="87"/>
-      <c r="L109" s="87"/>
+        <v>442</v>
+      </c>
+      <c r="H109" s="88" t="s">
+        <v>465</v>
+      </c>
+      <c r="I109" s="88"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="88"/>
       <c r="M109" s="69"/>
     </row>
     <row r="110" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10324,12 +11122,14 @@
       <c r="B110" s="87"/>
       <c r="D110" s="87"/>
       <c r="F110" s="74" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G110" s="74" t="s">
-        <v>410</v>
-      </c>
-      <c r="H110" s="87"/>
+        <v>350</v>
+      </c>
+      <c r="H110" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="I110" s="87"/>
       <c r="K110" s="87"/>
       <c r="L110" s="87"/>
@@ -10340,31 +11140,35 @@
       <c r="B111" s="87"/>
       <c r="D111" s="87"/>
       <c r="F111" s="74" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G111" s="74" t="s">
-        <v>412</v>
-      </c>
-      <c r="H111" s="87"/>
+        <v>350</v>
+      </c>
+      <c r="H111" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="I111" s="87"/>
       <c r="K111" s="87"/>
       <c r="L111" s="87"/>
       <c r="M111" s="69"/>
     </row>
     <row r="112" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A112" s="88"/>
-      <c r="B112" s="88"/>
-      <c r="D112" s="88"/>
+      <c r="A112" s="87"/>
+      <c r="B112" s="87"/>
+      <c r="D112" s="87"/>
       <c r="F112" s="74" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="G112" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="H112" s="88"/>
-      <c r="I112" s="88"/>
-      <c r="K112" s="88"/>
-      <c r="L112" s="88"/>
+        <v>400</v>
+      </c>
+      <c r="H112" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="I112" s="87"/>
+      <c r="K112" s="87"/>
+      <c r="L112" s="87"/>
       <c r="M112" s="69"/>
     </row>
     <row r="113" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -10372,12 +11176,14 @@
       <c r="B113" s="87"/>
       <c r="D113" s="87"/>
       <c r="F113" s="74" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G113" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H113" s="87"/>
+        <v>402</v>
+      </c>
+      <c r="H113" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="I113" s="87"/>
       <c r="K113" s="87"/>
       <c r="L113" s="87"/>
@@ -10388,12 +11194,14 @@
       <c r="B114" s="87"/>
       <c r="D114" s="87"/>
       <c r="F114" s="74" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G114" s="74" t="s">
-        <v>364</v>
-      </c>
-      <c r="H114" s="87"/>
+        <v>400</v>
+      </c>
+      <c r="H114" s="87" t="s">
+        <v>465</v>
+      </c>
       <c r="I114" s="87"/>
       <c r="K114" s="87"/>
       <c r="L114" s="87"/>
@@ -10404,95 +11212,91 @@
       <c r="B115" s="87"/>
       <c r="D115" s="87"/>
       <c r="F115" s="74" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G115" s="74" t="s">
-        <v>416</v>
-      </c>
-      <c r="H115" s="87"/>
+        <v>396</v>
+      </c>
+      <c r="H115" s="87" t="s">
+        <v>507</v>
+      </c>
       <c r="I115" s="87"/>
       <c r="K115" s="87"/>
       <c r="L115" s="87"/>
       <c r="M115" s="69"/>
     </row>
-    <row r="116" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="87"/>
       <c r="B116" s="87"/>
       <c r="D116" s="87"/>
-      <c r="F116" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="G116" s="74" t="s">
-        <v>418</v>
-      </c>
       <c r="H116" s="87"/>
       <c r="I116" s="87"/>
       <c r="K116" s="87"/>
       <c r="L116" s="87"/>
       <c r="M116" s="69"/>
     </row>
-    <row r="117" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A117" s="87"/>
-      <c r="B117" s="87"/>
-      <c r="D117" s="87"/>
-      <c r="F117" s="74" t="s">
-        <v>419</v>
-      </c>
-      <c r="G117" s="74" t="s">
-        <v>416</v>
-      </c>
-      <c r="H117" s="87"/>
-      <c r="I117" s="87"/>
-      <c r="K117" s="87"/>
-      <c r="L117" s="87"/>
-      <c r="M117" s="69"/>
-    </row>
-    <row r="118" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A118" s="87"/>
-      <c r="B118" s="87"/>
-      <c r="D118" s="87"/>
-      <c r="F118" s="74" t="s">
-        <v>420</v>
-      </c>
-      <c r="G118" s="74" t="s">
-        <v>412</v>
-      </c>
-      <c r="H118" s="87"/>
-      <c r="I118" s="87"/>
-      <c r="K118" s="87"/>
-      <c r="L118" s="87"/>
+    <row r="117" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="44"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="46"/>
+    </row>
+    <row r="118" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="86"/>
+      <c r="B118" s="86"/>
+      <c r="D118" s="86"/>
+      <c r="E118" s="73" t="s">
+        <v>372</v>
+      </c>
+      <c r="H118" s="86"/>
+      <c r="I118" s="86"/>
+      <c r="J118" s="69"/>
+      <c r="K118" s="86"/>
+      <c r="L118" s="86"/>
       <c r="M118" s="69"/>
     </row>
     <row r="119" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="87"/>
-      <c r="B119" s="87"/>
-      <c r="D119" s="87"/>
-      <c r="H119" s="87"/>
-      <c r="I119" s="87"/>
-      <c r="K119" s="87"/>
-      <c r="L119" s="87"/>
+      <c r="A119" s="86"/>
+      <c r="B119" s="86"/>
+      <c r="D119" s="86"/>
+      <c r="E119" s="73" t="s">
+        <v>351</v>
+      </c>
+      <c r="H119" s="86"/>
+      <c r="I119" s="86"/>
+      <c r="J119" s="69"/>
+      <c r="K119" s="86"/>
+      <c r="L119" s="86"/>
       <c r="M119" s="69"/>
     </row>
-    <row r="120" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="44"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D120" s="44"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="46"/>
-      <c r="K120" s="44"/>
-      <c r="L120" s="44"/>
-      <c r="M120" s="46"/>
+    <row r="120" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="86"/>
+      <c r="B120" s="86"/>
+      <c r="D120" s="86"/>
+      <c r="E120" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="H120" s="86"/>
+      <c r="I120" s="86"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="86"/>
+      <c r="L120" s="86"/>
+      <c r="M120" s="69"/>
     </row>
     <row r="121" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="86"/>
       <c r="B121" s="86"/>
       <c r="D121" s="86"/>
       <c r="E121" s="73" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="H121" s="86"/>
       <c r="I121" s="86"/>
@@ -10503,13 +11307,26 @@
     </row>
     <row r="122" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="86"/>
-      <c r="B122" s="86"/>
+      <c r="B122" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C122" s="74" t="s">
+        <v>352</v>
+      </c>
       <c r="D122" s="86"/>
-      <c r="E122" s="73" t="s">
-        <v>365</v>
-      </c>
-      <c r="H122" s="86"/>
-      <c r="I122" s="86"/>
+      <c r="E122" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="F122" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="G122" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="H122" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I122" s="90"/>
       <c r="J122" s="69"/>
       <c r="K122" s="86"/>
       <c r="L122" s="86"/>
@@ -10519,11 +11336,16 @@
       <c r="A123" s="86"/>
       <c r="B123" s="86"/>
       <c r="D123" s="86"/>
-      <c r="E123" s="73" t="s">
-        <v>382</v>
-      </c>
-      <c r="H123" s="86"/>
-      <c r="I123" s="86"/>
+      <c r="F123" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="G123" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="H123" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I123" s="90"/>
       <c r="J123" s="69"/>
       <c r="K123" s="86"/>
       <c r="L123" s="86"/>
@@ -10533,11 +11355,16 @@
       <c r="A124" s="86"/>
       <c r="B124" s="86"/>
       <c r="D124" s="86"/>
-      <c r="E124" s="73" t="s">
-        <v>383</v>
-      </c>
-      <c r="H124" s="86"/>
-      <c r="I124" s="86"/>
+      <c r="F124" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="G124" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="H124" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I124" s="90"/>
       <c r="J124" s="69"/>
       <c r="K124" s="86"/>
       <c r="L124" s="86"/>
@@ -10545,24 +11372,10 @@
     </row>
     <row r="125" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="86"/>
-      <c r="B125" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C125" s="74" t="s">
-        <v>366</v>
-      </c>
+      <c r="B125" s="86"/>
       <c r="D125" s="86"/>
-      <c r="E125" s="74" t="s">
-        <v>367</v>
-      </c>
-      <c r="F125" s="74" t="s">
-        <v>384</v>
-      </c>
-      <c r="G125" s="74" t="s">
-        <v>368</v>
-      </c>
-      <c r="H125" s="86"/>
-      <c r="I125" s="86"/>
+      <c r="H125" s="90"/>
+      <c r="I125" s="90"/>
       <c r="J125" s="69"/>
       <c r="K125" s="86"/>
       <c r="L125" s="86"/>
@@ -10570,16 +11383,28 @@
     </row>
     <row r="126" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="86"/>
-      <c r="B126" s="86"/>
+      <c r="B126" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="74" t="s">
+        <v>357</v>
+      </c>
       <c r="D126" s="86"/>
+      <c r="E126" s="74" t="s">
+        <v>358</v>
+      </c>
       <c r="F126" s="74" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G126" s="74" t="s">
-        <v>369</v>
-      </c>
-      <c r="H126" s="86"/>
-      <c r="I126" s="86"/>
+        <v>359</v>
+      </c>
+      <c r="H126" s="90" t="s">
+        <v>472</v>
+      </c>
+      <c r="I126" s="85" t="s">
+        <v>482</v>
+      </c>
       <c r="J126" s="69"/>
       <c r="K126" s="86"/>
       <c r="L126" s="86"/>
@@ -10590,10 +11415,10 @@
       <c r="B127" s="86"/>
       <c r="D127" s="86"/>
       <c r="F127" s="74" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G127" s="74" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H127" s="86"/>
       <c r="I127" s="86"/>
@@ -10606,6 +11431,12 @@
       <c r="A128" s="86"/>
       <c r="B128" s="86"/>
       <c r="D128" s="86"/>
+      <c r="F128" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="G128" s="74" t="s">
+        <v>361</v>
+      </c>
       <c r="H128" s="86"/>
       <c r="I128" s="86"/>
       <c r="J128" s="69"/>
@@ -10615,25 +11446,15 @@
     </row>
     <row r="129" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="86"/>
-      <c r="B129" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="74" t="s">
-        <v>371</v>
-      </c>
+      <c r="B129" s="86"/>
       <c r="D129" s="86"/>
-      <c r="E129" s="74" t="s">
-        <v>372</v>
-      </c>
       <c r="F129" s="74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G129" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="H129" s="86" t="s">
-        <v>98</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="H129" s="86"/>
       <c r="I129" s="86"/>
       <c r="J129" s="69"/>
       <c r="K129" s="86"/>
@@ -10645,14 +11466,12 @@
       <c r="B130" s="86"/>
       <c r="D130" s="86"/>
       <c r="F130" s="74" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G130" s="74" t="s">
-        <v>374</v>
-      </c>
-      <c r="H130" s="86" t="s">
-        <v>98</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="H130" s="86"/>
       <c r="I130" s="86"/>
       <c r="J130" s="69"/>
       <c r="K130" s="86"/>
@@ -10663,35 +11482,33 @@
       <c r="A131" s="86"/>
       <c r="B131" s="86"/>
       <c r="D131" s="86"/>
-      <c r="F131" s="74" t="s">
-        <v>338</v>
-      </c>
-      <c r="G131" s="74" t="s">
-        <v>375</v>
-      </c>
-      <c r="H131" s="86" t="s">
-        <v>98</v>
-      </c>
+      <c r="H131" s="86"/>
       <c r="I131" s="86"/>
       <c r="J131" s="69"/>
       <c r="K131" s="86"/>
       <c r="L131" s="86"/>
       <c r="M131" s="69"/>
     </row>
-    <row r="132" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" s="74" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A132" s="86"/>
-      <c r="B132" s="86"/>
+      <c r="B132" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C132" s="74" t="s">
+        <v>335</v>
+      </c>
       <c r="D132" s="86"/>
+      <c r="E132" s="74" t="s">
+        <v>336</v>
+      </c>
       <c r="F132" s="74" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="G132" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="H132" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="I132" s="86"/>
+        <v>494</v>
+      </c>
+      <c r="H132" s="90"/>
+      <c r="I132" s="90"/>
       <c r="J132" s="69"/>
       <c r="K132" s="86"/>
       <c r="L132" s="86"/>
@@ -10702,13 +11519,15 @@
       <c r="B133" s="86"/>
       <c r="D133" s="86"/>
       <c r="F133" s="74" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G133" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="H133" s="86"/>
-      <c r="I133" s="86"/>
+        <v>495</v>
+      </c>
+      <c r="H133" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="I133" s="90"/>
       <c r="J133" s="69"/>
       <c r="K133" s="86"/>
       <c r="L133" s="86"/>
@@ -10718,34 +11537,38 @@
       <c r="A134" s="86"/>
       <c r="B134" s="86"/>
       <c r="D134" s="86"/>
-      <c r="H134" s="86"/>
-      <c r="I134" s="86"/>
+      <c r="F134" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="G134" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="H134" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="I134" s="90"/>
       <c r="J134" s="69"/>
       <c r="K134" s="86"/>
       <c r="L134" s="86"/>
       <c r="M134" s="69"/>
     </row>
-    <row r="135" spans="1:13" s="74" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="86"/>
-      <c r="B135" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C135" s="74" t="s">
-        <v>343</v>
-      </c>
+      <c r="B135" s="86"/>
       <c r="D135" s="86"/>
-      <c r="E135" s="74" t="s">
-        <v>344</v>
-      </c>
       <c r="F135" s="74" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="G135" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="H135" s="86"/>
-      <c r="I135" s="86"/>
-      <c r="J135" s="69"/>
+        <v>497</v>
+      </c>
+      <c r="H135" s="90" t="s">
+        <v>473</v>
+      </c>
+      <c r="I135" s="90"/>
+      <c r="J135" s="69" t="s">
+        <v>474</v>
+      </c>
       <c r="K135" s="86"/>
       <c r="L135" s="86"/>
       <c r="M135" s="69"/>
@@ -10755,30 +11578,34 @@
       <c r="B136" s="86"/>
       <c r="D136" s="86"/>
       <c r="F136" s="74" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G136" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="H136" s="86"/>
-      <c r="I136" s="86"/>
+        <v>498</v>
+      </c>
+      <c r="H136" s="90" t="s">
+        <v>475</v>
+      </c>
+      <c r="I136" s="90"/>
       <c r="J136" s="69"/>
       <c r="K136" s="86"/>
       <c r="L136" s="86"/>
       <c r="M136" s="69"/>
     </row>
-    <row r="137" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A137" s="86"/>
       <c r="B137" s="86"/>
       <c r="D137" s="86"/>
       <c r="F137" s="74" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G137" s="74" t="s">
-        <v>348</v>
-      </c>
-      <c r="H137" s="86"/>
-      <c r="I137" s="86"/>
+        <v>499</v>
+      </c>
+      <c r="H137" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="I137" s="90"/>
       <c r="J137" s="69"/>
       <c r="K137" s="86"/>
       <c r="L137" s="86"/>
@@ -10788,12 +11615,6 @@
       <c r="A138" s="86"/>
       <c r="B138" s="86"/>
       <c r="D138" s="86"/>
-      <c r="F138" s="74" t="s">
-        <v>351</v>
-      </c>
-      <c r="G138" s="74" t="s">
-        <v>352</v>
-      </c>
       <c r="H138" s="86"/>
       <c r="I138" s="86"/>
       <c r="J138" s="69"/>
@@ -10801,34 +11622,48 @@
       <c r="L138" s="86"/>
       <c r="M138" s="69"/>
     </row>
-    <row r="139" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" s="74" customFormat="1" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A139" s="86"/>
-      <c r="B139" s="86"/>
+      <c r="B139" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="C139" s="74" t="s">
+        <v>345</v>
+      </c>
       <c r="D139" s="86"/>
+      <c r="E139" s="74" t="s">
+        <v>346</v>
+      </c>
       <c r="F139" s="74" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G139" s="74" t="s">
-        <v>356</v>
-      </c>
-      <c r="H139" s="86"/>
-      <c r="I139" s="86"/>
+        <v>431</v>
+      </c>
+      <c r="H139" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="I139" s="85" t="s">
+        <v>509</v>
+      </c>
       <c r="J139" s="69"/>
       <c r="K139" s="86"/>
       <c r="L139" s="86"/>
       <c r="M139" s="69"/>
     </row>
-    <row r="140" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="86"/>
       <c r="B140" s="86"/>
       <c r="D140" s="86"/>
       <c r="F140" s="74" t="s">
-        <v>354</v>
+        <v>483</v>
       </c>
       <c r="G140" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="H140" s="86"/>
+        <v>432</v>
+      </c>
+      <c r="H140" s="86" t="s">
+        <v>510</v>
+      </c>
       <c r="I140" s="86"/>
       <c r="J140" s="69"/>
       <c r="K140" s="86"/>
@@ -10839,32 +11674,34 @@
       <c r="A141" s="86"/>
       <c r="B141" s="86"/>
       <c r="D141" s="86"/>
-      <c r="H141" s="86"/>
+      <c r="F141" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="G141" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="H141" s="90" t="s">
+        <v>510</v>
+      </c>
       <c r="I141" s="86"/>
       <c r="J141" s="69"/>
       <c r="K141" s="86"/>
       <c r="L141" s="86"/>
       <c r="M141" s="69"/>
     </row>
-    <row r="142" spans="1:13" s="74" customFormat="1" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="86"/>
-      <c r="B142" s="86" t="s">
-        <v>357</v>
-      </c>
-      <c r="C142" s="74" t="s">
-        <v>358</v>
-      </c>
+      <c r="B142" s="86"/>
       <c r="D142" s="86"/>
-      <c r="E142" s="74" t="s">
-        <v>359</v>
-      </c>
       <c r="F142" s="74" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="G142" s="74" t="s">
-        <v>472</v>
-      </c>
-      <c r="H142" s="86"/>
+        <v>432</v>
+      </c>
+      <c r="H142" s="90" t="s">
+        <v>510</v>
+      </c>
       <c r="I142" s="86"/>
       <c r="J142" s="69"/>
       <c r="K142" s="86"/>
@@ -10876,12 +11713,14 @@
       <c r="B143" s="86"/>
       <c r="D143" s="86"/>
       <c r="F143" s="74" t="s">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="G143" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H143" s="86"/>
+        <v>432</v>
+      </c>
+      <c r="H143" s="90" t="s">
+        <v>510</v>
+      </c>
       <c r="I143" s="86"/>
       <c r="J143" s="69"/>
       <c r="K143" s="86"/>
@@ -10893,29 +11732,33 @@
       <c r="B144" s="86"/>
       <c r="D144" s="86"/>
       <c r="F144" s="74" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="G144" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H144" s="86"/>
+        <v>432</v>
+      </c>
+      <c r="H144" s="90" t="s">
+        <v>510</v>
+      </c>
       <c r="I144" s="86"/>
       <c r="J144" s="69"/>
       <c r="K144" s="86"/>
       <c r="L144" s="86"/>
       <c r="M144" s="69"/>
     </row>
-    <row r="145" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A145" s="86"/>
       <c r="B145" s="86"/>
       <c r="D145" s="86"/>
       <c r="F145" s="74" t="s">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="G145" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H145" s="86"/>
+        <v>433</v>
+      </c>
+      <c r="H145" s="90" t="s">
+        <v>510</v>
+      </c>
       <c r="I145" s="86"/>
       <c r="J145" s="69"/>
       <c r="K145" s="86"/>
@@ -10927,149 +11770,80 @@
       <c r="B146" s="86"/>
       <c r="D146" s="86"/>
       <c r="F146" s="74" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="G146" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H146" s="86"/>
+        <v>434</v>
+      </c>
+      <c r="H146" s="90" t="s">
+        <v>510</v>
+      </c>
       <c r="I146" s="86"/>
-      <c r="J146" s="69"/>
       <c r="K146" s="86"/>
       <c r="L146" s="86"/>
       <c r="M146" s="69"/>
     </row>
-    <row r="147" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A147" s="86"/>
-      <c r="B147" s="86"/>
-      <c r="D147" s="86"/>
+    <row r="147" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F147" s="74" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="G147" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H147" s="86"/>
-      <c r="I147" s="86"/>
-      <c r="J147" s="69"/>
-      <c r="K147" s="86"/>
-      <c r="L147" s="86"/>
-      <c r="M147" s="69"/>
+        <v>435</v>
+      </c>
+      <c r="H147" s="90" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="148" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A148" s="86"/>
-      <c r="B148" s="86"/>
-      <c r="D148" s="86"/>
+      <c r="A148" s="88"/>
+      <c r="B148" s="88"/>
+      <c r="D148" s="88"/>
       <c r="F148" s="74" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="G148" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H148" s="86"/>
-      <c r="I148" s="86"/>
+        <v>444</v>
+      </c>
+      <c r="H148" s="90" t="s">
+        <v>510</v>
+      </c>
+      <c r="I148" s="88"/>
       <c r="J148" s="69"/>
-      <c r="K148" s="86"/>
-      <c r="L148" s="86"/>
+      <c r="K148" s="88"/>
+      <c r="L148" s="88"/>
       <c r="M148" s="69"/>
     </row>
-    <row r="149" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A149" s="86"/>
-      <c r="B149" s="86"/>
-      <c r="D149" s="86"/>
+    <row r="149" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F149" s="74" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="G149" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="H149" s="86"/>
-      <c r="I149" s="86"/>
-      <c r="J149" s="69"/>
-      <c r="K149" s="86"/>
-      <c r="L149" s="86"/>
-      <c r="M149" s="69"/>
-    </row>
-    <row r="150" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A150" s="86"/>
-      <c r="B150" s="86"/>
-      <c r="D150" s="86"/>
+        <v>436</v>
+      </c>
+      <c r="H149" s="90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F150" s="74" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="G150" s="74" t="s">
-        <v>474</v>
-      </c>
-      <c r="H150" s="86"/>
-      <c r="I150" s="86"/>
-      <c r="J150" s="69"/>
-      <c r="K150" s="86"/>
-      <c r="L150" s="86"/>
-      <c r="M150" s="69"/>
-    </row>
-    <row r="151" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A151" s="86"/>
-      <c r="B151" s="86"/>
-      <c r="D151" s="86"/>
+        <v>437</v>
+      </c>
+      <c r="H150" s="90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F151" s="74" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="G151" s="74" t="s">
-        <v>475</v>
-      </c>
-      <c r="H151" s="86"/>
-      <c r="I151" s="86"/>
-      <c r="K151" s="86"/>
-      <c r="L151" s="86"/>
-      <c r="M151" s="69"/>
-    </row>
-    <row r="152" spans="1:13" ht="33" x14ac:dyDescent="0.35">
-      <c r="F152" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="G152" s="74" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A153" s="88"/>
-      <c r="B153" s="88"/>
-      <c r="D153" s="88"/>
-      <c r="F153" s="74" t="s">
-        <v>484</v>
-      </c>
-      <c r="G153" s="74" t="s">
-        <v>485</v>
-      </c>
-      <c r="H153" s="88"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="69"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="88"/>
-      <c r="M153" s="69"/>
-    </row>
-    <row r="154" spans="1:13" ht="33" x14ac:dyDescent="0.35">
-      <c r="F154" s="74" t="s">
-        <v>471</v>
-      </c>
-      <c r="G154" s="74" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" ht="33" x14ac:dyDescent="0.35">
-      <c r="F155" s="74" t="s">
-        <v>470</v>
-      </c>
-      <c r="G155" s="74" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="33" x14ac:dyDescent="0.35">
-      <c r="F156" s="74" t="s">
-        <v>421</v>
-      </c>
-      <c r="G156" s="74" t="s">
-        <v>479</v>
+        <v>438</v>
+      </c>
+      <c r="H151" s="90" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -11078,208 +11852,349 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2 A2:D3 A19:E23 A17:G18 H17:IY23 F2:IY3 A24:IY25 A4:IY8 A9:H9 J9:IY9 A10:IY15 A26:D33 E27:E34 F26:IY33 E73:E119 A72:D119 A120:IY120 A157:IY65363 A152:E156 H152:IY156 A34:IY70 F72:IY119">
-    <cfRule type="cellIs" dxfId="49" priority="187" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:G20 F2:IY3 A26:IY27 A4:IY8 A9:H9 J9:IY9 A28:D35 E29:E36 A117:IY117 A152:IY65358 A147:E151 A16:IY17 A15:H15 J15:IY15 A10:IY14 H19:IY25 F28:IY34 F35:G35 I35:IY35 A36:H36 J36:IY36 A53:G53 J53:IY53 A54:IY70 F72:IY79 F80:G80 J80:IY80 A37:IY52 E73:E116 A72:D116 F81:IY97 F98:G99 J98:IY99 F100:IY116 I98 E119:E146 A118:D146 F138:IY138 F140:IY140 F139:H139 J139:IY139 F141:G146 H141:IY151">
+    <cfRule type="cellIs" dxfId="63" priority="207" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="188" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="208" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="47" priority="103" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="61" priority="123" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="124" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G23">
-    <cfRule type="cellIs" dxfId="45" priority="99" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G23:G25">
+    <cfRule type="cellIs" dxfId="59" priority="119" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="120" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="43" priority="91" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="57" priority="111" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="92" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="41" priority="51" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="52" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="39" priority="49" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="112" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="37" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="35" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="33" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="49" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="47" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:IY71">
-    <cfRule type="cellIs" dxfId="31" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="29" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E122:E151 A121:D151 F121:IY151">
-    <cfRule type="cellIs" dxfId="27" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F118:IY121 F127:IY131 F122:G126 J122:IY126 F132:F137 K132:IY137">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E118">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F152">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F147">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G152">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G147">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F154">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F149">
+    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G154">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G149">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F150">
+    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G155">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G150">
+    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F156">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F151">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G156">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G151">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F153">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F148">
+    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G148">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99">
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G132:J137">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:I125">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="I9" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-3"/>
+    <hyperlink ref="I15" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-27"/>
+    <hyperlink ref="I36" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="I53" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="I80" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="I99" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="I126" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="I139" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="94" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="93">
+        <v>42137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
+++ b/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="539">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -1497,10 +1497,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>攻击方命中率之=min((max(N+L(lv1-lv2)+总附加命中率,60%),100%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>a=3，b=1，c=10%</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1514,26 +1510,6 @@
   </si>
   <si>
     <t>a=3，b=1，c=0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总命中率=min((max(N+L(lv1-lv2)+c,60%),100%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总命中率=min((max(N+L(3),60%),100%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总命中率=min((max(N+L(0),60%),100%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总命中率=min((max(N+L(2),60%),100%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总命中率=min((max(N+L(2)+10%,60%),100%)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1731,14 +1707,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总物理攻击力*（1+角色套装力量加成百分比+A伤害增益-B装备伤害减免）*A物理技能伤害系数*总技能加成系数*弱点系数*副本伤害修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总物理攻击力为c,角色套装力量加成百分比为d,A伤害增益为e,B装备伤害减免为f,A物理技能伤害系数为g,总技能加成系数为h,弱点系数为i,副本伤害修正系数为j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单次攻击B总受伤=a*b*c*(1+d+e-f)*g*h*i*j</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1835,9 +1803,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总法术攻击力*属性相克系数*五行加成系数*（1+角色套装智力加成百分比+A伤害增益-B装备伤害减免）*A法术技能伤害系数*总技能加成系数*弱点系数*副本伤害修正系数</t>
-  </si>
-  <si>
     <t>总技能加成系数=1+队长技能智力加成+buff智力加成+阵法智力加成+被动智力加成</t>
   </si>
   <si>
@@ -1867,17 +1832,6 @@
     <t>队长技能智力加成为a,buff智力加成为b,阵法智力加成为c,被动智力加成为d</t>
   </si>
   <si>
-    <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总法术攻击力为c,属性相克系数为d,五行加成系数为e,角色套装智力加成百分比为f,A伤害增益为g,B装备伤害减免为h,A法术技能伤害系数为i,总技能加成系数为j,弱点系数为k,副本伤害修正系数为l</t>
-  </si>
-  <si>
-    <t>单次治疗=总暴击伤害加成百分比*A总法术攻击力*（1+角色套装智力加成百分比+治疗效果加成）*A法术技能伤害系数*总技能加成系数*弱点系数*副本伤害修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总暴击伤害加成百分比为a,A总法术攻击力为b,角色套装智力加成百分比为c,治疗效果加成为d,A法术技能伤害系数为e,总技能加成系数为f,副本伤害修正系数为g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>修改伤害公式用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2403,6 +2357,225 @@
   </si>
   <si>
     <t>测试伤害公式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-39</t>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总命中率=max(N+L(lv1-lv2)+c,60%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总命中率=max(N+L(0),60%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总命中率=max(N+L(3),60%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方命中率之=max(N+L(lv1-lv2)+总附加命中率,60%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总命中率=max(N+L(2),60%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总命中率=max(N+L(2)+10%,60%)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总物理攻击力*（1+角色套装力量加成百分比+A伤害增益-B装备伤害减免）*A物理技能伤害系数*总技能加成系数*弱点系数*防御系数</t>
+  </si>
+  <si>
+    <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总物理攻击力为c,角色套装力量加成百分比为d,A伤害增益为e,B装备伤害减免为f,A物理技能伤害系数为g,总技能加成系数为h,弱点系数为i,防御系数为j</t>
+  </si>
+  <si>
+    <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总法术攻击力*属性相克系数*五行加成系数*（1+角色套装智力加成百分比+A伤害增益-B装备伤害减免）*A法术技能伤害系数*总技能加成系数*弱点系数*防御系数</t>
+  </si>
+  <si>
+    <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总法术攻击力为c,属性相克系数为d,五行加成系数为e,角色套装智力加成百分比为f,A伤害增益为g,B装备伤害减免为h,A法术技能伤害系数为i,总技能加成系数为j,弱点系数为k,防御系数为l</t>
+  </si>
+  <si>
+    <t>单次治疗=总暴击伤害加成百分比*A总法术攻击力*（1+角色套装智力加成百分比+治疗效果加成）*A法术技能伤害系数*总技能加成系数*弱点系数*防御系数</t>
+  </si>
+  <si>
+    <t>总暴击伤害加成百分比为a,A总法术攻击力为b,角色套装智力加成百分比为c,治疗效果加成为d,A法术技能伤害系数为e,总技能加成系数为f,防御系数为g</t>
+  </si>
+  <si>
+    <t>最终力量=总力量*副本修正系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终力量</t>
+    <rPh sb="2" eb="3">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li'liang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看怪物最终力量</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'shen</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'liang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总力量为a，副本修正系数为b</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>li'liang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>li'liang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu'zheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终力量=a*b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终力量=0</t>
+  </si>
+  <si>
+    <t>怪物最终力量=30</t>
+  </si>
+  <si>
+    <t>最终智力=总智力*副本修正系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终智力</t>
+    <rPh sb="2" eb="3">
+      <t>zi'shen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看怪物最终智力</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'shen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总智力为a，副本修正系数为b</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu'zheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终智力=a*b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终智力=0</t>
+  </si>
+  <si>
+    <t>怪物最终智力=30</t>
+  </si>
+  <si>
+    <t>怪物最终体力=总体力*副本修正系数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终体力</t>
+    <rPh sb="2" eb="3">
+      <t>zi'shen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看怪物最终体力</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi'shen</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体力为a，体力修正系数为b</t>
+    <rPh sb="0" eb="1">
+      <t>ji'chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiu'zheng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xi'shu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终体力=a*b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物最终体力=0</t>
+  </si>
+  <si>
+    <t>怪物最终体力=30</t>
+  </si>
+  <si>
+    <t>修改伤害公式用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2774,7 +2947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3020,9 +3193,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3031,6 +3201,15 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -3047,43 +3226,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="166">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
+  <dxfs count="162">
     <dxf>
       <font>
         <b/>
@@ -4898,8 +5041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4965,10 +5108,10 @@
     </row>
     <row r="11" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5294,7 +5437,7 @@
         <v>42132</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>40</v>
@@ -5316,10 +5459,10 @@
         <v>42137</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
@@ -5333,12 +5476,22 @@
       <c r="J19" s="18"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+    <row r="20" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
+        <v>42143</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="20">
+        <v>827</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
@@ -6298,10 +6451,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N77 C77">
-    <cfRule type="cellIs" dxfId="135" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6313,13 +6466,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P182"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
+      <selection pane="bottomRight" activeCell="M195" sqref="M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -6343,14 +6496,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:16" s="68" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
@@ -6427,82 +6580,77 @@
       <c r="K6" s="70"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="81">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="84" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="94"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B8" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C8" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E8" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F8" s="74" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="89" t="s">
-        <v>454</v>
-      </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="70"/>
-    </row>
-    <row r="8" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B8" s="81"/>
-      <c r="F8" s="74" t="s">
-        <v>66</v>
       </c>
       <c r="G8" s="74" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="89" t="s">
-        <v>450</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="J8" s="72"/>
       <c r="K8" s="70"/>
-      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B9" s="81"/>
+      <c r="F9" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>438</v>
+      </c>
       <c r="K9" s="70"/>
       <c r="L9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="83" t="s">
-        <v>100</v>
-      </c>
+      <c r="B10" s="81"/>
       <c r="K10" s="70"/>
       <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
+      <c r="B11" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>98</v>
+      </c>
       <c r="D11" s="82"/>
-      <c r="E11" s="83"/>
+      <c r="E11" s="83" t="s">
+        <v>99</v>
+      </c>
       <c r="F11" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="89" t="s">
-        <v>445</v>
+        <v>100</v>
       </c>
       <c r="K11" s="70"/>
       <c r="L11" s="43"/>
@@ -6513,13 +6661,13 @@
       <c r="D12" s="82"/>
       <c r="E12" s="83"/>
       <c r="F12" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="83" t="s">
         <v>101</v>
       </c>
       <c r="H12" s="89" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="43"/>
@@ -6530,111 +6678,111 @@
       <c r="D13" s="82"/>
       <c r="E13" s="83"/>
       <c r="F13" s="83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H13" s="89" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="89" t="s">
+        <v>433</v>
+      </c>
       <c r="K14" s="70"/>
       <c r="L14" s="43"/>
     </row>
-    <row r="15" spans="1:16" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="81">
+    <row r="15" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="81"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:16" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="81">
         <v>4</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B16" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C16" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="74" t="s">
+      <c r="E16" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F16" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G16" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="70"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="81"/>
-      <c r="F16" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="89" t="s">
-        <v>446</v>
-      </c>
       <c r="K16" s="70"/>
     </row>
-    <row r="17" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="81"/>
       <c r="F17" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H17" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="K17" s="70"/>
     </row>
     <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="B18" s="81"/>
       <c r="F18" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="K18" s="70"/>
+    </row>
+    <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="B19" s="81"/>
+      <c r="F19" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G19" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="89" t="s">
-        <v>446</v>
-      </c>
-      <c r="K18" s="70"/>
-    </row>
-    <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="F19" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>124</v>
-      </c>
       <c r="H19" s="89" t="s">
-        <v>446</v>
-      </c>
-      <c r="I19" s="86"/>
+        <v>434</v>
+      </c>
       <c r="K19" s="70"/>
-      <c r="L19" s="86"/>
     </row>
     <row r="20" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A20" s="86"/>
       <c r="B20" s="86"/>
       <c r="D20" s="86"/>
       <c r="F20" s="74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H20" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I20" s="86"/>
       <c r="K20" s="70"/>
@@ -6645,13 +6793,13 @@
       <c r="B21" s="86"/>
       <c r="D21" s="86"/>
       <c r="F21" s="74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H21" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I21" s="86"/>
       <c r="K21" s="70"/>
@@ -6662,13 +6810,13 @@
       <c r="B22" s="86"/>
       <c r="D22" s="86"/>
       <c r="F22" s="74" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H22" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I22" s="86"/>
       <c r="K22" s="70"/>
@@ -6679,327 +6827,328 @@
       <c r="B23" s="86"/>
       <c r="D23" s="86"/>
       <c r="F23" s="74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I23" s="86"/>
       <c r="K23" s="70"/>
       <c r="L23" s="86"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="81"/>
+    <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="F24" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I24" s="86"/>
       <c r="K24" s="70"/>
-    </row>
-    <row r="25" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C25" s="66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="86"/>
+      <c r="L24" s="86"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="81"/>
+      <c r="K25" s="70"/>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A26" s="94"/>
+      <c r="B26" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>519</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>520</v>
+      </c>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
       <c r="K26" s="70"/>
-      <c r="L26" s="86"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="86"/>
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="94"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="83" t="s">
+        <v>521</v>
+      </c>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
       <c r="K27" s="70"/>
-      <c r="L27" s="86"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="86">
-        <v>1</v>
-      </c>
-      <c r="B28" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="72"/>
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A28" s="94"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="83" t="s">
+        <v>521</v>
+      </c>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
       <c r="K28" s="70"/>
-      <c r="L28" s="86"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="F29" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="89" t="s">
-        <v>455</v>
-      </c>
-      <c r="I29" s="86"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>522</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
       <c r="K29" s="70"/>
       <c r="L29" s="43"/>
     </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="43"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C30" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="86"/>
-      <c r="B31" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="83" t="s">
-        <v>139</v>
+      <c r="B31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="73" t="s">
+        <v>133</v>
       </c>
       <c r="I31" s="86"/>
       <c r="K31" s="70"/>
-      <c r="L31" s="43"/>
-    </row>
-    <row r="32" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L31" s="86"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="86"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="89" t="s">
-        <v>445</v>
+      <c r="B32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="84" t="s">
+        <v>134</v>
       </c>
       <c r="I32" s="86"/>
       <c r="K32" s="70"/>
-      <c r="L32" s="43"/>
-    </row>
-    <row r="33" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="86"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="I33" s="86"/>
+      <c r="L32" s="86"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="84" t="s">
+        <v>523</v>
+      </c>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
       <c r="K33" s="70"/>
-      <c r="L33" s="43"/>
-    </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A34" s="86"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="83" t="s">
-        <v>141</v>
+      <c r="L33" s="94"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="86">
+        <v>1</v>
+      </c>
+      <c r="B34" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="86"/>
+      <c r="E34" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>27</v>
       </c>
       <c r="H34" s="89" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="I34" s="86"/>
+      <c r="J34" s="72"/>
       <c r="K34" s="70"/>
-      <c r="L34" s="43"/>
+      <c r="L34" s="86"/>
     </row>
     <row r="35" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="86"/>
       <c r="B35" s="86"/>
       <c r="D35" s="86"/>
+      <c r="F35" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="89" t="s">
+        <v>443</v>
+      </c>
       <c r="I35" s="86"/>
       <c r="K35" s="70"/>
       <c r="L35" s="43"/>
     </row>
-    <row r="36" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="86">
-        <v>4</v>
-      </c>
-      <c r="B36" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>70</v>
-      </c>
+    <row r="36" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
       <c r="D36" s="86"/>
-      <c r="E36" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="F36" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>144</v>
-      </c>
       <c r="I36" s="86"/>
       <c r="K36" s="70"/>
-      <c r="L36" s="86"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L36" s="43"/>
+    </row>
+    <row r="37" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="F37" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="89" t="s">
-        <v>446</v>
+      <c r="B37" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="82"/>
+      <c r="E37" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="83" t="s">
+        <v>139</v>
       </c>
       <c r="I37" s="86"/>
       <c r="K37" s="70"/>
-      <c r="L37" s="86"/>
-    </row>
-    <row r="38" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L37" s="43"/>
+    </row>
+    <row r="38" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="F38" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="74" t="s">
-        <v>146</v>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="83" t="s">
+        <v>140</v>
       </c>
       <c r="H38" s="89" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="I38" s="86"/>
       <c r="K38" s="70"/>
-      <c r="L38" s="86"/>
-    </row>
-    <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L38" s="43"/>
+    </row>
+    <row r="39" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="F39" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>147</v>
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="83" t="s">
+        <v>140</v>
       </c>
       <c r="H39" s="89" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="I39" s="86"/>
       <c r="K39" s="70"/>
-      <c r="L39" s="86"/>
-    </row>
-    <row r="40" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L39" s="43"/>
+    </row>
+    <row r="40" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="F40" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>148</v>
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>141</v>
       </c>
       <c r="H40" s="89" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="I40" s="86"/>
       <c r="K40" s="70"/>
-      <c r="L40" s="86"/>
-    </row>
-    <row r="41" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A41" s="86"/>
       <c r="B41" s="86"/>
       <c r="D41" s="86"/>
-      <c r="F41" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="H41" s="89" t="s">
-        <v>446</v>
-      </c>
       <c r="I41" s="86"/>
       <c r="K41" s="70"/>
-      <c r="L41" s="86"/>
-    </row>
-    <row r="42" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
+      <c r="L41" s="43"/>
+    </row>
+    <row r="42" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="86">
+        <v>4</v>
+      </c>
+      <c r="B42" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="74" t="s">
+        <v>70</v>
+      </c>
       <c r="D42" s="86"/>
+      <c r="E42" s="74" t="s">
+        <v>142</v>
+      </c>
       <c r="F42" s="74" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G42" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="89" t="s">
-        <v>446</v>
+        <v>144</v>
       </c>
       <c r="I42" s="86"/>
       <c r="K42" s="70"/>
       <c r="L42" s="86"/>
     </row>
-    <row r="43" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="86"/>
       <c r="B43" s="86"/>
       <c r="D43" s="86"/>
       <c r="F43" s="74" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G43" s="74" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H43" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I43" s="86"/>
       <c r="K43" s="70"/>
@@ -7010,325 +7159,337 @@
       <c r="B44" s="86"/>
       <c r="D44" s="86"/>
       <c r="F44" s="74" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G44" s="74" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H44" s="89" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="I44" s="86"/>
       <c r="K44" s="70"/>
       <c r="L44" s="86"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="81"/>
+    <row r="45" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="F45" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I45" s="86"/>
       <c r="K45" s="70"/>
-    </row>
-    <row r="46" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C46" s="66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B47" s="81"/>
-      <c r="E47" s="73" t="s">
-        <v>168</v>
-      </c>
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="F46" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I46" s="86"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="86"/>
+    </row>
+    <row r="47" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="F47" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I47" s="86"/>
       <c r="K47" s="70"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L47" s="86"/>
+    </row>
+    <row r="48" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A48" s="86"/>
       <c r="B48" s="86"/>
       <c r="D48" s="86"/>
-      <c r="E48" s="73" t="s">
-        <v>157</v>
+      <c r="F48" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" s="89" t="s">
+        <v>434</v>
       </c>
       <c r="I48" s="86"/>
       <c r="K48" s="70"/>
       <c r="L48" s="86"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B49" s="81"/>
-      <c r="E49" s="73" t="s">
-        <v>103</v>
-      </c>
+    <row r="49" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A49" s="86"/>
+      <c r="B49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="F49" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="H49" s="89" t="s">
+        <v>434</v>
+      </c>
+      <c r="I49" s="86"/>
       <c r="K49" s="70"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" s="81">
-        <v>1</v>
-      </c>
-      <c r="B50" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="74" t="s">
-        <v>154</v>
-      </c>
+      <c r="L49" s="86"/>
+    </row>
+    <row r="50" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A50" s="86"/>
+      <c r="B50" s="86"/>
+      <c r="D50" s="86"/>
       <c r="F50" s="74" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="H50" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="J50" s="72"/>
+        <v>434</v>
+      </c>
+      <c r="I50" s="86"/>
       <c r="K50" s="70"/>
-    </row>
-    <row r="51" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L50" s="86"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B51" s="81"/>
-      <c r="F51" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" s="89" t="s">
-        <v>450</v>
-      </c>
       <c r="K51" s="70"/>
-      <c r="L51" s="43"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B52" s="81"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>524</v>
+      </c>
+      <c r="D52" s="82"/>
+      <c r="E52" s="83" t="s">
+        <v>525</v>
+      </c>
+      <c r="F52" s="83" t="s">
+        <v>526</v>
+      </c>
+      <c r="G52" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
       <c r="K52" s="70"/>
       <c r="L52" s="43"/>
     </row>
     <row r="53" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B53" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="83" t="s">
-        <v>104</v>
-      </c>
+      <c r="A53" s="94"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="83"/>
       <c r="D53" s="82"/>
-      <c r="E53" s="83" t="s">
-        <v>105</v>
-      </c>
+      <c r="E53" s="83"/>
       <c r="F53" s="83" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G53" s="83" t="s">
-        <v>106</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
       <c r="K53" s="70"/>
       <c r="L53" s="43"/>
     </row>
     <row r="54" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A54" s="94"/>
       <c r="B54" s="82"/>
       <c r="C54" s="83"/>
       <c r="D54" s="82"/>
       <c r="E54" s="83"/>
       <c r="F54" s="83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="H54" s="89" t="s">
-        <v>451</v>
-      </c>
-      <c r="I54" s="85" t="s">
-        <v>452</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="H54" s="94"/>
+      <c r="I54" s="94"/>
       <c r="K54" s="70"/>
       <c r="L54" s="43"/>
     </row>
     <row r="55" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A55" s="94"/>
       <c r="B55" s="82"/>
       <c r="C55" s="83"/>
       <c r="D55" s="82"/>
       <c r="E55" s="83"/>
       <c r="F55" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>107</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="H55" s="94"/>
+      <c r="I55" s="94"/>
       <c r="K55" s="70"/>
       <c r="L55" s="43"/>
     </row>
-    <row r="56" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B56" s="82"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56" s="70"/>
-      <c r="L56" s="43"/>
-    </row>
-    <row r="57" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A57" s="86"/>
-      <c r="B57" s="82"/>
-      <c r="D57" s="86"/>
-      <c r="I57" s="86"/>
+    <row r="56" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C56" s="66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="81"/>
+      <c r="E57" s="73" t="s">
+        <v>168</v>
+      </c>
       <c r="K57" s="70"/>
-      <c r="L57" s="43"/>
-    </row>
-    <row r="58" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="86"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="74" t="s">
-        <v>449</v>
-      </c>
+      <c r="B58" s="86"/>
       <c r="D58" s="86"/>
-      <c r="E58" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="G58" s="74" t="s">
-        <v>159</v>
+      <c r="E58" s="73" t="s">
+        <v>157</v>
       </c>
       <c r="I58" s="86"/>
       <c r="K58" s="70"/>
-      <c r="L58" s="43"/>
-    </row>
-    <row r="59" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A59" s="86"/>
-      <c r="B59" s="82"/>
-      <c r="D59" s="86"/>
-      <c r="F59" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I59" s="86"/>
+      <c r="L58" s="86"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B59" s="81"/>
+      <c r="E59" s="73" t="s">
+        <v>103</v>
+      </c>
       <c r="K59" s="70"/>
-      <c r="L59" s="43"/>
-    </row>
-    <row r="60" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A60" s="86"/>
-      <c r="B60" s="82"/>
-      <c r="D60" s="86"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="81">
+        <v>1</v>
+      </c>
+      <c r="B60" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="74" t="s">
+        <v>154</v>
+      </c>
       <c r="F60" s="74" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="G60" s="74" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="H60" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I60" s="86"/>
+        <v>438</v>
+      </c>
+      <c r="J60" s="72"/>
       <c r="K60" s="70"/>
-      <c r="L60" s="43"/>
-    </row>
-    <row r="61" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A61" s="86"/>
-      <c r="B61" s="82"/>
-      <c r="D61" s="86"/>
+    </row>
+    <row r="61" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B61" s="81"/>
       <c r="F61" s="74" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G61" s="74" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="H61" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I61" s="86"/>
+        <v>438</v>
+      </c>
       <c r="K61" s="70"/>
       <c r="L61" s="43"/>
     </row>
-    <row r="62" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A62" s="86"/>
-      <c r="B62" s="82"/>
-      <c r="D62" s="86"/>
-      <c r="F62" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="H62" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I62" s="86"/>
+    <row r="62" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B62" s="81"/>
       <c r="K62" s="70"/>
       <c r="L62" s="43"/>
     </row>
-    <row r="63" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A63" s="86"/>
-      <c r="B63" s="82"/>
-      <c r="D63" s="86"/>
-      <c r="F63" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="H63" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I63" s="86"/>
+    <row r="63" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B63" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="82"/>
+      <c r="E63" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="83" t="s">
+        <v>106</v>
+      </c>
       <c r="K63" s="70"/>
       <c r="L63" s="43"/>
     </row>
-    <row r="64" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A64" s="86"/>
+    <row r="64" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B64" s="82"/>
-      <c r="D64" s="86"/>
-      <c r="F64" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G64" s="74" t="s">
-        <v>165</v>
+      <c r="C64" s="83"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="83" t="s">
+        <v>107</v>
       </c>
       <c r="H64" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I64" s="86"/>
+        <v>439</v>
+      </c>
+      <c r="I64" s="85" t="s">
+        <v>440</v>
+      </c>
       <c r="K64" s="70"/>
       <c r="L64" s="43"/>
     </row>
-    <row r="65" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A65" s="86"/>
+    <row r="65" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B65" s="82"/>
-      <c r="D65" s="86"/>
-      <c r="F65" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="G65" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="H65" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I65" s="86"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="83" t="s">
+        <v>107</v>
+      </c>
       <c r="K65" s="70"/>
       <c r="L65" s="43"/>
     </row>
-    <row r="66" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A66" s="86"/>
+    <row r="66" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B66" s="82"/>
-      <c r="D66" s="86"/>
-      <c r="F66" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="H66" s="89" t="s">
-        <v>453</v>
-      </c>
-      <c r="I66" s="86"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="83" t="s">
+        <v>108</v>
+      </c>
       <c r="K66" s="70"/>
       <c r="L66" s="43"/>
     </row>
@@ -7341,177 +7502,208 @@
       <c r="L67" s="43"/>
     </row>
     <row r="68" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="81">
-        <v>4</v>
-      </c>
-      <c r="B68" s="81" t="s">
-        <v>62</v>
-      </c>
+      <c r="A68" s="86"/>
+      <c r="B68" s="82"/>
       <c r="C68" s="74" t="s">
-        <v>42</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D68" s="86"/>
       <c r="E68" s="74" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="F68" s="74" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G68" s="74" t="s">
-        <v>170</v>
-      </c>
-      <c r="H68" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="I68" s="85" t="s">
-        <v>448</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I68" s="86"/>
       <c r="K68" s="70"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L68" s="43"/>
+    </row>
+    <row r="69" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
+      <c r="B69" s="82"/>
       <c r="D69" s="86"/>
       <c r="F69" s="74" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="G69" s="74" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="H69" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I69" s="86"/>
       <c r="K69" s="70"/>
-      <c r="L69" s="86"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L69" s="43"/>
+    </row>
+    <row r="70" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A70" s="86"/>
-      <c r="B70" s="86"/>
+      <c r="B70" s="82"/>
       <c r="D70" s="86"/>
       <c r="F70" s="74" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G70" s="74" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="H70" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I70" s="86"/>
       <c r="K70" s="70"/>
-      <c r="L70" s="86"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L70" s="43"/>
+    </row>
+    <row r="71" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A71" s="86"/>
-      <c r="B71" s="86"/>
+      <c r="B71" s="82"/>
       <c r="D71" s="86"/>
       <c r="F71" s="74" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="G71" s="74" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="H71" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I71" s="86"/>
       <c r="K71" s="70"/>
-      <c r="L71" s="86"/>
+      <c r="L71" s="43"/>
     </row>
     <row r="72" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A72" s="86"/>
-      <c r="B72" s="86"/>
+      <c r="B72" s="82"/>
       <c r="D72" s="86"/>
       <c r="F72" s="74" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="G72" s="74" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="H72" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I72" s="86"/>
       <c r="K72" s="70"/>
-      <c r="L72" s="86"/>
+      <c r="L72" s="43"/>
     </row>
     <row r="73" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A73" s="86"/>
-      <c r="B73" s="86"/>
+      <c r="B73" s="82"/>
       <c r="D73" s="86"/>
       <c r="F73" s="74" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G73" s="74" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H73" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I73" s="86"/>
       <c r="K73" s="70"/>
-      <c r="L73" s="86"/>
+      <c r="L73" s="43"/>
     </row>
     <row r="74" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A74" s="86"/>
-      <c r="B74" s="86"/>
+      <c r="B74" s="82"/>
       <c r="D74" s="86"/>
       <c r="F74" s="74" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="G74" s="74" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H74" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I74" s="86"/>
       <c r="K74" s="70"/>
-      <c r="L74" s="86"/>
+      <c r="L74" s="43"/>
     </row>
     <row r="75" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A75" s="86"/>
-      <c r="B75" s="86"/>
+      <c r="B75" s="82"/>
       <c r="D75" s="86"/>
       <c r="F75" s="74" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="G75" s="74" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H75" s="89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="I75" s="86"/>
       <c r="K75" s="70"/>
-      <c r="L75" s="86"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B76" s="81"/>
+      <c r="L75" s="43"/>
+    </row>
+    <row r="76" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A76" s="86"/>
+      <c r="B76" s="82"/>
+      <c r="D76" s="86"/>
+      <c r="F76" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G76" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="H76" s="89" t="s">
+        <v>441</v>
+      </c>
+      <c r="I76" s="86"/>
       <c r="K76" s="70"/>
-    </row>
-    <row r="77" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C77" s="66" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="86"/>
-      <c r="B78" s="86"/>
-      <c r="D78" s="86"/>
-      <c r="E78" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="I78" s="86"/>
+      <c r="L76" s="43"/>
+    </row>
+    <row r="77" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A77" s="86"/>
+      <c r="B77" s="82"/>
+      <c r="D77" s="86"/>
+      <c r="I77" s="86"/>
+      <c r="K77" s="70"/>
+      <c r="L77" s="43"/>
+    </row>
+    <row r="78" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="81">
+        <v>4</v>
+      </c>
+      <c r="B78" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="G78" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" s="89" t="s">
+        <v>435</v>
+      </c>
+      <c r="I78" s="85" t="s">
+        <v>436</v>
+      </c>
       <c r="K78" s="70"/>
-      <c r="L78" s="86"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="86"/>
       <c r="B79" s="86"/>
       <c r="D79" s="86"/>
-      <c r="E79" s="73" t="s">
-        <v>187</v>
+      <c r="F79" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="89" t="s">
+        <v>441</v>
       </c>
       <c r="I79" s="86"/>
       <c r="K79" s="70"/>
@@ -7521,304 +7713,273 @@
       <c r="A80" s="86"/>
       <c r="B80" s="86"/>
       <c r="D80" s="86"/>
-      <c r="E80" s="73" t="s">
-        <v>188</v>
+      <c r="F80" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G80" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="89" t="s">
+        <v>441</v>
       </c>
       <c r="I80" s="86"/>
       <c r="K80" s="70"/>
       <c r="L80" s="86"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="86">
-        <v>1</v>
-      </c>
-      <c r="B81" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="74" t="s">
-        <v>189</v>
-      </c>
+      <c r="A81" s="86"/>
+      <c r="B81" s="86"/>
       <c r="D81" s="86"/>
-      <c r="E81" s="74" t="s">
-        <v>191</v>
-      </c>
       <c r="F81" s="74" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="G81" s="74" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="H81" s="89" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="I81" s="86"/>
-      <c r="J81" s="72"/>
       <c r="K81" s="70"/>
       <c r="L81" s="86"/>
     </row>
-    <row r="82" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A82" s="86"/>
       <c r="B82" s="86"/>
       <c r="D82" s="86"/>
       <c r="F82" s="74" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="G82" s="74" t="s">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="H82" s="89" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="I82" s="86"/>
       <c r="K82" s="70"/>
-      <c r="L82" s="43"/>
-    </row>
-    <row r="83" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L82" s="86"/>
+    </row>
+    <row r="83" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A83" s="86"/>
       <c r="B83" s="86"/>
       <c r="D83" s="86"/>
+      <c r="F83" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="G83" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="H83" s="89" t="s">
+        <v>441</v>
+      </c>
       <c r="I83" s="86"/>
       <c r="K83" s="70"/>
-      <c r="L83" s="43"/>
+      <c r="L83" s="86"/>
     </row>
     <row r="84" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A84" s="86"/>
-      <c r="B84" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="82"/>
-      <c r="E84" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="F84" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="G84" s="83" t="s">
-        <v>195</v>
+      <c r="B84" s="86"/>
+      <c r="D84" s="86"/>
+      <c r="F84" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="G84" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="H84" s="89" t="s">
+        <v>441</v>
       </c>
       <c r="I84" s="86"/>
       <c r="K84" s="70"/>
-      <c r="L84" s="43"/>
-    </row>
-    <row r="85" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L84" s="86"/>
+    </row>
+    <row r="85" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A85" s="86"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" s="83" t="s">
-        <v>196</v>
+      <c r="B85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="F85" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="74" t="s">
+        <v>184</v>
       </c>
       <c r="H85" s="89" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="I85" s="86"/>
       <c r="K85" s="70"/>
-      <c r="L85" s="43"/>
-    </row>
-    <row r="86" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A86" s="86"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="H86" s="89" t="s">
-        <v>456</v>
-      </c>
-      <c r="I86" s="86"/>
+      <c r="L85" s="86"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B86" s="81"/>
       <c r="K86" s="70"/>
-      <c r="L86" s="43"/>
-    </row>
-    <row r="87" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A87" s="86"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G87" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="H87" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I87" s="86"/>
-      <c r="K87" s="70"/>
-      <c r="L87" s="43"/>
-    </row>
-    <row r="88" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C87" s="66" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="86"/>
-      <c r="B88" s="82"/>
+      <c r="B88" s="86"/>
       <c r="D88" s="86"/>
+      <c r="E88" s="73" t="s">
+        <v>186</v>
+      </c>
       <c r="I88" s="86"/>
       <c r="K88" s="70"/>
-      <c r="L88" s="43"/>
-    </row>
-    <row r="89" spans="1:12" ht="99" x14ac:dyDescent="0.35">
+      <c r="L88" s="86"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="86"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="74" t="s">
-        <v>155</v>
-      </c>
+      <c r="B89" s="86"/>
       <c r="D89" s="86"/>
-      <c r="E89" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="F89" s="74" t="s">
-        <v>198</v>
-      </c>
-      <c r="G89" s="74" t="s">
-        <v>199</v>
+      <c r="E89" s="73" t="s">
+        <v>187</v>
       </c>
       <c r="I89" s="86"/>
       <c r="K89" s="70"/>
-      <c r="L89" s="43"/>
-    </row>
-    <row r="90" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L89" s="86"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="86"/>
-      <c r="B90" s="82"/>
+      <c r="B90" s="86"/>
       <c r="D90" s="86"/>
-      <c r="F90" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="H90" s="89" t="s">
-        <v>457</v>
+      <c r="E90" s="73" t="s">
+        <v>188</v>
       </c>
       <c r="I90" s="86"/>
       <c r="K90" s="70"/>
-      <c r="L90" s="43"/>
-    </row>
-    <row r="91" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A91" s="86"/>
-      <c r="B91" s="82"/>
+      <c r="L90" s="86"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="86">
+        <v>1</v>
+      </c>
+      <c r="B91" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="74" t="s">
+        <v>189</v>
+      </c>
       <c r="D91" s="86"/>
+      <c r="E91" s="74" t="s">
+        <v>191</v>
+      </c>
       <c r="F91" s="74" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="H91" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I91" s="86"/>
+      <c r="J91" s="72"/>
       <c r="K91" s="70"/>
-      <c r="L91" s="43"/>
-    </row>
-    <row r="92" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L91" s="86"/>
+    </row>
+    <row r="92" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A92" s="86"/>
-      <c r="B92" s="82"/>
+      <c r="B92" s="86"/>
       <c r="D92" s="86"/>
       <c r="F92" s="74" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="G92" s="74" t="s">
-        <v>202</v>
+        <v>27</v>
       </c>
       <c r="H92" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I92" s="86"/>
       <c r="K92" s="70"/>
       <c r="L92" s="43"/>
     </row>
-    <row r="93" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A93" s="86"/>
-      <c r="B93" s="82"/>
+      <c r="B93" s="86"/>
       <c r="D93" s="86"/>
-      <c r="F93" s="74" t="s">
-        <v>123</v>
-      </c>
-      <c r="G93" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="H93" s="89" t="s">
-        <v>457</v>
-      </c>
       <c r="I93" s="86"/>
       <c r="K93" s="70"/>
       <c r="L93" s="43"/>
     </row>
     <row r="94" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A94" s="86"/>
-      <c r="B94" s="82"/>
-      <c r="D94" s="86"/>
-      <c r="F94" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G94" s="74" t="s">
-        <v>204</v>
-      </c>
-      <c r="H94" s="89" t="s">
-        <v>457</v>
+      <c r="B94" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="82"/>
+      <c r="E94" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="F94" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="83" t="s">
+        <v>195</v>
       </c>
       <c r="I94" s="86"/>
       <c r="K94" s="70"/>
       <c r="L94" s="43"/>
     </row>
-    <row r="95" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A95" s="86"/>
       <c r="B95" s="82"/>
-      <c r="D95" s="86"/>
-      <c r="F95" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95" s="74" t="s">
-        <v>205</v>
+      <c r="C95" s="83"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="83" t="s">
+        <v>196</v>
       </c>
       <c r="H95" s="89" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I95" s="86"/>
       <c r="K95" s="70"/>
       <c r="L95" s="43"/>
     </row>
-    <row r="96" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A96" s="86"/>
       <c r="B96" s="82"/>
-      <c r="D96" s="86"/>
-      <c r="F96" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" s="74" t="s">
-        <v>206</v>
+      <c r="C96" s="83"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="83" t="s">
+        <v>196</v>
       </c>
       <c r="H96" s="89" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="I96" s="86"/>
       <c r="K96" s="70"/>
       <c r="L96" s="43"/>
     </row>
-    <row r="97" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A97" s="86"/>
       <c r="B97" s="82"/>
-      <c r="D97" s="86"/>
-      <c r="F97" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G97" s="74" t="s">
-        <v>207</v>
+      <c r="C97" s="83"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G97" s="83" t="s">
+        <v>197</v>
       </c>
       <c r="H97" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I97" s="86"/>
       <c r="K97" s="70"/>
@@ -7832,677 +7993,670 @@
       <c r="K98" s="70"/>
       <c r="L98" s="43"/>
     </row>
-    <row r="99" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="86">
-        <v>4</v>
-      </c>
-      <c r="B99" s="86" t="s">
-        <v>30</v>
-      </c>
+    <row r="99" spans="1:12" ht="99" x14ac:dyDescent="0.35">
+      <c r="A99" s="86"/>
+      <c r="B99" s="82"/>
       <c r="C99" s="74" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="D99" s="86"/>
       <c r="E99" s="74" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="F99" s="74" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G99" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="H99" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="I99" s="85" t="s">
-        <v>458</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I99" s="86"/>
       <c r="K99" s="70"/>
-      <c r="L99" s="86"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L99" s="43"/>
+    </row>
+    <row r="100" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A100" s="86"/>
-      <c r="B100" s="86"/>
+      <c r="B100" s="82"/>
       <c r="D100" s="86"/>
       <c r="F100" s="74" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="G100" s="74" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="H100" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I100" s="86"/>
       <c r="K100" s="70"/>
-      <c r="L100" s="86"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L100" s="43"/>
+    </row>
+    <row r="101" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A101" s="86"/>
-      <c r="B101" s="86"/>
+      <c r="B101" s="82"/>
       <c r="D101" s="86"/>
       <c r="F101" s="74" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="G101" s="74" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="H101" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I101" s="86"/>
       <c r="K101" s="70"/>
-      <c r="L101" s="86"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L101" s="43"/>
+    </row>
+    <row r="102" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A102" s="86"/>
-      <c r="B102" s="86"/>
+      <c r="B102" s="82"/>
       <c r="D102" s="86"/>
       <c r="F102" s="74" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="G102" s="74" t="s">
-        <v>214</v>
+        <v>202</v>
+      </c>
+      <c r="H102" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I102" s="86"/>
       <c r="K102" s="70"/>
-      <c r="L102" s="86"/>
+      <c r="L102" s="43"/>
     </row>
     <row r="103" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A103" s="86"/>
-      <c r="B103" s="86"/>
+      <c r="B103" s="82"/>
       <c r="D103" s="86"/>
       <c r="F103" s="74" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="H103" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I103" s="86"/>
       <c r="K103" s="70"/>
-      <c r="L103" s="86"/>
+      <c r="L103" s="43"/>
     </row>
     <row r="104" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A104" s="86"/>
-      <c r="B104" s="86"/>
+      <c r="B104" s="82"/>
       <c r="D104" s="86"/>
       <c r="F104" s="74" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="G104" s="74" t="s">
-        <v>216</v>
+        <v>204</v>
+      </c>
+      <c r="H104" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I104" s="86"/>
       <c r="K104" s="70"/>
-      <c r="L104" s="86"/>
+      <c r="L104" s="43"/>
     </row>
     <row r="105" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A105" s="86"/>
-      <c r="B105" s="86"/>
+      <c r="B105" s="82"/>
       <c r="D105" s="86"/>
       <c r="F105" s="74" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+      <c r="H105" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I105" s="86"/>
       <c r="K105" s="70"/>
-      <c r="L105" s="86"/>
+      <c r="L105" s="43"/>
     </row>
     <row r="106" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A106" s="86"/>
-      <c r="B106" s="86"/>
+      <c r="B106" s="82"/>
       <c r="D106" s="86"/>
       <c r="F106" s="74" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>218</v>
+        <v>206</v>
+      </c>
+      <c r="H106" s="89" t="s">
+        <v>445</v>
       </c>
       <c r="I106" s="86"/>
       <c r="K106" s="70"/>
-      <c r="L106" s="86"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L106" s="43"/>
+    </row>
+    <row r="107" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A107" s="86"/>
-      <c r="B107" s="86"/>
+      <c r="B107" s="82"/>
       <c r="D107" s="86"/>
+      <c r="F107" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G107" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="I107" s="86"/>
       <c r="K107" s="70"/>
-      <c r="L107" s="86"/>
-    </row>
-    <row r="108" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C108" s="66" t="s">
+      <c r="L107" s="43"/>
+    </row>
+    <row r="108" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A108" s="86"/>
+      <c r="B108" s="82"/>
+      <c r="D108" s="86"/>
+      <c r="I108" s="86"/>
+      <c r="K108" s="70"/>
+      <c r="L108" s="43"/>
+    </row>
+    <row r="109" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="86">
+        <v>4</v>
+      </c>
+      <c r="B109" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D109" s="86"/>
+      <c r="E109" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="F109" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="G109" s="74" t="s">
+        <v>211</v>
+      </c>
+      <c r="H109" s="89" t="s">
+        <v>435</v>
+      </c>
+      <c r="I109" s="85" t="s">
+        <v>446</v>
+      </c>
+      <c r="K109" s="70"/>
+      <c r="L109" s="86"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
+      <c r="D110" s="86"/>
+      <c r="F110" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="G110" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="I110" s="86"/>
+      <c r="K110" s="70"/>
+      <c r="L110" s="86"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="86"/>
+      <c r="B111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="F111" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="G111" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="I111" s="86"/>
+      <c r="K111" s="70"/>
+      <c r="L111" s="86"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="86"/>
+      <c r="B112" s="86"/>
+      <c r="D112" s="86"/>
+      <c r="F112" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="I112" s="86"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="86"/>
+    </row>
+    <row r="113" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A113" s="86"/>
+      <c r="B113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="F113" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G113" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="I113" s="86"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="86"/>
+    </row>
+    <row r="114" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A114" s="86"/>
+      <c r="B114" s="86"/>
+      <c r="D114" s="86"/>
+      <c r="F114" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="G114" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="I114" s="86"/>
+      <c r="K114" s="70"/>
+      <c r="L114" s="86"/>
+    </row>
+    <row r="115" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A115" s="86"/>
+      <c r="B115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="F115" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="G115" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="I115" s="86"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="86"/>
+    </row>
+    <row r="116" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A116" s="86"/>
+      <c r="B116" s="86"/>
+      <c r="D116" s="86"/>
+      <c r="F116" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="G116" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="I116" s="86"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="86"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A117" s="86"/>
+      <c r="B117" s="86"/>
+      <c r="D117" s="86"/>
+      <c r="I117" s="86"/>
+      <c r="K117" s="70"/>
+      <c r="L117" s="86"/>
+    </row>
+    <row r="118" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C118" s="66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B109" s="81"/>
-      <c r="E109" s="73" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B119" s="81"/>
+      <c r="E119" s="73" t="s">
         <v>219</v>
-      </c>
-      <c r="K109" s="70"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B110" s="81"/>
-      <c r="E110" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="K110" s="70"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A111" s="81">
-        <v>1</v>
-      </c>
-      <c r="B111" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C111" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E111" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="F111" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="G111" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H111" s="89" t="s">
-        <v>459</v>
-      </c>
-      <c r="J111" s="72"/>
-      <c r="K111" s="70"/>
-    </row>
-    <row r="112" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B112" s="81"/>
-      <c r="F112" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="G112" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H112" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="K112" s="70"/>
-      <c r="L112" s="43"/>
-    </row>
-    <row r="113" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B113" s="81"/>
-      <c r="K113" s="70"/>
-      <c r="L113" s="43"/>
-    </row>
-    <row r="114" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B114" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C114" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D114" s="82"/>
-      <c r="E114" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="F114" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="G114" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="K114" s="70"/>
-      <c r="L114" s="43"/>
-    </row>
-    <row r="115" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B115" s="82"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="82"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G115" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="H115" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="K115" s="70"/>
-      <c r="L115" s="43"/>
-    </row>
-    <row r="116" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B116" s="82"/>
-      <c r="C116" s="83"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G116" s="83" t="s">
-        <v>113</v>
-      </c>
-      <c r="H116" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="K116" s="70"/>
-      <c r="L116" s="43"/>
-    </row>
-    <row r="117" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B117" s="82"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G117" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="H117" s="89" t="s">
-        <v>460</v>
-      </c>
-      <c r="K117" s="70"/>
-      <c r="L117" s="43"/>
-    </row>
-    <row r="118" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B118" s="81"/>
-      <c r="K118" s="70"/>
-      <c r="L118" s="43"/>
-    </row>
-    <row r="119" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A119" s="81">
-        <v>4</v>
-      </c>
-      <c r="B119" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="C119" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E119" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="F119" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="G119" s="74" t="s">
-        <v>224</v>
       </c>
       <c r="K119" s="70"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B120" s="81"/>
-      <c r="F120" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="G120" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="H120" s="89" t="s">
-        <v>457</v>
+      <c r="E120" s="73" t="s">
+        <v>109</v>
       </c>
       <c r="K120" s="70"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B121" s="81"/>
+      <c r="A121" s="81">
+        <v>1</v>
+      </c>
+      <c r="B121" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="74" t="s">
+        <v>85</v>
+      </c>
       <c r="F121" s="74" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="G121" s="74" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="H121" s="89" t="s">
-        <v>457</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="J121" s="72"/>
       <c r="K121" s="70"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="86"/>
-      <c r="B122" s="86"/>
-      <c r="D122" s="86"/>
+    <row r="122" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B122" s="81"/>
       <c r="F122" s="74" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="G122" s="74" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="H122" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="I122" s="86"/>
+        <v>438</v>
+      </c>
       <c r="K122" s="70"/>
-      <c r="L122" s="86"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L122" s="43"/>
+    </row>
+    <row r="123" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B123" s="81"/>
       <c r="K123" s="70"/>
-    </row>
-    <row r="124" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C124" s="66" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A125" s="86"/>
-      <c r="B125" s="86"/>
-      <c r="D125" s="86"/>
-      <c r="E125" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="I125" s="86"/>
+      <c r="L123" s="43"/>
+    </row>
+    <row r="124" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B124" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C124" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D124" s="82"/>
+      <c r="E124" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F124" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="G124" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="K124" s="70"/>
+      <c r="L124" s="43"/>
+    </row>
+    <row r="125" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B125" s="82"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="82"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G125" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="H125" s="89" t="s">
+        <v>448</v>
+      </c>
       <c r="K125" s="70"/>
-      <c r="L125" s="86"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A126" s="86"/>
-      <c r="B126" s="86"/>
-      <c r="D126" s="86"/>
-      <c r="E126" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="I126" s="86"/>
+      <c r="L125" s="43"/>
+    </row>
+    <row r="126" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B126" s="82"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="82"/>
+      <c r="E126" s="83"/>
+      <c r="F126" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G126" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="H126" s="89" t="s">
+        <v>448</v>
+      </c>
       <c r="K126" s="70"/>
-      <c r="L126" s="86"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A127" s="86"/>
-      <c r="B127" s="86"/>
-      <c r="D127" s="86"/>
-      <c r="E127" s="73" t="s">
-        <v>230</v>
-      </c>
-      <c r="I127" s="86"/>
+      <c r="L126" s="43"/>
+    </row>
+    <row r="127" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B127" s="82"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="82"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="H127" s="89" t="s">
+        <v>448</v>
+      </c>
       <c r="K127" s="70"/>
-      <c r="L127" s="86"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A128" s="86">
-        <v>1</v>
-      </c>
-      <c r="B128" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C128" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="D128" s="86"/>
-      <c r="E128" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="F128" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I128" s="86"/>
-      <c r="J128" s="72"/>
+      <c r="L127" s="43"/>
+    </row>
+    <row r="128" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B128" s="81"/>
       <c r="K128" s="70"/>
-      <c r="L128" s="86"/>
-    </row>
-    <row r="129" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A129" s="86"/>
-      <c r="B129" s="86"/>
-      <c r="D129" s="86"/>
+      <c r="L128" s="43"/>
+    </row>
+    <row r="129" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A129" s="81">
+        <v>4</v>
+      </c>
+      <c r="B129" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="F129" s="74" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="G129" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H129" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I129" s="86"/>
+        <v>224</v>
+      </c>
       <c r="K129" s="70"/>
-      <c r="L129" s="43"/>
-    </row>
-    <row r="130" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="86"/>
-      <c r="B130" s="86"/>
-      <c r="D130" s="86"/>
-      <c r="I130" s="86"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B130" s="81"/>
+      <c r="F130" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="G130" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="H130" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="K130" s="70"/>
-      <c r="L130" s="43"/>
-    </row>
-    <row r="131" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A131" s="86"/>
-      <c r="B131" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="C131" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="D131" s="82"/>
-      <c r="E131" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="F131" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="G131" s="83" t="s">
-        <v>237</v>
-      </c>
-      <c r="I131" s="86"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B131" s="81"/>
+      <c r="F131" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="G131" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="H131" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="K131" s="70"/>
-      <c r="L131" s="43"/>
-    </row>
-    <row r="132" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="86"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="83"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G132" s="83" t="s">
-        <v>238</v>
+      <c r="B132" s="86"/>
+      <c r="D132" s="86"/>
+      <c r="F132" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" s="74" t="s">
+        <v>227</v>
       </c>
       <c r="H132" s="89" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I132" s="86"/>
       <c r="K132" s="70"/>
-      <c r="L132" s="43"/>
-    </row>
-    <row r="133" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A133" s="86"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G133" s="83" t="s">
-        <v>238</v>
-      </c>
-      <c r="H133" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I133" s="86"/>
+      <c r="L132" s="86"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B133" s="81"/>
       <c r="K133" s="70"/>
-      <c r="L133" s="43"/>
-    </row>
-    <row r="134" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A134" s="86"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="82"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="G134" s="83" t="s">
-        <v>239</v>
-      </c>
-      <c r="H134" s="89" t="s">
-        <v>450</v>
-      </c>
-      <c r="I134" s="86"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="43"/>
-    </row>
-    <row r="135" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C134" s="66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="86"/>
-      <c r="B135" s="82"/>
+      <c r="B135" s="86"/>
       <c r="D135" s="86"/>
+      <c r="E135" s="73" t="s">
+        <v>258</v>
+      </c>
       <c r="I135" s="86"/>
       <c r="K135" s="70"/>
-      <c r="L135" s="43"/>
-    </row>
-    <row r="136" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="L135" s="86"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="86"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="74" t="s">
-        <v>155</v>
-      </c>
+      <c r="B136" s="86"/>
       <c r="D136" s="86"/>
-      <c r="E136" s="74" t="s">
-        <v>232</v>
-      </c>
-      <c r="F136" s="74" t="s">
-        <v>240</v>
-      </c>
-      <c r="G136" s="74" t="s">
-        <v>241</v>
+      <c r="E136" s="73" t="s">
+        <v>229</v>
       </c>
       <c r="I136" s="86"/>
       <c r="K136" s="70"/>
-      <c r="L136" s="43"/>
-    </row>
-    <row r="137" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="L136" s="86"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="86"/>
-      <c r="B137" s="82"/>
+      <c r="B137" s="86"/>
       <c r="D137" s="86"/>
-      <c r="F137" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G137" s="74" t="s">
-        <v>242</v>
-      </c>
-      <c r="H137" s="89" t="s">
-        <v>457</v>
+      <c r="E137" s="73" t="s">
+        <v>230</v>
       </c>
       <c r="I137" s="86"/>
       <c r="K137" s="70"/>
-      <c r="L137" s="43"/>
-    </row>
-    <row r="138" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A138" s="86"/>
-      <c r="B138" s="82"/>
-      <c r="D138" s="86"/>
-      <c r="F138" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="G138" s="74" t="s">
-        <v>243</v>
-      </c>
-      <c r="H138" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="I138" s="86"/>
+      <c r="L137" s="86"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="94"/>
+      <c r="B138" s="94"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="H138" s="94"/>
+      <c r="I138" s="94"/>
       <c r="K138" s="70"/>
-      <c r="L138" s="43"/>
-    </row>
-    <row r="139" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A139" s="86"/>
-      <c r="B139" s="82"/>
+      <c r="L138" s="94"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A139" s="86">
+        <v>1</v>
+      </c>
+      <c r="B139" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" s="74" t="s">
+        <v>231</v>
+      </c>
       <c r="D139" s="86"/>
+      <c r="E139" s="74" t="s">
+        <v>233</v>
+      </c>
       <c r="F139" s="74" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="G139" s="74" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
       <c r="H139" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I139" s="86"/>
+      <c r="J139" s="72"/>
       <c r="K139" s="70"/>
-      <c r="L139" s="43"/>
-    </row>
-    <row r="140" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="L139" s="86"/>
+    </row>
+    <row r="140" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A140" s="86"/>
-      <c r="B140" s="82"/>
+      <c r="B140" s="86"/>
       <c r="D140" s="86"/>
       <c r="F140" s="74" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="G140" s="74" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="H140" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I140" s="86"/>
       <c r="K140" s="70"/>
       <c r="L140" s="43"/>
     </row>
-    <row r="141" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A141" s="86"/>
-      <c r="B141" s="82"/>
+      <c r="B141" s="86"/>
       <c r="D141" s="86"/>
-      <c r="F141" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="G141" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="H141" s="89" t="s">
-        <v>457</v>
-      </c>
       <c r="I141" s="86"/>
       <c r="K141" s="70"/>
       <c r="L141" s="43"/>
     </row>
-    <row r="142" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A142" s="86"/>
-      <c r="B142" s="82"/>
-      <c r="D142" s="86"/>
-      <c r="F142" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G142" s="74" t="s">
-        <v>247</v>
-      </c>
-      <c r="H142" s="89" t="s">
-        <v>457</v>
+      <c r="B142" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" s="82"/>
+      <c r="E142" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="F142" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="G142" s="83" t="s">
+        <v>237</v>
       </c>
       <c r="I142" s="86"/>
       <c r="K142" s="70"/>
       <c r="L142" s="43"/>
     </row>
-    <row r="143" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A143" s="86"/>
       <c r="B143" s="82"/>
-      <c r="D143" s="86"/>
-      <c r="F143" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="G143" s="74" t="s">
-        <v>248</v>
+      <c r="C143" s="83"/>
+      <c r="D143" s="82"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G143" s="83" t="s">
+        <v>238</v>
       </c>
       <c r="H143" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I143" s="86"/>
       <c r="K143" s="70"/>
       <c r="L143" s="43"/>
     </row>
-    <row r="144" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A144" s="86"/>
       <c r="B144" s="82"/>
-      <c r="D144" s="86"/>
-      <c r="F144" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="G144" s="74" t="s">
-        <v>249</v>
+      <c r="C144" s="83"/>
+      <c r="D144" s="82"/>
+      <c r="E144" s="83"/>
+      <c r="F144" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G144" s="83" t="s">
+        <v>238</v>
       </c>
       <c r="H144" s="89" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="I144" s="86"/>
       <c r="K144" s="70"/>
@@ -8511,464 +8665,721 @@
     <row r="145" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A145" s="86"/>
       <c r="B145" s="82"/>
-      <c r="D145" s="86"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="82"/>
+      <c r="E145" s="83"/>
+      <c r="F145" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="H145" s="89" t="s">
+        <v>438</v>
+      </c>
       <c r="I145" s="86"/>
       <c r="K145" s="70"/>
       <c r="L145" s="43"/>
     </row>
-    <row r="146" spans="1:12" ht="66" x14ac:dyDescent="0.35">
-      <c r="A146" s="86">
-        <v>4</v>
-      </c>
-      <c r="B146" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C146" s="74" t="s">
-        <v>250</v>
-      </c>
+    <row r="146" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A146" s="86"/>
+      <c r="B146" s="82"/>
       <c r="D146" s="86"/>
-      <c r="E146" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="F146" s="74" t="s">
-        <v>259</v>
-      </c>
-      <c r="G146" s="74" t="s">
-        <v>260</v>
-      </c>
       <c r="I146" s="86"/>
       <c r="K146" s="70"/>
-      <c r="L146" s="86"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L146" s="43"/>
+    </row>
+    <row r="147" spans="1:12" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A147" s="86"/>
-      <c r="B147" s="86"/>
+      <c r="B147" s="82"/>
+      <c r="C147" s="74" t="s">
+        <v>155</v>
+      </c>
       <c r="D147" s="86"/>
+      <c r="E147" s="74" t="s">
+        <v>232</v>
+      </c>
       <c r="F147" s="74" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="G147" s="74" t="s">
-        <v>252</v>
-      </c>
-      <c r="H147" s="89" t="s">
-        <v>457</v>
+        <v>241</v>
       </c>
       <c r="I147" s="86"/>
       <c r="K147" s="70"/>
-      <c r="L147" s="86"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L147" s="43"/>
+    </row>
+    <row r="148" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A148" s="86"/>
-      <c r="B148" s="86"/>
+      <c r="B148" s="82"/>
       <c r="D148" s="86"/>
       <c r="F148" s="74" t="s">
-        <v>265</v>
+        <v>118</v>
       </c>
       <c r="G148" s="74" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="H148" s="89" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I148" s="86"/>
       <c r="K148" s="70"/>
-      <c r="L148" s="86"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L148" s="43"/>
+    </row>
+    <row r="149" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A149" s="86"/>
-      <c r="B149" s="86"/>
+      <c r="B149" s="82"/>
       <c r="D149" s="86"/>
       <c r="F149" s="74" t="s">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="G149" s="74" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H149" s="89" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I149" s="86"/>
       <c r="K149" s="70"/>
-      <c r="L149" s="86"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L149" s="43"/>
+    </row>
+    <row r="150" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A150" s="86"/>
-      <c r="B150" s="86"/>
+      <c r="B150" s="82"/>
       <c r="D150" s="86"/>
       <c r="F150" s="74" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="G150" s="74" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H150" s="89" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I150" s="86"/>
       <c r="K150" s="70"/>
-      <c r="L150" s="86"/>
+      <c r="L150" s="43"/>
     </row>
     <row r="151" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A151" s="86"/>
-      <c r="B151" s="86"/>
+      <c r="B151" s="82"/>
       <c r="D151" s="86"/>
       <c r="F151" s="74" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="G151" s="74" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H151" s="89" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I151" s="86"/>
       <c r="K151" s="70"/>
-      <c r="L151" s="86"/>
+      <c r="L151" s="43"/>
     </row>
     <row r="152" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A152" s="86"/>
-      <c r="B152" s="86"/>
+      <c r="B152" s="82"/>
       <c r="D152" s="86"/>
       <c r="F152" s="74" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="G152" s="74" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H152" s="89" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I152" s="86"/>
       <c r="K152" s="70"/>
-      <c r="L152" s="86"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L152" s="43"/>
+    </row>
+    <row r="153" spans="1:12" ht="33" x14ac:dyDescent="0.35">
       <c r="A153" s="86"/>
-      <c r="B153" s="86"/>
+      <c r="B153" s="82"/>
       <c r="D153" s="86"/>
+      <c r="F153" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G153" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="H153" s="89" t="s">
+        <v>445</v>
+      </c>
       <c r="I153" s="86"/>
       <c r="K153" s="70"/>
-      <c r="L153" s="86"/>
-    </row>
-    <row r="154" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C154" s="66" t="s">
+      <c r="L153" s="43"/>
+    </row>
+    <row r="154" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A154" s="86"/>
+      <c r="B154" s="82"/>
+      <c r="D154" s="86"/>
+      <c r="F154" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="G154" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="H154" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I154" s="86"/>
+      <c r="K154" s="70"/>
+      <c r="L154" s="43"/>
+    </row>
+    <row r="155" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A155" s="86"/>
+      <c r="B155" s="82"/>
+      <c r="D155" s="86"/>
+      <c r="F155" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G155" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="H155" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I155" s="86"/>
+      <c r="K155" s="70"/>
+      <c r="L155" s="43"/>
+    </row>
+    <row r="156" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A156" s="86"/>
+      <c r="B156" s="82"/>
+      <c r="D156" s="86"/>
+      <c r="I156" s="86"/>
+      <c r="K156" s="70"/>
+      <c r="L156" s="43"/>
+    </row>
+    <row r="157" spans="1:12" ht="66" x14ac:dyDescent="0.35">
+      <c r="A157" s="86">
+        <v>4</v>
+      </c>
+      <c r="B157" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" s="86"/>
+      <c r="E157" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="F157" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="G157" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="I157" s="86"/>
+      <c r="K157" s="70"/>
+      <c r="L157" s="86"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" s="86"/>
+      <c r="B158" s="86"/>
+      <c r="D158" s="86"/>
+      <c r="F158" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="G158" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="H158" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I158" s="86"/>
+      <c r="K158" s="70"/>
+      <c r="L158" s="86"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" s="86"/>
+      <c r="B159" s="86"/>
+      <c r="D159" s="86"/>
+      <c r="F159" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="G159" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="H159" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I159" s="86"/>
+      <c r="K159" s="70"/>
+      <c r="L159" s="86"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" s="86"/>
+      <c r="B160" s="86"/>
+      <c r="D160" s="86"/>
+      <c r="F160" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="G160" s="74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H160" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I160" s="86"/>
+      <c r="K160" s="70"/>
+      <c r="L160" s="86"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A161" s="86"/>
+      <c r="B161" s="86"/>
+      <c r="D161" s="86"/>
+      <c r="F161" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="G161" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="H161" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I161" s="86"/>
+      <c r="K161" s="70"/>
+      <c r="L161" s="86"/>
+    </row>
+    <row r="162" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A162" s="86"/>
+      <c r="B162" s="86"/>
+      <c r="D162" s="86"/>
+      <c r="F162" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="G162" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="H162" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I162" s="86"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="86"/>
+    </row>
+    <row r="163" spans="1:12" ht="33" x14ac:dyDescent="0.35">
+      <c r="A163" s="86"/>
+      <c r="B163" s="86"/>
+      <c r="D163" s="86"/>
+      <c r="F163" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="G163" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="H163" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I163" s="86"/>
+      <c r="K163" s="70"/>
+      <c r="L163" s="86"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" s="86"/>
+      <c r="B164" s="86"/>
+      <c r="D164" s="86"/>
+      <c r="I164" s="86"/>
+      <c r="K164" s="70"/>
+      <c r="L164" s="86"/>
+    </row>
+    <row r="165" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A165" s="94"/>
+      <c r="B165" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C165" s="83" t="s">
+        <v>531</v>
+      </c>
+      <c r="D165" s="82"/>
+      <c r="E165" s="83" t="s">
+        <v>532</v>
+      </c>
+      <c r="F165" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="G165" s="83" t="s">
+        <v>534</v>
+      </c>
+      <c r="H165" s="94"/>
+      <c r="I165" s="94"/>
+      <c r="K165" s="70"/>
+      <c r="L165" s="43"/>
+    </row>
+    <row r="166" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A166" s="94"/>
+      <c r="B166" s="82"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="82"/>
+      <c r="E166" s="83"/>
+      <c r="F166" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="G166" s="83" t="s">
+        <v>535</v>
+      </c>
+      <c r="H166" s="94"/>
+      <c r="I166" s="94"/>
+      <c r="K166" s="70"/>
+      <c r="L166" s="43"/>
+    </row>
+    <row r="167" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A167" s="94"/>
+      <c r="B167" s="82"/>
+      <c r="C167" s="83"/>
+      <c r="D167" s="82"/>
+      <c r="E167" s="83"/>
+      <c r="F167" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="G167" s="83" t="s">
+        <v>535</v>
+      </c>
+      <c r="H167" s="94"/>
+      <c r="I167" s="94"/>
+      <c r="K167" s="70"/>
+      <c r="L167" s="43"/>
+    </row>
+    <row r="168" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A168" s="94"/>
+      <c r="B168" s="82"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="82"/>
+      <c r="E168" s="83"/>
+      <c r="F168" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="G168" s="83" t="s">
+        <v>536</v>
+      </c>
+      <c r="H168" s="94"/>
+      <c r="I168" s="94"/>
+      <c r="K168" s="70"/>
+      <c r="L168" s="43"/>
+    </row>
+    <row r="169" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C169" s="66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B155" s="81"/>
-      <c r="E155" s="73" t="s">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B170" s="81"/>
+      <c r="E170" s="73" t="s">
         <v>267</v>
       </c>
-      <c r="K155" s="70"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="81">
+      <c r="K170" s="70"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" s="81">
         <v>1</v>
       </c>
-      <c r="B156" s="81" t="s">
+      <c r="B171" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C156" s="74" t="s">
+      <c r="C171" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E156" s="74" t="s">
+      <c r="E171" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="F156" s="74" t="s">
+      <c r="F171" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="G156" s="74" t="s">
+      <c r="G171" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="H156" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="J156" s="72"/>
-      <c r="K156" s="70"/>
-    </row>
-    <row r="157" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B157" s="81"/>
-      <c r="F157" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="G157" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="H157" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="K157" s="70"/>
-      <c r="L157" s="43"/>
-    </row>
-    <row r="158" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B158" s="81"/>
-      <c r="K158" s="70"/>
-      <c r="L158" s="43"/>
-    </row>
-    <row r="159" spans="1:12" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="81">
-        <v>4</v>
-      </c>
-      <c r="B159" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="C159" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="F159" s="74" t="s">
-        <v>268</v>
-      </c>
-      <c r="G159" s="74" t="s">
-        <v>275</v>
-      </c>
-      <c r="K159" s="70"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B160" s="81"/>
-      <c r="F160" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="G160" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="H160" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="K160" s="70"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B161" s="81"/>
-      <c r="F161" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="G161" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="H161" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="K161" s="70"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B162" s="81"/>
-      <c r="F162" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="G162" s="74" t="s">
-        <v>278</v>
-      </c>
-      <c r="H162" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="K162" s="70"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A163" s="74"/>
-      <c r="B163" s="81"/>
-      <c r="F163" s="74" t="s">
-        <v>272</v>
-      </c>
-      <c r="G163" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="H163" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="K163" s="70"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A164" s="74"/>
-      <c r="B164" s="81"/>
-      <c r="F164" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="G164" s="74" t="s">
-        <v>280</v>
-      </c>
-      <c r="H164" s="89" t="s">
-        <v>461</v>
-      </c>
-      <c r="K164" s="70"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A165" s="74"/>
-      <c r="B165" s="81"/>
-      <c r="F165" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="G165" s="74" t="s">
-        <v>276</v>
-      </c>
-      <c r="H165" s="89" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A166" s="74"/>
-      <c r="B166" s="81"/>
-    </row>
-    <row r="167" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C167" s="66" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A168" s="74"/>
-      <c r="B168" s="81"/>
-      <c r="E168" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="I168" s="49"/>
-      <c r="K168" s="70"/>
-      <c r="L168" s="49"/>
-    </row>
-    <row r="169" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A169" s="74"/>
-      <c r="B169" s="81"/>
-      <c r="I169" s="49"/>
-      <c r="K169" s="70"/>
-      <c r="L169" s="49"/>
-    </row>
-    <row r="170" spans="1:12" ht="66" x14ac:dyDescent="0.35">
-      <c r="A170" s="74"/>
-      <c r="B170" s="81"/>
-      <c r="C170" s="74" t="s">
-        <v>282</v>
-      </c>
-      <c r="E170" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="F170" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="G170" s="74" t="s">
-        <v>291</v>
-      </c>
-      <c r="I170" s="49"/>
-      <c r="K170" s="70"/>
-      <c r="L170" s="49"/>
-    </row>
-    <row r="171" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A171" s="74"/>
-      <c r="B171" s="81"/>
-      <c r="F171" s="74" t="s">
-        <v>286</v>
-      </c>
-      <c r="G171" s="74" t="s">
-        <v>292</v>
-      </c>
       <c r="H171" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="I171" s="48"/>
+        <v>445</v>
+      </c>
+      <c r="J171" s="72"/>
       <c r="K171" s="70"/>
-      <c r="L171" s="48"/>
     </row>
     <row r="172" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A172" s="74"/>
       <c r="B172" s="81"/>
       <c r="F172" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G172" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="H172" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="K172" s="70"/>
+      <c r="L172" s="43"/>
+    </row>
+    <row r="173" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="B173" s="81"/>
+      <c r="K173" s="70"/>
+      <c r="L173" s="43"/>
+    </row>
+    <row r="174" spans="1:12" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A174" s="81">
+        <v>4</v>
+      </c>
+      <c r="B174" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F174" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="G174" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="K174" s="70"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B175" s="81"/>
+      <c r="F175" s="74" t="s">
+        <v>269</v>
+      </c>
+      <c r="G175" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="H175" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="K175" s="70"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B176" s="81"/>
+      <c r="F176" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="G176" s="74" t="s">
+        <v>277</v>
+      </c>
+      <c r="H176" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="K176" s="70"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B177" s="81"/>
+      <c r="F177" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="G177" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="H177" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="K177" s="70"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A178" s="74"/>
+      <c r="B178" s="81"/>
+      <c r="F178" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="G178" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="H178" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="K178" s="70"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" s="74"/>
+      <c r="B179" s="81"/>
+      <c r="F179" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="G179" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="H179" s="89" t="s">
+        <v>449</v>
+      </c>
+      <c r="K179" s="70"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" s="74"/>
+      <c r="B180" s="81"/>
+      <c r="F180" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="G180" s="74" t="s">
+        <v>276</v>
+      </c>
+      <c r="H180" s="89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" s="74"/>
+      <c r="B181" s="81"/>
+    </row>
+    <row r="182" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C182" s="66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A183" s="74"/>
+      <c r="B183" s="81"/>
+      <c r="E183" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="I183" s="49"/>
+      <c r="K183" s="70"/>
+      <c r="L183" s="49"/>
+    </row>
+    <row r="184" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A184" s="74"/>
+      <c r="B184" s="81"/>
+      <c r="I184" s="49"/>
+      <c r="K184" s="70"/>
+      <c r="L184" s="49"/>
+    </row>
+    <row r="185" spans="1:12" ht="66" x14ac:dyDescent="0.35">
+      <c r="A185" s="74"/>
+      <c r="B185" s="81"/>
+      <c r="C185" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E185" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="F185" s="74" t="s">
+        <v>285</v>
+      </c>
+      <c r="G185" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="I185" s="49"/>
+      <c r="K185" s="70"/>
+      <c r="L185" s="49"/>
+    </row>
+    <row r="186" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A186" s="74"/>
+      <c r="B186" s="81"/>
+      <c r="F186" s="74" t="s">
+        <v>286</v>
+      </c>
+      <c r="G186" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="H186" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I186" s="48"/>
+      <c r="K186" s="70"/>
+      <c r="L186" s="48"/>
+    </row>
+    <row r="187" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A187" s="74"/>
+      <c r="B187" s="81"/>
+      <c r="F187" s="74" t="s">
         <v>287</v>
       </c>
-      <c r="G172" s="74" t="s">
+      <c r="G187" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="H172" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="I172" s="49"/>
-      <c r="K172" s="70"/>
-      <c r="L172" s="49"/>
-    </row>
-    <row r="173" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A173" s="74"/>
-      <c r="B173" s="81"/>
-      <c r="F173" s="74" t="s">
+      <c r="H187" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I187" s="49"/>
+      <c r="K187" s="70"/>
+      <c r="L187" s="49"/>
+    </row>
+    <row r="188" spans="1:12" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A188" s="74"/>
+      <c r="B188" s="81"/>
+      <c r="F188" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="G173" s="74" t="s">
+      <c r="G188" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="H173" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="I173" s="50"/>
-      <c r="K173" s="70"/>
-      <c r="L173" s="50"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F174" s="74" t="s">
+      <c r="H188" s="89" t="s">
+        <v>445</v>
+      </c>
+      <c r="I188" s="50"/>
+      <c r="K188" s="70"/>
+      <c r="L188" s="50"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F189" s="74" t="s">
         <v>289</v>
       </c>
-      <c r="G174" s="74" t="s">
+      <c r="G189" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="H174" s="89" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F175" s="74" t="s">
+      <c r="H189" s="89" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F190" s="74" t="s">
         <v>290</v>
       </c>
-      <c r="G175" s="74" t="s">
+      <c r="G190" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="H175" s="89" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="177" spans="3:8" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="C177" s="66" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E178" s="73" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C180" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="D180" s="81">
+      <c r="H190" s="89" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" s="65" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="C192" s="66" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="E193" s="73" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C195" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="D195" s="81">
         <v>1</v>
       </c>
-      <c r="E180" s="74" t="s">
-        <v>378</v>
-      </c>
-      <c r="F180" s="74" t="s">
-        <v>379</v>
-      </c>
-      <c r="G180" s="74" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F181" s="74" t="s">
-        <v>381</v>
-      </c>
-      <c r="G181" s="74" t="s">
-        <v>382</v>
-      </c>
-      <c r="H181" s="89" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="182" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="F182" s="74" t="s">
-        <v>383</v>
-      </c>
-      <c r="G182" s="74" t="s">
-        <v>384</v>
-      </c>
-      <c r="H182" s="89" t="s">
-        <v>457</v>
+      <c r="E195" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="F195" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="G195" s="74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="F196" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="G196" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="H196" s="89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="F197" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="G197" s="74" t="s">
+        <v>372</v>
+      </c>
+      <c r="H197" s="89" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -8977,290 +9388,338 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A110:G110 A49:G49 F168:K170 A176:IY176 A123:G123 F46:G48 F108:G109 F154:IY155 E5:E24 A4:D24 A45:G45 E163:E164 A163:D166 A69:E75 G69:G75 H45:IY53 A76:G76 F163:G166 A168:D173 A174:E175 G171:K171 A178:D178 F178:IY178 F2:IY25 A68:H68 J68:IY68 H54 J54:IY54 H55:IY67 H69:IY76 H108:IY153 H156:IY166 I174:IY175 I172:K173 G172:H175 A179:IY65573">
-    <cfRule type="cellIs" dxfId="133" priority="121" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A120:G120 A59:G59 F183:K185 A191:IY191 A133:G133 F56:G58 F118:G119 F169:IY170 E5:E25 A4:D25 E178:E179 A178:D181 A79:E85 G79:G85 A51:IY51 A86:G86 F178:G181 A183:D188 A189:E190 G186:K186 A193:D193 F193:IY193 F2:IY25 A78:H78 J78:IY78 H64 J64:IY64 H65:IY77 H79:IY86 H118:IY164 H171:IY181 I189:IY190 I187:K188 G187:H190 A194:IY65588 F30:IY30 H56:IY63">
+    <cfRule type="cellIs" dxfId="153" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53:G56 B57:B67">
-    <cfRule type="cellIs" dxfId="131" priority="65" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B63:G66 B67:B77">
+    <cfRule type="cellIs" dxfId="151" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L168:L170 L172:L173 E171:E173 M168:IY173 E2 A2:D3 A162:G162">
-    <cfRule type="cellIs" dxfId="129" priority="105" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="L183:L185 L187:L188 E186:E188 M183:IY188 E2 A2:D3 A177:G177">
+    <cfRule type="cellIs" dxfId="149" priority="117" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="106" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="118" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25">
-    <cfRule type="cellIs" dxfId="127" priority="101" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A30:D30">
+    <cfRule type="cellIs" dxfId="147" priority="113" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="114" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48 A46:D48 A50:G52 A53:A67 C57:G58 C67:G67 C59:E66">
-    <cfRule type="cellIs" dxfId="125" priority="99" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E57:E58 A56:D58 A60:G62 A63:A77 C67:G68 C77:G77 C69:E76">
+    <cfRule type="cellIs" dxfId="145" priority="111" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="112" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109 A108:D109 A111:G113 A114:A117 A118:G122">
-    <cfRule type="cellIs" dxfId="123" priority="95" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E119 A118:D119 A121:G123 A124:A127 A128:G132">
+    <cfRule type="cellIs" dxfId="143" priority="107" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="108" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E155 A154:D155 A156:G161">
-    <cfRule type="cellIs" dxfId="121" priority="91" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E170 A169:D170 A171:G176">
+    <cfRule type="cellIs" dxfId="141" priority="103" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="104" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B114:G117">
-    <cfRule type="cellIs" dxfId="119" priority="61" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B124:G127">
+    <cfRule type="cellIs" dxfId="139" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:E79 A77:D79 A81:G83 A84:A98 C88:G89 C98:G98 C90:E97">
-    <cfRule type="cellIs" dxfId="117" priority="43" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E88:E89 A87:D89 A91:G93 A94:A108 C98:G99 C108:G108 C100:E107">
+    <cfRule type="cellIs" dxfId="137" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:IY44">
-    <cfRule type="cellIs" dxfId="115" priority="53" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A31:IY32 A34:IY50 A33:D33 F33:IY33">
+    <cfRule type="cellIs" dxfId="135" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59:F66">
-    <cfRule type="cellIs" dxfId="113" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F69:F76">
+    <cfRule type="cellIs" dxfId="133" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:G66">
-    <cfRule type="cellIs" dxfId="111" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G69:G76">
+    <cfRule type="cellIs" dxfId="131" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69:F75">
-    <cfRule type="cellIs" dxfId="109" priority="47" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F79:F85">
+    <cfRule type="cellIs" dxfId="129" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80:G80 F77:G79 A100:E106 G100:G106 A107:G107 H77:IY98 H100:IY107 A99:H99 J99:IY99">
-    <cfRule type="cellIs" dxfId="107" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A90:G90 F87:G89 A110:E116 G110:G116 A117:G117 H87:IY108 H110:IY117 A109:H109 J109:IY109">
+    <cfRule type="cellIs" dxfId="127" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:G87 B88:B98">
-    <cfRule type="cellIs" dxfId="105" priority="41" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B94:G97 B98:B108">
+    <cfRule type="cellIs" dxfId="125" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F97">
-    <cfRule type="cellIs" dxfId="103" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F100:F107">
+    <cfRule type="cellIs" dxfId="123" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G97">
-    <cfRule type="cellIs" dxfId="101" priority="37" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G100:G107">
+    <cfRule type="cellIs" dxfId="121" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F100:F106">
-    <cfRule type="cellIs" dxfId="99" priority="35" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F110:F116">
+    <cfRule type="cellIs" dxfId="119" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A127:G127 F124:G126 A146:G146 A147:E152 G147:G152 A153:G153">
-    <cfRule type="cellIs" dxfId="97" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A137:G138 F134:G136 A157:G157 A158:E163 G158:G163 A164:G164">
+    <cfRule type="cellIs" dxfId="117" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B131:G134 B135:B145">
-    <cfRule type="cellIs" dxfId="95" priority="29" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B142:G145 B146:B156">
+    <cfRule type="cellIs" dxfId="115" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E125:E126 A124:D126 A128:G130 A131:A145 C135:G136 C145:G145 C137:E144">
-    <cfRule type="cellIs" dxfId="93" priority="31" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E135:E136 A134:D136 A139:G141 A142:A156 C146:G147 C156:G156 C148:E155">
+    <cfRule type="cellIs" dxfId="113" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F137:F144">
-    <cfRule type="cellIs" dxfId="91" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F148:F155">
+    <cfRule type="cellIs" dxfId="111" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G137:G144">
-    <cfRule type="cellIs" dxfId="89" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G148:G155">
+    <cfRule type="cellIs" dxfId="109" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147:F152">
-    <cfRule type="cellIs" dxfId="87" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F158:F163">
+    <cfRule type="cellIs" dxfId="107" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F167:IY167">
-    <cfRule type="cellIs" dxfId="85" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F182:IY182">
+    <cfRule type="cellIs" dxfId="105" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A167:D167">
-    <cfRule type="cellIs" dxfId="83" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A182:D182">
+    <cfRule type="cellIs" dxfId="103" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E168">
-    <cfRule type="cellIs" dxfId="81" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E183">
+    <cfRule type="cellIs" dxfId="101" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F171">
-    <cfRule type="cellIs" dxfId="79" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F186">
+    <cfRule type="cellIs" dxfId="99" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F172">
-    <cfRule type="cellIs" dxfId="77" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F187">
+    <cfRule type="cellIs" dxfId="97" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="75" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F188">
+    <cfRule type="cellIs" dxfId="95" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F174">
-    <cfRule type="cellIs" dxfId="73" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F189">
+    <cfRule type="cellIs" dxfId="93" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F175">
-    <cfRule type="cellIs" dxfId="71" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F190">
+    <cfRule type="cellIs" dxfId="91" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F177:IY177">
-    <cfRule type="cellIs" dxfId="69" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F192:IY192">
+    <cfRule type="cellIs" dxfId="89" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A177:D177">
-    <cfRule type="cellIs" dxfId="67" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A192:D192">
+    <cfRule type="cellIs" dxfId="87" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="65" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E193">
+    <cfRule type="cellIs" dxfId="85" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:IY29">
+    <cfRule type="cellIs" dxfId="83" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="81" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:IY55">
+    <cfRule type="cellIs" dxfId="79" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165:IY168">
+    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B165:G168">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165:A168">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I68" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-16"/>
-    <hyperlink ref="I54" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-17"/>
-    <hyperlink ref="I99" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-19"/>
+    <hyperlink ref="I78" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-16"/>
+    <hyperlink ref="I64" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-17"/>
+    <hyperlink ref="I109" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId4"/>
@@ -9272,10 +9731,10 @@
   <dimension ref="A1:P151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J148" sqref="J148"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9299,14 +9758,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92" t="s">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:16" s="40" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
@@ -9380,7 +9839,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E5" s="42" t="s">
-        <v>298</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.35">
@@ -9461,7 +9920,7 @@
         <v>297</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>303</v>
+        <v>504</v>
       </c>
       <c r="H9" s="61" t="s">
         <v>93</v>
@@ -9473,64 +9932,64 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E10" s="42"/>
       <c r="F10" s="63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>305</v>
+        <v>505</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E11" s="42"/>
       <c r="F11" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>304</v>
+        <v>506</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E12" s="42"/>
       <c r="F12" s="63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>306</v>
+        <v>508</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="33" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E13" s="42"/>
       <c r="F13" s="63" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
       <c r="H13" s="90" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="90"/>
       <c r="B14" s="90"/>
       <c r="D14" s="90"/>
       <c r="E14" s="73"/>
       <c r="F14" s="63" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="69"/>
@@ -9538,22 +9997,22 @@
       <c r="L14" s="90"/>
       <c r="M14" s="69"/>
     </row>
-    <row r="15" spans="1:16" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="90"/>
       <c r="B15" s="90"/>
       <c r="D15" s="90"/>
       <c r="E15" s="73"/>
       <c r="F15" s="63" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
       <c r="H15" s="90" t="s">
         <v>93</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="J15" s="69"/>
       <c r="K15" s="90"/>
@@ -9579,7 +10038,7 @@
       <c r="B18" s="79"/>
       <c r="D18" s="79"/>
       <c r="E18" s="73" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F18" s="80"/>
       <c r="H18" s="79"/>
@@ -9601,10 +10060,10 @@
         <v>53</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G19" s="74" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -9612,16 +10071,16 @@
       <c r="D20" s="78"/>
       <c r="E20" s="74"/>
       <c r="F20" s="74" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H20" s="61" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J20" s="69" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -9629,10 +10088,10 @@
         <v>92</v>
       </c>
       <c r="G21" s="74" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H21" s="90" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
@@ -9640,13 +10099,13 @@
       <c r="B22" s="86"/>
       <c r="D22" s="86"/>
       <c r="F22" s="74" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H22" s="90" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I22" s="86"/>
       <c r="J22" s="69"/>
@@ -9659,13 +10118,13 @@
       <c r="B23" s="86"/>
       <c r="D23" s="86"/>
       <c r="F23" s="74" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G23" s="74" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H23" s="90" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I23" s="86"/>
       <c r="J23" s="69"/>
@@ -9678,13 +10137,13 @@
       <c r="B24" s="86"/>
       <c r="D24" s="86"/>
       <c r="F24" s="74" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G24" s="74" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H24" s="90" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I24" s="86"/>
       <c r="J24" s="69"/>
@@ -9697,10 +10156,10 @@
       <c r="B25" s="86"/>
       <c r="D25" s="86"/>
       <c r="F25" s="74" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H25" s="90" t="s">
         <v>95</v>
@@ -9727,12 +10186,12 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E28" s="73" t="s">
-        <v>347</v>
+        <v>510</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E29" s="73" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
@@ -9740,7 +10199,7 @@
       <c r="B30" s="86"/>
       <c r="D30" s="86"/>
       <c r="E30" s="73" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H30" s="86"/>
       <c r="I30" s="86"/>
@@ -9754,7 +10213,7 @@
       <c r="B31" s="81"/>
       <c r="D31" s="81"/>
       <c r="E31" s="73" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H31" s="81"/>
       <c r="I31" s="81"/>
@@ -9776,15 +10235,15 @@
         <v>90</v>
       </c>
       <c r="F32" s="74" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G32" s="74" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H32" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="81"/>
+        <v>456</v>
+      </c>
+      <c r="I32" s="91"/>
       <c r="J32" s="69"/>
       <c r="K32" s="81"/>
       <c r="L32" s="81"/>
@@ -9795,7 +10254,7 @@
       <c r="B33" s="81"/>
       <c r="D33" s="81"/>
       <c r="F33" s="74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G33" s="74" t="s">
         <v>91</v>
@@ -9803,7 +10262,7 @@
       <c r="H33" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="81"/>
+      <c r="I33" s="91"/>
       <c r="J33" s="69"/>
       <c r="K33" s="81"/>
       <c r="L33" s="81"/>
@@ -9814,15 +10273,15 @@
       <c r="B34" s="81"/>
       <c r="D34" s="81"/>
       <c r="F34" s="74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G34" s="74" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H34" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="I34" s="81"/>
+      <c r="I34" s="91"/>
       <c r="J34" s="69"/>
       <c r="K34" s="81"/>
       <c r="L34" s="81"/>
@@ -9843,22 +10302,22 @@
         <v>24</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H36" s="61" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
@@ -9866,10 +10325,10 @@
       <c r="B37" s="79"/>
       <c r="D37" s="79"/>
       <c r="F37" s="74" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G37" s="74" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
@@ -9883,10 +10342,10 @@
       <c r="B38" s="79"/>
       <c r="D38" s="79"/>
       <c r="F38" s="74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H38" s="79"/>
       <c r="I38" s="79"/>
@@ -9897,10 +10356,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F39" s="41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G39" s="74" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
@@ -9908,10 +10367,10 @@
       <c r="B40" s="86"/>
       <c r="D40" s="86"/>
       <c r="F40" s="74" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G40" s="74" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H40" s="86"/>
       <c r="I40" s="86"/>
@@ -9925,24 +10384,24 @@
         <v>55</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F42" s="74" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F43" s="41" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G43" s="74" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H43" s="61" t="s">
         <v>95</v>
@@ -9951,50 +10410,50 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F44" s="74" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G44" s="74" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H44" s="61" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F45" s="74" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G45" s="74" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="H45" s="90" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="I45" s="90"/>
       <c r="J45" s="69" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F46" s="74" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G46" s="74" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="H46" s="61" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F47" s="74" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G47" s="74" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H47" s="61" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:13" s="74" customFormat="1" x14ac:dyDescent="0.35">
@@ -10011,20 +10470,20 @@
     <row r="49" spans="1:13" s="74" customFormat="1" ht="99" x14ac:dyDescent="0.35">
       <c r="A49" s="86"/>
       <c r="B49" s="86" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D49" s="86"/>
       <c r="E49" s="74" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F49" s="74" t="s">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="G49" s="74" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H49" s="86"/>
       <c r="I49" s="86"/>
@@ -10038,10 +10497,10 @@
       <c r="B50" s="86"/>
       <c r="D50" s="86"/>
       <c r="F50" s="74" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H50" s="86" t="s">
         <v>95</v>
@@ -10057,13 +10516,13 @@
       <c r="B51" s="86"/>
       <c r="D51" s="86"/>
       <c r="F51" s="74" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G51" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H51" s="86" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I51" s="86"/>
       <c r="J51" s="69"/>
@@ -10076,13 +10535,13 @@
       <c r="B52" s="86"/>
       <c r="D52" s="86"/>
       <c r="F52" s="74" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G52" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H52" s="90" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I52" s="86"/>
       <c r="J52" s="69"/>
@@ -10095,16 +10554,16 @@
       <c r="B53" s="86"/>
       <c r="D53" s="86"/>
       <c r="F53" s="74" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G53" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H53" s="90" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I53" s="85" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="J53" s="69"/>
       <c r="K53" s="86"/>
@@ -10116,13 +10575,13 @@
       <c r="B54" s="86"/>
       <c r="D54" s="86"/>
       <c r="F54" s="74" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="G54" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H54" s="86" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I54" s="86"/>
       <c r="J54" s="69"/>
@@ -10135,13 +10594,13 @@
       <c r="B55" s="86"/>
       <c r="D55" s="86"/>
       <c r="F55" s="74" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G55" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H55" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I55" s="86"/>
       <c r="J55" s="69"/>
@@ -10154,13 +10613,13 @@
       <c r="B56" s="86"/>
       <c r="D56" s="86"/>
       <c r="F56" s="74" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G56" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H56" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I56" s="86"/>
       <c r="J56" s="69"/>
@@ -10173,10 +10632,10 @@
       <c r="B57" s="86"/>
       <c r="D57" s="86"/>
       <c r="F57" s="74" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G57" s="74" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H57" s="86" t="s">
         <v>95</v>
@@ -10192,13 +10651,13 @@
       <c r="B58" s="86"/>
       <c r="D58" s="86"/>
       <c r="F58" s="74" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G58" s="74" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H58" s="86" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="I58" s="86"/>
       <c r="J58" s="69"/>
@@ -10211,13 +10670,13 @@
       <c r="B59" s="86"/>
       <c r="D59" s="86"/>
       <c r="F59" s="74" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G59" s="74" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="H59" s="86" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I59" s="86"/>
       <c r="K59" s="86"/>
@@ -10229,10 +10688,10 @@
       <c r="B60" s="87"/>
       <c r="D60" s="87"/>
       <c r="F60" s="74" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G60" s="74" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H60" s="87" t="s">
         <v>95</v>
@@ -10248,13 +10707,13 @@
       <c r="B61" s="88"/>
       <c r="D61" s="88"/>
       <c r="F61" s="74" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G61" s="74" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H61" s="88" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I61" s="88"/>
       <c r="J61" s="69"/>
@@ -10267,13 +10726,13 @@
       <c r="B62" s="87"/>
       <c r="D62" s="87"/>
       <c r="F62" s="74" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G62" s="74" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H62" s="87" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="I62" s="87"/>
       <c r="J62" s="69"/>
@@ -10286,13 +10745,13 @@
       <c r="B63" s="87"/>
       <c r="D63" s="87"/>
       <c r="F63" s="74" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G63" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H63" s="87" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I63" s="87"/>
       <c r="J63" s="69"/>
@@ -10305,13 +10764,13 @@
       <c r="B64" s="87"/>
       <c r="D64" s="87"/>
       <c r="F64" s="74" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G64" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H64" s="87" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="I64" s="87"/>
       <c r="J64" s="69"/>
@@ -10324,13 +10783,13 @@
       <c r="B65" s="87"/>
       <c r="D65" s="87"/>
       <c r="F65" s="74" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G65" s="74" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="H65" s="87" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I65" s="87"/>
       <c r="J65" s="69"/>
@@ -10343,10 +10802,10 @@
       <c r="B66" s="87"/>
       <c r="D66" s="87"/>
       <c r="F66" s="74" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G66" s="74" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H66" s="87" t="s">
         <v>95</v>
@@ -10362,10 +10821,10 @@
       <c r="B67" s="87"/>
       <c r="D67" s="87"/>
       <c r="F67" s="74" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G67" s="74" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H67" s="87" t="s">
         <v>95</v>
@@ -10381,10 +10840,10 @@
       <c r="B68" s="87"/>
       <c r="D68" s="87"/>
       <c r="F68" s="74" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G68" s="74" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H68" s="87" t="s">
         <v>95</v>
@@ -10425,7 +10884,7 @@
       <c r="B72" s="86"/>
       <c r="D72" s="86"/>
       <c r="E72" s="73" t="s">
-        <v>366</v>
+        <v>512</v>
       </c>
       <c r="H72" s="86"/>
       <c r="I72" s="86"/>
@@ -10439,7 +10898,7 @@
       <c r="B73" s="86"/>
       <c r="D73" s="86"/>
       <c r="E73" s="73" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H73" s="86"/>
       <c r="I73" s="86"/>
@@ -10453,7 +10912,7 @@
       <c r="B74" s="86"/>
       <c r="D74" s="86"/>
       <c r="E74" s="73" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H74" s="86"/>
       <c r="I74" s="86"/>
@@ -10467,7 +10926,7 @@
       <c r="B75" s="86"/>
       <c r="D75" s="86"/>
       <c r="E75" s="73" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H75" s="86"/>
       <c r="I75" s="86"/>
@@ -10482,22 +10941,22 @@
         <v>88</v>
       </c>
       <c r="C76" s="74" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D76" s="86"/>
       <c r="E76" s="74" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F76" s="74" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G76" s="74" t="s">
-        <v>354</v>
-      </c>
-      <c r="H76" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="I76" s="86"/>
+        <v>346</v>
+      </c>
+      <c r="H76" s="91" t="s">
+        <v>503</v>
+      </c>
+      <c r="I76" s="85"/>
       <c r="J76" s="69"/>
       <c r="K76" s="86"/>
       <c r="L76" s="86"/>
@@ -10508,10 +10967,10 @@
       <c r="B77" s="86"/>
       <c r="D77" s="86"/>
       <c r="F77" s="74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G77" s="74" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H77" s="90" t="s">
         <v>95</v>
@@ -10527,10 +10986,10 @@
       <c r="B78" s="86"/>
       <c r="D78" s="86"/>
       <c r="F78" s="74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G78" s="74" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H78" s="90" t="s">
         <v>95</v>
@@ -10558,23 +11017,23 @@
         <v>24</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D80" s="86"/>
       <c r="E80" s="74" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F80" s="74" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G80" s="74" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H80" s="90" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I80" s="85" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="J80" s="69"/>
       <c r="K80" s="86"/>
@@ -10586,10 +11045,10 @@
       <c r="B81" s="86"/>
       <c r="D81" s="86"/>
       <c r="F81" s="74" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G81" s="74" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H81" s="86"/>
       <c r="I81" s="86"/>
@@ -10603,10 +11062,10 @@
       <c r="B82" s="86"/>
       <c r="D82" s="86"/>
       <c r="F82" s="74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G82" s="74" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H82" s="86"/>
       <c r="I82" s="86"/>
@@ -10620,10 +11079,10 @@
       <c r="B83" s="86"/>
       <c r="D83" s="86"/>
       <c r="F83" s="74" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G83" s="74" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H83" s="86"/>
       <c r="I83" s="86"/>
@@ -10637,10 +11096,10 @@
       <c r="B84" s="86"/>
       <c r="D84" s="86"/>
       <c r="F84" s="74" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G84" s="74" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H84" s="86"/>
       <c r="I84" s="86"/>
@@ -10666,17 +11125,17 @@
         <v>55</v>
       </c>
       <c r="C86" s="74" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D86" s="86"/>
       <c r="E86" s="74" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G86" s="74" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="H86" s="86"/>
       <c r="I86" s="86"/>
@@ -10690,10 +11149,10 @@
       <c r="B87" s="86"/>
       <c r="D87" s="86"/>
       <c r="F87" s="74" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G87" s="74" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H87" s="90" t="s">
         <v>95</v>
@@ -10709,13 +11168,13 @@
       <c r="B88" s="86"/>
       <c r="D88" s="86"/>
       <c r="F88" s="74" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G88" s="74" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H88" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I88" s="90"/>
       <c r="J88" s="69"/>
@@ -10728,17 +11187,17 @@
       <c r="B89" s="86"/>
       <c r="D89" s="86"/>
       <c r="F89" s="74" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G89" s="74" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="H89" s="90" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="I89" s="90"/>
       <c r="J89" s="69" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="K89" s="86"/>
       <c r="L89" s="86"/>
@@ -10749,13 +11208,13 @@
       <c r="B90" s="86"/>
       <c r="D90" s="86"/>
       <c r="F90" s="74" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G90" s="74" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="H90" s="90" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="I90" s="90"/>
       <c r="J90" s="69"/>
@@ -10768,13 +11227,13 @@
       <c r="B91" s="86"/>
       <c r="D91" s="86"/>
       <c r="F91" s="74" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H91" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I91" s="90"/>
       <c r="J91" s="69"/>
@@ -10796,20 +11255,20 @@
     <row r="93" spans="1:13" s="74" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A93" s="86"/>
       <c r="B93" s="86" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C93" s="74" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D93" s="86"/>
       <c r="E93" s="74" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F93" s="74" t="s">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="G93" s="74" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H93" s="86"/>
       <c r="I93" s="86"/>
@@ -10823,10 +11282,10 @@
       <c r="B94" s="86"/>
       <c r="D94" s="86"/>
       <c r="F94" s="74" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>95</v>
@@ -10842,10 +11301,10 @@
       <c r="B95" s="86"/>
       <c r="D95" s="86"/>
       <c r="F95" s="74" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G95" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H95" s="86" t="s">
         <v>95</v>
@@ -10861,10 +11320,10 @@
       <c r="B96" s="86"/>
       <c r="D96" s="86"/>
       <c r="F96" s="74" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G96" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H96" s="86" t="s">
         <v>95</v>
@@ -10880,10 +11339,10 @@
       <c r="B97" s="86"/>
       <c r="D97" s="86"/>
       <c r="F97" s="74" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G97" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H97" s="86" t="s">
         <v>95</v>
@@ -10899,13 +11358,13 @@
       <c r="B98" s="86"/>
       <c r="D98" s="86"/>
       <c r="F98" s="74" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G98" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H98" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I98" s="90"/>
       <c r="J98" s="69"/>
@@ -10918,16 +11377,16 @@
       <c r="B99" s="86"/>
       <c r="D99" s="86"/>
       <c r="F99" s="74" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G99" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H99" s="90" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I99" s="85" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="J99" s="69"/>
       <c r="K99" s="86"/>
@@ -10939,13 +11398,13 @@
       <c r="B100" s="86"/>
       <c r="D100" s="86"/>
       <c r="F100" s="74" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G100" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H100" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I100" s="86"/>
       <c r="J100" s="69"/>
@@ -10958,13 +11417,13 @@
       <c r="B101" s="86"/>
       <c r="D101" s="86"/>
       <c r="F101" s="74" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G101" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H101" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I101" s="86"/>
       <c r="J101" s="69"/>
@@ -10977,13 +11436,13 @@
       <c r="B102" s="86"/>
       <c r="D102" s="86"/>
       <c r="F102" s="74" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="G102" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H102" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I102" s="86"/>
       <c r="J102" s="69"/>
@@ -10996,13 +11455,13 @@
       <c r="B103" s="86"/>
       <c r="D103" s="86"/>
       <c r="F103" s="74" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G103" s="74" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H103" s="86" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="I103" s="86"/>
       <c r="K103" s="86"/>
@@ -11014,13 +11473,13 @@
       <c r="B104" s="87"/>
       <c r="D104" s="87"/>
       <c r="F104" s="74" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G104" s="74" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="H104" s="87" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="I104" s="87"/>
       <c r="K104" s="87"/>
@@ -11032,10 +11491,10 @@
       <c r="B105" s="87"/>
       <c r="D105" s="87"/>
       <c r="F105" s="74" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G105" s="74" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H105" s="87" t="s">
         <v>95</v>
@@ -11050,10 +11509,10 @@
       <c r="B106" s="87"/>
       <c r="D106" s="87"/>
       <c r="F106" s="74" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G106" s="74" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H106" s="87" t="s">
         <v>95</v>
@@ -11068,13 +11527,13 @@
       <c r="B107" s="87"/>
       <c r="D107" s="87"/>
       <c r="F107" s="74" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G107" s="74" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H107" s="87" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I107" s="87"/>
       <c r="K107" s="87"/>
@@ -11086,13 +11545,13 @@
       <c r="B108" s="87"/>
       <c r="D108" s="87"/>
       <c r="F108" s="74" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G108" s="74" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="H108" s="87" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I108" s="87"/>
       <c r="K108" s="87"/>
@@ -11104,13 +11563,13 @@
       <c r="B109" s="88"/>
       <c r="D109" s="88"/>
       <c r="F109" s="74" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="G109" s="74" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="H109" s="88" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I109" s="88"/>
       <c r="K109" s="88"/>
@@ -11122,13 +11581,13 @@
       <c r="B110" s="87"/>
       <c r="D110" s="87"/>
       <c r="F110" s="74" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G110" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H110" s="87" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I110" s="87"/>
       <c r="K110" s="87"/>
@@ -11140,13 +11599,13 @@
       <c r="B111" s="87"/>
       <c r="D111" s="87"/>
       <c r="F111" s="74" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G111" s="74" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H111" s="87" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I111" s="87"/>
       <c r="K111" s="87"/>
@@ -11158,10 +11617,10 @@
       <c r="B112" s="87"/>
       <c r="D112" s="87"/>
       <c r="F112" s="74" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G112" s="74" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H112" s="87" t="s">
         <v>95</v>
@@ -11176,13 +11635,13 @@
       <c r="B113" s="87"/>
       <c r="D113" s="87"/>
       <c r="F113" s="74" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G113" s="74" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H113" s="87" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I113" s="87"/>
       <c r="K113" s="87"/>
@@ -11194,15 +11653,17 @@
       <c r="B114" s="87"/>
       <c r="D114" s="87"/>
       <c r="F114" s="74" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G114" s="74" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H114" s="87" t="s">
-        <v>465</v>
-      </c>
-      <c r="I114" s="87"/>
+        <v>93</v>
+      </c>
+      <c r="I114" s="85" t="s">
+        <v>502</v>
+      </c>
       <c r="K114" s="87"/>
       <c r="L114" s="87"/>
       <c r="M114" s="69"/>
@@ -11212,13 +11673,13 @@
       <c r="B115" s="87"/>
       <c r="D115" s="87"/>
       <c r="F115" s="74" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G115" s="74" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="H115" s="87" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="I115" s="87"/>
       <c r="K115" s="87"/>
@@ -11254,7 +11715,7 @@
       <c r="B118" s="86"/>
       <c r="D118" s="86"/>
       <c r="E118" s="73" t="s">
-        <v>372</v>
+        <v>514</v>
       </c>
       <c r="H118" s="86"/>
       <c r="I118" s="86"/>
@@ -11268,7 +11729,7 @@
       <c r="B119" s="86"/>
       <c r="D119" s="86"/>
       <c r="E119" s="73" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H119" s="86"/>
       <c r="I119" s="86"/>
@@ -11282,7 +11743,7 @@
       <c r="B120" s="86"/>
       <c r="D120" s="86"/>
       <c r="E120" s="73" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H120" s="86"/>
       <c r="I120" s="86"/>
@@ -11296,7 +11757,7 @@
       <c r="B121" s="86"/>
       <c r="D121" s="86"/>
       <c r="E121" s="73" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H121" s="86"/>
       <c r="I121" s="86"/>
@@ -11311,17 +11772,17 @@
         <v>88</v>
       </c>
       <c r="C122" s="74" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D122" s="86"/>
       <c r="E122" s="74" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F122" s="74" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G122" s="74" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H122" s="90" t="s">
         <v>95</v>
@@ -11337,10 +11798,10 @@
       <c r="B123" s="86"/>
       <c r="D123" s="86"/>
       <c r="F123" s="74" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G123" s="74" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H123" s="90" t="s">
         <v>95</v>
@@ -11356,10 +11817,10 @@
       <c r="B124" s="86"/>
       <c r="D124" s="86"/>
       <c r="F124" s="74" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G124" s="74" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H124" s="90" t="s">
         <v>95</v>
@@ -11387,23 +11848,23 @@
         <v>24</v>
       </c>
       <c r="C126" s="74" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D126" s="86"/>
       <c r="E126" s="74" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F126" s="74" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G126" s="74" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H126" s="90" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I126" s="85" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="J126" s="69"/>
       <c r="K126" s="86"/>
@@ -11415,10 +11876,10 @@
       <c r="B127" s="86"/>
       <c r="D127" s="86"/>
       <c r="F127" s="74" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G127" s="74" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H127" s="86"/>
       <c r="I127" s="86"/>
@@ -11432,10 +11893,10 @@
       <c r="B128" s="86"/>
       <c r="D128" s="86"/>
       <c r="F128" s="74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G128" s="74" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H128" s="86"/>
       <c r="I128" s="86"/>
@@ -11449,10 +11910,10 @@
       <c r="B129" s="86"/>
       <c r="D129" s="86"/>
       <c r="F129" s="74" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G129" s="74" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H129" s="86"/>
       <c r="I129" s="86"/>
@@ -11466,10 +11927,10 @@
       <c r="B130" s="86"/>
       <c r="D130" s="86"/>
       <c r="F130" s="74" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G130" s="74" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H130" s="86"/>
       <c r="I130" s="86"/>
@@ -11495,17 +11956,17 @@
         <v>55</v>
       </c>
       <c r="C132" s="74" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D132" s="86"/>
       <c r="E132" s="74" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F132" s="74" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G132" s="74" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="H132" s="90"/>
       <c r="I132" s="90"/>
@@ -11519,10 +11980,10 @@
       <c r="B133" s="86"/>
       <c r="D133" s="86"/>
       <c r="F133" s="74" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G133" s="74" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H133" s="90" t="s">
         <v>95</v>
@@ -11538,13 +11999,13 @@
       <c r="B134" s="86"/>
       <c r="D134" s="86"/>
       <c r="F134" s="74" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G134" s="74" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="H134" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I134" s="90"/>
       <c r="J134" s="69"/>
@@ -11557,17 +12018,17 @@
       <c r="B135" s="86"/>
       <c r="D135" s="86"/>
       <c r="F135" s="74" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G135" s="74" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="H135" s="90" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="I135" s="90"/>
       <c r="J135" s="69" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="K135" s="86"/>
       <c r="L135" s="86"/>
@@ -11578,13 +12039,13 @@
       <c r="B136" s="86"/>
       <c r="D136" s="86"/>
       <c r="F136" s="74" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G136" s="74" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="H136" s="90" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="I136" s="90"/>
       <c r="J136" s="69"/>
@@ -11597,13 +12058,13 @@
       <c r="B137" s="86"/>
       <c r="D137" s="86"/>
       <c r="F137" s="74" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G137" s="74" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="H137" s="90" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="I137" s="90"/>
       <c r="J137" s="69"/>
@@ -11625,26 +12086,26 @@
     <row r="139" spans="1:13" s="74" customFormat="1" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A139" s="86"/>
       <c r="B139" s="86" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C139" s="74" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D139" s="86"/>
       <c r="E139" s="74" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F139" s="74" t="s">
-        <v>373</v>
+        <v>515</v>
       </c>
       <c r="G139" s="74" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="H139" s="86" t="s">
         <v>93</v>
       </c>
       <c r="I139" s="85" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="J139" s="69"/>
       <c r="K139" s="86"/>
@@ -11656,13 +12117,13 @@
       <c r="B140" s="86"/>
       <c r="D140" s="86"/>
       <c r="F140" s="74" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G140" s="74" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H140" s="86" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I140" s="86"/>
       <c r="J140" s="69"/>
@@ -11675,13 +12136,13 @@
       <c r="B141" s="86"/>
       <c r="D141" s="86"/>
       <c r="F141" s="74" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G141" s="74" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H141" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I141" s="86"/>
       <c r="J141" s="69"/>
@@ -11694,13 +12155,13 @@
       <c r="B142" s="86"/>
       <c r="D142" s="86"/>
       <c r="F142" s="74" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="G142" s="74" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H142" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I142" s="86"/>
       <c r="J142" s="69"/>
@@ -11713,13 +12174,13 @@
       <c r="B143" s="86"/>
       <c r="D143" s="86"/>
       <c r="F143" s="74" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G143" s="74" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H143" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I143" s="86"/>
       <c r="J143" s="69"/>
@@ -11732,13 +12193,13 @@
       <c r="B144" s="86"/>
       <c r="D144" s="86"/>
       <c r="F144" s="74" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G144" s="74" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H144" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I144" s="86"/>
       <c r="J144" s="69"/>
@@ -11751,13 +12212,13 @@
       <c r="B145" s="86"/>
       <c r="D145" s="86"/>
       <c r="F145" s="74" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G145" s="74" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H145" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I145" s="86"/>
       <c r="J145" s="69"/>
@@ -11770,13 +12231,13 @@
       <c r="B146" s="86"/>
       <c r="D146" s="86"/>
       <c r="F146" s="74" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G146" s="74" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H146" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I146" s="86"/>
       <c r="K146" s="86"/>
@@ -11785,13 +12246,13 @@
     </row>
     <row r="147" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F147" s="74" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G147" s="74" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="H147" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:13" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -11799,13 +12260,13 @@
       <c r="B148" s="88"/>
       <c r="D148" s="88"/>
       <c r="F148" s="74" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="G148" s="74" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H148" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="I148" s="88"/>
       <c r="J148" s="69"/>
@@ -11815,35 +12276,35 @@
     </row>
     <row r="149" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F149" s="74" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G149" s="74" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="H149" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F150" s="74" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G150" s="74" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="H150" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="33" x14ac:dyDescent="0.35">
       <c r="F151" s="74" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G151" s="74" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="H151" s="90" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -11852,259 +12313,267 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:G20 F2:IY3 A26:IY27 A4:IY8 A9:H9 J9:IY9 A28:D35 E29:E36 A117:IY117 A152:IY65358 A147:E151 A16:IY17 A15:H15 J15:IY15 A10:IY14 H19:IY25 F28:IY34 F35:G35 I35:IY35 A36:H36 J36:IY36 A53:G53 J53:IY53 A54:IY70 F72:IY79 F80:G80 J80:IY80 A37:IY52 E73:E116 A72:D116 F81:IY97 F98:G99 J98:IY99 F100:IY116 I98 E119:E146 A118:D146 F138:IY138 F140:IY140 F139:H139 J139:IY139 F141:G146 H141:IY151">
-    <cfRule type="cellIs" dxfId="63" priority="207" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:G20 F2:IY3 A26:IY27 A4:IY8 A9:H9 J9:IY9 A28:D35 E29:E36 A117:IY117 A152:IY65358 A147:E151 A16:IY17 A15:H15 J15:IY15 A10:IY14 H19:IY25 F35:G35 I35:IY35 A36:H36 J36:IY36 A53:G53 J53:IY53 A54:IY70 F72:IY75 F80:G80 J80:IY80 A37:IY52 E73:E116 A72:D116 F81:IY97 F98:G99 J98:IY99 F100:IY113 I98 E119:E146 A118:D146 F138:IY138 F140:IY140 F139:H139 J139:IY139 F141:G146 H141:IY151 F77:IY79 F76:G76 J76:IY76 F115:IY116 F114:H114 J114:IY114 F28:IY34">
+    <cfRule type="cellIs" dxfId="77" priority="209" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="208" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="210" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="61" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="125" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="126" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:G25">
-    <cfRule type="cellIs" dxfId="59" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="121" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="122" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="57" priority="111" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="113" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="114" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="55" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="53" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="51" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="49" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="47" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:IY71">
-    <cfRule type="cellIs" dxfId="45" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="43" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:IY121 F127:IY131 F122:G126 J122:IY126 F132:F137 K132:IY137">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G147">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G149">
-    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="29" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F151">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G151">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="21" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148">
-    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="17" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="cellIs" dxfId="15" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="13" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="11" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:J137">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:I125">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12117,9 +12586,10 @@
     <hyperlink ref="I99" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-28"/>
     <hyperlink ref="I126" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-28"/>
     <hyperlink ref="I139" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-29"/>
+    <hyperlink ref="I114" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -12127,7 +12597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -12137,12 +12607,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="94" t="s">
-        <v>476</v>
+      <c r="A1" s="93" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="93">
+      <c r="A2" s="92">
         <v>42137</v>
       </c>
     </row>
@@ -12151,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -12159,7 +12629,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -12167,7 +12637,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -12175,7 +12645,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -12183,7 +12653,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -12191,7 +12661,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
+++ b/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\01.测试用例\数值规划\伤害公式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\01.测试用例\数值规划\伤害公式\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="602">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -2805,6 +2805,95 @@
   <si>
     <t>客户端：1692
 服务器：1349</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总生命值</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总生命值=总体力*k</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总生命值</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ji'li</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看怪物A总生命值</t>
+    <rPh sb="0" eb="1">
+      <t>cha'kan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'ji'fang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong'ji'li</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A总体力为a</t>
+    <rPh sb="1" eb="2">
+      <t>gong'ji'li</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>weitiao'zhenggong'ji'liwei</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总生命值=a*k</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ji'li</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总生命值=0</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ji'li</t>
+    </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总生命值=100*k</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wu'li</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'ji'li</t>
+    </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3174,7 +3263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3479,6 +3568,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3503,7 +3595,25 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="200">
+  <dxfs count="202">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5727,10 +5837,10 @@
     </row>
     <row r="11" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7088,10 +7198,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N77 C77">
-    <cfRule type="cellIs" dxfId="199" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7103,13 +7213,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S197"/>
+  <dimension ref="A1:S203"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H185" sqref="H185:H190"/>
+      <selection pane="bottomRight" activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7136,14 +7246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111" t="s">
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
     </row>
     <row r="2" spans="1:19" s="88" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="88" t="s">
@@ -10015,12 +10125,12 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E193" s="92" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="195" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C195" s="87" t="s">
         <v>364</v>
       </c>
@@ -10040,7 +10150,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="196" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F196" s="87" t="s">
         <v>368</v>
       </c>
@@ -10054,7 +10164,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F197" s="87" t="s">
         <v>370</v>
       </c>
@@ -10066,6 +10176,58 @@
       </c>
       <c r="K197" s="86" t="s">
         <v>435</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="C199" s="91" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E200" s="92" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B201" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C201" s="70" t="s">
+        <v>596</v>
+      </c>
+      <c r="D201" s="110"/>
+      <c r="E201" s="70" t="s">
+        <v>597</v>
+      </c>
+      <c r="F201" s="70" t="s">
+        <v>598</v>
+      </c>
+      <c r="G201" s="70" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B202" s="110"/>
+      <c r="C202" s="70"/>
+      <c r="D202" s="110"/>
+      <c r="E202" s="70"/>
+      <c r="F202" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="G202" s="70" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B203" s="110"/>
+      <c r="C203" s="70"/>
+      <c r="D203" s="110"/>
+      <c r="E203" s="70"/>
+      <c r="F203" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="G203" s="70" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -10074,387 +10236,419 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A120:J120 A59:J59 F183:N184 A191:JB191 A133:J133 F56:J58 F118:J119 F169:JB170 E5:E25 A4:D25 E178:E179 A178:D181 A79:E85 G79:G85 A51:JB51 A86:J86 F181:J181 A183:D188 A189:E190 A193:D193 F193:JB193 A78:G78 M78:JB78 K64 M64:JB64 K65:JB77 K79:JB86 K118:JB164 K171:JB181 L189:JB190 L187:N188 G186:G190 A194:JB65588 F30:JB30 K56:JB63 F2:JB25 I78:K78 I79:J85 F178:G180 I178:J180 I187:K190 F185:G185 I185:N186">
-    <cfRule type="cellIs" dxfId="197" priority="147" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A120:J120 A59:J59 F183:N184 A191:JB191 A133:J133 F56:J58 F118:J119 F169:JB170 E5:E25 A4:D25 E178:E179 A178:D181 A79:E85 G79:G85 A51:JB51 A86:J86 F181:J181 A183:D188 A189:E190 A193:D193 F193:JB193 A78:G78 M78:JB78 K64 M64:JB64 K65:JB77 K79:JB86 K118:JB164 K171:JB181 L189:JB190 L187:N188 G186:G190 A194:JB198 F30:JB30 K56:JB63 F2:JB25 I78:K78 I79:J85 F178:G180 I178:J180 I187:K190 F185:G185 I185:N186 A204:JB65588 A200:D200 F200:JB200 A201:A203 H201:JB203">
+    <cfRule type="cellIs" dxfId="199" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="148" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:J66 B67:B77">
-    <cfRule type="cellIs" dxfId="195" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O183:O185 O187:O188 E186:E188 P183:JB188 E2 A2:D3 A177:G177 I177:J177">
-    <cfRule type="cellIs" dxfId="193" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="132" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30">
-    <cfRule type="cellIs" dxfId="191" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="135" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="136" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58 A56:D58 A60:J62 A63:A77 C67:J67 C77:J77 C69:E76 C68:G68 I68:J68">
-    <cfRule type="cellIs" dxfId="189" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119 A118:D119 A121:J123 A124:A127 A128:J132">
-    <cfRule type="cellIs" dxfId="187" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170 A169:D170 A171:J173 A174:G176 I174:J176">
-    <cfRule type="cellIs" dxfId="185" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="125" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="126" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:J127">
-    <cfRule type="cellIs" dxfId="183" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E89 A87:D89 A91:J93 A94:A108 C98:J98 C108:J108 C100:E107 C99:G99 I99:J99">
-    <cfRule type="cellIs" dxfId="181" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:JB32 A33:D33 F33:JB33 A34:JB50">
-    <cfRule type="cellIs" dxfId="179" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F76">
-    <cfRule type="cellIs" dxfId="177" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G76 I69:J76">
-    <cfRule type="cellIs" dxfId="175" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F85">
-    <cfRule type="cellIs" dxfId="173" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:J90 F87:J89 A110:E116 G110:J116 A117:J117 K87:JB108 K110:JB117 A109:K109 M109:JB109">
-    <cfRule type="cellIs" dxfId="171" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:J97 B98:B108">
-    <cfRule type="cellIs" dxfId="169" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F107">
-    <cfRule type="cellIs" dxfId="167" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G107 I100:J107">
-    <cfRule type="cellIs" dxfId="165" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F116">
-    <cfRule type="cellIs" dxfId="163" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:J138 F134:J136 A157:G157 A158:E163 G158:G163 A164:J164 I157:J163">
-    <cfRule type="cellIs" dxfId="161" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:J145 B146:B156">
-    <cfRule type="cellIs" dxfId="159" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136 A134:D136 A139:J141 A142:A156 C146:J146 C156:J156 C148:E155 C147:G147 I147:J147">
-    <cfRule type="cellIs" dxfId="157" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148:F155">
-    <cfRule type="cellIs" dxfId="155" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G155 I148:J155">
-    <cfRule type="cellIs" dxfId="153" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158:F163">
-    <cfRule type="cellIs" dxfId="151" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F182:JB182">
-    <cfRule type="cellIs" dxfId="149" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182:D182">
-    <cfRule type="cellIs" dxfId="147" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="145" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F186">
-    <cfRule type="cellIs" dxfId="143" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F187">
-    <cfRule type="cellIs" dxfId="141" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="cellIs" dxfId="139" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="cellIs" dxfId="137" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="cellIs" dxfId="135" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192:JB192">
-    <cfRule type="cellIs" dxfId="133" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A192:D192">
-    <cfRule type="cellIs" dxfId="131" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E193">
-    <cfRule type="cellIs" dxfId="129" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:JB29">
-    <cfRule type="cellIs" dxfId="127" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="125" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:JB55">
-    <cfRule type="cellIs" dxfId="123" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K165:JB168">
-    <cfRule type="cellIs" dxfId="121" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165:J168">
-    <cfRule type="cellIs" dxfId="119" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165:A168">
-    <cfRule type="cellIs" dxfId="117" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H76">
-    <cfRule type="cellIs" dxfId="115" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H85">
-    <cfRule type="cellIs" dxfId="113" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H107">
-    <cfRule type="cellIs" dxfId="111" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:H155">
-    <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157:H163">
-    <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174:H180">
-    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185:H190">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F199:JB199">
+    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A199:D199">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E200">
+    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B201:G203">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10472,11 +10666,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D144" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H88" sqref="H88:H91"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10502,14 +10696,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112" t="s">
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:19" s="39" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -13445,346 +13639,346 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:J20 A26:JB27 A4:JB8 A9:K9 M9:JB9 A28:D35 E29:E36 A117:JB117 A151:JB65357 A146:E150 A16:JB17 M15:JB15 A10:G15 K19:JB25 F35:J35 L35:JB35 A36:K36 M36:JB36 A53:J53 M53:JB53 F72:JB75 F80:J80 M80:JB80 A37:JB43 E73:E116 A72:D116 F98:J99 M98:JB99 L98 E119:E145 A118:D145 M139:JB139 F77:JB79 F76:J76 M76:JB76 F116:JB116 M114:JB114 F28:JB34 K141:JB150 F2:JB3 A54:JB70 F100:JB101 F102:I102 K102:JB102 F81:JB87 I103:JB113 I114:K114 F103:G115 I115:JB115 I138:JB138 F138:G145 I139:K139 I140:JB140 I141:J145 I10:JB14 I15:K15 A48:JB52 A44:G47 I44:JB47 F92:JB97 F88:G91 I88:JB91">
-    <cfRule type="cellIs" dxfId="109" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="229" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="230" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="107" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="145" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="146" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:J25 G23:G24 I23:J24">
-    <cfRule type="cellIs" dxfId="105" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="141" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="142" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="103" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="101" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="99" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="97" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="95" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="93" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:JB71">
-    <cfRule type="cellIs" dxfId="91" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="89" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:JB121 F131:JB131 M122:JB126 F132:F137 N132:JB137 F122:J125 I126:J126 F126:G130 I127:JB130">
-    <cfRule type="cellIs" dxfId="87" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="85" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="cellIs" dxfId="83" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146 I146:J146">
-    <cfRule type="cellIs" dxfId="81" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="79" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148 I148:J148">
-    <cfRule type="cellIs" dxfId="77" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="cellIs" dxfId="75" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G149 I149:J149">
-    <cfRule type="cellIs" dxfId="73" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="71" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150 I150:J150">
-    <cfRule type="cellIs" dxfId="69" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="67" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G147 I147:J147">
-    <cfRule type="cellIs" dxfId="65" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:J21">
-    <cfRule type="cellIs" dxfId="63" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:J22">
-    <cfRule type="cellIs" dxfId="61" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="59" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80">
-    <cfRule type="cellIs" dxfId="57" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99">
-    <cfRule type="cellIs" dxfId="55" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:M135 G136:G137 I136:M137">
-    <cfRule type="cellIs" dxfId="53" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K98">
-    <cfRule type="cellIs" dxfId="51" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122:L125">
-    <cfRule type="cellIs" dxfId="49" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="cellIs" dxfId="47" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="45" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H115">
-    <cfRule type="cellIs" dxfId="43" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:H130">
-    <cfRule type="cellIs" dxfId="41" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="39" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H137">
-    <cfRule type="cellIs" dxfId="37" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H144">
-    <cfRule type="cellIs" dxfId="35" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H150">
-    <cfRule type="cellIs" dxfId="33" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H15">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H47">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H91">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
+++ b/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="604">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -1368,38 +1368,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>总暴击率=固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=0,b=0,c=0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=10,b=0,c=0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=10,b=10,c=0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=10,b=10,c=10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=10,b=10,c=20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=10,b=10,c=30</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总暴击率=a+b-c</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>总暴击率=0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1413,10 +1381,6 @@
   </si>
   <si>
     <t>总暴击率=10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总暴击率=0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1831,19 +1795,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>总暴击伤害加成百分比=基础暴击伤害加成百分比+装备附加暴击伤害加成百分比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击伤害加成百分比</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>查看总暴击伤害加成百分比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备附加暴击伤害百分比为a</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2534,14 +2490,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>单次治疗=总暴击伤害加成百分比*A总法术攻击力*（1+角色套装智力加成百分比+治疗效果加成）*A法术技能伤害系数*总技能加成系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>总暴击伤害加成百分比为a,A总法术攻击力为b,角色套装智力加成百分比为c,治疗效果加成为d,A法术技能伤害系数为e,总技能加成系数为f</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单次治疗=a*b*(1+c+d)*e*f</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2642,39 +2590,31 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>ad不为0，P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ad不为0，P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>ab不为0，其他为0时P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ab不为0，其他为0时P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>固有暴击率为a,攻击方装备本身附加暴击率为b,防御方装备本身附加暴击抗性为c</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -2894,6 +2834,74 @@
     <rPh sb="3" eb="4">
       <t>gong'ji'li</t>
     </rPh>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击率=固有暴击率+攻击方装备本身附加暴击率-防御方装备本身附加暴击抗性+被动技能附加暴击率+装备镶嵌附加暴击率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>固有暴击率为a,攻击方装备本身附加暴击率为b,防御方装备本身附加暴击抗性为c,被动技能附加暴击率为d,装备镶嵌附加暴击率为e</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击率=a+b-c+d+e</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0,b=0,c=0,d=0,e=0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=0,c=0,d=0,e=0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=10,c=0,d=0,e=0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=10,c=10,d=0,e=0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=10,c=10,d=10,e=0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=10,c=10,d=10,e=10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击率=30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=10,c=20,d=10,e=0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=10,b=10,c=30,d=0,e=10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击率=10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击伤害加成百分比=基础暴击伤害加成百分比+装备镶嵌附加暴击伤害加成百分比</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备镶嵌附加暴击伤害百分比为a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次治疗=总暴击伤害加成百分比*A总法术攻击力*（1+角色套装智力加成百分比+被治疗效果加成）*A法术技能伤害系数*总技能加成系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击伤害加成百分比为a,A总法术攻击力为b,角色套装智力加成百分比为c,被治疗效果加成为d,A法术技能伤害系数为e,总技能加成系数为f</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3263,7 +3271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3571,6 +3579,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3595,25 +3606,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="202">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
+  <dxfs count="200">
     <dxf>
       <font>
         <b/>
@@ -5837,10 +5830,10 @@
     </row>
     <row r="11" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="111"/>
+      <c r="C11" s="112"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6166,7 +6159,7 @@
         <v>42132</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>40</v>
@@ -6188,10 +6181,10 @@
         <v>42137</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
@@ -6210,10 +6203,10 @@
         <v>42143</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>41</v>
@@ -6227,7 +6220,7 @@
         <v>42153</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>40</v>
@@ -6244,14 +6237,14 @@
         <v>42186</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
@@ -7198,10 +7191,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N77 C77">
-    <cfRule type="cellIs" dxfId="201" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7213,13 +7206,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S203"/>
+  <dimension ref="A1:S205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B189" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G209" sqref="G209"/>
+      <selection pane="bottomRight" activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7246,14 +7239,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112" t="s">
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:19" s="88" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="A2" s="88" t="s">
@@ -7341,7 +7334,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B7" s="86"/>
       <c r="E7" s="95" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="N7" s="94"/>
     </row>
@@ -7365,10 +7358,10 @@
         <v>65</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K8" s="86" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M8" s="97"/>
       <c r="N8" s="94"/>
@@ -7382,10 +7375,10 @@
         <v>65</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K9" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N9" s="94"/>
       <c r="O9" s="42"/>
@@ -7413,7 +7406,7 @@
         <v>100</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="42"/>
@@ -7430,10 +7423,10 @@
         <v>101</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="K12" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="N12" s="94"/>
       <c r="O12" s="42"/>
@@ -7450,10 +7443,10 @@
         <v>101</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="K13" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="N13" s="94"/>
       <c r="O13" s="42"/>
@@ -7470,10 +7463,10 @@
         <v>102</v>
       </c>
       <c r="H14" s="86" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K14" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="N14" s="94"/>
       <c r="O14" s="42"/>
@@ -7503,7 +7496,7 @@
         <v>117</v>
       </c>
       <c r="H16" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="N16" s="94"/>
     </row>
@@ -7516,10 +7509,10 @@
         <v>115</v>
       </c>
       <c r="H17" s="100" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="K17" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N17" s="94"/>
     </row>
@@ -7532,10 +7525,10 @@
         <v>121</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="K18" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N18" s="94"/>
     </row>
@@ -7548,10 +7541,10 @@
         <v>122</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="K19" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N19" s="94"/>
     </row>
@@ -7564,10 +7557,10 @@
         <v>124</v>
       </c>
       <c r="H20" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K20" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N20" s="94"/>
     </row>
@@ -7580,10 +7573,10 @@
         <v>126</v>
       </c>
       <c r="H21" s="100" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="K21" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N21" s="94"/>
     </row>
@@ -7596,10 +7589,10 @@
         <v>128</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K22" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N22" s="94"/>
     </row>
@@ -7612,10 +7605,10 @@
         <v>130</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K23" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N23" s="94"/>
     </row>
@@ -7628,10 +7621,10 @@
         <v>132</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K24" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N24" s="94"/>
     </row>
@@ -7644,17 +7637,17 @@
         <v>78</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D26" s="102"/>
       <c r="E26" s="101" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="G26" s="101" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="N26" s="94"/>
       <c r="O26" s="42"/>
@@ -7668,7 +7661,7 @@
         <v>80</v>
       </c>
       <c r="G27" s="101" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="N27" s="94"/>
       <c r="O27" s="42"/>
@@ -7682,7 +7675,7 @@
         <v>81</v>
       </c>
       <c r="G28" s="101" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="N28" s="94"/>
       <c r="O28" s="42"/>
@@ -7696,7 +7689,7 @@
         <v>82</v>
       </c>
       <c r="G29" s="101" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="N29" s="94"/>
       <c r="O29" s="42"/>
@@ -7723,7 +7716,7 @@
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B33" s="86"/>
       <c r="E33" s="95" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="N33" s="94"/>
     </row>
@@ -7747,10 +7740,10 @@
         <v>27</v>
       </c>
       <c r="H34" s="86" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="K34" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="94"/>
@@ -7764,10 +7757,10 @@
         <v>27</v>
       </c>
       <c r="H35" s="86" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="K35" s="86" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="N35" s="94"/>
       <c r="O35" s="42"/>
@@ -7795,7 +7788,7 @@
         <v>139</v>
       </c>
       <c r="H37" s="86" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="N37" s="94"/>
       <c r="O37" s="42"/>
@@ -7812,10 +7805,10 @@
         <v>140</v>
       </c>
       <c r="H38" s="86" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="K38" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="N38" s="94"/>
       <c r="O38" s="42"/>
@@ -7832,10 +7825,10 @@
         <v>140</v>
       </c>
       <c r="H39" s="86" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="K39" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="N39" s="94"/>
       <c r="O39" s="42"/>
@@ -7852,10 +7845,10 @@
         <v>141</v>
       </c>
       <c r="H40" s="86" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="K40" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="N40" s="94"/>
       <c r="O40" s="42"/>
@@ -7885,7 +7878,7 @@
         <v>144</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="N42" s="94"/>
     </row>
@@ -7898,10 +7891,10 @@
         <v>145</v>
       </c>
       <c r="H43" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K43" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N43" s="94"/>
     </row>
@@ -7914,10 +7907,10 @@
         <v>146</v>
       </c>
       <c r="H44" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N44" s="94"/>
     </row>
@@ -7930,10 +7923,10 @@
         <v>147</v>
       </c>
       <c r="H45" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N45" s="94"/>
     </row>
@@ -7946,10 +7939,10 @@
         <v>148</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K46" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N46" s="94"/>
     </row>
@@ -7962,10 +7955,10 @@
         <v>149</v>
       </c>
       <c r="H47" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K47" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N47" s="94"/>
     </row>
@@ -7978,10 +7971,10 @@
         <v>150</v>
       </c>
       <c r="H48" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N48" s="94"/>
     </row>
@@ -7994,10 +7987,10 @@
         <v>151</v>
       </c>
       <c r="H49" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N49" s="94"/>
     </row>
@@ -8010,10 +8003,10 @@
         <v>152</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K50" s="86" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N50" s="94"/>
     </row>
@@ -8026,17 +8019,17 @@
         <v>78</v>
       </c>
       <c r="C52" s="101" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D52" s="102"/>
       <c r="E52" s="101" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F52" s="101" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G52" s="101" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="N52" s="94"/>
       <c r="O52" s="42"/>
@@ -8050,7 +8043,7 @@
         <v>80</v>
       </c>
       <c r="G53" s="101" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="N53" s="94"/>
       <c r="O53" s="42"/>
@@ -8064,7 +8057,7 @@
         <v>81</v>
       </c>
       <c r="G54" s="101" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="N54" s="94"/>
       <c r="O54" s="42"/>
@@ -8078,7 +8071,7 @@
         <v>82</v>
       </c>
       <c r="G55" s="101" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="N55" s="94"/>
       <c r="O55" s="42"/>
@@ -8129,7 +8122,7 @@
         <v>65</v>
       </c>
       <c r="K60" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M60" s="97"/>
       <c r="N60" s="94"/>
@@ -8143,7 +8136,7 @@
         <v>65</v>
       </c>
       <c r="K61" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N61" s="94"/>
       <c r="O61" s="42"/>
@@ -8171,7 +8164,7 @@
         <v>106</v>
       </c>
       <c r="H63" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I63" s="103"/>
       <c r="J63" s="103"/>
@@ -8190,15 +8183,15 @@
         <v>107</v>
       </c>
       <c r="H64" s="103" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I64" s="103"/>
       <c r="J64" s="103"/>
       <c r="K64" s="86" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="L64" s="99" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="N64" s="94"/>
       <c r="O64" s="42"/>
@@ -8215,7 +8208,7 @@
         <v>107</v>
       </c>
       <c r="H65" s="103" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="I65" s="103"/>
       <c r="J65" s="103"/>
@@ -8234,7 +8227,7 @@
         <v>108</v>
       </c>
       <c r="H66" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I66" s="103"/>
       <c r="J66" s="103"/>
@@ -8252,7 +8245,7 @@
     <row r="68" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
       <c r="B68" s="98"/>
       <c r="C68" s="87" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E68" s="87" t="s">
         <v>156</v>
@@ -8264,7 +8257,7 @@
         <v>159</v>
       </c>
       <c r="H68" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="N68" s="94"/>
       <c r="O68" s="42"/>
@@ -8278,10 +8271,10 @@
         <v>160</v>
       </c>
       <c r="H69" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K69" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N69" s="94"/>
       <c r="O69" s="42"/>
@@ -8295,10 +8288,10 @@
         <v>161</v>
       </c>
       <c r="H70" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K70" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N70" s="94"/>
       <c r="O70" s="42"/>
@@ -8312,10 +8305,10 @@
         <v>162</v>
       </c>
       <c r="H71" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K71" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N71" s="94"/>
       <c r="O71" s="42"/>
@@ -8329,10 +8322,10 @@
         <v>163</v>
       </c>
       <c r="H72" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K72" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N72" s="94"/>
       <c r="O72" s="42"/>
@@ -8346,10 +8339,10 @@
         <v>164</v>
       </c>
       <c r="H73" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K73" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N73" s="94"/>
       <c r="O73" s="42"/>
@@ -8363,10 +8356,10 @@
         <v>165</v>
       </c>
       <c r="H74" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K74" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N74" s="94"/>
       <c r="O74" s="42"/>
@@ -8380,10 +8373,10 @@
         <v>166</v>
       </c>
       <c r="H75" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K75" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N75" s="94"/>
       <c r="O75" s="42"/>
@@ -8397,10 +8390,10 @@
         <v>167</v>
       </c>
       <c r="H76" s="100" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="K76" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N76" s="94"/>
       <c r="O76" s="42"/>
@@ -8430,16 +8423,16 @@
         <v>170</v>
       </c>
       <c r="H78" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J78" s="86" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="K78" s="86" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L78" s="99" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="N78" s="94"/>
     </row>
@@ -8452,10 +8445,10 @@
         <v>178</v>
       </c>
       <c r="H79" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K79" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N79" s="94"/>
     </row>
@@ -8468,10 +8461,10 @@
         <v>179</v>
       </c>
       <c r="H80" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K80" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N80" s="94"/>
     </row>
@@ -8484,10 +8477,10 @@
         <v>180</v>
       </c>
       <c r="H81" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K81" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N81" s="94"/>
     </row>
@@ -8500,10 +8493,10 @@
         <v>181</v>
       </c>
       <c r="H82" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K82" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N82" s="94"/>
     </row>
@@ -8516,10 +8509,10 @@
         <v>182</v>
       </c>
       <c r="H83" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K83" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N83" s="94"/>
     </row>
@@ -8532,10 +8525,10 @@
         <v>183</v>
       </c>
       <c r="H84" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K84" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N84" s="94"/>
     </row>
@@ -8548,10 +8541,10 @@
         <v>184</v>
       </c>
       <c r="H85" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K85" s="86" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="N85" s="94"/>
     </row>
@@ -8605,10 +8598,10 @@
         <v>27</v>
       </c>
       <c r="H91" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K91" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M91" s="97"/>
       <c r="N91" s="94"/>
@@ -8622,10 +8615,10 @@
         <v>27</v>
       </c>
       <c r="H92" s="86" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="K92" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N92" s="94"/>
       <c r="O92" s="42"/>
@@ -8653,7 +8646,7 @@
         <v>195</v>
       </c>
       <c r="H94" s="103" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="I94" s="103"/>
       <c r="J94" s="103"/>
@@ -8672,12 +8665,12 @@
         <v>196</v>
       </c>
       <c r="H95" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I95" s="103"/>
       <c r="J95" s="103"/>
       <c r="K95" s="86" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="N95" s="94"/>
       <c r="O95" s="42"/>
@@ -8694,12 +8687,12 @@
         <v>196</v>
       </c>
       <c r="H96" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I96" s="103"/>
       <c r="J96" s="103"/>
       <c r="K96" s="86" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="N96" s="94"/>
       <c r="O96" s="42"/>
@@ -8716,12 +8709,12 @@
         <v>197</v>
       </c>
       <c r="H97" s="103" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I97" s="103"/>
       <c r="J97" s="103"/>
       <c r="K97" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N97" s="94"/>
       <c r="O97" s="42"/>
@@ -8746,7 +8739,7 @@
         <v>199</v>
       </c>
       <c r="H99" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N99" s="94"/>
       <c r="O99" s="42"/>
@@ -8760,10 +8753,10 @@
         <v>200</v>
       </c>
       <c r="H100" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K100" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K100" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N100" s="94"/>
       <c r="O100" s="42"/>
@@ -8777,10 +8770,10 @@
         <v>201</v>
       </c>
       <c r="H101" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K101" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K101" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N101" s="94"/>
       <c r="O101" s="42"/>
@@ -8794,10 +8787,10 @@
         <v>202</v>
       </c>
       <c r="H102" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K102" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K102" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N102" s="94"/>
       <c r="O102" s="42"/>
@@ -8811,10 +8804,10 @@
         <v>203</v>
       </c>
       <c r="H103" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K103" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K103" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N103" s="94"/>
       <c r="O103" s="42"/>
@@ -8828,10 +8821,10 @@
         <v>204</v>
       </c>
       <c r="H104" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K104" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K104" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N104" s="94"/>
       <c r="O104" s="42"/>
@@ -8845,10 +8838,10 @@
         <v>205</v>
       </c>
       <c r="H105" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K105" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K105" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N105" s="94"/>
       <c r="O105" s="42"/>
@@ -8862,10 +8855,10 @@
         <v>206</v>
       </c>
       <c r="H106" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K106" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K106" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N106" s="94"/>
       <c r="O106" s="42"/>
@@ -8879,10 +8872,10 @@
         <v>207</v>
       </c>
       <c r="H107" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K107" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K107" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N107" s="94"/>
       <c r="O107" s="42"/>
@@ -8912,16 +8905,16 @@
         <v>211</v>
       </c>
       <c r="H109" s="100" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="J109" s="86" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K109" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="L109" s="99" t="s">
         <v>425</v>
-      </c>
-      <c r="L109" s="99" t="s">
-        <v>436</v>
       </c>
       <c r="N109" s="94"/>
     </row>
@@ -8934,7 +8927,7 @@
         <v>212</v>
       </c>
       <c r="H110" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N110" s="94"/>
     </row>
@@ -8947,7 +8940,7 @@
         <v>213</v>
       </c>
       <c r="H111" s="100" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="N111" s="94"/>
     </row>
@@ -8960,7 +8953,7 @@
         <v>214</v>
       </c>
       <c r="H112" s="100" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="N112" s="94"/>
     </row>
@@ -8973,7 +8966,7 @@
         <v>215</v>
       </c>
       <c r="H113" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N113" s="94"/>
     </row>
@@ -8986,7 +8979,7 @@
         <v>216</v>
       </c>
       <c r="H114" s="100" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="N114" s="94"/>
     </row>
@@ -8999,7 +8992,7 @@
         <v>217</v>
       </c>
       <c r="H115" s="100" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="N115" s="94"/>
     </row>
@@ -9012,7 +9005,7 @@
         <v>218</v>
       </c>
       <c r="H116" s="100" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="N116" s="94"/>
     </row>
@@ -9059,10 +9052,10 @@
         <v>75</v>
       </c>
       <c r="H121" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K121" s="86" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M121" s="97"/>
       <c r="N121" s="94"/>
@@ -9076,10 +9069,10 @@
         <v>75</v>
       </c>
       <c r="H122" s="86" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="K122" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N122" s="94"/>
       <c r="O122" s="42"/>
@@ -9107,7 +9100,7 @@
         <v>112</v>
       </c>
       <c r="H124" s="103" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="I124" s="103"/>
       <c r="J124" s="103"/>
@@ -9126,12 +9119,12 @@
         <v>113</v>
       </c>
       <c r="H125" s="103" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="I125" s="103"/>
       <c r="J125" s="103"/>
       <c r="K125" s="86" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="N125" s="94"/>
       <c r="O125" s="42"/>
@@ -9148,12 +9141,12 @@
         <v>113</v>
       </c>
       <c r="H126" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I126" s="103"/>
       <c r="J126" s="103"/>
       <c r="K126" s="86" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="N126" s="94"/>
       <c r="O126" s="42"/>
@@ -9170,12 +9163,12 @@
         <v>114</v>
       </c>
       <c r="H127" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I127" s="103"/>
       <c r="J127" s="103"/>
       <c r="K127" s="86" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="N127" s="94"/>
       <c r="O127" s="42"/>
@@ -9205,7 +9198,7 @@
         <v>224</v>
       </c>
       <c r="H129" s="100" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="N129" s="94"/>
     </row>
@@ -9218,10 +9211,10 @@
         <v>225</v>
       </c>
       <c r="H130" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K130" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K130" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N130" s="94"/>
     </row>
@@ -9234,10 +9227,10 @@
         <v>226</v>
       </c>
       <c r="H131" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="K131" s="86" t="s">
         <v>424</v>
-      </c>
-      <c r="K131" s="86" t="s">
-        <v>435</v>
       </c>
       <c r="N131" s="94"/>
     </row>
@@ -9250,10 +9243,10 @@
         <v>227</v>
       </c>
       <c r="H132" s="100" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="K132" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N132" s="94"/>
     </row>
@@ -9291,7 +9284,7 @@
     <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B138" s="86"/>
       <c r="E138" s="92" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="N138" s="94"/>
     </row>
@@ -9315,10 +9308,10 @@
         <v>27</v>
       </c>
       <c r="H139" s="86" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="K139" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M139" s="97"/>
       <c r="N139" s="94"/>
@@ -9332,10 +9325,10 @@
         <v>27</v>
       </c>
       <c r="H140" s="86" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K140" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N140" s="94"/>
       <c r="O140" s="42"/>
@@ -9363,7 +9356,7 @@
         <v>237</v>
       </c>
       <c r="H142" s="103" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="I142" s="103"/>
       <c r="J142" s="103"/>
@@ -9382,12 +9375,12 @@
         <v>238</v>
       </c>
       <c r="H143" s="103" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="I143" s="103"/>
       <c r="J143" s="103"/>
       <c r="K143" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N143" s="94"/>
       <c r="O143" s="42"/>
@@ -9404,12 +9397,12 @@
         <v>238</v>
       </c>
       <c r="H144" s="103" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I144" s="103"/>
       <c r="J144" s="103"/>
       <c r="K144" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N144" s="94"/>
       <c r="O144" s="42"/>
@@ -9426,12 +9419,12 @@
         <v>239</v>
       </c>
       <c r="H145" s="103" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="I145" s="103"/>
       <c r="J145" s="103"/>
       <c r="K145" s="86" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="N145" s="94"/>
       <c r="O145" s="42"/>
@@ -9456,7 +9449,7 @@
         <v>241</v>
       </c>
       <c r="H147" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="N147" s="94"/>
       <c r="O147" s="42"/>
@@ -9470,10 +9463,10 @@
         <v>242</v>
       </c>
       <c r="H148" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K148" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N148" s="94"/>
       <c r="O148" s="42"/>
@@ -9487,10 +9480,10 @@
         <v>243</v>
       </c>
       <c r="H149" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K149" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N149" s="94"/>
       <c r="O149" s="42"/>
@@ -9504,10 +9497,10 @@
         <v>244</v>
       </c>
       <c r="H150" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K150" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N150" s="94"/>
       <c r="O150" s="42"/>
@@ -9521,10 +9514,10 @@
         <v>245</v>
       </c>
       <c r="H151" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K151" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N151" s="94"/>
       <c r="O151" s="42"/>
@@ -9538,10 +9531,10 @@
         <v>246</v>
       </c>
       <c r="H152" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K152" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N152" s="94"/>
       <c r="O152" s="42"/>
@@ -9555,10 +9548,10 @@
         <v>247</v>
       </c>
       <c r="H153" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K153" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N153" s="94"/>
       <c r="O153" s="42"/>
@@ -9572,10 +9565,10 @@
         <v>248</v>
       </c>
       <c r="H154" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K154" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N154" s="94"/>
       <c r="O154" s="42"/>
@@ -9589,10 +9582,10 @@
         <v>249</v>
       </c>
       <c r="H155" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K155" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N155" s="94"/>
       <c r="O155" s="42"/>
@@ -9622,7 +9615,7 @@
         <v>260</v>
       </c>
       <c r="H157" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="N157" s="94"/>
     </row>
@@ -9635,10 +9628,10 @@
         <v>252</v>
       </c>
       <c r="H158" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K158" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N158" s="94"/>
     </row>
@@ -9651,10 +9644,10 @@
         <v>253</v>
       </c>
       <c r="H159" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K159" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N159" s="94"/>
     </row>
@@ -9667,10 +9660,10 @@
         <v>254</v>
       </c>
       <c r="H160" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K160" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N160" s="94"/>
     </row>
@@ -9683,10 +9676,10 @@
         <v>255</v>
       </c>
       <c r="H161" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K161" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N161" s="94"/>
     </row>
@@ -9699,10 +9692,10 @@
         <v>256</v>
       </c>
       <c r="H162" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K162" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N162" s="94"/>
     </row>
@@ -9715,10 +9708,10 @@
         <v>257</v>
       </c>
       <c r="H163" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K163" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N163" s="94"/>
     </row>
@@ -9731,17 +9724,17 @@
         <v>78</v>
       </c>
       <c r="C165" s="96" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D165" s="98"/>
       <c r="E165" s="96" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="F165" s="96" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="G165" s="96" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H165" s="98"/>
       <c r="I165" s="98"/>
@@ -9758,7 +9751,7 @@
         <v>80</v>
       </c>
       <c r="G166" s="96" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="H166" s="98"/>
       <c r="I166" s="98"/>
@@ -9775,7 +9768,7 @@
         <v>81</v>
       </c>
       <c r="G167" s="96" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="H167" s="98"/>
       <c r="I167" s="98"/>
@@ -9792,7 +9785,7 @@
         <v>82</v>
       </c>
       <c r="G168" s="96" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H168" s="98"/>
       <c r="I168" s="98"/>
@@ -9808,7 +9801,7 @@
     <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B170" s="86"/>
       <c r="E170" s="92" t="s">
-        <v>267</v>
+        <v>587</v>
       </c>
       <c r="N170" s="94"/>
     </row>
@@ -9832,13 +9825,13 @@
         <v>75</v>
       </c>
       <c r="H171" s="86" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="J171" s="106" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="K171" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M171" s="97"/>
       <c r="N171" s="94"/>
@@ -9852,10 +9845,10 @@
         <v>65</v>
       </c>
       <c r="H172" s="86" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="K172" s="86" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="N172" s="94"/>
       <c r="O172" s="42"/>
@@ -9865,7 +9858,7 @@
       <c r="N173" s="94"/>
       <c r="O173" s="42"/>
     </row>
-    <row r="174" spans="1:15" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A174" s="86">
         <v>4</v>
       </c>
@@ -9879,61 +9872,61 @@
         <v>49</v>
       </c>
       <c r="F174" s="87" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="G174" s="87" t="s">
-        <v>274</v>
+        <v>589</v>
       </c>
       <c r="H174" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="N174" s="94"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B175" s="86"/>
       <c r="F175" s="87" t="s">
-        <v>268</v>
+        <v>590</v>
       </c>
       <c r="G175" s="87" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H175" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K175" s="86" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="N175" s="94"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B176" s="86"/>
       <c r="F176" s="87" t="s">
-        <v>269</v>
+        <v>591</v>
       </c>
       <c r="G176" s="87" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H176" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K176" s="86" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="N176" s="94"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B177" s="86"/>
       <c r="F177" s="87" t="s">
-        <v>270</v>
+        <v>592</v>
       </c>
       <c r="G177" s="87" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H177" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K177" s="86" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="N177" s="94"/>
     </row>
@@ -9941,95 +9934,102 @@
       <c r="A178" s="87"/>
       <c r="B178" s="86"/>
       <c r="F178" s="87" t="s">
-        <v>271</v>
+        <v>593</v>
       </c>
       <c r="G178" s="87" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H178" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K178" s="86" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="N178" s="94"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A179" s="87"/>
-      <c r="B179" s="86"/>
+      <c r="B179" s="111"/>
+      <c r="D179" s="111"/>
       <c r="F179" s="87" t="s">
-        <v>272</v>
+        <v>594</v>
       </c>
       <c r="G179" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="H179" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="K179" s="86" t="s">
-        <v>439</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="H179" s="100"/>
+      <c r="I179" s="111"/>
+      <c r="J179" s="111"/>
+      <c r="K179" s="111"/>
+      <c r="L179" s="111"/>
       <c r="N179" s="94"/>
+      <c r="O179" s="111"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A180" s="87"/>
-      <c r="B180" s="86"/>
+      <c r="B180" s="111"/>
+      <c r="D180" s="111"/>
       <c r="F180" s="87" t="s">
-        <v>273</v>
+        <v>595</v>
       </c>
       <c r="G180" s="87" t="s">
-        <v>275</v>
-      </c>
-      <c r="H180" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="K180" s="86" t="s">
-        <v>439</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="H180" s="100"/>
+      <c r="I180" s="111"/>
+      <c r="J180" s="111"/>
+      <c r="K180" s="111"/>
+      <c r="L180" s="111"/>
+      <c r="N180" s="94"/>
+      <c r="O180" s="111"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A181" s="87"/>
       <c r="B181" s="86"/>
-    </row>
-    <row r="182" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="C182" s="91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="F181" s="87" t="s">
+        <v>597</v>
+      </c>
+      <c r="G181" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="H181" s="100" t="s">
+        <v>525</v>
+      </c>
+      <c r="K181" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="N181" s="94"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A182" s="87"/>
+      <c r="B182" s="86"/>
+      <c r="F182" s="87" t="s">
+        <v>598</v>
+      </c>
+      <c r="G182" s="87" t="s">
+        <v>599</v>
+      </c>
+      <c r="H182" s="100" t="s">
+        <v>525</v>
+      </c>
+      <c r="K182" s="86" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A183" s="87"/>
       <c r="B183" s="86"/>
-      <c r="E183" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="L183" s="48"/>
-      <c r="N183" s="94"/>
-      <c r="O183" s="48"/>
-    </row>
-    <row r="184" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A184" s="87"/>
-      <c r="B184" s="86"/>
-      <c r="L184" s="48"/>
-      <c r="N184" s="94"/>
-      <c r="O184" s="48"/>
-    </row>
-    <row r="185" spans="1:15" ht="66" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="C184" s="91" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A185" s="87"/>
       <c r="B185" s="86"/>
-      <c r="C185" s="87" t="s">
-        <v>281</v>
-      </c>
-      <c r="E185" s="87" t="s">
-        <v>282</v>
-      </c>
-      <c r="F185" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="G185" s="87" t="s">
-        <v>290</v>
-      </c>
-      <c r="H185" s="100" t="s">
-        <v>538</v>
+      <c r="E185" s="92" t="s">
+        <v>274</v>
       </c>
       <c r="L185" s="48"/>
       <c r="N185" s="94"/>
@@ -10038,36 +10038,27 @@
     <row r="186" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A186" s="87"/>
       <c r="B186" s="86"/>
-      <c r="F186" s="87" t="s">
-        <v>285</v>
-      </c>
-      <c r="G186" s="87" t="s">
-        <v>291</v>
-      </c>
-      <c r="H186" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="K186" s="86" t="s">
-        <v>435</v>
-      </c>
-      <c r="L186" s="47"/>
+      <c r="L186" s="48"/>
       <c r="N186" s="94"/>
-      <c r="O186" s="47"/>
-    </row>
-    <row r="187" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="O186" s="48"/>
+    </row>
+    <row r="187" spans="1:15" ht="66" x14ac:dyDescent="0.15">
       <c r="A187" s="87"/>
       <c r="B187" s="86"/>
+      <c r="C187" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E187" s="87" t="s">
+        <v>273</v>
+      </c>
       <c r="F187" s="87" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G187" s="87" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H187" s="100" t="s">
-        <v>538</v>
-      </c>
-      <c r="K187" s="86" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="L187" s="48"/>
       <c r="N187" s="94"/>
@@ -10077,157 +10068,195 @@
       <c r="A188" s="87"/>
       <c r="B188" s="86"/>
       <c r="F188" s="87" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="G188" s="87" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H188" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K188" s="86" t="s">
-        <v>435</v>
-      </c>
-      <c r="L188" s="49"/>
+        <v>424</v>
+      </c>
+      <c r="L188" s="47"/>
       <c r="N188" s="94"/>
-      <c r="O188" s="49"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O188" s="47"/>
+    </row>
+    <row r="189" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A189" s="87"/>
+      <c r="B189" s="86"/>
       <c r="F189" s="87" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G189" s="87" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H189" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K189" s="86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="L189" s="48"/>
+      <c r="N189" s="94"/>
+      <c r="O189" s="48"/>
+    </row>
+    <row r="190" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A190" s="87"/>
+      <c r="B190" s="86"/>
       <c r="F190" s="87" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G190" s="87" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="H190" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K190" s="86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="C192" s="91" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E193" s="92" t="s">
-        <v>363</v>
+        <v>424</v>
+      </c>
+      <c r="L190" s="49"/>
+      <c r="N190" s="94"/>
+      <c r="O190" s="49"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F191" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="G191" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="H191" s="100" t="s">
+        <v>525</v>
+      </c>
+      <c r="K191" s="86" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="F192" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="G192" s="87" t="s">
+        <v>286</v>
+      </c>
+      <c r="H192" s="100" t="s">
+        <v>525</v>
+      </c>
+      <c r="K192" s="86" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="C194" s="91" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C195" s="87" t="s">
-        <v>364</v>
-      </c>
-      <c r="D195" s="86">
+      <c r="E195" s="92" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C197" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="D197" s="86">
         <v>1</v>
       </c>
-      <c r="E195" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="F195" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="G195" s="87" t="s">
-        <v>367</v>
-      </c>
-      <c r="H195" s="100" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F196" s="87" t="s">
-        <v>368</v>
-      </c>
-      <c r="G196" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="H196" s="107" t="s">
-        <v>552</v>
-      </c>
-      <c r="K196" s="86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E197" s="87" t="s">
+        <v>355</v>
+      </c>
       <c r="F197" s="87" t="s">
-        <v>370</v>
+        <v>601</v>
       </c>
       <c r="G197" s="87" t="s">
-        <v>371</v>
-      </c>
-      <c r="H197" s="100" t="s">
+        <v>356</v>
+      </c>
+      <c r="H197" s="107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F198" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="G198" s="87" t="s">
+        <v>358</v>
+      </c>
+      <c r="H198" s="107" t="s">
+        <v>539</v>
+      </c>
+      <c r="K198" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F199" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="G199" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="H199" s="107" t="s">
+        <v>412</v>
+      </c>
+      <c r="K199" s="86" t="s">
         <v>424</v>
       </c>
-      <c r="K197" s="86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="C199" s="91" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E200" s="92" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B201" s="110" t="s">
+    </row>
+    <row r="201" spans="2:11" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+      <c r="C201" s="91" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E202" s="92" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B203" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="C201" s="70" t="s">
-        <v>596</v>
-      </c>
-      <c r="D201" s="110"/>
-      <c r="E201" s="70" t="s">
-        <v>597</v>
-      </c>
-      <c r="F201" s="70" t="s">
-        <v>598</v>
-      </c>
-      <c r="G201" s="70" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B202" s="110"/>
-      <c r="C202" s="70"/>
-      <c r="D202" s="110"/>
-      <c r="E202" s="70"/>
-      <c r="F202" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="G202" s="70" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B203" s="110"/>
-      <c r="C203" s="70"/>
+      <c r="C203" s="70" t="s">
+        <v>581</v>
+      </c>
       <c r="D203" s="110"/>
-      <c r="E203" s="70"/>
+      <c r="E203" s="70" t="s">
+        <v>582</v>
+      </c>
       <c r="F203" s="70" t="s">
-        <v>314</v>
+        <v>583</v>
       </c>
       <c r="G203" s="70" t="s">
-        <v>601</v>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B204" s="110"/>
+      <c r="C204" s="70"/>
+      <c r="D204" s="110"/>
+      <c r="E204" s="70"/>
+      <c r="F204" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="G204" s="70" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B205" s="110"/>
+      <c r="C205" s="70"/>
+      <c r="D205" s="110"/>
+      <c r="E205" s="70"/>
+      <c r="F205" s="70" t="s">
+        <v>305</v>
+      </c>
+      <c r="G205" s="70" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -10236,419 +10265,419 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="A120:J120 A59:J59 F183:N184 A191:JB191 A133:J133 F56:J58 F118:J119 F169:JB170 E5:E25 A4:D25 E178:E179 A178:D181 A79:E85 G79:G85 A51:JB51 A86:J86 F181:J181 A183:D188 A189:E190 A193:D193 F193:JB193 A78:G78 M78:JB78 K64 M64:JB64 K65:JB77 K79:JB86 K118:JB164 K171:JB181 L189:JB190 L187:N188 G186:G190 A194:JB198 F30:JB30 K56:JB63 F2:JB25 I78:K78 I79:J85 F178:G180 I178:J180 I187:K190 F185:G185 I185:N186 A204:JB65588 A200:D200 F200:JB200 A201:A203 H201:JB203">
-    <cfRule type="cellIs" dxfId="199" priority="155" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A120:J120 A59:J59 F185:N186 A193:JB193 A133:J133 F56:J58 F118:J119 F169:JB170 E5:E25 A4:D25 E178:E181 A79:E85 G79:G85 A51:JB51 A86:J86 F183:J183 A185:D190 A191:E192 A195:D195 F195:JB195 A78:G78 M78:JB78 K64 M64:JB64 K65:JB77 K79:JB86 K118:JB164 L191:JB192 L189:N190 G188:G192 F30:JB30 K56:JB63 F2:JB25 I78:K78 I79:J85 I178:J182 I189:K192 F187:G187 I187:N188 A206:JB65590 A202:D202 F202:JB202 A203:A205 H203:JB205 F178:G182 A178:D183 K171:JB183 A196:JB200">
+    <cfRule type="cellIs" dxfId="193" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:J66 B67:B77">
-    <cfRule type="cellIs" dxfId="197" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O183:O185 O187:O188 E186:E188 P183:JB188 E2 A2:D3 A177:G177 I177:J177">
-    <cfRule type="cellIs" dxfId="195" priority="139" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="O185:O187 O189:O190 E188:E190 P185:JB190 E2 A2:D3 A177:G177 I177:J177">
+    <cfRule type="cellIs" dxfId="189" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30">
-    <cfRule type="cellIs" dxfId="193" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="135" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="136" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58 A56:D58 A60:J62 A63:A77 C67:J67 C77:J77 C69:E76 C68:G68 I68:J68">
-    <cfRule type="cellIs" dxfId="191" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119 A118:D119 A121:J123 A124:A127 A128:J132">
-    <cfRule type="cellIs" dxfId="189" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170 A169:D170 A171:J173 A174:G176 I174:J176">
-    <cfRule type="cellIs" dxfId="187" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="125" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="126" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:J127">
-    <cfRule type="cellIs" dxfId="185" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E89 A87:D89 A91:J93 A94:A108 C98:J98 C108:J108 C100:E107 C99:G99 I99:J99">
-    <cfRule type="cellIs" dxfId="183" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:JB32 A33:D33 F33:JB33 A34:JB50">
-    <cfRule type="cellIs" dxfId="181" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F76">
-    <cfRule type="cellIs" dxfId="179" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G76 I69:J76">
-    <cfRule type="cellIs" dxfId="177" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F85">
-    <cfRule type="cellIs" dxfId="175" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:J90 F87:J89 A110:E116 G110:J116 A117:J117 K87:JB108 K110:JB117 A109:K109 M109:JB109">
-    <cfRule type="cellIs" dxfId="173" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:J97 B98:B108">
-    <cfRule type="cellIs" dxfId="171" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F107">
-    <cfRule type="cellIs" dxfId="169" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G107 I100:J107">
-    <cfRule type="cellIs" dxfId="167" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F116">
-    <cfRule type="cellIs" dxfId="165" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:J138 F134:J136 A157:G157 A158:E163 G158:G163 A164:J164 I157:J163">
-    <cfRule type="cellIs" dxfId="163" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:J145 B146:B156">
-    <cfRule type="cellIs" dxfId="161" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136 A134:D136 A139:J141 A142:A156 C146:J146 C156:J156 C148:E155 C147:G147 I147:J147">
-    <cfRule type="cellIs" dxfId="159" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148:F155">
-    <cfRule type="cellIs" dxfId="157" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G155 I148:J155">
-    <cfRule type="cellIs" dxfId="155" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158:F163">
-    <cfRule type="cellIs" dxfId="153" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F182:JB182">
-    <cfRule type="cellIs" dxfId="151" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F184:JB184">
+    <cfRule type="cellIs" dxfId="145" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A182:D182">
-    <cfRule type="cellIs" dxfId="149" priority="53" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A184:D184">
+    <cfRule type="cellIs" dxfId="143" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E183">
-    <cfRule type="cellIs" dxfId="147" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E185">
+    <cfRule type="cellIs" dxfId="141" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="52" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F186">
-    <cfRule type="cellIs" dxfId="145" priority="49" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="50" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F187">
-    <cfRule type="cellIs" dxfId="143" priority="47" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="cellIs" dxfId="141" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="cellIs" dxfId="139" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="cellIs" dxfId="137" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F192:JB192">
-    <cfRule type="cellIs" dxfId="135" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F191">
+    <cfRule type="cellIs" dxfId="133" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A192:D192">
-    <cfRule type="cellIs" dxfId="133" priority="37" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F192">
+    <cfRule type="cellIs" dxfId="131" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
-    <cfRule type="cellIs" dxfId="131" priority="35" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F194:JB194">
+    <cfRule type="cellIs" dxfId="129" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194:D194">
+    <cfRule type="cellIs" dxfId="127" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="cellIs" dxfId="125" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:JB29">
-    <cfRule type="cellIs" dxfId="129" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="127" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:JB55">
-    <cfRule type="cellIs" dxfId="125" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K165:JB168">
-    <cfRule type="cellIs" dxfId="123" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165:J168">
-    <cfRule type="cellIs" dxfId="121" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165:A168">
-    <cfRule type="cellIs" dxfId="119" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H76">
-    <cfRule type="cellIs" dxfId="117" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H85">
-    <cfRule type="cellIs" dxfId="115" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H107">
-    <cfRule type="cellIs" dxfId="113" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:H155">
-    <cfRule type="cellIs" dxfId="111" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157:H163">
-    <cfRule type="cellIs" dxfId="109" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H174:H180">
-    <cfRule type="cellIs" dxfId="107" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H174:H182">
+    <cfRule type="cellIs" dxfId="101" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H185:H190">
-    <cfRule type="cellIs" dxfId="105" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H187:H192">
+    <cfRule type="cellIs" dxfId="99" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F199:JB199">
-    <cfRule type="cellIs" dxfId="17" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F201:JB201">
+    <cfRule type="cellIs" dxfId="97" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A199:D199">
-    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A201:D201">
+    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E200">
-    <cfRule type="cellIs" dxfId="9" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E202">
+    <cfRule type="cellIs" dxfId="93" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B201:G203">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B203:G205">
+    <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10666,11 +10695,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S150"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32:G34"/>
+      <selection pane="bottomRight" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10696,14 +10725,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113" t="s">
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:19" s="39" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -10790,7 +10819,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E5" s="41" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.35">
@@ -10814,13 +10843,13 @@
         <v>27</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="I6" s="62">
         <v>193</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -10885,10 +10914,10 @@
         <v>33</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H9" s="108" t="s">
         <v>95</v>
@@ -10905,69 +10934,69 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E10" s="41"/>
       <c r="F10" s="62" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="65" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E11" s="41"/>
       <c r="F11" s="62" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H11" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E12" s="41"/>
       <c r="F12" s="62" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="H12" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="E13" s="41"/>
       <c r="F13" s="62" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="H13" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -10976,18 +11005,18 @@
       <c r="D14" s="82"/>
       <c r="E14" s="69"/>
       <c r="F14" s="62" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L14" s="82"/>
       <c r="M14" s="67"/>
@@ -11001,13 +11030,13 @@
       <c r="D15" s="82"/>
       <c r="E15" s="69"/>
       <c r="F15" s="62" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="H15" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
@@ -11015,7 +11044,7 @@
         <v>93</v>
       </c>
       <c r="L15" s="78" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="M15" s="67"/>
       <c r="N15" s="82"/>
@@ -11042,7 +11071,7 @@
       <c r="B18" s="75"/>
       <c r="D18" s="75"/>
       <c r="E18" s="69" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F18" s="76"/>
       <c r="H18" s="104"/>
@@ -11065,13 +11094,13 @@
         <v>53</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
@@ -11079,16 +11108,16 @@
       <c r="D20" s="74"/>
       <c r="E20" s="70"/>
       <c r="F20" s="70" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="M20" s="67" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -11096,13 +11125,13 @@
         <v>92</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="K21" s="82" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -11110,16 +11139,16 @@
       <c r="B22" s="79"/>
       <c r="D22" s="79"/>
       <c r="F22" s="70" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H22" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K22" s="82" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L22" s="79"/>
       <c r="M22" s="67"/>
@@ -11132,16 +11161,16 @@
       <c r="B23" s="79"/>
       <c r="D23" s="79"/>
       <c r="F23" s="70" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L23" s="79"/>
       <c r="M23" s="67"/>
@@ -11154,16 +11183,16 @@
       <c r="B24" s="79"/>
       <c r="D24" s="79"/>
       <c r="F24" s="70" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L24" s="79"/>
       <c r="M24" s="67"/>
@@ -11176,10 +11205,10 @@
       <c r="B25" s="79"/>
       <c r="D25" s="79"/>
       <c r="F25" s="70" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H25" s="104" t="s">
         <v>95</v>
@@ -11210,12 +11239,12 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E28" s="69" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E29" s="69" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -11223,7 +11252,7 @@
       <c r="B30" s="79"/>
       <c r="D30" s="79"/>
       <c r="E30" s="69" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H30" s="104"/>
       <c r="K30" s="79"/>
@@ -11238,7 +11267,7 @@
       <c r="B31" s="77"/>
       <c r="D31" s="77"/>
       <c r="E31" s="69" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H31" s="104"/>
       <c r="K31" s="77"/>
@@ -11261,16 +11290,16 @@
         <v>90</v>
       </c>
       <c r="F32" s="70" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G32" s="70" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H32" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K32" s="77" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L32" s="83"/>
       <c r="M32" s="67"/>
@@ -11283,7 +11312,7 @@
       <c r="B33" s="77"/>
       <c r="D33" s="77"/>
       <c r="F33" s="70" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G33" s="70" t="s">
         <v>91</v>
@@ -11305,10 +11334,10 @@
       <c r="B34" s="77"/>
       <c r="D34" s="77"/>
       <c r="F34" s="70" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H34" s="104" t="s">
         <v>95</v>
@@ -11338,25 +11367,25 @@
         <v>24</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H36" s="104" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L36" s="78" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -11364,13 +11393,13 @@
       <c r="B37" s="75"/>
       <c r="D37" s="75"/>
       <c r="F37" s="70" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G37" s="70" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H37" s="104" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="K37" s="75"/>
       <c r="L37" s="75"/>
@@ -11384,13 +11413,13 @@
       <c r="B38" s="75"/>
       <c r="D38" s="75"/>
       <c r="F38" s="70" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H38" s="104" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="K38" s="75"/>
       <c r="L38" s="75"/>
@@ -11401,13 +11430,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F39" s="40" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H39" s="104" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -11415,13 +11444,13 @@
       <c r="B40" s="79"/>
       <c r="D40" s="79"/>
       <c r="F40" s="70" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G40" s="70" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H40" s="104" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
@@ -11435,16 +11464,16 @@
         <v>55</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H42" s="104" t="s">
         <v>95</v>
@@ -11452,13 +11481,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F43" s="40" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H43" s="104" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="K43" s="60" t="s">
         <v>95</v>
@@ -11467,62 +11496,62 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F44" s="70" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G44" s="70" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H44" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F45" s="70" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G45" s="70" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H45" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K45" s="82" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L45" s="82"/>
       <c r="M45" s="67" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F46" s="70" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K46" s="60" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="33" x14ac:dyDescent="0.35">
       <c r="F47" s="70" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G47" s="70" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="H47" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K47" s="60" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -11540,26 +11569,26 @@
     <row r="49" spans="1:16" s="70" customFormat="1" ht="99" x14ac:dyDescent="0.35">
       <c r="A49" s="79"/>
       <c r="B49" s="79" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D49" s="79"/>
       <c r="E49" s="70" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F49" s="70" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="G49" s="70" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H49" s="104" t="s">
         <v>95</v>
       </c>
       <c r="J49" s="70" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
@@ -11573,10 +11602,10 @@
       <c r="B50" s="79"/>
       <c r="D50" s="79"/>
       <c r="F50" s="70" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H50" s="104" t="s">
         <v>95</v>
@@ -11595,16 +11624,16 @@
       <c r="B51" s="79"/>
       <c r="D51" s="79"/>
       <c r="F51" s="70" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G51" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H51" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K51" s="79" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L51" s="79"/>
       <c r="M51" s="67"/>
@@ -11617,16 +11646,16 @@
       <c r="B52" s="79"/>
       <c r="D52" s="79"/>
       <c r="F52" s="70" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G52" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H52" s="104" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="L52" s="79"/>
       <c r="M52" s="67"/>
@@ -11639,19 +11668,19 @@
       <c r="B53" s="79"/>
       <c r="D53" s="79"/>
       <c r="F53" s="70" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="G53" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H53" s="104" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="K53" s="82" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L53" s="78" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M53" s="67"/>
       <c r="N53" s="79"/>
@@ -11663,16 +11692,16 @@
       <c r="B54" s="79"/>
       <c r="D54" s="79"/>
       <c r="F54" s="70" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="G54" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H54" s="104" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="K54" s="79" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="67"/>
@@ -11685,16 +11714,16 @@
       <c r="B55" s="79"/>
       <c r="D55" s="79"/>
       <c r="F55" s="70" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G55" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="K55" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L55" s="79"/>
       <c r="M55" s="67"/>
@@ -11707,16 +11736,16 @@
       <c r="B56" s="79"/>
       <c r="D56" s="79"/>
       <c r="F56" s="70" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G56" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H56" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K56" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L56" s="79"/>
       <c r="M56" s="67"/>
@@ -11729,13 +11758,13 @@
       <c r="B57" s="79"/>
       <c r="D57" s="79"/>
       <c r="F57" s="70" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G57" s="70" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H57" s="104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="K57" s="79" t="s">
         <v>95</v>
@@ -11751,16 +11780,16 @@
       <c r="B58" s="79"/>
       <c r="D58" s="79"/>
       <c r="F58" s="70" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H58" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K58" s="79" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="L58" s="79"/>
       <c r="M58" s="67"/>
@@ -11773,16 +11802,16 @@
       <c r="B59" s="79"/>
       <c r="D59" s="79"/>
       <c r="F59" s="70" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G59" s="70" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H59" s="104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="K59" s="79" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L59" s="79"/>
       <c r="N59" s="79"/>
@@ -11794,10 +11823,10 @@
       <c r="B60" s="80"/>
       <c r="D60" s="80"/>
       <c r="F60" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="G60" s="70" t="s">
         <v>395</v>
-      </c>
-      <c r="G60" s="70" t="s">
-        <v>406</v>
       </c>
       <c r="H60" s="104" t="s">
         <v>95</v>
@@ -11816,16 +11845,16 @@
       <c r="B61" s="81"/>
       <c r="D61" s="81"/>
       <c r="F61" s="70" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G61" s="70" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="H61" s="104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="K61" s="81" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L61" s="81"/>
       <c r="M61" s="67"/>
@@ -11838,16 +11867,16 @@
       <c r="B62" s="80"/>
       <c r="D62" s="80"/>
       <c r="F62" s="70" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G62" s="70" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="H62" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K62" s="80" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L62" s="80"/>
       <c r="M62" s="67"/>
@@ -11860,16 +11889,16 @@
       <c r="B63" s="80"/>
       <c r="D63" s="80"/>
       <c r="F63" s="70" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G63" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H63" s="104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="K63" s="80" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L63" s="80"/>
       <c r="M63" s="67"/>
@@ -11882,16 +11911,16 @@
       <c r="B64" s="80"/>
       <c r="D64" s="80"/>
       <c r="F64" s="70" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H64" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K64" s="80" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L64" s="80"/>
       <c r="M64" s="67"/>
@@ -11904,16 +11933,16 @@
       <c r="B65" s="80"/>
       <c r="D65" s="80"/>
       <c r="F65" s="70" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H65" s="104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="K65" s="80" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L65" s="80"/>
       <c r="M65" s="67"/>
@@ -11926,10 +11955,10 @@
       <c r="B66" s="80"/>
       <c r="D66" s="80"/>
       <c r="F66" s="70" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H66" s="104" t="s">
         <v>95</v>
@@ -11948,13 +11977,13 @@
       <c r="B67" s="80"/>
       <c r="D67" s="80"/>
       <c r="F67" s="70" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H67" s="104" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="K67" s="80" t="s">
         <v>95</v>
@@ -11970,10 +11999,10 @@
       <c r="B68" s="80"/>
       <c r="D68" s="80"/>
       <c r="F68" s="70" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G68" s="70" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="H68" s="104" t="s">
         <v>95</v>
@@ -12019,7 +12048,7 @@
       <c r="B72" s="79"/>
       <c r="D72" s="79"/>
       <c r="E72" s="69" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="H72" s="104"/>
       <c r="K72" s="79"/>
@@ -12034,7 +12063,7 @@
       <c r="B73" s="79"/>
       <c r="D73" s="79"/>
       <c r="E73" s="69" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H73" s="104"/>
       <c r="K73" s="79"/>
@@ -12049,7 +12078,7 @@
       <c r="B74" s="79"/>
       <c r="D74" s="79"/>
       <c r="E74" s="69" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H74" s="104"/>
       <c r="K74" s="79"/>
@@ -12064,7 +12093,7 @@
       <c r="B75" s="79"/>
       <c r="D75" s="79"/>
       <c r="E75" s="69" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H75" s="104"/>
       <c r="K75" s="79"/>
@@ -12080,23 +12109,23 @@
         <v>88</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D76" s="79"/>
       <c r="E76" s="70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F76" s="70" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G76" s="70" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H76" s="104" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="K76" s="83" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="L76" s="78"/>
       <c r="M76" s="67"/>
@@ -12109,13 +12138,13 @@
       <c r="B77" s="79"/>
       <c r="D77" s="79"/>
       <c r="F77" s="70" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G77" s="70" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H77" s="104" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="K77" s="82" t="s">
         <v>95</v>
@@ -12131,13 +12160,13 @@
       <c r="B78" s="79"/>
       <c r="D78" s="79"/>
       <c r="F78" s="70" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G78" s="70" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H78" s="104" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="K78" s="82" t="s">
         <v>95</v>
@@ -12166,26 +12195,26 @@
         <v>24</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D80" s="79"/>
       <c r="E80" s="70" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H80" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K80" s="82" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L80" s="78" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M80" s="67"/>
       <c r="N80" s="79"/>
@@ -12197,13 +12226,13 @@
       <c r="B81" s="79"/>
       <c r="D81" s="79"/>
       <c r="F81" s="70" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G81" s="70" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H81" s="104" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="K81" s="79"/>
       <c r="L81" s="79"/>
@@ -12217,10 +12246,10 @@
       <c r="B82" s="79"/>
       <c r="D82" s="79"/>
       <c r="F82" s="70" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G82" s="70" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H82" s="104" t="s">
         <v>95</v>
@@ -12237,13 +12266,13 @@
       <c r="B83" s="79"/>
       <c r="D83" s="79"/>
       <c r="F83" s="70" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G83" s="70" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H83" s="104" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="K83" s="79"/>
       <c r="L83" s="79"/>
@@ -12257,13 +12286,13 @@
       <c r="B84" s="79"/>
       <c r="D84" s="79"/>
       <c r="F84" s="70" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G84" s="70" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H84" s="104" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="K84" s="79"/>
       <c r="L84" s="79"/>
@@ -12290,20 +12319,20 @@
         <v>55</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D86" s="79"/>
       <c r="E86" s="70" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F86" s="70" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G86" s="70" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H86" s="104" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="K86" s="79"/>
       <c r="L86" s="79"/>
@@ -12317,10 +12346,10 @@
       <c r="B87" s="79"/>
       <c r="D87" s="79"/>
       <c r="F87" s="70" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G87" s="70" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H87" s="104" t="s">
         <v>95</v>
@@ -12339,16 +12368,16 @@
       <c r="B88" s="79"/>
       <c r="D88" s="79"/>
       <c r="F88" s="70" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G88" s="70" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H88" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K88" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L88" s="82"/>
       <c r="M88" s="67"/>
@@ -12361,20 +12390,20 @@
       <c r="B89" s="79"/>
       <c r="D89" s="79"/>
       <c r="F89" s="70" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G89" s="70" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H89" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K89" s="82" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L89" s="82"/>
       <c r="M89" s="67" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="N89" s="79"/>
       <c r="O89" s="79"/>
@@ -12385,16 +12414,16 @@
       <c r="B90" s="79"/>
       <c r="D90" s="79"/>
       <c r="F90" s="70" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G90" s="70" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H90" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K90" s="82" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L90" s="82"/>
       <c r="M90" s="67"/>
@@ -12407,16 +12436,16 @@
       <c r="B91" s="79"/>
       <c r="D91" s="79"/>
       <c r="F91" s="70" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G91" s="70" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="H91" s="100" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="K91" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L91" s="82"/>
       <c r="M91" s="67"/>
@@ -12439,26 +12468,26 @@
     <row r="93" spans="1:16" s="70" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A93" s="79"/>
       <c r="B93" s="79" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D93" s="79"/>
       <c r="E93" s="70" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F93" s="70" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="G93" s="70" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H93" s="104" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="J93" s="70" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="K93" s="79"/>
       <c r="L93" s="79"/>
@@ -12472,13 +12501,13 @@
       <c r="B94" s="79"/>
       <c r="D94" s="79"/>
       <c r="F94" s="70" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G94" s="70" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H94" s="104" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="K94" s="79" t="s">
         <v>95</v>
@@ -12494,13 +12523,13 @@
       <c r="B95" s="79"/>
       <c r="D95" s="79"/>
       <c r="F95" s="70" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H95" s="104" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K95" s="79" t="s">
         <v>95</v>
@@ -12516,13 +12545,13 @@
       <c r="B96" s="79"/>
       <c r="D96" s="79"/>
       <c r="F96" s="70" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H96" s="104" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="K96" s="79" t="s">
         <v>95</v>
@@ -12538,13 +12567,13 @@
       <c r="B97" s="79"/>
       <c r="D97" s="79"/>
       <c r="F97" s="70" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="G97" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H97" s="104" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="K97" s="79" t="s">
         <v>95</v>
@@ -12560,16 +12589,16 @@
       <c r="B98" s="79"/>
       <c r="D98" s="79"/>
       <c r="F98" s="70" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G98" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H98" s="104" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K98" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L98" s="82"/>
       <c r="M98" s="67"/>
@@ -12582,19 +12611,19 @@
       <c r="B99" s="79"/>
       <c r="D99" s="79"/>
       <c r="F99" s="70" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G99" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H99" s="104" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K99" s="82" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L99" s="78" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M99" s="67"/>
       <c r="N99" s="79"/>
@@ -12606,16 +12635,16 @@
       <c r="B100" s="79"/>
       <c r="D100" s="79"/>
       <c r="F100" s="70" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G100" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H100" s="104" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K100" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L100" s="79"/>
       <c r="M100" s="67"/>
@@ -12628,16 +12657,16 @@
       <c r="B101" s="79"/>
       <c r="D101" s="79"/>
       <c r="F101" s="70" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="G101" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H101" s="104" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K101" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L101" s="79"/>
       <c r="M101" s="67"/>
@@ -12650,16 +12679,16 @@
       <c r="B102" s="79"/>
       <c r="D102" s="79"/>
       <c r="F102" s="70" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G102" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H102" s="105" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K102" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L102" s="79"/>
       <c r="M102" s="67"/>
@@ -12672,16 +12701,16 @@
       <c r="B103" s="79"/>
       <c r="D103" s="79"/>
       <c r="F103" s="70" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="G103" s="70" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H103" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K103" s="79" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L103" s="79"/>
       <c r="N103" s="79"/>
@@ -12693,16 +12722,16 @@
       <c r="B104" s="80"/>
       <c r="D104" s="80"/>
       <c r="F104" s="70" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G104" s="70" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H104" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K104" s="80" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="L104" s="80"/>
       <c r="N104" s="80"/>
@@ -12714,10 +12743,10 @@
       <c r="B105" s="80"/>
       <c r="D105" s="80"/>
       <c r="F105" s="70" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G105" s="70" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="H105" s="109" t="s">
         <v>95</v>
@@ -12735,10 +12764,10 @@
       <c r="B106" s="80"/>
       <c r="D106" s="80"/>
       <c r="F106" s="70" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G106" s="70" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H106" s="109" t="s">
         <v>95</v>
@@ -12756,16 +12785,16 @@
       <c r="B107" s="80"/>
       <c r="D107" s="80"/>
       <c r="F107" s="70" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G107" s="70" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H107" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K107" s="80" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L107" s="80"/>
       <c r="N107" s="80"/>
@@ -12777,16 +12806,16 @@
       <c r="B108" s="80"/>
       <c r="D108" s="80"/>
       <c r="F108" s="70" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G108" s="70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H108" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K108" s="80" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L108" s="80"/>
       <c r="N108" s="80"/>
@@ -12798,16 +12827,16 @@
       <c r="B109" s="81"/>
       <c r="D109" s="81"/>
       <c r="F109" s="70" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G109" s="70" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="H109" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K109" s="81" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L109" s="81"/>
       <c r="N109" s="81"/>
@@ -12819,16 +12848,16 @@
       <c r="B110" s="80"/>
       <c r="D110" s="80"/>
       <c r="F110" s="70" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G110" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H110" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K110" s="80" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L110" s="80"/>
       <c r="N110" s="80"/>
@@ -12840,16 +12869,16 @@
       <c r="B111" s="80"/>
       <c r="D111" s="80"/>
       <c r="F111" s="70" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G111" s="70" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H111" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K111" s="80" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L111" s="80"/>
       <c r="N111" s="80"/>
@@ -12861,10 +12890,10 @@
       <c r="B112" s="80"/>
       <c r="D112" s="80"/>
       <c r="F112" s="70" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="G112" s="70" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H112" s="109" t="s">
         <v>95</v>
@@ -12882,16 +12911,16 @@
       <c r="B113" s="80"/>
       <c r="D113" s="80"/>
       <c r="F113" s="70" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G113" s="70" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H113" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K113" s="80" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L113" s="80"/>
       <c r="N113" s="80"/>
@@ -12903,10 +12932,10 @@
       <c r="B114" s="80"/>
       <c r="D114" s="80"/>
       <c r="F114" s="70" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G114" s="70" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H114" s="109" t="s">
         <v>95</v>
@@ -12915,7 +12944,7 @@
         <v>93</v>
       </c>
       <c r="L114" s="78" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="N114" s="80"/>
       <c r="O114" s="80"/>
@@ -12926,16 +12955,16 @@
       <c r="B115" s="80"/>
       <c r="D115" s="80"/>
       <c r="F115" s="70" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G115" s="70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="H115" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K115" s="80" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="L115" s="80"/>
       <c r="N115" s="80"/>
@@ -12973,7 +13002,7 @@
       <c r="B118" s="79"/>
       <c r="D118" s="79"/>
       <c r="E118" s="69" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="H118" s="104"/>
       <c r="K118" s="79"/>
@@ -12988,7 +13017,7 @@
       <c r="B119" s="79"/>
       <c r="D119" s="79"/>
       <c r="E119" s="69" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H119" s="104"/>
       <c r="K119" s="79"/>
@@ -13003,7 +13032,7 @@
       <c r="B120" s="79"/>
       <c r="D120" s="79"/>
       <c r="E120" s="69" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H120" s="104"/>
       <c r="K120" s="79"/>
@@ -13018,7 +13047,7 @@
       <c r="B121" s="79"/>
       <c r="D121" s="79"/>
       <c r="E121" s="69" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H121" s="104"/>
       <c r="K121" s="79"/>
@@ -13034,20 +13063,20 @@
         <v>88</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D122" s="79"/>
       <c r="E122" s="70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F122" s="70" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G122" s="70" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H122" s="104" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K122" s="82" t="s">
         <v>95</v>
@@ -13063,13 +13092,13 @@
       <c r="B123" s="79"/>
       <c r="D123" s="79"/>
       <c r="F123" s="70" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G123" s="70" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="H123" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K123" s="82" t="s">
         <v>95</v>
@@ -13085,13 +13114,13 @@
       <c r="B124" s="79"/>
       <c r="D124" s="79"/>
       <c r="F124" s="70" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G124" s="70" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H124" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K124" s="82" t="s">
         <v>95</v>
@@ -13120,26 +13149,26 @@
         <v>24</v>
       </c>
       <c r="C126" s="70" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D126" s="79"/>
       <c r="E126" s="70" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F126" s="70" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G126" s="70" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H126" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K126" s="82" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L126" s="78" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M126" s="67"/>
       <c r="N126" s="79"/>
@@ -13151,13 +13180,13 @@
       <c r="B127" s="79"/>
       <c r="D127" s="79"/>
       <c r="F127" s="70" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G127" s="70" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H127" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K127" s="79"/>
       <c r="L127" s="79"/>
@@ -13171,13 +13200,13 @@
       <c r="B128" s="79"/>
       <c r="D128" s="79"/>
       <c r="F128" s="70" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G128" s="70" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H128" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K128" s="79"/>
       <c r="L128" s="79"/>
@@ -13191,13 +13220,13 @@
       <c r="B129" s="79"/>
       <c r="D129" s="79"/>
       <c r="F129" s="70" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G129" s="70" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H129" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K129" s="79"/>
       <c r="L129" s="79"/>
@@ -13211,13 +13240,13 @@
       <c r="B130" s="79"/>
       <c r="D130" s="79"/>
       <c r="F130" s="70" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H130" s="109" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K130" s="79"/>
       <c r="L130" s="79"/>
@@ -13244,17 +13273,17 @@
         <v>55</v>
       </c>
       <c r="C132" s="70" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D132" s="79"/>
       <c r="E132" s="70" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F132" s="70" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G132" s="70" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H132" s="104" t="s">
         <v>95</v>
@@ -13271,13 +13300,13 @@
       <c r="B133" s="79"/>
       <c r="D133" s="79"/>
       <c r="F133" s="70" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G133" s="70" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="H133" s="104" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="K133" s="82" t="s">
         <v>95</v>
@@ -13293,16 +13322,16 @@
       <c r="B134" s="79"/>
       <c r="D134" s="79"/>
       <c r="F134" s="70" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G134" s="70" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H134" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K134" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L134" s="82"/>
       <c r="M134" s="67"/>
@@ -13315,20 +13344,20 @@
       <c r="B135" s="79"/>
       <c r="D135" s="79"/>
       <c r="F135" s="70" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H135" s="109" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="K135" s="82" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="L135" s="82"/>
       <c r="M135" s="67" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="N135" s="79"/>
       <c r="O135" s="79"/>
@@ -13339,16 +13368,16 @@
       <c r="B136" s="79"/>
       <c r="D136" s="79"/>
       <c r="F136" s="70" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G136" s="70" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H136" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K136" s="82" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="L136" s="82"/>
       <c r="M136" s="67"/>
@@ -13361,16 +13390,16 @@
       <c r="B137" s="79"/>
       <c r="D137" s="79"/>
       <c r="F137" s="70" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G137" s="70" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="H137" s="109" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="K137" s="82" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="L137" s="82"/>
       <c r="M137" s="67"/>
@@ -13393,29 +13422,29 @@
     <row r="139" spans="1:16" s="70" customFormat="1" ht="66" x14ac:dyDescent="0.35">
       <c r="A139" s="79"/>
       <c r="B139" s="79" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C139" s="70" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D139" s="79"/>
       <c r="E139" s="70" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F139" s="70" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="G139" s="70" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="H139" s="109" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="K139" s="79" t="s">
         <v>93</v>
       </c>
       <c r="L139" s="78" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M139" s="67"/>
       <c r="N139" s="79"/>
@@ -13427,16 +13456,16 @@
       <c r="B140" s="79"/>
       <c r="D140" s="79"/>
       <c r="F140" s="70" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="G140" s="70" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H140" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K140" s="79" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L140" s="79"/>
       <c r="M140" s="67"/>
@@ -13449,16 +13478,16 @@
       <c r="B141" s="79"/>
       <c r="D141" s="79"/>
       <c r="F141" s="70" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G141" s="70" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H141" s="109" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="K141" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L141" s="79"/>
       <c r="M141" s="67"/>
@@ -13471,16 +13500,16 @@
       <c r="B142" s="79"/>
       <c r="D142" s="79"/>
       <c r="F142" s="70" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H142" s="109" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="K142" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L142" s="79"/>
       <c r="M142" s="67"/>
@@ -13493,16 +13522,16 @@
       <c r="B143" s="79"/>
       <c r="D143" s="79"/>
       <c r="F143" s="70" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G143" s="70" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H143" s="109" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="K143" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L143" s="79"/>
       <c r="M143" s="67"/>
@@ -13515,16 +13544,16 @@
       <c r="B144" s="79"/>
       <c r="D144" s="79"/>
       <c r="F144" s="70" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="G144" s="70" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H144" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K144" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L144" s="79"/>
       <c r="M144" s="67"/>
@@ -13537,16 +13566,16 @@
       <c r="B145" s="79"/>
       <c r="D145" s="79"/>
       <c r="F145" s="70" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="G145" s="70" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H145" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K145" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L145" s="79"/>
       <c r="M145" s="67"/>
@@ -13556,16 +13585,16 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F146" s="70" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G146" s="70" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H146" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K146" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
@@ -13573,16 +13602,16 @@
       <c r="B147" s="81"/>
       <c r="D147" s="81"/>
       <c r="F147" s="70" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="G147" s="70" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H147" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K147" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="L147" s="81"/>
       <c r="M147" s="67"/>
@@ -13592,44 +13621,44 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F148" s="70" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G148" s="70" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="H148" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K148" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F149" s="70" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="G149" s="70" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H149" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K149" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F150" s="70" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G150" s="70" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H150" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K150" s="82" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -13639,346 +13668,346 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:J20 A26:JB27 A4:JB8 A9:K9 M9:JB9 A28:D35 E29:E36 A117:JB117 A151:JB65357 A146:E150 A16:JB17 M15:JB15 A10:G15 K19:JB25 F35:J35 L35:JB35 A36:K36 M36:JB36 A53:J53 M53:JB53 F72:JB75 F80:J80 M80:JB80 A37:JB43 E73:E116 A72:D116 F98:J99 M98:JB99 L98 E119:E145 A118:D145 M139:JB139 F77:JB79 F76:J76 M76:JB76 F116:JB116 M114:JB114 F28:JB34 K141:JB150 F2:JB3 A54:JB70 F100:JB101 F102:I102 K102:JB102 F81:JB87 I103:JB113 I114:K114 F103:G115 I115:JB115 I138:JB138 F138:G145 I139:K139 I140:JB140 I141:J145 I10:JB14 I15:K15 A48:JB52 A44:G47 I44:JB47 F92:JB97 F88:G91 I88:JB91">
-    <cfRule type="cellIs" dxfId="103" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="229" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="230" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="101" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="145" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="146" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:J25 G23:G24 I23:J24">
-    <cfRule type="cellIs" dxfId="99" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="141" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="142" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="97" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="95" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="93" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="91" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="89" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="87" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:JB71">
-    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="83" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118:JB121 F131:JB131 M122:JB126 F132:F137 N132:JB137 F122:J125 I126:J126 F126:G130 I127:JB130">
-    <cfRule type="cellIs" dxfId="81" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="79" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F146">
-    <cfRule type="cellIs" dxfId="77" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146 I146:J146">
-    <cfRule type="cellIs" dxfId="75" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="73" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148 I148:J148">
-    <cfRule type="cellIs" dxfId="71" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F149">
-    <cfRule type="cellIs" dxfId="69" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G149 I149:J149">
-    <cfRule type="cellIs" dxfId="67" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="65" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150 I150:J150">
-    <cfRule type="cellIs" dxfId="63" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="61" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G147 I147:J147">
-    <cfRule type="cellIs" dxfId="59" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:J21">
-    <cfRule type="cellIs" dxfId="57" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:J22">
-    <cfRule type="cellIs" dxfId="55" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="53" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K80">
-    <cfRule type="cellIs" dxfId="51" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99">
-    <cfRule type="cellIs" dxfId="49" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:M135 G136:G137 I136:M137">
-    <cfRule type="cellIs" dxfId="47" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K98">
-    <cfRule type="cellIs" dxfId="45" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K122:L125">
-    <cfRule type="cellIs" dxfId="43" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K126">
-    <cfRule type="cellIs" dxfId="41" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="39" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H115">
-    <cfRule type="cellIs" dxfId="37" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126:H130">
-    <cfRule type="cellIs" dxfId="35" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H136:H137">
-    <cfRule type="cellIs" dxfId="31" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139:H144">
-    <cfRule type="cellIs" dxfId="29" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H150">
-    <cfRule type="cellIs" dxfId="27" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H15">
-    <cfRule type="cellIs" dxfId="25" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="23" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H47">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:H91">
-    <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14013,7 +14042,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="85" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -14026,7 +14055,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -14034,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -14042,7 +14071,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -14050,7 +14079,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -14058,7 +14087,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -14066,7 +14095,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>

--- a/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
+++ b/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作\手游1\测试文档\01.测试用例\数值规划\伤害公式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\01.测试用例\数值规划\伤害公式\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="787" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="19550" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="614">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -1662,10 +1662,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>单次攻击B总受伤=a*b*c*(1+d+e-f)*g*h*i*j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单次攻击B总受伤=0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1903,41 +1899,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=1,j=1</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=2,j=1</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=3,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=3,h=3,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=1.2,g=3,h=3,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=1.3,g=3,h=3,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=100,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=1,b=0.1,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2</t>
-  </si>
-  <si>
-    <t>a=0.1,b=0.5,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>a=0.2,b=0.5,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单次攻击B总受伤=936</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1991,10 +1952,6 @@
     <t>单次治疗=864</t>
   </si>
   <si>
-    <t>a=1,b=0.1,c=100,d=0.1,e=0.2,f=0.1,g=1.5,h=3,i=2,j=2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>单次攻击B总受伤=216</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2305,9 +2262,6 @@
   <si>
     <t>总命中率=max(N+L(2)+10%,60%)</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总物理攻击力*（1+角色套装力量加成百分比+A伤害增益-B装备伤害减免）*A物理技能伤害系数*总技能加成系数*弱点系数*防御系数</t>
   </si>
   <si>
     <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总法术攻击力*属性相克系数*五行加成系数*（1+角色套装智力加成百分比+A伤害增益-B装备伤害减免）*A法术技能伤害系数*总技能加成系数*弱点系数*防御系数</t>
@@ -2727,10 +2681,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总物理攻击力为c,角色套装力量加成百分比为d,A伤害增益为e,B装备伤害减免为f,A物理技能伤害系数为g,总技能加成系数为h,弱点系数为i,防御系数为j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>文档需求为80%</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2903,6 +2853,105 @@
   <si>
     <t>总暴击伤害加成百分比为a,A总法术攻击力为b,角色套装智力加成百分比为c,被治疗效果加成为d,A法术技能伤害系数为e,总技能加成系数为f</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击B总受伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击B总受伤=总暴击伤害加成百分比*B总受伤百分比*A总物理攻击力*（1+角色套装力量加成百分比+A伤害增益-B装备伤害减免）*A物理技能伤害系数*属性相克系数*五行系数*总技能加成系数*弱点系数*防御系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总暴击伤害加成百分比为a,B总受伤百分比为b,A总物理攻击力为c,角色套装力量加成百分比为d,A伤害增益为e,B装备伤害减免为f,A物理技能伤害系数为g,总技能加成系数为h,弱点系数为i,防御系数为j，属性相克系数为k，五行加成系数为l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击B总受伤=a*b*c*(1+d+e-f)*g*h*i*j*k*l</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>l=0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=1,j=1,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=2,j=1,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=1.5,h=1.5,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e,k=1,l=1=0.1,f=0.1,g=1.5,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.2,f=0.1,g=1.5,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=0.1,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=1.2,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.1,e=0.1,f=1.3,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=100,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=1,b=0.1,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.1,b=0.5,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.2,b=0.5,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2,k=1,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.2,b=0.5,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2,k=2,l=1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=0.2,b=0.5,c=200,d=0.2,e=0.2,f=0.1,g=3,h=3,i=2,j=2,k=2,l=2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击B总受伤=1872</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次攻击B总受伤=3744</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理总受伤添加属性相克系数，五行加成系数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>svn://192.168.199.122/gd/数值规划/怪物属性配置及伤害公式.xlsx</t>
   </si>
 </sst>
 </file>
@@ -3125,7 +3174,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3165,6 +3214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3271,7 +3326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3582,6 +3637,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3606,79 +3667,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="200">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="48"/>
-      </font>
-    </dxf>
+  <dxfs count="192">
     <dxf>
       <font>
         <b/>
@@ -5763,34 +5752,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="17.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="40" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.875" style="1"/>
-    <col min="10" max="10" width="8.875" style="3"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="6" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.90625" style="1"/>
+    <col min="10" max="10" width="8.90625" style="3"/>
+    <col min="11" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.4">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5798,42 +5787,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:256" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="11" spans="1:256" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:256" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="112"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6088,7 +6077,7 @@
       <c r="IU11" s="1"/>
       <c r="IV11" s="1"/>
     </row>
-    <row r="12" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="s">
         <v>5</v>
       </c>
@@ -6097,7 +6086,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -6106,7 +6095,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
@@ -6115,7 +6104,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="16" spans="1:256" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:256" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
@@ -6132,7 +6121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B17" s="13">
         <v>42114</v>
       </c>
@@ -6154,12 +6143,12 @@
       <c r="J17" s="18"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B18" s="13">
         <v>42132</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>40</v>
@@ -6176,15 +6165,15 @@
       <c r="J18" s="18"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B19" s="13">
         <v>42137</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>41</v>
@@ -6198,15 +6187,15 @@
       <c r="J19" s="18"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B20" s="13">
         <v>42143</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>41</v>
@@ -6215,12 +6204,12 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B21" s="13">
         <v>42153</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>40</v>
@@ -6232,85 +6221,95 @@
         <v>948</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="33" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="29" x14ac:dyDescent="0.4">
       <c r="B22" s="13">
         <v>42186</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="22" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="29" x14ac:dyDescent="0.4">
+      <c r="B23" s="13">
+        <v>42334</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>611</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="F23" s="22">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="20"/>
       <c r="E24" s="21"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="20"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="20"/>
       <c r="E27" s="54"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B28" s="13"/>
       <c r="C28" s="56"/>
       <c r="D28" s="20"/>
       <c r="E28" s="54"/>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="20"/>
       <c r="E30" s="22"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="20"/>
@@ -6340,83 +6339,83 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="26"/>
-    <col min="2" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="8.90625" style="26"/>
+    <col min="2" max="16384" width="8.90625" style="25"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="59"/>
     </row>
-    <row r="5" spans="1:2" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
     </row>
-    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" s="59"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C76" s="59"/>
       <c r="D76" s="68"/>
     </row>
-    <row r="77" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C77" s="72"/>
       <c r="D77" s="68"/>
       <c r="N77" s="71"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B78" s="59"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C80" s="59"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="27"/>
       <c r="B83" s="28"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
       <c r="B88" s="28"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B89" s="59"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" s="73"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="27"/>
       <c r="B105" s="28"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="27"/>
       <c r="B128" s="28"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C129" s="53"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="27"/>
       <c r="B133" s="28"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="29"/>
       <c r="D134" s="29"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C135" s="30"/>
       <c r="D135" s="30"/>
       <c r="E135" s="30"/>
@@ -6432,7 +6431,7 @@
       <c r="O135" s="31"/>
       <c r="P135" s="31"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
       <c r="D136" s="30"/>
@@ -6449,7 +6448,7 @@
       <c r="O136" s="31"/>
       <c r="P136" s="31"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
       <c r="D137" s="30"/>
@@ -6466,7 +6465,7 @@
       <c r="O137" s="31"/>
       <c r="P137" s="31"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B138" s="30"/>
       <c r="C138" s="30"/>
       <c r="D138" s="30"/>
@@ -6483,7 +6482,7 @@
       <c r="O138" s="31"/>
       <c r="P138" s="31"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
       <c r="D139" s="30"/>
@@ -6500,7 +6499,7 @@
       <c r="O139" s="31"/>
       <c r="P139" s="31"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
       <c r="D140" s="30"/>
@@ -6517,7 +6516,7 @@
       <c r="O140" s="31"/>
       <c r="P140" s="31"/>
     </row>
-    <row r="141" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A141" s="32"/>
       <c r="B141" s="33"/>
       <c r="C141" s="30"/>
@@ -6535,7 +6534,7 @@
       <c r="O141" s="30"/>
       <c r="P141" s="30"/>
     </row>
-    <row r="142" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B142" s="30"/>
       <c r="C142" s="33"/>
       <c r="D142" s="33"/>
@@ -6552,7 +6551,7 @@
       <c r="O142" s="30"/>
       <c r="P142" s="30"/>
     </row>
-    <row r="143" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B143" s="30"/>
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
@@ -6569,7 +6568,7 @@
       <c r="O143" s="30"/>
       <c r="P143" s="30"/>
     </row>
-    <row r="144" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B144" s="30"/>
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
@@ -6586,7 +6585,7 @@
       <c r="O144" s="30"/>
       <c r="P144" s="30"/>
     </row>
-    <row r="145" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B145" s="30"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
@@ -6603,7 +6602,7 @@
       <c r="O145" s="30"/>
       <c r="P145" s="30"/>
     </row>
-    <row r="146" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B146" s="30"/>
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
@@ -6620,7 +6619,7 @@
       <c r="O146" s="37"/>
       <c r="P146" s="30"/>
     </row>
-    <row r="147" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B147" s="30"/>
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
@@ -6637,7 +6636,7 @@
       <c r="O147" s="37"/>
       <c r="P147" s="30"/>
     </row>
-    <row r="148" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B148" s="30"/>
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
@@ -6654,7 +6653,7 @@
       <c r="O148" s="30"/>
       <c r="P148" s="30"/>
     </row>
-    <row r="149" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B149" s="30"/>
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
@@ -6671,7 +6670,7 @@
       <c r="O149" s="30"/>
       <c r="P149" s="30"/>
     </row>
-    <row r="150" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:16" s="36" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B150" s="30"/>
       <c r="C150" s="33"/>
       <c r="D150" s="33"/>
@@ -6688,7 +6687,7 @@
       <c r="O150" s="30"/>
       <c r="P150" s="30"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="30"/>
       <c r="C151" s="30"/>
       <c r="D151" s="30"/>
@@ -6705,7 +6704,7 @@
       <c r="O151" s="31"/>
       <c r="P151" s="31"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
       <c r="D152" s="30"/>
@@ -6722,7 +6721,7 @@
       <c r="O152" s="31"/>
       <c r="P152" s="31"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
       <c r="D153" s="30"/>
@@ -6739,7 +6738,7 @@
       <c r="O153" s="31"/>
       <c r="P153" s="31"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
       <c r="D154" s="30"/>
@@ -6756,7 +6755,7 @@
       <c r="O154" s="31"/>
       <c r="P154" s="31"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="30"/>
       <c r="C155" s="30"/>
       <c r="D155" s="30"/>
@@ -6773,7 +6772,7 @@
       <c r="O155" s="31"/>
       <c r="P155" s="31"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="30"/>
       <c r="C156" s="30"/>
       <c r="D156" s="30"/>
@@ -6790,7 +6789,7 @@
       <c r="O156" s="31"/>
       <c r="P156" s="31"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
       <c r="D157" s="30"/>
@@ -6807,7 +6806,7 @@
       <c r="O157" s="31"/>
       <c r="P157" s="31"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
       <c r="D158" s="30"/>
@@ -6824,7 +6823,7 @@
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C159" s="30"/>
       <c r="D159" s="30"/>
       <c r="E159" s="30"/>
@@ -6840,7 +6839,7 @@
       <c r="O159" s="31"/>
       <c r="P159" s="31"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C160" s="30"/>
       <c r="D160" s="30"/>
       <c r="E160" s="30"/>
@@ -6856,7 +6855,7 @@
       <c r="O160" s="31"/>
       <c r="P160" s="31"/>
     </row>
-    <row r="161" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E161" s="30"/>
       <c r="F161" s="31"/>
       <c r="G161" s="31"/>
@@ -6870,7 +6869,7 @@
       <c r="O161" s="31"/>
       <c r="P161" s="31"/>
     </row>
-    <row r="162" spans="3:16" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C162" s="29"/>
       <c r="D162" s="38"/>
       <c r="E162" s="31"/>
@@ -6886,201 +6885,201 @@
       <c r="O162" s="31"/>
       <c r="P162" s="31"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="31"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="31"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="31"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="31"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="31"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="31"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="31"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="31"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="31"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="28"/>
       <c r="C193" s="29"/>
       <c r="D193" s="29"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C195" s="31"/>
       <c r="D195" s="31"/>
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C196" s="31"/>
       <c r="D196" s="31"/>
       <c r="E196" s="31"/>
       <c r="F196" s="31"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C197" s="31"/>
       <c r="D197" s="31"/>
       <c r="E197" s="31"/>
       <c r="F197" s="31"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C198" s="31"/>
       <c r="D198" s="31"/>
       <c r="E198" s="31"/>
       <c r="F198" s="31"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C199" s="31"/>
       <c r="D199" s="31"/>
       <c r="E199" s="31"/>
       <c r="F199" s="31"/>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C200" s="31"/>
       <c r="D200" s="31"/>
       <c r="E200" s="31"/>
       <c r="F200" s="31"/>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C201" s="31"/>
       <c r="D201" s="31"/>
       <c r="E201" s="31"/>
       <c r="F201" s="31"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C202" s="31"/>
       <c r="D202" s="31"/>
       <c r="E202" s="31"/>
       <c r="F202" s="31"/>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C203" s="31"/>
       <c r="D203" s="31"/>
       <c r="E203" s="31"/>
       <c r="F203" s="31"/>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C204" s="31"/>
       <c r="D204" s="31"/>
       <c r="E204" s="31"/>
       <c r="F204" s="31"/>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C205" s="31"/>
       <c r="D205" s="31"/>
       <c r="E205" s="31"/>
       <c r="F205" s="31"/>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C206" s="31"/>
       <c r="D206" s="31"/>
       <c r="E206" s="31"/>
       <c r="F206" s="31"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C207" s="31"/>
       <c r="D207" s="31"/>
       <c r="E207" s="31"/>
       <c r="F207" s="31"/>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C208" s="31"/>
       <c r="D208" s="31"/>
       <c r="E208" s="31"/>
       <c r="F208" s="31"/>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C209" s="31"/>
       <c r="D209" s="31"/>
       <c r="E209" s="31"/>
       <c r="F209" s="31"/>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C210" s="31"/>
       <c r="D210" s="31"/>
       <c r="E210" s="31"/>
       <c r="F210" s="31"/>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C211" s="31"/>
       <c r="D211" s="31"/>
       <c r="E211" s="31"/>
       <c r="F211" s="31"/>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C212" s="31"/>
       <c r="D212" s="31"/>
       <c r="E212" s="31"/>
       <c r="F212" s="31"/>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C213" s="31"/>
       <c r="D213" s="31"/>
       <c r="E213" s="31"/>
       <c r="F213" s="31"/>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C214" s="31"/>
       <c r="D214" s="31"/>
       <c r="E214" s="31"/>
       <c r="F214" s="31"/>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C215" s="31"/>
       <c r="D215" s="31"/>
       <c r="E215" s="31"/>
       <c r="F215" s="31"/>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C216" s="31"/>
       <c r="D216" s="31"/>
       <c r="E216" s="31"/>
       <c r="F216" s="31"/>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C217" s="31"/>
       <c r="D217" s="31"/>
       <c r="E217" s="31"/>
       <c r="F217" s="31"/>
     </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C218" s="31"/>
       <c r="D218" s="31"/>
       <c r="E218" s="31"/>
       <c r="F218" s="31"/>
     </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C219" s="31"/>
       <c r="D219" s="31"/>
       <c r="E219" s="31"/>
       <c r="F219" s="31"/>
     </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C220" s="31"/>
       <c r="D220" s="31"/>
       <c r="E220" s="31"/>
       <c r="F220" s="31"/>
     </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C221" s="31"/>
       <c r="D221" s="31"/>
       <c r="E221" s="31"/>
       <c r="F221" s="31"/>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" s="31"/>
       <c r="C224" s="31"/>
       <c r="D224" s="31"/>
@@ -7089,7 +7088,7 @@
       <c r="G224" s="31"/>
       <c r="H224" s="31"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" s="31"/>
       <c r="C225" s="31"/>
       <c r="D225" s="31"/>
@@ -7098,7 +7097,7 @@
       <c r="G225" s="31"/>
       <c r="H225" s="31"/>
     </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" s="31"/>
       <c r="C226" s="31"/>
       <c r="D226" s="31"/>
@@ -7107,7 +7106,7 @@
       <c r="G226" s="31"/>
       <c r="H226" s="31"/>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" s="31"/>
       <c r="C227" s="31"/>
       <c r="D227" s="31"/>
@@ -7116,7 +7115,7 @@
       <c r="G227" s="31"/>
       <c r="H227" s="31"/>
     </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" s="31"/>
       <c r="C228" s="31"/>
       <c r="D228" s="31"/>
@@ -7125,7 +7124,7 @@
       <c r="G228" s="31"/>
       <c r="H228" s="31"/>
     </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" s="31"/>
       <c r="C229" s="31"/>
       <c r="D229" s="31"/>
@@ -7134,7 +7133,7 @@
       <c r="G229" s="31"/>
       <c r="H229" s="31"/>
     </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" s="31"/>
       <c r="C230" s="31"/>
       <c r="D230" s="31"/>
@@ -7143,7 +7142,7 @@
       <c r="G230" s="31"/>
       <c r="H230" s="31"/>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" s="31"/>
       <c r="C231" s="31"/>
       <c r="D231" s="31"/>
@@ -7152,37 +7151,37 @@
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
     </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D233" s="55"/>
       <c r="E233" s="55"/>
       <c r="F233" s="55"/>
       <c r="G233" s="55"/>
     </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D234" s="55"/>
       <c r="E234" s="55"/>
       <c r="F234" s="55"/>
       <c r="G234" s="55"/>
     </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D235" s="55"/>
       <c r="E235" s="55"/>
       <c r="F235" s="55"/>
       <c r="G235" s="55"/>
     </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D236" s="55"/>
       <c r="E236" s="55"/>
       <c r="F236" s="55"/>
       <c r="G236" s="55"/>
     </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D237" s="55"/>
       <c r="E237" s="55"/>
       <c r="F237" s="55"/>
       <c r="G237" s="55"/>
     </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D238" s="55"/>
       <c r="E238" s="55"/>
       <c r="F238" s="55"/>
@@ -7191,10 +7190,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N77 C77">
-    <cfRule type="cellIs" dxfId="195" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7209,46 +7208,46 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B183" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="86" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="87" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="87" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="86" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="87" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="87" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="86" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.75" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="86" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="86" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="86" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" style="87" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" style="87" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" style="87" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" style="86" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" style="86" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" style="86" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" style="86" customWidth="1"/>
     <col min="13" max="13" width="25" style="93" customWidth="1"/>
-    <col min="14" max="14" width="5.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="86" customWidth="1"/>
+    <col min="14" max="14" width="5.08984375" style="86" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="86" customWidth="1"/>
     <col min="16" max="16" width="25" style="93" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="87"/>
+    <col min="17" max="17" width="8.90625" style="87"/>
     <col min="18" max="18" width="10" style="87" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="87"/>
+    <col min="19" max="16384" width="8.90625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-    </row>
-    <row r="2" spans="1:19" s="88" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+    </row>
+    <row r="2" spans="1:19" s="88" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>13</v>
       </c>
@@ -7307,38 +7306,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="88" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C3" s="89" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C4" s="91" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="86"/>
       <c r="E5" s="92" t="s">
         <v>96</v>
       </c>
       <c r="N5" s="94"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="86"/>
       <c r="E6" s="95" t="s">
         <v>97</v>
       </c>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="86"/>
       <c r="E7" s="95" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="86">
         <v>1</v>
       </c>
@@ -7358,15 +7357,15 @@
         <v>65</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="K8" s="86" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="M8" s="97"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
       <c r="F9" s="87" t="s">
         <v>66</v>
@@ -7375,20 +7374,20 @@
         <v>65</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="K9" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N9" s="94"/>
       <c r="O9" s="42"/>
     </row>
-    <row r="10" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B10" s="86"/>
       <c r="N10" s="94"/>
       <c r="O10" s="42"/>
     </row>
-    <row r="11" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="29" x14ac:dyDescent="0.25">
       <c r="B11" s="98" t="s">
         <v>78</v>
       </c>
@@ -7406,12 +7405,12 @@
         <v>100</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="N11" s="94"/>
       <c r="O11" s="42"/>
     </row>
-    <row r="12" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B12" s="98"/>
       <c r="C12" s="96"/>
       <c r="D12" s="98"/>
@@ -7423,15 +7422,15 @@
         <v>101</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="K12" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N12" s="94"/>
       <c r="O12" s="42"/>
     </row>
-    <row r="13" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="96"/>
       <c r="D13" s="98"/>
@@ -7443,15 +7442,15 @@
         <v>101</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="K13" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N13" s="94"/>
       <c r="O13" s="42"/>
     </row>
-    <row r="14" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B14" s="98"/>
       <c r="C14" s="96"/>
       <c r="D14" s="98"/>
@@ -7463,20 +7462,20 @@
         <v>102</v>
       </c>
       <c r="H14" s="86" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="K14" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N14" s="94"/>
       <c r="O14" s="42"/>
     </row>
-    <row r="15" spans="1:19" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15" s="86"/>
       <c r="N15" s="94"/>
       <c r="O15" s="42"/>
     </row>
-    <row r="16" spans="1:19" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="87" x14ac:dyDescent="0.25">
       <c r="A16" s="86">
         <v>4</v>
       </c>
@@ -7496,11 +7495,11 @@
         <v>117</v>
       </c>
       <c r="H16" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B17" s="86"/>
       <c r="F17" s="87" t="s">
         <v>118</v>
@@ -7509,14 +7508,14 @@
         <v>115</v>
       </c>
       <c r="H17" s="100" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K17" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B18" s="86"/>
       <c r="F18" s="87" t="s">
         <v>119</v>
@@ -7525,14 +7524,14 @@
         <v>121</v>
       </c>
       <c r="H18" s="100" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="K18" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B19" s="86"/>
       <c r="F19" s="87" t="s">
         <v>120</v>
@@ -7541,14 +7540,14 @@
         <v>122</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K19" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B20" s="86"/>
       <c r="F20" s="87" t="s">
         <v>123</v>
@@ -7557,14 +7556,14 @@
         <v>124</v>
       </c>
       <c r="H20" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K20" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B21" s="86"/>
       <c r="F21" s="87" t="s">
         <v>125</v>
@@ -7573,14 +7572,14 @@
         <v>126</v>
       </c>
       <c r="H21" s="100" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K21" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B22" s="86"/>
       <c r="F22" s="87" t="s">
         <v>127</v>
@@ -7589,14 +7588,14 @@
         <v>128</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K22" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B23" s="86"/>
       <c r="F23" s="87" t="s">
         <v>129</v>
@@ -7605,14 +7604,14 @@
         <v>130</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K23" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="2:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B24" s="86"/>
       <c r="F24" s="87" t="s">
         <v>131</v>
@@ -7621,38 +7620,38 @@
         <v>132</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K24" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="86"/>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="98" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="101" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D26" s="102"/>
       <c r="E26" s="101" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G26" s="101" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="N26" s="94"/>
       <c r="O26" s="42"/>
     </row>
-    <row r="27" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="98"/>
       <c r="C27" s="101"/>
       <c r="D27" s="102"/>
@@ -7661,12 +7660,12 @@
         <v>80</v>
       </c>
       <c r="G27" s="101" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="N27" s="94"/>
       <c r="O27" s="42"/>
     </row>
-    <row r="28" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="98"/>
       <c r="C28" s="101"/>
       <c r="D28" s="102"/>
@@ -7675,12 +7674,12 @@
         <v>81</v>
       </c>
       <c r="G28" s="101" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="N28" s="94"/>
       <c r="O28" s="42"/>
     </row>
-    <row r="29" spans="2:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="98"/>
       <c r="C29" s="101"/>
       <c r="D29" s="102"/>
@@ -7689,38 +7688,38 @@
         <v>82</v>
       </c>
       <c r="G29" s="101" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="N29" s="94"/>
       <c r="O29" s="42"/>
     </row>
-    <row r="30" spans="2:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C30" s="91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="86"/>
       <c r="E31" s="92" t="s">
         <v>133</v>
       </c>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="86"/>
       <c r="E32" s="95" t="s">
         <v>134</v>
       </c>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="86"/>
       <c r="E33" s="95" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="86">
         <v>1</v>
       </c>
@@ -7740,15 +7739,15 @@
         <v>27</v>
       </c>
       <c r="H34" s="86" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="K34" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M34" s="97"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="86"/>
       <c r="F35" s="87" t="s">
         <v>66</v>
@@ -7757,20 +7756,20 @@
         <v>27</v>
       </c>
       <c r="H35" s="86" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="K35" s="86" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="N35" s="94"/>
       <c r="O35" s="42"/>
     </row>
-    <row r="36" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="86"/>
       <c r="N36" s="94"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B37" s="98" t="s">
         <v>78</v>
       </c>
@@ -7788,12 +7787,12 @@
         <v>139</v>
       </c>
       <c r="H37" s="86" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="N37" s="94"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="98"/>
       <c r="C38" s="96"/>
       <c r="D38" s="98"/>
@@ -7805,15 +7804,15 @@
         <v>140</v>
       </c>
       <c r="H38" s="86" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="K38" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N38" s="94"/>
       <c r="O38" s="42"/>
     </row>
-    <row r="39" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="98"/>
       <c r="C39" s="96"/>
       <c r="D39" s="98"/>
@@ -7825,15 +7824,15 @@
         <v>140</v>
       </c>
       <c r="H39" s="86" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="K39" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N39" s="94"/>
       <c r="O39" s="42"/>
     </row>
-    <row r="40" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="98"/>
       <c r="C40" s="96"/>
       <c r="D40" s="98"/>
@@ -7845,20 +7844,20 @@
         <v>141</v>
       </c>
       <c r="H40" s="86" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="K40" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N40" s="94"/>
       <c r="O40" s="42"/>
     </row>
-    <row r="41" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B41" s="86"/>
       <c r="N41" s="94"/>
       <c r="O41" s="42"/>
     </row>
-    <row r="42" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="A42" s="86">
         <v>4</v>
       </c>
@@ -7878,11 +7877,11 @@
         <v>144</v>
       </c>
       <c r="H42" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B43" s="86"/>
       <c r="F43" s="87" t="s">
         <v>118</v>
@@ -7891,14 +7890,14 @@
         <v>145</v>
       </c>
       <c r="H43" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K43" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B44" s="86"/>
       <c r="F44" s="87" t="s">
         <v>119</v>
@@ -7907,14 +7906,14 @@
         <v>146</v>
       </c>
       <c r="H44" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B45" s="86"/>
       <c r="F45" s="87" t="s">
         <v>120</v>
@@ -7923,14 +7922,14 @@
         <v>147</v>
       </c>
       <c r="H45" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B46" s="86"/>
       <c r="F46" s="87" t="s">
         <v>123</v>
@@ -7939,14 +7938,14 @@
         <v>148</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K46" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B47" s="86"/>
       <c r="F47" s="87" t="s">
         <v>125</v>
@@ -7955,14 +7954,14 @@
         <v>149</v>
       </c>
       <c r="H47" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K47" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B48" s="86"/>
       <c r="F48" s="87" t="s">
         <v>127</v>
@@ -7971,14 +7970,14 @@
         <v>150</v>
       </c>
       <c r="H48" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B49" s="86"/>
       <c r="F49" s="87" t="s">
         <v>129</v>
@@ -7987,14 +7986,14 @@
         <v>151</v>
       </c>
       <c r="H49" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B50" s="86"/>
       <c r="F50" s="87" t="s">
         <v>131</v>
@@ -8003,38 +8002,38 @@
         <v>152</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K50" s="86" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N50" s="94"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B51" s="86"/>
       <c r="N51" s="94"/>
     </row>
-    <row r="52" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="98" t="s">
         <v>78</v>
       </c>
       <c r="C52" s="101" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="D52" s="102"/>
       <c r="E52" s="101" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F52" s="101" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="G52" s="101" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="N52" s="94"/>
       <c r="O52" s="42"/>
     </row>
-    <row r="53" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="98"/>
       <c r="C53" s="101"/>
       <c r="D53" s="102"/>
@@ -8043,12 +8042,12 @@
         <v>80</v>
       </c>
       <c r="G53" s="101" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="N53" s="94"/>
       <c r="O53" s="42"/>
     </row>
-    <row r="54" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="98"/>
       <c r="C54" s="101"/>
       <c r="D54" s="102"/>
@@ -8057,12 +8056,12 @@
         <v>81</v>
       </c>
       <c r="G54" s="101" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="N54" s="94"/>
       <c r="O54" s="42"/>
     </row>
-    <row r="55" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="98"/>
       <c r="C55" s="101"/>
       <c r="D55" s="102"/>
@@ -8071,38 +8070,38 @@
         <v>82</v>
       </c>
       <c r="G55" s="101" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="N55" s="94"/>
       <c r="O55" s="42"/>
     </row>
-    <row r="56" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C56" s="91" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B57" s="86"/>
       <c r="E57" s="92" t="s">
         <v>168</v>
       </c>
       <c r="N57" s="94"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B58" s="86"/>
       <c r="E58" s="92" t="s">
         <v>157</v>
       </c>
       <c r="N58" s="94"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="86"/>
       <c r="E59" s="92" t="s">
         <v>103</v>
       </c>
       <c r="N59" s="94"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="86">
         <v>1</v>
       </c>
@@ -8122,12 +8121,12 @@
         <v>65</v>
       </c>
       <c r="K60" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M60" s="97"/>
       <c r="N60" s="94"/>
     </row>
-    <row r="61" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B61" s="86"/>
       <c r="F61" s="87" t="s">
         <v>66</v>
@@ -8136,17 +8135,17 @@
         <v>65</v>
       </c>
       <c r="K61" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N61" s="94"/>
       <c r="O61" s="42"/>
     </row>
-    <row r="62" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B62" s="86"/>
       <c r="N62" s="94"/>
       <c r="O62" s="42"/>
     </row>
-    <row r="63" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B63" s="98" t="s">
         <v>78</v>
       </c>
@@ -8164,14 +8163,14 @@
         <v>106</v>
       </c>
       <c r="H63" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I63" s="103"/>
       <c r="J63" s="103"/>
       <c r="N63" s="94"/>
       <c r="O63" s="42"/>
     </row>
-    <row r="64" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B64" s="98"/>
       <c r="C64" s="96"/>
       <c r="D64" s="98"/>
@@ -8183,20 +8182,20 @@
         <v>107</v>
       </c>
       <c r="H64" s="103" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="I64" s="103"/>
       <c r="J64" s="103"/>
       <c r="K64" s="86" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L64" s="99" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="N64" s="94"/>
       <c r="O64" s="42"/>
     </row>
-    <row r="65" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B65" s="98"/>
       <c r="C65" s="96"/>
       <c r="D65" s="98"/>
@@ -8208,14 +8207,14 @@
         <v>107</v>
       </c>
       <c r="H65" s="103" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="I65" s="103"/>
       <c r="J65" s="103"/>
       <c r="N65" s="94"/>
       <c r="O65" s="42"/>
     </row>
-    <row r="66" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="98"/>
       <c r="C66" s="96"/>
       <c r="D66" s="98"/>
@@ -8227,14 +8226,14 @@
         <v>108</v>
       </c>
       <c r="H66" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I66" s="103"/>
       <c r="J66" s="103"/>
       <c r="N66" s="94"/>
       <c r="O66" s="42"/>
     </row>
-    <row r="67" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B67" s="98"/>
       <c r="H67" s="103"/>
       <c r="I67" s="103"/>
@@ -8242,10 +8241,10 @@
       <c r="N67" s="94"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="B68" s="98"/>
       <c r="C68" s="87" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E68" s="87" t="s">
         <v>156</v>
@@ -8257,12 +8256,12 @@
         <v>159</v>
       </c>
       <c r="H68" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="N68" s="94"/>
       <c r="O68" s="42"/>
     </row>
-    <row r="69" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B69" s="98"/>
       <c r="F69" s="87" t="s">
         <v>118</v>
@@ -8271,15 +8270,15 @@
         <v>160</v>
       </c>
       <c r="H69" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K69" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N69" s="94"/>
       <c r="O69" s="42"/>
     </row>
-    <row r="70" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B70" s="98"/>
       <c r="F70" s="87" t="s">
         <v>119</v>
@@ -8288,15 +8287,15 @@
         <v>161</v>
       </c>
       <c r="H70" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K70" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N70" s="94"/>
       <c r="O70" s="42"/>
     </row>
-    <row r="71" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B71" s="98"/>
       <c r="F71" s="87" t="s">
         <v>120</v>
@@ -8305,15 +8304,15 @@
         <v>162</v>
       </c>
       <c r="H71" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K71" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N71" s="94"/>
       <c r="O71" s="42"/>
     </row>
-    <row r="72" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B72" s="98"/>
       <c r="F72" s="87" t="s">
         <v>123</v>
@@ -8322,15 +8321,15 @@
         <v>163</v>
       </c>
       <c r="H72" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K72" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N72" s="94"/>
       <c r="O72" s="42"/>
     </row>
-    <row r="73" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B73" s="98"/>
       <c r="F73" s="87" t="s">
         <v>125</v>
@@ -8339,15 +8338,15 @@
         <v>164</v>
       </c>
       <c r="H73" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K73" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N73" s="94"/>
       <c r="O73" s="42"/>
     </row>
-    <row r="74" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B74" s="98"/>
       <c r="F74" s="87" t="s">
         <v>127</v>
@@ -8356,15 +8355,15 @@
         <v>165</v>
       </c>
       <c r="H74" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K74" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N74" s="94"/>
       <c r="O74" s="42"/>
     </row>
-    <row r="75" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B75" s="98"/>
       <c r="F75" s="87" t="s">
         <v>129</v>
@@ -8373,15 +8372,15 @@
         <v>166</v>
       </c>
       <c r="H75" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K75" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N75" s="94"/>
       <c r="O75" s="42"/>
     </row>
-    <row r="76" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B76" s="98"/>
       <c r="F76" s="87" t="s">
         <v>131</v>
@@ -8390,20 +8389,20 @@
         <v>167</v>
       </c>
       <c r="H76" s="100" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K76" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N76" s="94"/>
       <c r="O76" s="42"/>
     </row>
-    <row r="77" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B77" s="98"/>
       <c r="N77" s="94"/>
       <c r="O77" s="42"/>
     </row>
-    <row r="78" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="A78" s="86">
         <v>4</v>
       </c>
@@ -8423,20 +8422,20 @@
         <v>170</v>
       </c>
       <c r="H78" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="J78" s="86" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="K78" s="86" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="L78" s="99" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N78" s="94"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" s="86"/>
       <c r="F79" s="87" t="s">
         <v>171</v>
@@ -8445,14 +8444,14 @@
         <v>178</v>
       </c>
       <c r="H79" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K79" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N79" s="94"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" s="86"/>
       <c r="F80" s="87" t="s">
         <v>172</v>
@@ -8461,14 +8460,14 @@
         <v>179</v>
       </c>
       <c r="H80" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K80" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N80" s="94"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B81" s="86"/>
       <c r="F81" s="87" t="s">
         <v>173</v>
@@ -8477,14 +8476,14 @@
         <v>180</v>
       </c>
       <c r="H81" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K81" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N81" s="94"/>
     </row>
-    <row r="82" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B82" s="86"/>
       <c r="F82" s="87" t="s">
         <v>174</v>
@@ -8493,14 +8492,14 @@
         <v>181</v>
       </c>
       <c r="H82" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K82" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N82" s="94"/>
     </row>
-    <row r="83" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B83" s="86"/>
       <c r="F83" s="87" t="s">
         <v>175</v>
@@ -8509,14 +8508,14 @@
         <v>182</v>
       </c>
       <c r="H83" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K83" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N83" s="94"/>
     </row>
-    <row r="84" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B84" s="86"/>
       <c r="F84" s="87" t="s">
         <v>176</v>
@@ -8525,14 +8524,14 @@
         <v>183</v>
       </c>
       <c r="H84" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K84" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N84" s="94"/>
     </row>
-    <row r="85" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B85" s="86"/>
       <c r="F85" s="87" t="s">
         <v>177</v>
@@ -8541,44 +8540,44 @@
         <v>184</v>
       </c>
       <c r="H85" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K85" s="86" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N85" s="94"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B86" s="86"/>
       <c r="N86" s="94"/>
     </row>
-    <row r="87" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C87" s="91" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B88" s="86"/>
       <c r="E88" s="92" t="s">
         <v>186</v>
       </c>
       <c r="N88" s="94"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B89" s="86"/>
       <c r="E89" s="92" t="s">
         <v>187</v>
       </c>
       <c r="N89" s="94"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B90" s="86"/>
       <c r="E90" s="92" t="s">
         <v>188</v>
       </c>
       <c r="N90" s="94"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="86">
         <v>1</v>
       </c>
@@ -8598,15 +8597,15 @@
         <v>27</v>
       </c>
       <c r="H91" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K91" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M91" s="97"/>
       <c r="N91" s="94"/>
     </row>
-    <row r="92" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B92" s="86"/>
       <c r="F92" s="87" t="s">
         <v>66</v>
@@ -8615,20 +8614,20 @@
         <v>27</v>
       </c>
       <c r="H92" s="86" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="K92" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N92" s="94"/>
       <c r="O92" s="42"/>
     </row>
-    <row r="93" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B93" s="86"/>
       <c r="N93" s="94"/>
       <c r="O93" s="42"/>
     </row>
-    <row r="94" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B94" s="98" t="s">
         <v>78</v>
       </c>
@@ -8646,14 +8645,14 @@
         <v>195</v>
       </c>
       <c r="H94" s="103" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="I94" s="103"/>
       <c r="J94" s="103"/>
       <c r="N94" s="94"/>
       <c r="O94" s="42"/>
     </row>
-    <row r="95" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B95" s="98"/>
       <c r="C95" s="96"/>
       <c r="D95" s="98"/>
@@ -8665,17 +8664,17 @@
         <v>196</v>
       </c>
       <c r="H95" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I95" s="103"/>
       <c r="J95" s="103"/>
       <c r="K95" s="86" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N95" s="94"/>
       <c r="O95" s="42"/>
     </row>
-    <row r="96" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B96" s="98"/>
       <c r="C96" s="96"/>
       <c r="D96" s="98"/>
@@ -8687,17 +8686,17 @@
         <v>196</v>
       </c>
       <c r="H96" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I96" s="103"/>
       <c r="J96" s="103"/>
       <c r="K96" s="86" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="N96" s="94"/>
       <c r="O96" s="42"/>
     </row>
-    <row r="97" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B97" s="98"/>
       <c r="C97" s="96"/>
       <c r="D97" s="98"/>
@@ -8709,22 +8708,22 @@
         <v>197</v>
       </c>
       <c r="H97" s="103" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="I97" s="103"/>
       <c r="J97" s="103"/>
       <c r="K97" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N97" s="94"/>
       <c r="O97" s="42"/>
     </row>
-    <row r="98" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B98" s="98"/>
       <c r="N98" s="94"/>
       <c r="O98" s="42"/>
     </row>
-    <row r="99" spans="1:15" ht="99" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="B99" s="98"/>
       <c r="C99" s="87" t="s">
         <v>155</v>
@@ -8739,12 +8738,12 @@
         <v>199</v>
       </c>
       <c r="H99" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N99" s="94"/>
       <c r="O99" s="42"/>
     </row>
-    <row r="100" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B100" s="98"/>
       <c r="F100" s="87" t="s">
         <v>118</v>
@@ -8753,15 +8752,15 @@
         <v>200</v>
       </c>
       <c r="H100" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K100" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N100" s="94"/>
       <c r="O100" s="42"/>
     </row>
-    <row r="101" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B101" s="98"/>
       <c r="F101" s="87" t="s">
         <v>119</v>
@@ -8770,15 +8769,15 @@
         <v>201</v>
       </c>
       <c r="H101" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K101" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N101" s="94"/>
       <c r="O101" s="42"/>
     </row>
-    <row r="102" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B102" s="98"/>
       <c r="F102" s="87" t="s">
         <v>120</v>
@@ -8787,15 +8786,15 @@
         <v>202</v>
       </c>
       <c r="H102" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K102" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N102" s="94"/>
       <c r="O102" s="42"/>
     </row>
-    <row r="103" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B103" s="98"/>
       <c r="F103" s="87" t="s">
         <v>123</v>
@@ -8804,15 +8803,15 @@
         <v>203</v>
       </c>
       <c r="H103" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K103" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N103" s="94"/>
       <c r="O103" s="42"/>
     </row>
-    <row r="104" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B104" s="98"/>
       <c r="F104" s="87" t="s">
         <v>125</v>
@@ -8821,15 +8820,15 @@
         <v>204</v>
       </c>
       <c r="H104" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K104" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N104" s="94"/>
       <c r="O104" s="42"/>
     </row>
-    <row r="105" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B105" s="98"/>
       <c r="F105" s="87" t="s">
         <v>127</v>
@@ -8838,15 +8837,15 @@
         <v>205</v>
       </c>
       <c r="H105" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K105" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N105" s="94"/>
       <c r="O105" s="42"/>
     </row>
-    <row r="106" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B106" s="98"/>
       <c r="F106" s="87" t="s">
         <v>129</v>
@@ -8855,15 +8854,15 @@
         <v>206</v>
       </c>
       <c r="H106" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K106" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N106" s="94"/>
       <c r="O106" s="42"/>
     </row>
-    <row r="107" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B107" s="98"/>
       <c r="F107" s="87" t="s">
         <v>131</v>
@@ -8872,20 +8871,20 @@
         <v>207</v>
       </c>
       <c r="H107" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K107" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N107" s="94"/>
       <c r="O107" s="42"/>
     </row>
-    <row r="108" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B108" s="98"/>
       <c r="N108" s="94"/>
       <c r="O108" s="42"/>
     </row>
-    <row r="109" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="A109" s="86">
         <v>4</v>
       </c>
@@ -8905,20 +8904,20 @@
         <v>211</v>
       </c>
       <c r="H109" s="100" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="J109" s="86" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="K109" s="86" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="L109" s="99" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="N109" s="94"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" s="86"/>
       <c r="F110" s="87" t="s">
         <v>171</v>
@@ -8927,11 +8926,11 @@
         <v>212</v>
       </c>
       <c r="H110" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N110" s="94"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" s="86"/>
       <c r="F111" s="87" t="s">
         <v>172</v>
@@ -8940,11 +8939,11 @@
         <v>213</v>
       </c>
       <c r="H111" s="100" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="N111" s="94"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B112" s="86"/>
       <c r="F112" s="87" t="s">
         <v>173</v>
@@ -8953,11 +8952,11 @@
         <v>214</v>
       </c>
       <c r="H112" s="100" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="N112" s="94"/>
     </row>
-    <row r="113" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B113" s="86"/>
       <c r="F113" s="87" t="s">
         <v>174</v>
@@ -8966,11 +8965,11 @@
         <v>215</v>
       </c>
       <c r="H113" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N113" s="94"/>
     </row>
-    <row r="114" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B114" s="86"/>
       <c r="F114" s="87" t="s">
         <v>175</v>
@@ -8979,11 +8978,11 @@
         <v>216</v>
       </c>
       <c r="H114" s="100" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="N114" s="94"/>
     </row>
-    <row r="115" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B115" s="86"/>
       <c r="F115" s="87" t="s">
         <v>176</v>
@@ -8992,11 +8991,11 @@
         <v>217</v>
       </c>
       <c r="H115" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="N115" s="94"/>
     </row>
-    <row r="116" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B116" s="86"/>
       <c r="F116" s="87" t="s">
         <v>177</v>
@@ -9005,34 +9004,34 @@
         <v>218</v>
       </c>
       <c r="H116" s="100" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="N116" s="94"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B117" s="86"/>
       <c r="N117" s="94"/>
     </row>
-    <row r="118" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C118" s="91" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" s="86"/>
       <c r="E119" s="92" t="s">
         <v>219</v>
       </c>
       <c r="N119" s="94"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B120" s="86"/>
       <c r="E120" s="92" t="s">
         <v>109</v>
       </c>
       <c r="N120" s="94"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="86">
         <v>1</v>
       </c>
@@ -9052,15 +9051,15 @@
         <v>75</v>
       </c>
       <c r="H121" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K121" s="86" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="M121" s="97"/>
       <c r="N121" s="94"/>
     </row>
-    <row r="122" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B122" s="86"/>
       <c r="F122" s="87" t="s">
         <v>76</v>
@@ -9069,20 +9068,20 @@
         <v>75</v>
       </c>
       <c r="H122" s="86" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="K122" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N122" s="94"/>
       <c r="O122" s="42"/>
     </row>
-    <row r="123" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B123" s="86"/>
       <c r="N123" s="94"/>
       <c r="O123" s="42"/>
     </row>
-    <row r="124" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B124" s="98" t="s">
         <v>78</v>
       </c>
@@ -9100,14 +9099,14 @@
         <v>112</v>
       </c>
       <c r="H124" s="103" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I124" s="103"/>
       <c r="J124" s="103"/>
       <c r="N124" s="94"/>
       <c r="O124" s="42"/>
     </row>
-    <row r="125" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B125" s="98"/>
       <c r="C125" s="96"/>
       <c r="D125" s="98"/>
@@ -9119,17 +9118,17 @@
         <v>113</v>
       </c>
       <c r="H125" s="103" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="I125" s="103"/>
       <c r="J125" s="103"/>
       <c r="K125" s="86" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="N125" s="94"/>
       <c r="O125" s="42"/>
     </row>
-    <row r="126" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B126" s="98"/>
       <c r="C126" s="96"/>
       <c r="D126" s="98"/>
@@ -9141,17 +9140,17 @@
         <v>113</v>
       </c>
       <c r="H126" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I126" s="103"/>
       <c r="J126" s="103"/>
       <c r="K126" s="86" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="N126" s="94"/>
       <c r="O126" s="42"/>
     </row>
-    <row r="127" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B127" s="98"/>
       <c r="C127" s="96"/>
       <c r="D127" s="98"/>
@@ -9163,22 +9162,22 @@
         <v>114</v>
       </c>
       <c r="H127" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I127" s="103"/>
       <c r="J127" s="103"/>
       <c r="K127" s="86" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="N127" s="94"/>
       <c r="O127" s="42"/>
     </row>
-    <row r="128" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B128" s="86"/>
       <c r="N128" s="94"/>
       <c r="O128" s="42"/>
     </row>
-    <row r="129" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="A129" s="86">
         <v>4</v>
       </c>
@@ -9198,11 +9197,11 @@
         <v>224</v>
       </c>
       <c r="H129" s="100" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="N129" s="94"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B130" s="86"/>
       <c r="F130" s="87" t="s">
         <v>221</v>
@@ -9211,14 +9210,14 @@
         <v>225</v>
       </c>
       <c r="H130" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K130" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N130" s="94"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B131" s="86"/>
       <c r="F131" s="87" t="s">
         <v>222</v>
@@ -9227,14 +9226,14 @@
         <v>226</v>
       </c>
       <c r="H131" s="100" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="K131" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N131" s="94"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B132" s="86"/>
       <c r="F132" s="87" t="s">
         <v>223</v>
@@ -9243,52 +9242,52 @@
         <v>227</v>
       </c>
       <c r="H132" s="100" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="K132" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N132" s="94"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B133" s="86"/>
       <c r="H133" s="100"/>
       <c r="N133" s="94"/>
     </row>
-    <row r="134" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C134" s="91" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B135" s="86"/>
       <c r="E135" s="92" t="s">
         <v>258</v>
       </c>
       <c r="N135" s="94"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B136" s="86"/>
       <c r="E136" s="92" t="s">
         <v>229</v>
       </c>
       <c r="N136" s="94"/>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B137" s="86"/>
       <c r="E137" s="92" t="s">
         <v>230</v>
       </c>
       <c r="N137" s="94"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B138" s="86"/>
       <c r="E138" s="92" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="N138" s="94"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="86">
         <v>1</v>
       </c>
@@ -9308,15 +9307,15 @@
         <v>27</v>
       </c>
       <c r="H139" s="86" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="K139" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M139" s="97"/>
       <c r="N139" s="94"/>
     </row>
-    <row r="140" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B140" s="86"/>
       <c r="F140" s="87" t="s">
         <v>66</v>
@@ -9325,20 +9324,20 @@
         <v>27</v>
       </c>
       <c r="H140" s="86" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K140" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N140" s="94"/>
       <c r="O140" s="42"/>
     </row>
-    <row r="141" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B141" s="86"/>
       <c r="N141" s="94"/>
       <c r="O141" s="42"/>
     </row>
-    <row r="142" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B142" s="98" t="s">
         <v>78</v>
       </c>
@@ -9356,14 +9355,14 @@
         <v>237</v>
       </c>
       <c r="H142" s="103" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="I142" s="103"/>
       <c r="J142" s="103"/>
       <c r="N142" s="94"/>
       <c r="O142" s="42"/>
     </row>
-    <row r="143" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B143" s="98"/>
       <c r="C143" s="96"/>
       <c r="D143" s="98"/>
@@ -9375,17 +9374,17 @@
         <v>238</v>
       </c>
       <c r="H143" s="103" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="I143" s="103"/>
       <c r="J143" s="103"/>
       <c r="K143" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N143" s="94"/>
       <c r="O143" s="42"/>
     </row>
-    <row r="144" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B144" s="98"/>
       <c r="C144" s="96"/>
       <c r="D144" s="98"/>
@@ -9397,17 +9396,17 @@
         <v>238</v>
       </c>
       <c r="H144" s="103" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="I144" s="103"/>
       <c r="J144" s="103"/>
       <c r="K144" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N144" s="94"/>
       <c r="O144" s="42"/>
     </row>
-    <row r="145" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B145" s="98"/>
       <c r="C145" s="96"/>
       <c r="D145" s="98"/>
@@ -9419,22 +9418,22 @@
         <v>239</v>
       </c>
       <c r="H145" s="103" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="I145" s="103"/>
       <c r="J145" s="103"/>
       <c r="K145" s="86" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N145" s="94"/>
       <c r="O145" s="42"/>
     </row>
-    <row r="146" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B146" s="98"/>
       <c r="N146" s="94"/>
       <c r="O146" s="42"/>
     </row>
-    <row r="147" spans="1:15" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" ht="87" x14ac:dyDescent="0.25">
       <c r="B147" s="98"/>
       <c r="C147" s="87" t="s">
         <v>155</v>
@@ -9449,12 +9448,12 @@
         <v>241</v>
       </c>
       <c r="H147" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N147" s="94"/>
       <c r="O147" s="42"/>
     </row>
-    <row r="148" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B148" s="98"/>
       <c r="F148" s="87" t="s">
         <v>118</v>
@@ -9463,15 +9462,15 @@
         <v>242</v>
       </c>
       <c r="H148" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K148" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N148" s="94"/>
       <c r="O148" s="42"/>
     </row>
-    <row r="149" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B149" s="98"/>
       <c r="F149" s="87" t="s">
         <v>119</v>
@@ -9480,15 +9479,15 @@
         <v>243</v>
       </c>
       <c r="H149" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K149" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N149" s="94"/>
       <c r="O149" s="42"/>
     </row>
-    <row r="150" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B150" s="98"/>
       <c r="F150" s="87" t="s">
         <v>120</v>
@@ -9497,15 +9496,15 @@
         <v>244</v>
       </c>
       <c r="H150" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K150" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N150" s="94"/>
       <c r="O150" s="42"/>
     </row>
-    <row r="151" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B151" s="98"/>
       <c r="F151" s="87" t="s">
         <v>123</v>
@@ -9514,15 +9513,15 @@
         <v>245</v>
       </c>
       <c r="H151" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K151" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N151" s="94"/>
       <c r="O151" s="42"/>
     </row>
-    <row r="152" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B152" s="98"/>
       <c r="F152" s="87" t="s">
         <v>125</v>
@@ -9531,15 +9530,15 @@
         <v>246</v>
       </c>
       <c r="H152" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K152" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N152" s="94"/>
       <c r="O152" s="42"/>
     </row>
-    <row r="153" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B153" s="98"/>
       <c r="F153" s="87" t="s">
         <v>127</v>
@@ -9548,15 +9547,15 @@
         <v>247</v>
       </c>
       <c r="H153" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K153" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N153" s="94"/>
       <c r="O153" s="42"/>
     </row>
-    <row r="154" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B154" s="98"/>
       <c r="F154" s="87" t="s">
         <v>129</v>
@@ -9565,15 +9564,15 @@
         <v>248</v>
       </c>
       <c r="H154" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K154" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N154" s="94"/>
       <c r="O154" s="42"/>
     </row>
-    <row r="155" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B155" s="98"/>
       <c r="F155" s="87" t="s">
         <v>131</v>
@@ -9582,20 +9581,20 @@
         <v>249</v>
       </c>
       <c r="H155" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K155" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N155" s="94"/>
       <c r="O155" s="42"/>
     </row>
-    <row r="156" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B156" s="98"/>
       <c r="N156" s="94"/>
       <c r="O156" s="42"/>
     </row>
-    <row r="157" spans="1:15" ht="66" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" ht="72.5" x14ac:dyDescent="0.25">
       <c r="A157" s="86">
         <v>4</v>
       </c>
@@ -9615,11 +9614,11 @@
         <v>260</v>
       </c>
       <c r="H157" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N157" s="94"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B158" s="86"/>
       <c r="F158" s="87" t="s">
         <v>266</v>
@@ -9628,14 +9627,14 @@
         <v>252</v>
       </c>
       <c r="H158" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K158" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N158" s="94"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B159" s="86"/>
       <c r="F159" s="87" t="s">
         <v>265</v>
@@ -9644,14 +9643,14 @@
         <v>253</v>
       </c>
       <c r="H159" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K159" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N159" s="94"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B160" s="86"/>
       <c r="F160" s="87" t="s">
         <v>264</v>
@@ -9660,14 +9659,14 @@
         <v>254</v>
       </c>
       <c r="H160" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K160" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N160" s="94"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B161" s="86"/>
       <c r="F161" s="87" t="s">
         <v>261</v>
@@ -9676,14 +9675,14 @@
         <v>255</v>
       </c>
       <c r="H161" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K161" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N161" s="94"/>
     </row>
-    <row r="162" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B162" s="86"/>
       <c r="F162" s="87" t="s">
         <v>262</v>
@@ -9692,14 +9691,14 @@
         <v>256</v>
       </c>
       <c r="H162" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K162" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N162" s="94"/>
     </row>
-    <row r="163" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="B163" s="86"/>
       <c r="F163" s="87" t="s">
         <v>263</v>
@@ -9708,33 +9707,33 @@
         <v>257</v>
       </c>
       <c r="H163" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K163" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N163" s="94"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B164" s="86"/>
       <c r="N164" s="94"/>
     </row>
-    <row r="165" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="98" t="s">
         <v>78</v>
       </c>
       <c r="C165" s="96" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D165" s="98"/>
       <c r="E165" s="96" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F165" s="96" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G165" s="96" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="H165" s="98"/>
       <c r="I165" s="98"/>
@@ -9742,7 +9741,7 @@
       <c r="N165" s="94"/>
       <c r="O165" s="42"/>
     </row>
-    <row r="166" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="98"/>
       <c r="C166" s="96"/>
       <c r="D166" s="98"/>
@@ -9751,7 +9750,7 @@
         <v>80</v>
       </c>
       <c r="G166" s="96" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="H166" s="98"/>
       <c r="I166" s="98"/>
@@ -9759,7 +9758,7 @@
       <c r="N166" s="94"/>
       <c r="O166" s="42"/>
     </row>
-    <row r="167" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="98"/>
       <c r="C167" s="96"/>
       <c r="D167" s="98"/>
@@ -9768,7 +9767,7 @@
         <v>81</v>
       </c>
       <c r="G167" s="96" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="H167" s="98"/>
       <c r="I167" s="98"/>
@@ -9776,7 +9775,7 @@
       <c r="N167" s="94"/>
       <c r="O167" s="42"/>
     </row>
-    <row r="168" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="98"/>
       <c r="C168" s="96"/>
       <c r="D168" s="98"/>
@@ -9785,7 +9784,7 @@
         <v>82</v>
       </c>
       <c r="G168" s="96" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="H168" s="98"/>
       <c r="I168" s="98"/>
@@ -9793,19 +9792,19 @@
       <c r="N168" s="94"/>
       <c r="O168" s="42"/>
     </row>
-    <row r="169" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C169" s="91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B170" s="86"/>
       <c r="E170" s="92" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="N170" s="94"/>
     </row>
-    <row r="171" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="A171" s="86">
         <v>1</v>
       </c>
@@ -9825,18 +9824,18 @@
         <v>75</v>
       </c>
       <c r="H171" s="86" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="J171" s="106" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="K171" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="M171" s="97"/>
       <c r="N171" s="94"/>
     </row>
-    <row r="172" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="86"/>
       <c r="F172" s="87" t="s">
         <v>66</v>
@@ -9845,20 +9844,20 @@
         <v>65</v>
       </c>
       <c r="H172" s="86" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="K172" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="N172" s="94"/>
       <c r="O172" s="42"/>
     </row>
-    <row r="173" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B173" s="86"/>
       <c r="N173" s="94"/>
       <c r="O173" s="42"/>
     </row>
-    <row r="174" spans="1:15" ht="66" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" ht="72.5" x14ac:dyDescent="0.25">
       <c r="A174" s="86">
         <v>4</v>
       </c>
@@ -9872,87 +9871,87 @@
         <v>49</v>
       </c>
       <c r="F174" s="87" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G174" s="87" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="H174" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="N174" s="94"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B175" s="86"/>
       <c r="F175" s="87" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="G175" s="87" t="s">
         <v>267</v>
       </c>
       <c r="H175" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K175" s="86" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N175" s="94"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B176" s="86"/>
       <c r="F176" s="87" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G176" s="87" t="s">
         <v>268</v>
       </c>
       <c r="H176" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K176" s="86" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N176" s="94"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B177" s="86"/>
       <c r="F177" s="87" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G177" s="87" t="s">
         <v>269</v>
       </c>
       <c r="H177" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K177" s="86" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N177" s="94"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="87"/>
       <c r="B178" s="86"/>
       <c r="F178" s="87" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="G178" s="87" t="s">
         <v>270</v>
       </c>
       <c r="H178" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K178" s="86" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N178" s="94"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="87"/>
       <c r="B179" s="111"/>
       <c r="D179" s="111"/>
       <c r="F179" s="87" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="G179" s="87" t="s">
         <v>269</v>
@@ -9965,15 +9964,15 @@
       <c r="N179" s="94"/>
       <c r="O179" s="111"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:15" ht="29" x14ac:dyDescent="0.25">
       <c r="A180" s="87"/>
       <c r="B180" s="111"/>
       <c r="D180" s="111"/>
       <c r="F180" s="87" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="G180" s="87" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="H180" s="100"/>
       <c r="I180" s="111"/>
@@ -9983,49 +9982,49 @@
       <c r="N180" s="94"/>
       <c r="O180" s="111"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="87"/>
       <c r="B181" s="86"/>
       <c r="F181" s="87" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="G181" s="87" t="s">
         <v>268</v>
       </c>
       <c r="H181" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K181" s="86" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="N181" s="94"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="87"/>
       <c r="B182" s="86"/>
       <c r="F182" s="87" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="G182" s="87" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="H182" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K182" s="86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="87"/>
       <c r="B183" s="86"/>
     </row>
-    <row r="184" spans="1:15" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:15" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C184" s="91" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="87"/>
       <c r="B185" s="86"/>
       <c r="E185" s="92" t="s">
@@ -10035,14 +10034,14 @@
       <c r="N185" s="94"/>
       <c r="O185" s="48"/>
     </row>
-    <row r="186" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="87"/>
       <c r="B186" s="86"/>
       <c r="L186" s="48"/>
       <c r="N186" s="94"/>
       <c r="O186" s="48"/>
     </row>
-    <row r="187" spans="1:15" ht="66" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:15" ht="72.5" x14ac:dyDescent="0.25">
       <c r="A187" s="87"/>
       <c r="B187" s="86"/>
       <c r="C187" s="87" t="s">
@@ -10058,13 +10057,13 @@
         <v>281</v>
       </c>
       <c r="H187" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="L187" s="48"/>
       <c r="N187" s="94"/>
       <c r="O187" s="48"/>
     </row>
-    <row r="188" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="87"/>
       <c r="B188" s="86"/>
       <c r="F188" s="87" t="s">
@@ -10074,16 +10073,16 @@
         <v>282</v>
       </c>
       <c r="H188" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K188" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L188" s="47"/>
       <c r="N188" s="94"/>
       <c r="O188" s="47"/>
     </row>
-    <row r="189" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="87"/>
       <c r="B189" s="86"/>
       <c r="F189" s="87" t="s">
@@ -10093,16 +10092,16 @@
         <v>283</v>
       </c>
       <c r="H189" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K189" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L189" s="48"/>
       <c r="N189" s="94"/>
       <c r="O189" s="48"/>
     </row>
-    <row r="190" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="87"/>
       <c r="B190" s="86"/>
       <c r="F190" s="87" t="s">
@@ -10112,16 +10111,16 @@
         <v>284</v>
       </c>
       <c r="H190" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K190" s="86" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="L190" s="49"/>
       <c r="N190" s="94"/>
       <c r="O190" s="49"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F191" s="87" t="s">
         <v>279</v>
       </c>
@@ -10129,13 +10128,13 @@
         <v>285</v>
       </c>
       <c r="H191" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K191" s="86" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F192" s="87" t="s">
         <v>280</v>
       </c>
@@ -10143,99 +10142,99 @@
         <v>286</v>
       </c>
       <c r="H192" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K192" s="86" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C194" s="91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E195" s="92" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" ht="29" x14ac:dyDescent="0.25">
+      <c r="C197" s="87" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E195" s="92" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C197" s="87" t="s">
-        <v>354</v>
       </c>
       <c r="D197" s="86">
         <v>1</v>
       </c>
       <c r="E197" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="F197" s="87" t="s">
+        <v>586</v>
+      </c>
+      <c r="G197" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="F197" s="87" t="s">
-        <v>601</v>
-      </c>
-      <c r="G197" s="87" t="s">
+      <c r="H197" s="107" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F198" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="H197" s="107" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F198" s="87" t="s">
+      <c r="G198" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="G198" s="87" t="s">
+      <c r="H198" s="107" t="s">
+        <v>525</v>
+      </c>
+      <c r="K198" s="86" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F199" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="H198" s="107" t="s">
-        <v>539</v>
-      </c>
-      <c r="K198" s="86" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F199" s="87" t="s">
+      <c r="G199" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="G199" s="87" t="s">
-        <v>360</v>
-      </c>
       <c r="H199" s="107" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K199" s="86" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" s="90" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C201" s="91" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E202" s="92" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B203" s="110" t="s">
         <v>88</v>
       </c>
       <c r="C203" s="70" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D203" s="110"/>
       <c r="E203" s="70" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="F203" s="70" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="G203" s="70" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B204" s="110"/>
       <c r="C204" s="70"/>
       <c r="D204" s="110"/>
@@ -10244,10 +10243,10 @@
         <v>304</v>
       </c>
       <c r="G204" s="70" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B205" s="110"/>
       <c r="C205" s="70"/>
       <c r="D205" s="110"/>
@@ -10256,7 +10255,7 @@
         <v>305</v>
       </c>
       <c r="G205" s="70" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -10266,418 +10265,418 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A120:J120 A59:J59 F185:N186 A193:JB193 A133:J133 F56:J58 F118:J119 F169:JB170 E5:E25 A4:D25 E178:E181 A79:E85 G79:G85 A51:JB51 A86:J86 F183:J183 A185:D190 A191:E192 A195:D195 F195:JB195 A78:G78 M78:JB78 K64 M64:JB64 K65:JB77 K79:JB86 K118:JB164 L191:JB192 L189:N190 G188:G192 F30:JB30 K56:JB63 F2:JB25 I78:K78 I79:J85 I178:J182 I189:K192 F187:G187 I187:N188 A206:JB65590 A202:D202 F202:JB202 A203:A205 H203:JB205 F178:G182 A178:D183 K171:JB183 A196:JB200">
-    <cfRule type="cellIs" dxfId="193" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:J66 B67:B77">
-    <cfRule type="cellIs" dxfId="191" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O185:O187 O189:O190 E188:E190 P185:JB190 E2 A2:D3 A177:G177 I177:J177">
-    <cfRule type="cellIs" dxfId="189" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30">
-    <cfRule type="cellIs" dxfId="187" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="135" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="136" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58 A56:D58 A60:J62 A63:A77 C67:J67 C77:J77 C69:E76 C68:G68 I68:J68">
-    <cfRule type="cellIs" dxfId="185" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119 A118:D119 A121:J123 A124:A127 A128:J132">
-    <cfRule type="cellIs" dxfId="183" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170 A169:D170 A171:J173 A174:G176 I174:J176">
-    <cfRule type="cellIs" dxfId="181" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="125" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="126" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:J127">
-    <cfRule type="cellIs" dxfId="179" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E89 A87:D89 A91:J93 A94:A108 C98:J98 C108:J108 C100:E107 C99:G99 I99:J99">
-    <cfRule type="cellIs" dxfId="177" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:JB32 A33:D33 F33:JB33 A34:JB50">
-    <cfRule type="cellIs" dxfId="175" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F76">
-    <cfRule type="cellIs" dxfId="173" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G76 I69:J76">
-    <cfRule type="cellIs" dxfId="171" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F85">
-    <cfRule type="cellIs" dxfId="169" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:J90 F87:J89 A110:E116 G110:J116 A117:J117 K87:JB108 K110:JB117 A109:K109 M109:JB109">
-    <cfRule type="cellIs" dxfId="167" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:J97 B98:B108">
-    <cfRule type="cellIs" dxfId="165" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F107">
-    <cfRule type="cellIs" dxfId="163" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G107 I100:J107">
-    <cfRule type="cellIs" dxfId="161" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F116">
-    <cfRule type="cellIs" dxfId="159" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:J138 F134:J136 A157:G157 A158:E163 G158:G163 A164:J164 I157:J163">
-    <cfRule type="cellIs" dxfId="157" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:J145 B146:B156">
-    <cfRule type="cellIs" dxfId="155" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136 A134:D136 A139:J141 A142:A156 C146:J146 C156:J156 C148:E155 C147:G147 I147:J147">
-    <cfRule type="cellIs" dxfId="153" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148:F155">
-    <cfRule type="cellIs" dxfId="151" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G155 I148:J155">
-    <cfRule type="cellIs" dxfId="149" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158:F163">
-    <cfRule type="cellIs" dxfId="147" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184:JB184">
-    <cfRule type="cellIs" dxfId="145" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="cellIs" dxfId="143" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185">
-    <cfRule type="cellIs" dxfId="141" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="cellIs" dxfId="139" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="cellIs" dxfId="137" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="cellIs" dxfId="135" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="cellIs" dxfId="133" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="cellIs" dxfId="131" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:JB194">
-    <cfRule type="cellIs" dxfId="129" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:D194">
-    <cfRule type="cellIs" dxfId="127" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="125" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:JB29">
-    <cfRule type="cellIs" dxfId="123" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="121" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:JB55">
-    <cfRule type="cellIs" dxfId="119" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K165:JB168">
-    <cfRule type="cellIs" dxfId="117" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165:J168">
-    <cfRule type="cellIs" dxfId="115" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165:A168">
-    <cfRule type="cellIs" dxfId="113" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H76">
-    <cfRule type="cellIs" dxfId="111" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H85">
-    <cfRule type="cellIs" dxfId="109" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H107">
-    <cfRule type="cellIs" dxfId="107" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:H155">
-    <cfRule type="cellIs" dxfId="105" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157:H163">
-    <cfRule type="cellIs" dxfId="103" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174:H182">
-    <cfRule type="cellIs" dxfId="101" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187:H192">
-    <cfRule type="cellIs" dxfId="99" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201:JB201">
-    <cfRule type="cellIs" dxfId="97" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201:D201">
-    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="93" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:G205">
-    <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10693,48 +10692,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:S158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D135" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G153" sqref="G153"/>
+      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="60" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="5.6328125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="5.26953125" style="104" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16" style="70" customWidth="1"/>
-    <col min="11" max="11" width="5.125" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="60" customWidth="1"/>
+    <col min="11" max="11" width="5.08984375" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" style="60" customWidth="1"/>
     <col min="13" max="13" width="25" style="58" customWidth="1"/>
-    <col min="14" max="14" width="5.125" style="60" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="60" customWidth="1"/>
+    <col min="14" max="14" width="5.08984375" style="60" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" style="60" customWidth="1"/>
     <col min="16" max="16" width="25" style="58" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="40"/>
+    <col min="17" max="17" width="8.90625" style="40"/>
     <col min="18" max="18" width="10" style="40" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="40"/>
+    <col min="19" max="16384" width="8.90625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-    </row>
-    <row r="2" spans="1:19" s="39" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
         <v>13</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="B3" s="66"/>
       <c r="C3" s="61" t="s">
         <v>29</v>
@@ -10802,7 +10801,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="44" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="64" t="s">
@@ -10817,12 +10816,12 @@
       <c r="O4" s="43"/>
       <c r="P4" s="45"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E5" s="41" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="60">
         <v>4</v>
       </c>
@@ -10843,13 +10842,13 @@
         <v>27</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="I6" s="62">
         <v>193</v>
       </c>
       <c r="J6" s="62" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="50"/>
@@ -10858,7 +10857,7 @@
       <c r="O6" s="50"/>
       <c r="P6" s="52"/>
     </row>
-    <row r="7" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="60"/>
       <c r="B7" s="75"/>
       <c r="C7" s="40"/>
@@ -10882,7 +10881,7 @@
       <c r="O7" s="50"/>
       <c r="P7" s="51"/>
     </row>
-    <row r="8" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="46" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="60"/>
       <c r="B8" s="75"/>
       <c r="C8" s="40"/>
@@ -10900,7 +10899,7 @@
       <c r="O8" s="50"/>
       <c r="P8" s="51"/>
     </row>
-    <row r="9" spans="1:19" ht="33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="29" x14ac:dyDescent="0.4">
       <c r="A9" s="60">
         <v>5</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>287</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="H9" s="108" t="s">
         <v>95</v>
@@ -10931,92 +10930,92 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E10" s="41"/>
       <c r="F10" s="62" t="s">
         <v>289</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="H10" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="65" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E11" s="41"/>
       <c r="F11" s="62" t="s">
         <v>290</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="H11" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
       <c r="K11" s="82" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E12" s="41"/>
       <c r="F12" s="62" t="s">
         <v>291</v>
       </c>
       <c r="G12" s="62" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="H12" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="82" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E13" s="41"/>
       <c r="F13" s="62" t="s">
         <v>288</v>
       </c>
       <c r="G13" s="62" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H13" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
       <c r="K13" s="82" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="82"/>
       <c r="B14" s="82"/>
       <c r="D14" s="82"/>
       <c r="E14" s="69"/>
       <c r="F14" s="62" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G14" s="62" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
       <c r="K14" s="82" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L14" s="82"/>
       <c r="M14" s="67"/>
@@ -11024,19 +11023,19 @@
       <c r="O14" s="82"/>
       <c r="P14" s="67"/>
     </row>
-    <row r="15" spans="1:19" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="82"/>
       <c r="B15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="69"/>
       <c r="F15" s="62" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G15" s="62" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H15" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
@@ -11044,14 +11043,14 @@
         <v>93</v>
       </c>
       <c r="L15" s="78" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="M15" s="67"/>
       <c r="N15" s="82"/>
       <c r="O15" s="82"/>
       <c r="P15" s="67"/>
     </row>
-    <row r="17" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
       <c r="C17" s="64" t="s">
@@ -11066,7 +11065,7 @@
       <c r="O17" s="43"/>
       <c r="P17" s="45"/>
     </row>
-    <row r="18" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="70" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A18" s="75"/>
       <c r="B18" s="75"/>
       <c r="D18" s="75"/>
@@ -11082,7 +11081,7 @@
       <c r="O18" s="75"/>
       <c r="P18" s="67"/>
     </row>
-    <row r="19" spans="1:16" ht="33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="43.5" x14ac:dyDescent="0.4">
       <c r="B19" s="75" t="s">
         <v>24</v>
       </c>
@@ -11097,13 +11096,13 @@
         <v>293</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C20" s="70"/>
       <c r="D20" s="74"/>
       <c r="E20" s="70"/>
@@ -11111,30 +11110,30 @@
         <v>294</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M20" s="67" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F21" s="70" t="s">
         <v>92</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H21" s="104" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="K21" s="82" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="79"/>
       <c r="B22" s="79"/>
       <c r="D22" s="79"/>
@@ -11142,13 +11141,13 @@
         <v>295</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H22" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K22" s="82" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="L22" s="79"/>
       <c r="M22" s="67"/>
@@ -11156,7 +11155,7 @@
       <c r="O22" s="79"/>
       <c r="P22" s="67"/>
     </row>
-    <row r="23" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="79"/>
       <c r="B23" s="79"/>
       <c r="D23" s="79"/>
@@ -11167,10 +11166,10 @@
         <v>299</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K23" s="82" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="L23" s="79"/>
       <c r="M23" s="67"/>
@@ -11178,7 +11177,7 @@
       <c r="O23" s="79"/>
       <c r="P23" s="67"/>
     </row>
-    <row r="24" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="79"/>
       <c r="B24" s="79"/>
       <c r="D24" s="79"/>
@@ -11189,10 +11188,10 @@
         <v>300</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="L24" s="79"/>
       <c r="M24" s="67"/>
@@ -11200,7 +11199,7 @@
       <c r="O24" s="79"/>
       <c r="P24" s="67"/>
     </row>
-    <row r="25" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="79"/>
       <c r="B25" s="79"/>
       <c r="D25" s="79"/>
@@ -11208,7 +11207,7 @@
         <v>298</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H25" s="104" t="s">
         <v>95</v>
@@ -11222,7 +11221,7 @@
       <c r="O25" s="79"/>
       <c r="P25" s="67"/>
     </row>
-    <row r="27" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="64" t="s">
@@ -11237,17 +11236,17 @@
       <c r="O27" s="43"/>
       <c r="P27" s="45"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E28" s="69" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E29" s="69" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="79"/>
       <c r="B30" s="79"/>
       <c r="D30" s="79"/>
@@ -11262,7 +11261,7 @@
       <c r="O30" s="79"/>
       <c r="P30" s="67"/>
     </row>
-    <row r="31" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="77"/>
       <c r="B31" s="77"/>
       <c r="D31" s="77"/>
@@ -11277,7 +11276,7 @@
       <c r="O31" s="77"/>
       <c r="P31" s="67"/>
     </row>
-    <row r="32" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="77"/>
       <c r="B32" s="77" t="s">
         <v>88</v>
@@ -11299,7 +11298,7 @@
         <v>95</v>
       </c>
       <c r="K32" s="77" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="L32" s="83"/>
       <c r="M32" s="67"/>
@@ -11307,7 +11306,7 @@
       <c r="O32" s="77"/>
       <c r="P32" s="67"/>
     </row>
-    <row r="33" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="77"/>
       <c r="B33" s="77"/>
       <c r="D33" s="77"/>
@@ -11329,7 +11328,7 @@
       <c r="O33" s="77"/>
       <c r="P33" s="67"/>
     </row>
-    <row r="34" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="77"/>
       <c r="B34" s="77"/>
       <c r="D34" s="77"/>
@@ -11351,7 +11350,7 @@
       <c r="O34" s="77"/>
       <c r="P34" s="67"/>
     </row>
-    <row r="35" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="77"/>
       <c r="B35" s="77"/>
       <c r="D35" s="77"/>
@@ -11362,7 +11361,7 @@
       <c r="O35" s="77"/>
       <c r="P35" s="67"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="B36" s="75" t="s">
         <v>24</v>
       </c>
@@ -11379,16 +11378,16 @@
         <v>311</v>
       </c>
       <c r="H36" s="104" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L36" s="78" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="75"/>
       <c r="B37" s="75"/>
       <c r="D37" s="75"/>
@@ -11399,7 +11398,7 @@
         <v>312</v>
       </c>
       <c r="H37" s="104" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="K37" s="75"/>
       <c r="L37" s="75"/>
@@ -11408,7 +11407,7 @@
       <c r="O37" s="75"/>
       <c r="P37" s="67"/>
     </row>
-    <row r="38" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="75"/>
       <c r="B38" s="75"/>
       <c r="D38" s="75"/>
@@ -11419,7 +11418,7 @@
         <v>313</v>
       </c>
       <c r="H38" s="104" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K38" s="75"/>
       <c r="L38" s="75"/>
@@ -11428,7 +11427,7 @@
       <c r="O38" s="75"/>
       <c r="P38" s="67"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F39" s="40" t="s">
         <v>315</v>
       </c>
@@ -11436,10 +11435,10 @@
         <v>316</v>
       </c>
       <c r="H39" s="104" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="79"/>
       <c r="B40" s="79"/>
       <c r="D40" s="79"/>
@@ -11450,7 +11449,7 @@
         <v>317</v>
       </c>
       <c r="H40" s="104" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="K40" s="79"/>
       <c r="L40" s="79"/>
@@ -11459,7 +11458,7 @@
       <c r="O40" s="79"/>
       <c r="P40" s="67"/>
     </row>
-    <row r="42" spans="1:16" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="43.5" x14ac:dyDescent="0.4">
       <c r="B42" s="75" t="s">
         <v>55</v>
       </c>
@@ -11473,88 +11472,88 @@
         <v>322</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H42" s="104" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F43" s="40" t="s">
         <v>323</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="H43" s="104" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="K43" s="60" t="s">
         <v>95</v>
       </c>
       <c r="L43" s="77"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F44" s="70" t="s">
         <v>324</v>
       </c>
       <c r="G44" s="70" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H44" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K44" s="60" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F45" s="70" t="s">
         <v>325</v>
       </c>
       <c r="G45" s="70" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="H45" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K45" s="82" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="L45" s="82"/>
       <c r="M45" s="67" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="29" x14ac:dyDescent="0.4">
       <c r="F46" s="70" t="s">
         <v>326</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H46" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K46" s="60" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="33" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="29" x14ac:dyDescent="0.4">
       <c r="F47" s="70" t="s">
         <v>327</v>
       </c>
       <c r="G47" s="70" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="H47" s="100" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="K47" s="60" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="79"/>
       <c r="B48" s="79"/>
       <c r="D48" s="79"/>
@@ -11566,29 +11565,29 @@
       <c r="O48" s="79"/>
       <c r="P48" s="67"/>
     </row>
-    <row r="49" spans="1:16" s="70" customFormat="1" ht="99" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" s="70" customFormat="1" ht="116" x14ac:dyDescent="0.4">
       <c r="A49" s="79"/>
       <c r="B49" s="79" t="s">
         <v>328</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>329</v>
+        <v>589</v>
       </c>
       <c r="D49" s="79"/>
       <c r="E49" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="F49" s="70" t="s">
-        <v>574</v>
-      </c>
-      <c r="G49" s="70" t="s">
-        <v>331</v>
+      <c r="F49" s="113" t="s">
+        <v>591</v>
+      </c>
+      <c r="G49" s="113" t="s">
+        <v>592</v>
       </c>
       <c r="H49" s="104" t="s">
         <v>95</v>
       </c>
       <c r="J49" s="70" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
@@ -11597,15 +11596,15 @@
       <c r="O49" s="79"/>
       <c r="P49" s="67"/>
     </row>
-    <row r="50" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="79"/>
       <c r="B50" s="79"/>
       <c r="D50" s="79"/>
       <c r="F50" s="70" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H50" s="104" t="s">
         <v>95</v>
@@ -11619,21 +11618,21 @@
       <c r="O50" s="79"/>
       <c r="P50" s="67"/>
     </row>
-    <row r="51" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="79"/>
       <c r="B51" s="79"/>
       <c r="D51" s="79"/>
       <c r="F51" s="70" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G51" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H51" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K51" s="79" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="L51" s="79"/>
       <c r="M51" s="67"/>
@@ -11641,21 +11640,21 @@
       <c r="O51" s="79"/>
       <c r="P51" s="67"/>
     </row>
-    <row r="52" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="79"/>
       <c r="B52" s="79"/>
       <c r="D52" s="79"/>
       <c r="F52" s="70" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="G52" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H52" s="104" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="K52" s="82" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="L52" s="79"/>
       <c r="M52" s="67"/>
@@ -11663,45 +11662,45 @@
       <c r="O52" s="79"/>
       <c r="P52" s="67"/>
     </row>
-    <row r="53" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="79"/>
       <c r="B53" s="79"/>
       <c r="D53" s="79"/>
       <c r="F53" s="70" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G53" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H53" s="104" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="K53" s="82" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L53" s="78" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M53" s="67"/>
       <c r="N53" s="79"/>
       <c r="O53" s="79"/>
       <c r="P53" s="67"/>
     </row>
-    <row r="54" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="79"/>
       <c r="B54" s="79"/>
       <c r="D54" s="79"/>
       <c r="F54" s="70" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G54" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H54" s="104" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="K54" s="79" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L54" s="79"/>
       <c r="M54" s="67"/>
@@ -11709,21 +11708,21 @@
       <c r="O54" s="79"/>
       <c r="P54" s="67"/>
     </row>
-    <row r="55" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="79"/>
       <c r="B55" s="79"/>
       <c r="D55" s="79"/>
       <c r="F55" s="70" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G55" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H55" s="104" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="K55" s="82" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L55" s="79"/>
       <c r="M55" s="67"/>
@@ -11731,21 +11730,21 @@
       <c r="O55" s="79"/>
       <c r="P55" s="67"/>
     </row>
-    <row r="56" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="79"/>
       <c r="B56" s="79"/>
       <c r="D56" s="79"/>
       <c r="F56" s="70" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G56" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H56" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K56" s="82" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="L56" s="79"/>
       <c r="M56" s="67"/>
@@ -11753,130 +11752,122 @@
       <c r="O56" s="79"/>
       <c r="P56" s="67"/>
     </row>
-    <row r="57" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="F57" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="G57" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="H57" s="104" t="s">
-        <v>558</v>
-      </c>
-      <c r="K57" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="L57" s="79"/>
+    <row r="57" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="112"/>
+      <c r="B57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="F57" s="113" t="s">
+        <v>593</v>
+      </c>
+      <c r="G57" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="H57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
       <c r="M57" s="67"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
       <c r="P57" s="67"/>
     </row>
-    <row r="58" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="F58" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="G58" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="H58" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="K58" s="79" t="s">
-        <v>435</v>
-      </c>
-      <c r="L58" s="79"/>
+    <row r="58" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="112"/>
+      <c r="B58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="F58" s="113" t="s">
+        <v>594</v>
+      </c>
+      <c r="G58" s="113" t="s">
+        <v>331</v>
+      </c>
+      <c r="H58" s="112"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="112"/>
       <c r="M58" s="67"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="112"/>
       <c r="P58" s="67"/>
     </row>
-    <row r="59" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A59" s="79"/>
       <c r="B59" s="79"/>
       <c r="D59" s="79"/>
-      <c r="F59" s="70" t="s">
-        <v>383</v>
+      <c r="F59" s="113" t="s">
+        <v>595</v>
       </c>
       <c r="G59" s="70" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H59" s="104" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="K59" s="79" t="s">
-        <v>432</v>
+        <v>95</v>
       </c>
       <c r="L59" s="79"/>
+      <c r="M59" s="67"/>
       <c r="N59" s="79"/>
       <c r="O59" s="79"/>
       <c r="P59" s="67"/>
     </row>
-    <row r="60" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="F60" s="70" t="s">
-        <v>384</v>
+    <row r="60" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="F60" s="113" t="s">
+        <v>596</v>
       </c>
       <c r="G60" s="70" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H60" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="K60" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60" s="80"/>
+      <c r="K60" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="L60" s="79"/>
       <c r="M60" s="67"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
       <c r="P60" s="67"/>
     </row>
-    <row r="61" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="F61" s="70" t="s">
-        <v>407</v>
+    <row r="61" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A61" s="79"/>
+      <c r="B61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="F61" s="113" t="s">
+        <v>597</v>
       </c>
       <c r="G61" s="70" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="H61" s="104" t="s">
-        <v>558</v>
-      </c>
-      <c r="K61" s="81" t="s">
-        <v>432</v>
-      </c>
-      <c r="L61" s="81"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
+        <v>544</v>
+      </c>
+      <c r="K61" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
       <c r="P61" s="67"/>
     </row>
-    <row r="62" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A62" s="80"/>
       <c r="B62" s="80"/>
       <c r="D62" s="80"/>
-      <c r="F62" s="70" t="s">
-        <v>385</v>
+      <c r="F62" s="113" t="s">
+        <v>598</v>
       </c>
       <c r="G62" s="70" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H62" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K62" s="80" t="s">
-        <v>457</v>
+        <v>95</v>
       </c>
       <c r="L62" s="80"/>
       <c r="M62" s="67"/>
@@ -11884,43 +11875,43 @@
       <c r="O62" s="80"/>
       <c r="P62" s="67"/>
     </row>
-    <row r="63" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="F63" s="70" t="s">
-        <v>386</v>
+    <row r="63" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="F63" s="113" t="s">
+        <v>599</v>
       </c>
       <c r="G63" s="70" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="H63" s="104" t="s">
-        <v>558</v>
-      </c>
-      <c r="K63" s="80" t="s">
-        <v>458</v>
-      </c>
-      <c r="L63" s="80"/>
+        <v>544</v>
+      </c>
+      <c r="K63" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="L63" s="81"/>
       <c r="M63" s="67"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="80"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
       <c r="P63" s="67"/>
     </row>
-    <row r="64" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A64" s="80"/>
       <c r="B64" s="80"/>
       <c r="D64" s="80"/>
-      <c r="F64" s="70" t="s">
-        <v>387</v>
+      <c r="F64" s="113" t="s">
+        <v>600</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="H64" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K64" s="80" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="L64" s="80"/>
       <c r="M64" s="67"/>
@@ -11928,21 +11919,21 @@
       <c r="O64" s="80"/>
       <c r="P64" s="67"/>
     </row>
-    <row r="65" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A65" s="80"/>
       <c r="B65" s="80"/>
       <c r="D65" s="80"/>
-      <c r="F65" s="70" t="s">
-        <v>388</v>
+      <c r="F65" s="113" t="s">
+        <v>601</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="H65" s="104" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="K65" s="80" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="L65" s="80"/>
       <c r="M65" s="67"/>
@@ -11950,21 +11941,21 @@
       <c r="O65" s="80"/>
       <c r="P65" s="67"/>
     </row>
-    <row r="66" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A66" s="80"/>
       <c r="B66" s="80"/>
       <c r="D66" s="80"/>
-      <c r="F66" s="70" t="s">
-        <v>389</v>
+      <c r="F66" s="113" t="s">
+        <v>602</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="H66" s="104" t="s">
         <v>95</v>
       </c>
       <c r="K66" s="80" t="s">
-        <v>95</v>
+        <v>446</v>
       </c>
       <c r="L66" s="80"/>
       <c r="M66" s="67"/>
@@ -11972,21 +11963,21 @@
       <c r="O66" s="80"/>
       <c r="P66" s="67"/>
     </row>
-    <row r="67" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A67" s="80"/>
       <c r="B67" s="80"/>
       <c r="D67" s="80"/>
-      <c r="F67" s="70" t="s">
-        <v>390</v>
+      <c r="F67" s="113" t="s">
+        <v>603</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="H67" s="104" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="K67" s="80" t="s">
-        <v>95</v>
+        <v>445</v>
       </c>
       <c r="L67" s="80"/>
       <c r="M67" s="67"/>
@@ -11994,15 +11985,15 @@
       <c r="O67" s="80"/>
       <c r="P67" s="67"/>
     </row>
-    <row r="68" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A68" s="80"/>
       <c r="B68" s="80"/>
       <c r="D68" s="80"/>
-      <c r="F68" s="70" t="s">
-        <v>391</v>
+      <c r="F68" s="113" t="s">
+        <v>604</v>
       </c>
       <c r="G68" s="70" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="H68" s="104" t="s">
         <v>95</v>
@@ -12016,224 +12007,184 @@
       <c r="O68" s="80"/>
       <c r="P68" s="67"/>
     </row>
-    <row r="69" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="79"/>
-      <c r="B69" s="79"/>
-      <c r="D69" s="79"/>
-      <c r="H69" s="104"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="79"/>
+    <row r="69" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="F69" s="113" t="s">
+        <v>605</v>
+      </c>
+      <c r="G69" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="H69" s="104" t="s">
+        <v>544</v>
+      </c>
+      <c r="K69" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L69" s="80"/>
       <c r="M69" s="67"/>
-      <c r="N69" s="79"/>
-      <c r="O69" s="79"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
       <c r="P69" s="67"/>
     </row>
-    <row r="71" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="64" t="s">
+    <row r="70" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A70" s="80"/>
+      <c r="B70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="F70" s="113" t="s">
+        <v>606</v>
+      </c>
+      <c r="G70" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="H70" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="K70" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L70" s="80"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="67"/>
+    </row>
+    <row r="71" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A71" s="79"/>
+      <c r="B71" s="79"/>
+      <c r="D71" s="79"/>
+      <c r="F71" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="G71" s="113" t="s">
+        <v>609</v>
+      </c>
+      <c r="H71" s="104"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="67"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="67"/>
+    </row>
+    <row r="72" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A72" s="112"/>
+      <c r="B72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="F72" s="113" t="s">
+        <v>608</v>
+      </c>
+      <c r="G72" s="113" t="s">
+        <v>610</v>
+      </c>
+      <c r="H72" s="112"/>
+      <c r="K72" s="112"/>
+      <c r="L72" s="112"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="112"/>
+      <c r="O72" s="112"/>
+      <c r="P72" s="67"/>
+    </row>
+    <row r="73" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="112"/>
+      <c r="B73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="112"/>
+      <c r="O73" s="112"/>
+      <c r="P73" s="67"/>
+    </row>
+    <row r="74" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="112"/>
+      <c r="B74" s="112"/>
+      <c r="D74" s="112"/>
+      <c r="H74" s="112"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="112"/>
+      <c r="M74" s="67"/>
+      <c r="N74" s="112"/>
+      <c r="O74" s="112"/>
+      <c r="P74" s="67"/>
+    </row>
+    <row r="75" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="112"/>
+      <c r="B75" s="112"/>
+      <c r="D75" s="112"/>
+      <c r="H75" s="112"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
+      <c r="M75" s="67"/>
+      <c r="N75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="67"/>
+    </row>
+    <row r="76" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="112"/>
+      <c r="B76" s="112"/>
+      <c r="D76" s="112"/>
+      <c r="H76" s="112"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="112"/>
+      <c r="O76" s="112"/>
+      <c r="P76" s="67"/>
+    </row>
+    <row r="77" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="112"/>
+      <c r="B77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="112"/>
+      <c r="M77" s="67"/>
+      <c r="N77" s="112"/>
+      <c r="O77" s="112"/>
+      <c r="P77" s="67"/>
+    </row>
+    <row r="79" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="45"/>
-    </row>
-    <row r="72" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="79"/>
-      <c r="B72" s="79"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="69" t="s">
-        <v>489</v>
-      </c>
-      <c r="H72" s="104"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="79"/>
-      <c r="M72" s="67"/>
-      <c r="N72" s="79"/>
-      <c r="O72" s="79"/>
-      <c r="P72" s="67"/>
-    </row>
-    <row r="73" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="79"/>
-      <c r="B73" s="79"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="H73" s="104"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="79"/>
-      <c r="O73" s="79"/>
-      <c r="P73" s="67"/>
-    </row>
-    <row r="74" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="79"/>
-      <c r="B74" s="79"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="H74" s="104"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="67"/>
-    </row>
-    <row r="75" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="79"/>
-      <c r="B75" s="79"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="H75" s="104"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="67"/>
-    </row>
-    <row r="76" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="79"/>
-      <c r="B76" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="D76" s="79"/>
-      <c r="E76" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="F76" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="G76" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="H76" s="104" t="s">
-        <v>560</v>
-      </c>
-      <c r="K76" s="83" t="s">
-        <v>481</v>
-      </c>
-      <c r="L76" s="78"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="79"/>
-      <c r="O76" s="79"/>
-      <c r="P76" s="67"/>
-    </row>
-    <row r="77" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="79"/>
-      <c r="B77" s="79"/>
-      <c r="D77" s="79"/>
-      <c r="F77" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="G77" s="70" t="s">
-        <v>337</v>
-      </c>
-      <c r="H77" s="104" t="s">
-        <v>560</v>
-      </c>
-      <c r="K77" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L77" s="79"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="79"/>
-      <c r="O77" s="79"/>
-      <c r="P77" s="67"/>
-    </row>
-    <row r="78" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="79"/>
-      <c r="B78" s="79"/>
-      <c r="D78" s="79"/>
-      <c r="F78" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="G78" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="H78" s="104" t="s">
-        <v>560</v>
-      </c>
-      <c r="K78" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L78" s="79"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="79"/>
-      <c r="O78" s="79"/>
-      <c r="P78" s="67"/>
-    </row>
-    <row r="79" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="79"/>
-      <c r="B79" s="79"/>
-      <c r="D79" s="79"/>
-      <c r="H79" s="104"/>
-      <c r="K79" s="79"/>
-      <c r="L79" s="79"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="79"/>
-      <c r="O79" s="79"/>
-      <c r="P79" s="67"/>
-    </row>
-    <row r="80" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
+      <c r="P79" s="45"/>
+    </row>
+    <row r="80" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="79"/>
-      <c r="B80" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C80" s="70" t="s">
-        <v>339</v>
-      </c>
+      <c r="B80" s="79"/>
       <c r="D80" s="79"/>
-      <c r="E80" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="F80" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="G80" s="70" t="s">
-        <v>341</v>
-      </c>
-      <c r="H80" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="K80" s="82" t="s">
-        <v>438</v>
-      </c>
-      <c r="L80" s="78" t="s">
-        <v>448</v>
-      </c>
+      <c r="E80" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="H80" s="104"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
       <c r="M80" s="67"/>
       <c r="N80" s="79"/>
       <c r="O80" s="79"/>
       <c r="P80" s="67"/>
     </row>
-    <row r="81" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="79"/>
       <c r="B81" s="79"/>
       <c r="D81" s="79"/>
-      <c r="F81" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="G81" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="H81" s="104" t="s">
-        <v>561</v>
-      </c>
+      <c r="E81" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H81" s="104"/>
       <c r="K81" s="79"/>
       <c r="L81" s="79"/>
       <c r="M81" s="67"/>
@@ -12241,19 +12192,14 @@
       <c r="O81" s="79"/>
       <c r="P81" s="67"/>
     </row>
-    <row r="82" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="79"/>
       <c r="B82" s="79"/>
       <c r="D82" s="79"/>
-      <c r="F82" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="G82" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="H82" s="104" t="s">
-        <v>95</v>
-      </c>
+      <c r="E82" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="H82" s="104"/>
       <c r="K82" s="79"/>
       <c r="L82" s="79"/>
       <c r="M82" s="67"/>
@@ -12261,19 +12207,14 @@
       <c r="O82" s="79"/>
       <c r="P82" s="67"/>
     </row>
-    <row r="83" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="79"/>
       <c r="B83" s="79"/>
       <c r="D83" s="79"/>
-      <c r="F83" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="G83" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="H83" s="104" t="s">
-        <v>561</v>
-      </c>
+      <c r="E83" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H83" s="104"/>
       <c r="K83" s="79"/>
       <c r="L83" s="79"/>
       <c r="M83" s="67"/>
@@ -12281,183 +12222,197 @@
       <c r="O83" s="79"/>
       <c r="P83" s="67"/>
     </row>
-    <row r="84" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="79"/>
-      <c r="B84" s="79"/>
+      <c r="B84" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="70" t="s">
+        <v>333</v>
+      </c>
       <c r="D84" s="79"/>
+      <c r="E84" s="70" t="s">
+        <v>334</v>
+      </c>
       <c r="F84" s="70" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="G84" s="70" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H84" s="104" t="s">
-        <v>561</v>
-      </c>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
+        <v>546</v>
+      </c>
+      <c r="K84" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="L84" s="78"/>
       <c r="M84" s="67"/>
       <c r="N84" s="79"/>
       <c r="O84" s="79"/>
       <c r="P84" s="67"/>
     </row>
-    <row r="85" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="79"/>
       <c r="B85" s="79"/>
       <c r="D85" s="79"/>
-      <c r="H85" s="104"/>
-      <c r="K85" s="79"/>
+      <c r="F85" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="G85" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="H85" s="104" t="s">
+        <v>546</v>
+      </c>
+      <c r="K85" s="82" t="s">
+        <v>95</v>
+      </c>
       <c r="L85" s="79"/>
       <c r="M85" s="67"/>
       <c r="N85" s="79"/>
       <c r="O85" s="79"/>
       <c r="P85" s="67"/>
     </row>
-    <row r="86" spans="1:16" s="70" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="79"/>
-      <c r="B86" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" s="70" t="s">
-        <v>319</v>
-      </c>
+      <c r="B86" s="79"/>
       <c r="D86" s="79"/>
-      <c r="E86" s="70" t="s">
-        <v>320</v>
-      </c>
       <c r="F86" s="70" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="G86" s="70" t="s">
-        <v>460</v>
+        <v>337</v>
       </c>
       <c r="H86" s="104" t="s">
-        <v>562</v>
-      </c>
-      <c r="K86" s="79"/>
+        <v>546</v>
+      </c>
+      <c r="K86" s="82" t="s">
+        <v>95</v>
+      </c>
       <c r="L86" s="79"/>
       <c r="M86" s="67"/>
       <c r="N86" s="79"/>
       <c r="O86" s="79"/>
       <c r="P86" s="67"/>
     </row>
-    <row r="87" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="79"/>
       <c r="B87" s="79"/>
       <c r="D87" s="79"/>
-      <c r="F87" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="G87" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="H87" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="K87" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L87" s="82"/>
+      <c r="H87" s="104"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
       <c r="M87" s="67"/>
       <c r="N87" s="79"/>
       <c r="O87" s="79"/>
       <c r="P87" s="67"/>
     </row>
-    <row r="88" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
+      <c r="B88" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="70" t="s">
+        <v>338</v>
+      </c>
       <c r="D88" s="79"/>
+      <c r="E88" s="70" t="s">
+        <v>339</v>
+      </c>
       <c r="F88" s="70" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G88" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="H88" s="100" t="s">
-        <v>525</v>
+        <v>340</v>
+      </c>
+      <c r="H88" s="104" t="s">
+        <v>95</v>
       </c>
       <c r="K88" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="L88" s="82"/>
+        <v>425</v>
+      </c>
+      <c r="L88" s="78" t="s">
+        <v>435</v>
+      </c>
       <c r="M88" s="67"/>
       <c r="N88" s="79"/>
       <c r="O88" s="79"/>
       <c r="P88" s="67"/>
     </row>
-    <row r="89" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="79"/>
       <c r="B89" s="79"/>
       <c r="D89" s="79"/>
       <c r="F89" s="70" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G89" s="70" t="s">
-        <v>463</v>
-      </c>
-      <c r="H89" s="100" t="s">
-        <v>525</v>
-      </c>
-      <c r="K89" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="L89" s="82"/>
-      <c r="M89" s="67" t="s">
-        <v>440</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="H89" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="K89" s="79"/>
+      <c r="L89" s="79"/>
+      <c r="M89" s="67"/>
       <c r="N89" s="79"/>
       <c r="O89" s="79"/>
       <c r="P89" s="67"/>
     </row>
-    <row r="90" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="79"/>
       <c r="B90" s="79"/>
       <c r="D90" s="79"/>
       <c r="F90" s="70" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G90" s="70" t="s">
-        <v>464</v>
-      </c>
-      <c r="H90" s="100" t="s">
-        <v>525</v>
-      </c>
-      <c r="K90" s="82" t="s">
-        <v>441</v>
-      </c>
-      <c r="L90" s="82"/>
+        <v>342</v>
+      </c>
+      <c r="H90" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="K90" s="79"/>
+      <c r="L90" s="79"/>
       <c r="M90" s="67"/>
       <c r="N90" s="79"/>
       <c r="O90" s="79"/>
       <c r="P90" s="67"/>
     </row>
-    <row r="91" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="79"/>
       <c r="B91" s="79"/>
       <c r="D91" s="79"/>
       <c r="F91" s="70" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G91" s="70" t="s">
-        <v>465</v>
-      </c>
-      <c r="H91" s="100" t="s">
-        <v>525</v>
-      </c>
-      <c r="K91" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="L91" s="82"/>
+        <v>343</v>
+      </c>
+      <c r="H91" s="104" t="s">
+        <v>547</v>
+      </c>
+      <c r="K91" s="79"/>
+      <c r="L91" s="79"/>
       <c r="M91" s="67"/>
       <c r="N91" s="79"/>
       <c r="O91" s="79"/>
       <c r="P91" s="67"/>
     </row>
-    <row r="92" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="79"/>
       <c r="B92" s="79"/>
       <c r="D92" s="79"/>
-      <c r="H92" s="104"/>
+      <c r="F92" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="G92" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="H92" s="104" t="s">
+        <v>547</v>
+      </c>
       <c r="K92" s="79"/>
       <c r="L92" s="79"/>
       <c r="M92" s="67"/>
@@ -12465,30 +12420,11 @@
       <c r="O92" s="79"/>
       <c r="P92" s="67"/>
     </row>
-    <row r="93" spans="1:16" s="70" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="79"/>
-      <c r="B93" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="70" t="s">
-        <v>329</v>
-      </c>
+      <c r="B93" s="79"/>
       <c r="D93" s="79"/>
-      <c r="E93" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="F93" s="70" t="s">
-        <v>490</v>
-      </c>
-      <c r="G93" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="H93" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="J93" s="70" t="s">
-        <v>567</v>
-      </c>
+      <c r="H93" s="104"/>
       <c r="K93" s="79"/>
       <c r="L93" s="79"/>
       <c r="M93" s="67"/>
@@ -12496,109 +12432,117 @@
       <c r="O93" s="79"/>
       <c r="P93" s="67"/>
     </row>
-    <row r="94" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
+      <c r="B94" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="70" t="s">
+        <v>319</v>
+      </c>
       <c r="D94" s="79"/>
+      <c r="E94" s="70" t="s">
+        <v>320</v>
+      </c>
       <c r="F94" s="70" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="G94" s="70" t="s">
-        <v>347</v>
+        <v>447</v>
       </c>
       <c r="H94" s="104" t="s">
-        <v>564</v>
-      </c>
-      <c r="K94" s="79" t="s">
-        <v>95</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="K94" s="79"/>
       <c r="L94" s="79"/>
       <c r="M94" s="67"/>
       <c r="N94" s="79"/>
       <c r="O94" s="79"/>
       <c r="P94" s="67"/>
     </row>
-    <row r="95" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="79"/>
       <c r="B95" s="79"/>
       <c r="D95" s="79"/>
       <c r="F95" s="70" t="s">
-        <v>450</v>
+        <v>323</v>
       </c>
       <c r="G95" s="70" t="s">
-        <v>332</v>
+        <v>448</v>
       </c>
       <c r="H95" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="K95" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="L95" s="79"/>
+      <c r="K95" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L95" s="82"/>
       <c r="M95" s="67"/>
       <c r="N95" s="79"/>
       <c r="O95" s="79"/>
       <c r="P95" s="67"/>
     </row>
-    <row r="96" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="79"/>
       <c r="B96" s="79"/>
       <c r="D96" s="79"/>
       <c r="F96" s="70" t="s">
-        <v>451</v>
+        <v>324</v>
       </c>
       <c r="G96" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H96" s="104" t="s">
-        <v>565</v>
-      </c>
-      <c r="K96" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="L96" s="79"/>
+        <v>449</v>
+      </c>
+      <c r="H96" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="K96" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="L96" s="82"/>
       <c r="M96" s="67"/>
       <c r="N96" s="79"/>
       <c r="O96" s="79"/>
       <c r="P96" s="67"/>
     </row>
-    <row r="97" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="79"/>
       <c r="B97" s="79"/>
       <c r="D97" s="79"/>
       <c r="F97" s="70" t="s">
-        <v>466</v>
+        <v>325</v>
       </c>
       <c r="G97" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H97" s="104" t="s">
-        <v>566</v>
-      </c>
-      <c r="K97" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="L97" s="79"/>
-      <c r="M97" s="67"/>
+        <v>450</v>
+      </c>
+      <c r="H97" s="100" t="s">
+        <v>511</v>
+      </c>
+      <c r="K97" s="82" t="s">
+        <v>426</v>
+      </c>
+      <c r="L97" s="82"/>
+      <c r="M97" s="67" t="s">
+        <v>427</v>
+      </c>
       <c r="N97" s="79"/>
       <c r="O97" s="79"/>
       <c r="P97" s="67"/>
     </row>
-    <row r="98" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A98" s="79"/>
       <c r="B98" s="79"/>
       <c r="D98" s="79"/>
       <c r="F98" s="70" t="s">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="G98" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H98" s="104" t="s">
-        <v>435</v>
+        <v>451</v>
+      </c>
+      <c r="H98" s="100" t="s">
+        <v>511</v>
       </c>
       <c r="K98" s="82" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="L98" s="82"/>
       <c r="M98" s="67"/>
@@ -12606,89 +12550,86 @@
       <c r="O98" s="79"/>
       <c r="P98" s="67"/>
     </row>
-    <row r="99" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A99" s="79"/>
       <c r="B99" s="79"/>
       <c r="D99" s="79"/>
       <c r="F99" s="70" t="s">
-        <v>454</v>
+        <v>327</v>
       </c>
       <c r="G99" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H99" s="104" t="s">
-        <v>435</v>
+        <v>452</v>
+      </c>
+      <c r="H99" s="100" t="s">
+        <v>511</v>
       </c>
       <c r="K99" s="82" t="s">
-        <v>438</v>
-      </c>
-      <c r="L99" s="78" t="s">
-        <v>448</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="L99" s="82"/>
       <c r="M99" s="67"/>
       <c r="N99" s="79"/>
       <c r="O99" s="79"/>
       <c r="P99" s="67"/>
     </row>
-    <row r="100" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="79"/>
       <c r="B100" s="79"/>
       <c r="D100" s="79"/>
-      <c r="F100" s="70" t="s">
-        <v>455</v>
-      </c>
-      <c r="G100" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H100" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="K100" s="82" t="s">
-        <v>432</v>
-      </c>
+      <c r="H100" s="104"/>
+      <c r="K100" s="79"/>
       <c r="L100" s="79"/>
       <c r="M100" s="67"/>
       <c r="N100" s="79"/>
       <c r="O100" s="79"/>
       <c r="P100" s="67"/>
     </row>
-    <row r="101" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" s="70" customFormat="1" ht="116" x14ac:dyDescent="0.4">
       <c r="A101" s="79"/>
-      <c r="B101" s="79"/>
+      <c r="B101" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="70" t="s">
+        <v>329</v>
+      </c>
       <c r="D101" s="79"/>
+      <c r="E101" s="70" t="s">
+        <v>330</v>
+      </c>
       <c r="F101" s="70" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G101" s="70" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H101" s="104" t="s">
-        <v>435</v>
-      </c>
-      <c r="K101" s="82" t="s">
-        <v>432</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="J101" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="K101" s="79"/>
       <c r="L101" s="79"/>
       <c r="M101" s="67"/>
       <c r="N101" s="79"/>
       <c r="O101" s="79"/>
       <c r="P101" s="67"/>
     </row>
-    <row r="102" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="79"/>
       <c r="B102" s="79"/>
       <c r="D102" s="79"/>
       <c r="F102" s="70" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="G102" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H102" s="105" t="s">
-        <v>435</v>
-      </c>
-      <c r="K102" s="82" t="s">
-        <v>432</v>
+        <v>346</v>
+      </c>
+      <c r="H102" s="104" t="s">
+        <v>550</v>
+      </c>
+      <c r="K102" s="79" t="s">
+        <v>95</v>
       </c>
       <c r="L102" s="79"/>
       <c r="M102" s="67"/>
@@ -12696,498 +12637,508 @@
       <c r="O102" s="79"/>
       <c r="P102" s="67"/>
     </row>
-    <row r="103" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="79"/>
       <c r="B103" s="79"/>
       <c r="D103" s="79"/>
       <c r="F103" s="70" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="G103" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="H103" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H103" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="K103" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="K103" s="79" t="s">
-        <v>471</v>
-      </c>
       <c r="L103" s="79"/>
+      <c r="M103" s="67"/>
       <c r="N103" s="79"/>
       <c r="O103" s="79"/>
       <c r="P103" s="67"/>
     </row>
-    <row r="104" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A104" s="80"/>
-      <c r="B104" s="80"/>
-      <c r="D104" s="80"/>
+    <row r="104" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="79"/>
+      <c r="B104" s="79"/>
+      <c r="D104" s="79"/>
       <c r="F104" s="70" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="G104" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="H104" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H104" s="104" t="s">
+        <v>551</v>
+      </c>
+      <c r="K104" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="K104" s="80" t="s">
-        <v>472</v>
-      </c>
-      <c r="L104" s="80"/>
-      <c r="N104" s="80"/>
-      <c r="O104" s="80"/>
+      <c r="L104" s="79"/>
+      <c r="M104" s="67"/>
+      <c r="N104" s="79"/>
+      <c r="O104" s="79"/>
       <c r="P104" s="67"/>
     </row>
-    <row r="105" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A105" s="80"/>
-      <c r="B105" s="80"/>
-      <c r="D105" s="80"/>
+    <row r="105" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="79"/>
+      <c r="B105" s="79"/>
+      <c r="D105" s="79"/>
       <c r="F105" s="70" t="s">
-        <v>365</v>
+        <v>453</v>
       </c>
       <c r="G105" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="H105" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="H105" s="104" t="s">
+        <v>552</v>
+      </c>
+      <c r="K105" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="K105" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="L105" s="80"/>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
+      <c r="L105" s="79"/>
+      <c r="M105" s="67"/>
+      <c r="N105" s="79"/>
+      <c r="O105" s="79"/>
       <c r="P105" s="67"/>
     </row>
-    <row r="106" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A106" s="80"/>
-      <c r="B106" s="80"/>
-      <c r="D106" s="80"/>
+    <row r="106" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="79"/>
+      <c r="B106" s="79"/>
+      <c r="D106" s="79"/>
       <c r="F106" s="70" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="G106" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="H106" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K106" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="L106" s="80"/>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
+        <v>331</v>
+      </c>
+      <c r="H106" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="K106" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="L106" s="82"/>
+      <c r="M106" s="67"/>
+      <c r="N106" s="79"/>
+      <c r="O106" s="79"/>
       <c r="P106" s="67"/>
     </row>
-    <row r="107" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A107" s="80"/>
-      <c r="B107" s="80"/>
-      <c r="D107" s="80"/>
+    <row r="107" spans="1:16" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A107" s="79"/>
+      <c r="B107" s="79"/>
+      <c r="D107" s="79"/>
       <c r="F107" s="70" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="G107" s="70" t="s">
-        <v>370</v>
-      </c>
-      <c r="H107" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K107" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="L107" s="80"/>
-      <c r="N107" s="80"/>
-      <c r="O107" s="80"/>
+        <v>331</v>
+      </c>
+      <c r="H107" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="K107" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="L107" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="M107" s="67"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="79"/>
       <c r="P107" s="67"/>
     </row>
-    <row r="108" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A108" s="80"/>
-      <c r="B108" s="80"/>
-      <c r="D108" s="80"/>
+    <row r="108" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="79"/>
+      <c r="B108" s="79"/>
+      <c r="D108" s="79"/>
       <c r="F108" s="70" t="s">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="G108" s="70" t="s">
-        <v>372</v>
-      </c>
-      <c r="H108" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K108" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="L108" s="80"/>
-      <c r="N108" s="80"/>
-      <c r="O108" s="80"/>
+        <v>331</v>
+      </c>
+      <c r="H108" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="K108" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="L108" s="79"/>
+      <c r="M108" s="67"/>
+      <c r="N108" s="79"/>
+      <c r="O108" s="79"/>
       <c r="P108" s="67"/>
     </row>
-    <row r="109" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A109" s="81"/>
-      <c r="B109" s="81"/>
-      <c r="D109" s="81"/>
+    <row r="109" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="79"/>
+      <c r="B109" s="79"/>
+      <c r="D109" s="79"/>
       <c r="F109" s="70" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="G109" s="70" t="s">
-        <v>410</v>
-      </c>
-      <c r="H109" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K109" s="81" t="s">
-        <v>432</v>
-      </c>
-      <c r="L109" s="81"/>
-      <c r="N109" s="81"/>
-      <c r="O109" s="81"/>
+        <v>331</v>
+      </c>
+      <c r="H109" s="104" t="s">
+        <v>422</v>
+      </c>
+      <c r="K109" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="L109" s="79"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="79"/>
+      <c r="O109" s="79"/>
       <c r="P109" s="67"/>
     </row>
-    <row r="110" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A110" s="80"/>
-      <c r="B110" s="80"/>
-      <c r="D110" s="80"/>
+    <row r="110" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="79"/>
+      <c r="B110" s="79"/>
+      <c r="D110" s="79"/>
       <c r="F110" s="70" t="s">
-        <v>373</v>
+        <v>456</v>
       </c>
       <c r="G110" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="H110" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K110" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="L110" s="80"/>
-      <c r="N110" s="80"/>
-      <c r="O110" s="80"/>
+        <v>331</v>
+      </c>
+      <c r="H110" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="K110" s="82" t="s">
+        <v>419</v>
+      </c>
+      <c r="L110" s="79"/>
+      <c r="M110" s="67"/>
+      <c r="N110" s="79"/>
+      <c r="O110" s="79"/>
       <c r="P110" s="67"/>
     </row>
-    <row r="111" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A111" s="80"/>
-      <c r="B111" s="80"/>
-      <c r="D111" s="80"/>
+    <row r="111" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A111" s="79"/>
+      <c r="B111" s="79"/>
+      <c r="D111" s="79"/>
       <c r="F111" s="70" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G111" s="70" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="H111" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="K111" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="L111" s="80"/>
-      <c r="N111" s="80"/>
-      <c r="O111" s="80"/>
+      <c r="K111" s="79" t="s">
+        <v>458</v>
+      </c>
+      <c r="L111" s="79"/>
+      <c r="N111" s="79"/>
+      <c r="O111" s="79"/>
       <c r="P111" s="67"/>
     </row>
-    <row r="112" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A112" s="80"/>
       <c r="B112" s="80"/>
       <c r="D112" s="80"/>
       <c r="F112" s="70" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G112" s="70" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H112" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K112" s="80" t="s">
-        <v>95</v>
+        <v>459</v>
       </c>
       <c r="L112" s="80"/>
       <c r="N112" s="80"/>
       <c r="O112" s="80"/>
       <c r="P112" s="67"/>
     </row>
-    <row r="113" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A113" s="80"/>
       <c r="B113" s="80"/>
       <c r="D113" s="80"/>
       <c r="F113" s="70" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G113" s="70" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H113" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K113" s="80" t="s">
-        <v>432</v>
+        <v>95</v>
       </c>
       <c r="L113" s="80"/>
       <c r="N113" s="80"/>
       <c r="O113" s="80"/>
       <c r="P113" s="67"/>
     </row>
-    <row r="114" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A114" s="80"/>
       <c r="B114" s="80"/>
       <c r="D114" s="80"/>
       <c r="F114" s="70" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G114" s="70" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H114" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K114" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="L114" s="78" t="s">
-        <v>480</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="L114" s="80"/>
       <c r="N114" s="80"/>
       <c r="O114" s="80"/>
       <c r="P114" s="67"/>
     </row>
-    <row r="115" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A115" s="80"/>
       <c r="B115" s="80"/>
       <c r="D115" s="80"/>
       <c r="F115" s="70" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G115" s="70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H115" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K115" s="80" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="L115" s="80"/>
       <c r="N115" s="80"/>
       <c r="O115" s="80"/>
       <c r="P115" s="67"/>
     </row>
-    <row r="116" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A116" s="80"/>
       <c r="B116" s="80"/>
       <c r="D116" s="80"/>
-      <c r="H116" s="104"/>
-      <c r="K116" s="80"/>
+      <c r="F116" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="G116" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K116" s="80" t="s">
+        <v>419</v>
+      </c>
       <c r="L116" s="80"/>
       <c r="N116" s="80"/>
       <c r="O116" s="80"/>
       <c r="P116" s="67"/>
     </row>
-    <row r="117" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="43"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="64" t="s">
+    <row r="117" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A117" s="81"/>
+      <c r="B117" s="81"/>
+      <c r="D117" s="81"/>
+      <c r="F117" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="G117" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H117" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K117" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="L117" s="81"/>
+      <c r="N117" s="81"/>
+      <c r="O117" s="81"/>
+      <c r="P117" s="67"/>
+    </row>
+    <row r="118" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A118" s="80"/>
+      <c r="B118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="F118" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="G118" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H118" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K118" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="L118" s="80"/>
+      <c r="N118" s="80"/>
+      <c r="O118" s="80"/>
+      <c r="P118" s="67"/>
+    </row>
+    <row r="119" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="F119" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="G119" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="H119" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K119" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="L119" s="80"/>
+      <c r="N119" s="80"/>
+      <c r="O119" s="80"/>
+      <c r="P119" s="67"/>
+    </row>
+    <row r="120" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="F120" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="G120" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="H120" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K120" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L120" s="80"/>
+      <c r="N120" s="80"/>
+      <c r="O120" s="80"/>
+      <c r="P120" s="67"/>
+    </row>
+    <row r="121" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A121" s="80"/>
+      <c r="B121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="F121" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="G121" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="H121" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K121" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="L121" s="80"/>
+      <c r="N121" s="80"/>
+      <c r="O121" s="80"/>
+      <c r="P121" s="67"/>
+    </row>
+    <row r="122" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="F122" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="G122" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="H122" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K122" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="L122" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="N122" s="80"/>
+      <c r="O122" s="80"/>
+      <c r="P122" s="67"/>
+    </row>
+    <row r="123" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
+      <c r="A123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="F123" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="G123" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="H123" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K123" s="80" t="s">
+        <v>460</v>
+      </c>
+      <c r="L123" s="80"/>
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="67"/>
+    </row>
+    <row r="124" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="H124" s="104"/>
+      <c r="K124" s="80"/>
+      <c r="L124" s="80"/>
+      <c r="N124" s="80"/>
+      <c r="O124" s="80"/>
+      <c r="P124" s="67"/>
+    </row>
+    <row r="125" spans="1:16" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="43"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D117" s="43"/>
-      <c r="H117" s="43"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="43"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="43"/>
-      <c r="P117" s="45"/>
-    </row>
-    <row r="118" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="79"/>
-      <c r="B118" s="79"/>
-      <c r="D118" s="79"/>
-      <c r="E118" s="69" t="s">
-        <v>602</v>
-      </c>
-      <c r="H118" s="104"/>
-      <c r="K118" s="79"/>
-      <c r="L118" s="79"/>
-      <c r="M118" s="67"/>
-      <c r="N118" s="79"/>
-      <c r="O118" s="79"/>
-      <c r="P118" s="67"/>
-    </row>
-    <row r="119" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="79"/>
-      <c r="B119" s="79"/>
-      <c r="D119" s="79"/>
-      <c r="E119" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="H119" s="104"/>
-      <c r="K119" s="79"/>
-      <c r="L119" s="79"/>
-      <c r="M119" s="67"/>
-      <c r="N119" s="79"/>
-      <c r="O119" s="79"/>
-      <c r="P119" s="67"/>
-    </row>
-    <row r="120" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="79"/>
-      <c r="B120" s="79"/>
-      <c r="D120" s="79"/>
-      <c r="E120" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="H120" s="104"/>
-      <c r="K120" s="79"/>
-      <c r="L120" s="79"/>
-      <c r="M120" s="67"/>
-      <c r="N120" s="79"/>
-      <c r="O120" s="79"/>
-      <c r="P120" s="67"/>
-    </row>
-    <row r="121" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="79"/>
-      <c r="B121" s="79"/>
-      <c r="D121" s="79"/>
-      <c r="E121" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="H121" s="104"/>
-      <c r="K121" s="79"/>
-      <c r="L121" s="79"/>
-      <c r="M121" s="67"/>
-      <c r="N121" s="79"/>
-      <c r="O121" s="79"/>
-      <c r="P121" s="67"/>
-    </row>
-    <row r="122" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="79"/>
-      <c r="B122" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C122" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="D122" s="79"/>
-      <c r="E122" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="F122" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="G122" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="H122" s="104" t="s">
-        <v>568</v>
-      </c>
-      <c r="K122" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L122" s="82"/>
-      <c r="M122" s="67"/>
-      <c r="N122" s="79"/>
-      <c r="O122" s="79"/>
-      <c r="P122" s="67"/>
-    </row>
-    <row r="123" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="79"/>
-      <c r="B123" s="79"/>
-      <c r="D123" s="79"/>
-      <c r="F123" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="G123" s="70" t="s">
-        <v>337</v>
-      </c>
-      <c r="H123" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="K123" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L123" s="82"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="79"/>
-      <c r="O123" s="79"/>
-      <c r="P123" s="67"/>
-    </row>
-    <row r="124" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="79"/>
-      <c r="B124" s="79"/>
-      <c r="D124" s="79"/>
-      <c r="F124" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="G124" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="H124" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="K124" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="L124" s="82"/>
-      <c r="M124" s="67"/>
-      <c r="N124" s="79"/>
-      <c r="O124" s="79"/>
-      <c r="P124" s="67"/>
-    </row>
-    <row r="125" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="79"/>
-      <c r="B125" s="79"/>
-      <c r="D125" s="79"/>
-      <c r="H125" s="104"/>
-      <c r="K125" s="82"/>
-      <c r="L125" s="82"/>
-      <c r="M125" s="67"/>
-      <c r="N125" s="79"/>
-      <c r="O125" s="79"/>
-      <c r="P125" s="67"/>
-    </row>
-    <row r="126" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D125" s="43"/>
+      <c r="H125" s="43"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="43"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="43"/>
+      <c r="O125" s="43"/>
+      <c r="P125" s="45"/>
+    </row>
+    <row r="126" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="79"/>
-      <c r="B126" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="70" t="s">
-        <v>339</v>
-      </c>
+      <c r="B126" s="79"/>
       <c r="D126" s="79"/>
-      <c r="E126" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="F126" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="G126" s="70" t="s">
-        <v>341</v>
-      </c>
-      <c r="H126" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="K126" s="82" t="s">
-        <v>438</v>
-      </c>
-      <c r="L126" s="78" t="s">
-        <v>448</v>
-      </c>
+      <c r="E126" s="69" t="s">
+        <v>587</v>
+      </c>
+      <c r="H126" s="104"/>
+      <c r="K126" s="79"/>
+      <c r="L126" s="79"/>
       <c r="M126" s="67"/>
       <c r="N126" s="79"/>
       <c r="O126" s="79"/>
       <c r="P126" s="67"/>
     </row>
-    <row r="127" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" s="79"/>
       <c r="B127" s="79"/>
       <c r="D127" s="79"/>
-      <c r="F127" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="G127" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="H127" s="109" t="s">
-        <v>568</v>
-      </c>
+      <c r="E127" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="H127" s="104"/>
       <c r="K127" s="79"/>
       <c r="L127" s="79"/>
       <c r="M127" s="67"/>
@@ -13195,19 +13146,14 @@
       <c r="O127" s="79"/>
       <c r="P127" s="67"/>
     </row>
-    <row r="128" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="79"/>
       <c r="B128" s="79"/>
       <c r="D128" s="79"/>
-      <c r="F128" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="G128" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="H128" s="109" t="s">
-        <v>568</v>
-      </c>
+      <c r="E128" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="H128" s="104"/>
       <c r="K128" s="79"/>
       <c r="L128" s="79"/>
       <c r="M128" s="67"/>
@@ -13215,19 +13161,14 @@
       <c r="O128" s="79"/>
       <c r="P128" s="67"/>
     </row>
-    <row r="129" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="79"/>
       <c r="B129" s="79"/>
       <c r="D129" s="79"/>
-      <c r="F129" s="70" t="s">
-        <v>315</v>
-      </c>
-      <c r="G129" s="70" t="s">
-        <v>344</v>
-      </c>
-      <c r="H129" s="109" t="s">
-        <v>568</v>
-      </c>
+      <c r="E129" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="H129" s="104"/>
       <c r="K129" s="79"/>
       <c r="L129" s="79"/>
       <c r="M129" s="67"/>
@@ -13235,183 +13176,197 @@
       <c r="O129" s="79"/>
       <c r="P129" s="67"/>
     </row>
-    <row r="130" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="79"/>
-      <c r="B130" s="79"/>
+      <c r="B130" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="70" t="s">
+        <v>333</v>
+      </c>
       <c r="D130" s="79"/>
+      <c r="E130" s="70" t="s">
+        <v>334</v>
+      </c>
       <c r="F130" s="70" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>345</v>
-      </c>
-      <c r="H130" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="K130" s="79"/>
-      <c r="L130" s="79"/>
+        <v>335</v>
+      </c>
+      <c r="H130" s="104" t="s">
+        <v>554</v>
+      </c>
+      <c r="K130" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L130" s="82"/>
       <c r="M130" s="67"/>
       <c r="N130" s="79"/>
       <c r="O130" s="79"/>
       <c r="P130" s="67"/>
     </row>
-    <row r="131" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="79"/>
       <c r="B131" s="79"/>
       <c r="D131" s="79"/>
-      <c r="H131" s="104"/>
-      <c r="K131" s="79"/>
-      <c r="L131" s="79"/>
+      <c r="F131" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="G131" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="H131" s="109" t="s">
+        <v>554</v>
+      </c>
+      <c r="K131" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="L131" s="82"/>
       <c r="M131" s="67"/>
       <c r="N131" s="79"/>
       <c r="O131" s="79"/>
       <c r="P131" s="67"/>
     </row>
-    <row r="132" spans="1:16" s="70" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" s="79"/>
-      <c r="B132" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="C132" s="70" t="s">
-        <v>319</v>
-      </c>
+      <c r="B132" s="79"/>
       <c r="D132" s="79"/>
-      <c r="E132" s="70" t="s">
-        <v>320</v>
-      </c>
       <c r="F132" s="70" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="G132" s="70" t="s">
-        <v>460</v>
-      </c>
-      <c r="H132" s="104" t="s">
+        <v>337</v>
+      </c>
+      <c r="H132" s="109" t="s">
+        <v>554</v>
+      </c>
+      <c r="K132" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="K132" s="82"/>
       <c r="L132" s="82"/>
       <c r="M132" s="67"/>
       <c r="N132" s="79"/>
       <c r="O132" s="79"/>
       <c r="P132" s="67"/>
     </row>
-    <row r="133" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A133" s="79"/>
       <c r="B133" s="79"/>
       <c r="D133" s="79"/>
-      <c r="F133" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="G133" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="H133" s="104" t="s">
-        <v>569</v>
-      </c>
-      <c r="K133" s="82" t="s">
-        <v>95</v>
-      </c>
+      <c r="H133" s="104"/>
+      <c r="K133" s="82"/>
       <c r="L133" s="82"/>
       <c r="M133" s="67"/>
       <c r="N133" s="79"/>
       <c r="O133" s="79"/>
       <c r="P133" s="67"/>
     </row>
-    <row r="134" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" s="70" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A134" s="79"/>
-      <c r="B134" s="79"/>
+      <c r="B134" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="70" t="s">
+        <v>338</v>
+      </c>
       <c r="D134" s="79"/>
+      <c r="E134" s="70" t="s">
+        <v>339</v>
+      </c>
       <c r="F134" s="70" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G134" s="70" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="H134" s="109" t="s">
-        <v>95</v>
+        <v>554</v>
       </c>
       <c r="K134" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="L134" s="82"/>
+        <v>425</v>
+      </c>
+      <c r="L134" s="78" t="s">
+        <v>435</v>
+      </c>
       <c r="M134" s="67"/>
       <c r="N134" s="79"/>
       <c r="O134" s="79"/>
       <c r="P134" s="67"/>
     </row>
-    <row r="135" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A135" s="79"/>
       <c r="B135" s="79"/>
       <c r="D135" s="79"/>
       <c r="F135" s="70" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G135" s="70" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="H135" s="109" t="s">
-        <v>569</v>
-      </c>
-      <c r="K135" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="L135" s="82"/>
-      <c r="M135" s="67" t="s">
-        <v>440</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="K135" s="79"/>
+      <c r="L135" s="79"/>
+      <c r="M135" s="67"/>
       <c r="N135" s="79"/>
       <c r="O135" s="79"/>
       <c r="P135" s="67"/>
     </row>
-    <row r="136" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A136" s="79"/>
       <c r="B136" s="79"/>
       <c r="D136" s="79"/>
       <c r="F136" s="70" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G136" s="70" t="s">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="H136" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K136" s="82" t="s">
-        <v>441</v>
-      </c>
-      <c r="L136" s="82"/>
+        <v>554</v>
+      </c>
+      <c r="K136" s="79"/>
+      <c r="L136" s="79"/>
       <c r="M136" s="67"/>
       <c r="N136" s="79"/>
       <c r="O136" s="79"/>
       <c r="P136" s="67"/>
     </row>
-    <row r="137" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" s="79"/>
       <c r="B137" s="79"/>
       <c r="D137" s="79"/>
       <c r="F137" s="70" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G137" s="70" t="s">
-        <v>465</v>
+        <v>343</v>
       </c>
       <c r="H137" s="109" t="s">
-        <v>569</v>
-      </c>
-      <c r="K137" s="82" t="s">
-        <v>432</v>
-      </c>
-      <c r="L137" s="82"/>
+        <v>554</v>
+      </c>
+      <c r="K137" s="79"/>
+      <c r="L137" s="79"/>
       <c r="M137" s="67"/>
       <c r="N137" s="79"/>
       <c r="O137" s="79"/>
       <c r="P137" s="67"/>
     </row>
-    <row r="138" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="79"/>
       <c r="B138" s="79"/>
       <c r="D138" s="79"/>
-      <c r="H138" s="109"/>
+      <c r="F138" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="G138" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="H138" s="109" t="s">
+        <v>554</v>
+      </c>
       <c r="K138" s="79"/>
       <c r="L138" s="79"/>
       <c r="M138" s="67"/>
@@ -13419,246 +13374,410 @@
       <c r="O138" s="79"/>
       <c r="P138" s="67"/>
     </row>
-    <row r="139" spans="1:16" s="70" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A139" s="79"/>
-      <c r="B139" s="79" t="s">
-        <v>328</v>
-      </c>
-      <c r="C139" s="70" t="s">
-        <v>329</v>
-      </c>
+      <c r="B139" s="79"/>
       <c r="D139" s="79"/>
-      <c r="E139" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="F139" s="70" t="s">
-        <v>603</v>
-      </c>
-      <c r="G139" s="70" t="s">
-        <v>515</v>
-      </c>
-      <c r="H139" s="109" t="s">
-        <v>570</v>
-      </c>
-      <c r="K139" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="L139" s="78" t="s">
-        <v>475</v>
-      </c>
+      <c r="H139" s="104"/>
+      <c r="K139" s="79"/>
+      <c r="L139" s="79"/>
       <c r="M139" s="67"/>
       <c r="N139" s="79"/>
       <c r="O139" s="79"/>
       <c r="P139" s="67"/>
     </row>
-    <row r="140" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" s="70" customFormat="1" ht="43.5" x14ac:dyDescent="0.4">
       <c r="A140" s="79"/>
-      <c r="B140" s="79"/>
+      <c r="B140" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C140" s="70" t="s">
+        <v>319</v>
+      </c>
       <c r="D140" s="79"/>
+      <c r="E140" s="70" t="s">
+        <v>320</v>
+      </c>
       <c r="F140" s="70" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="G140" s="70" t="s">
-        <v>401</v>
-      </c>
-      <c r="H140" s="109" t="s">
+        <v>447</v>
+      </c>
+      <c r="H140" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="K140" s="79" t="s">
-        <v>476</v>
-      </c>
-      <c r="L140" s="79"/>
+      <c r="K140" s="82"/>
+      <c r="L140" s="82"/>
       <c r="M140" s="67"/>
       <c r="N140" s="79"/>
       <c r="O140" s="79"/>
       <c r="P140" s="67"/>
     </row>
-    <row r="141" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A141" s="79"/>
       <c r="B141" s="79"/>
       <c r="D141" s="79"/>
       <c r="F141" s="70" t="s">
-        <v>450</v>
+        <v>323</v>
       </c>
       <c r="G141" s="70" t="s">
-        <v>401</v>
-      </c>
-      <c r="H141" s="109" t="s">
-        <v>571</v>
+        <v>448</v>
+      </c>
+      <c r="H141" s="104" t="s">
+        <v>555</v>
       </c>
       <c r="K141" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="L141" s="79"/>
+        <v>95</v>
+      </c>
+      <c r="L141" s="82"/>
       <c r="M141" s="67"/>
       <c r="N141" s="79"/>
       <c r="O141" s="79"/>
       <c r="P141" s="67"/>
     </row>
-    <row r="142" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A142" s="79"/>
       <c r="B142" s="79"/>
       <c r="D142" s="79"/>
       <c r="F142" s="70" t="s">
-        <v>467</v>
+        <v>324</v>
       </c>
       <c r="G142" s="70" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="H142" s="109" t="s">
-        <v>572</v>
+        <v>95</v>
       </c>
       <c r="K142" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="L142" s="79"/>
+        <v>419</v>
+      </c>
+      <c r="L142" s="82"/>
       <c r="M142" s="67"/>
       <c r="N142" s="79"/>
       <c r="O142" s="79"/>
       <c r="P142" s="67"/>
     </row>
-    <row r="143" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="79"/>
       <c r="B143" s="79"/>
       <c r="D143" s="79"/>
       <c r="F143" s="70" t="s">
-        <v>474</v>
+        <v>325</v>
       </c>
       <c r="G143" s="70" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="H143" s="109" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="K143" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="L143" s="79"/>
-      <c r="M143" s="67"/>
+        <v>426</v>
+      </c>
+      <c r="L143" s="82"/>
+      <c r="M143" s="67" t="s">
+        <v>427</v>
+      </c>
       <c r="N143" s="79"/>
       <c r="O143" s="79"/>
       <c r="P143" s="67"/>
     </row>
-    <row r="144" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A144" s="79"/>
       <c r="B144" s="79"/>
       <c r="D144" s="79"/>
       <c r="F144" s="70" t="s">
-        <v>452</v>
+        <v>326</v>
       </c>
       <c r="G144" s="70" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="H144" s="109" t="s">
         <v>95</v>
       </c>
       <c r="K144" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="L144" s="79"/>
+        <v>428</v>
+      </c>
+      <c r="L144" s="82"/>
       <c r="M144" s="67"/>
       <c r="N144" s="79"/>
       <c r="O144" s="79"/>
       <c r="P144" s="67"/>
     </row>
-    <row r="145" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
       <c r="A145" s="79"/>
       <c r="B145" s="79"/>
       <c r="D145" s="79"/>
       <c r="F145" s="70" t="s">
-        <v>516</v>
+        <v>327</v>
       </c>
       <c r="G145" s="70" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="H145" s="109" t="s">
-        <v>95</v>
+        <v>555</v>
       </c>
       <c r="K145" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="L145" s="79"/>
+        <v>419</v>
+      </c>
+      <c r="L145" s="82"/>
       <c r="M145" s="67"/>
       <c r="N145" s="79"/>
       <c r="O145" s="79"/>
       <c r="P145" s="67"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F146" s="70" t="s">
-        <v>517</v>
-      </c>
-      <c r="G146" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="H146" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K146" s="82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="81"/>
-      <c r="B147" s="81"/>
-      <c r="D147" s="81"/>
+    <row r="146" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="79"/>
+      <c r="B146" s="79"/>
+      <c r="D146" s="79"/>
+      <c r="H146" s="109"/>
+      <c r="K146" s="79"/>
+      <c r="L146" s="79"/>
+      <c r="M146" s="67"/>
+      <c r="N146" s="79"/>
+      <c r="O146" s="79"/>
+      <c r="P146" s="67"/>
+    </row>
+    <row r="147" spans="1:16" s="70" customFormat="1" ht="72.5" x14ac:dyDescent="0.4">
+      <c r="A147" s="79"/>
+      <c r="B147" s="79" t="s">
+        <v>328</v>
+      </c>
+      <c r="C147" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="D147" s="79"/>
+      <c r="E147" s="70" t="s">
+        <v>330</v>
+      </c>
       <c r="F147" s="70" t="s">
-        <v>518</v>
+        <v>588</v>
       </c>
       <c r="G147" s="70" t="s">
-        <v>411</v>
+        <v>501</v>
       </c>
       <c r="H147" s="109" t="s">
-        <v>95</v>
-      </c>
-      <c r="K147" s="82" t="s">
-        <v>476</v>
-      </c>
-      <c r="L147" s="81"/>
+        <v>556</v>
+      </c>
+      <c r="K147" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L147" s="78" t="s">
+        <v>462</v>
+      </c>
       <c r="M147" s="67"/>
-      <c r="N147" s="81"/>
-      <c r="O147" s="81"/>
+      <c r="N147" s="79"/>
+      <c r="O147" s="79"/>
       <c r="P147" s="67"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="79"/>
+      <c r="B148" s="79"/>
+      <c r="D148" s="79"/>
       <c r="F148" s="70" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
       <c r="G148" s="70" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="H148" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="K148" s="82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K148" s="79" t="s">
+        <v>463</v>
+      </c>
+      <c r="L148" s="79"/>
+      <c r="M148" s="67"/>
+      <c r="N148" s="79"/>
+      <c r="O148" s="79"/>
+      <c r="P148" s="67"/>
+    </row>
+    <row r="149" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="79"/>
+      <c r="B149" s="79"/>
+      <c r="D149" s="79"/>
       <c r="F149" s="70" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
       <c r="G149" s="70" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="H149" s="109" t="s">
+        <v>557</v>
+      </c>
+      <c r="K149" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L149" s="79"/>
+      <c r="M149" s="67"/>
+      <c r="N149" s="79"/>
+      <c r="O149" s="79"/>
+      <c r="P149" s="67"/>
+    </row>
+    <row r="150" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="79"/>
+      <c r="B150" s="79"/>
+      <c r="D150" s="79"/>
+      <c r="F150" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="G150" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="H150" s="109" t="s">
+        <v>558</v>
+      </c>
+      <c r="K150" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L150" s="79"/>
+      <c r="M150" s="67"/>
+      <c r="N150" s="79"/>
+      <c r="O150" s="79"/>
+      <c r="P150" s="67"/>
+    </row>
+    <row r="151" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="79"/>
+      <c r="B151" s="79"/>
+      <c r="D151" s="79"/>
+      <c r="F151" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="G151" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="H151" s="109" t="s">
+        <v>559</v>
+      </c>
+      <c r="K151" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L151" s="79"/>
+      <c r="M151" s="67"/>
+      <c r="N151" s="79"/>
+      <c r="O151" s="79"/>
+      <c r="P151" s="67"/>
+    </row>
+    <row r="152" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="79"/>
+      <c r="B152" s="79"/>
+      <c r="D152" s="79"/>
+      <c r="F152" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="G152" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="H152" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="K149" s="82" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F150" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="G150" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="H150" s="109" t="s">
+      <c r="K152" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L152" s="79"/>
+      <c r="M152" s="67"/>
+      <c r="N152" s="79"/>
+      <c r="O152" s="79"/>
+      <c r="P152" s="67"/>
+    </row>
+    <row r="153" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
+      <c r="A153" s="79"/>
+      <c r="B153" s="79"/>
+      <c r="D153" s="79"/>
+      <c r="F153" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="G153" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="H153" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="K150" s="82" t="s">
-        <v>476</v>
+      <c r="K153" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L153" s="79"/>
+      <c r="M153" s="67"/>
+      <c r="N153" s="79"/>
+      <c r="O153" s="79"/>
+      <c r="P153" s="67"/>
+    </row>
+    <row r="154" spans="1:16" ht="29" x14ac:dyDescent="0.4">
+      <c r="F154" s="70" t="s">
+        <v>503</v>
+      </c>
+      <c r="G154" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="H154" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K154" s="82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" s="70" customFormat="1" ht="29" x14ac:dyDescent="0.4">
+      <c r="A155" s="81"/>
+      <c r="B155" s="81"/>
+      <c r="D155" s="81"/>
+      <c r="F155" s="70" t="s">
+        <v>504</v>
+      </c>
+      <c r="G155" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="H155" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K155" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="L155" s="81"/>
+      <c r="M155" s="67"/>
+      <c r="N155" s="81"/>
+      <c r="O155" s="81"/>
+      <c r="P155" s="67"/>
+    </row>
+    <row r="156" spans="1:16" ht="29" x14ac:dyDescent="0.4">
+      <c r="F156" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="G156" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="H156" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K156" s="82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="29" x14ac:dyDescent="0.4">
+      <c r="F157" s="70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G157" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="H157" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K157" s="82" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="29" x14ac:dyDescent="0.4">
+      <c r="F158" s="70" t="s">
+        <v>507</v>
+      </c>
+      <c r="G158" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="H158" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="K158" s="82" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -13667,347 +13786,347 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:J20 A26:JB27 A4:JB8 A9:K9 M9:JB9 A28:D35 E29:E36 A117:JB117 A151:JB65357 A146:E150 A16:JB17 M15:JB15 A10:G15 K19:JB25 F35:J35 L35:JB35 A36:K36 M36:JB36 A53:J53 M53:JB53 F72:JB75 F80:J80 M80:JB80 A37:JB43 E73:E116 A72:D116 F98:J99 M98:JB99 L98 E119:E145 A118:D145 M139:JB139 F77:JB79 F76:J76 M76:JB76 F116:JB116 M114:JB114 F28:JB34 K141:JB150 F2:JB3 A54:JB70 F100:JB101 F102:I102 K102:JB102 F81:JB87 I103:JB113 I114:K114 F103:G115 I115:JB115 I138:JB138 F138:G145 I139:K139 I140:JB140 I141:J145 I10:JB14 I15:K15 A48:JB52 A44:G47 I44:JB47 F92:JB97 F88:G91 I88:JB91">
-    <cfRule type="cellIs" dxfId="89" priority="229" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:J20 A26:JB27 A4:JB8 A9:K9 M9:JB9 A28:D35 E29:E36 A125:JB125 A159:JB65365 A154:E158 A16:JB17 M15:JB15 A10:G15 K19:JB25 F35:J35 L35:JB35 A36:K36 M36:JB36 A53:J53 M53:JB53 F80:JB83 F88:J88 M88:JB88 A37:JB43 E81:E124 A80:D124 F106:J107 M106:JB107 L106 E127:E153 A126:D153 M147:JB147 F85:JB87 F84:J84 M84:JB84 F124:JB124 M122:JB122 F28:JB34 K149:JB158 F2:JB3 F108:JB109 F110:I110 K110:JB110 F89:JB95 I111:JB121 I122:K122 F111:G123 I123:JB123 I146:JB146 F146:G153 I147:K147 I148:JB148 I149:J153 I10:JB14 I15:K15 A48:JB52 A44:G47 I44:JB47 F100:JB105 F96:G99 I96:JB99 A54:JB78">
+    <cfRule type="cellIs" dxfId="85" priority="229" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="230" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="87" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="145" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="146" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:J25 G23:G24 I23:J24">
-    <cfRule type="cellIs" dxfId="85" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="141" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="142" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="83" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="79" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="77" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="75" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="73" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:JB71">
-    <cfRule type="cellIs" dxfId="71" priority="83" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A79:JB79">
+    <cfRule type="cellIs" dxfId="67" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="69" priority="81" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="65" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118:JB121 F131:JB131 M122:JB126 F132:F137 N132:JB137 F122:J125 I126:J126 F126:G130 I127:JB130">
-    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F126:JB129 F139:JB139 M130:JB134 F140:F145 N140:JB145 F130:J133 I134:J134 F134:G138 I135:JB138">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E126">
+    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F146">
-    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F154">
+    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G146 I146:J146">
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G154 I154:J154">
+    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F148">
-    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F156">
+    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G148 I148:J148">
-    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G156 I156:J156">
+    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F149">
-    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F157">
+    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G149 I149:J149">
-    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G157 I157:J157">
+    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F150">
-    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F158">
+    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G150 I150:J150">
-    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G158 I158:J158">
+    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F147">
-    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F155">
+    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G147 I147:J147">
-    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G155 I155:J155">
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:J21">
-    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:J22">
-    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K80">
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K88">
+    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K99">
-    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K107">
+    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G132:M135 G136:G137 I136:M137">
-    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G140:M143 G144:G145 I144:M145">
+    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K98">
-    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K106">
+    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K122:L125">
-    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K130:L133">
+    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K126">
-    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K134">
+    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K76">
-    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K84">
+    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H103:H115">
-    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H111:H123">
+    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126:H130">
-    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H134:H138">
+    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H138">
-    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H146">
+    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H136:H137">
-    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H144:H145">
+    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H139:H144">
-    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H147:H152">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H145:H150">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H153:H158">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H15">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H47">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88:H91">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H96:H99">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14016,11 +14135,11 @@
     <hyperlink ref="L15" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-27"/>
     <hyperlink ref="L36" r:id="rId3" display="http://192.168.199.122:8880/browse/BG-28"/>
     <hyperlink ref="L53" r:id="rId4" display="http://192.168.199.122:8880/browse/BG-28"/>
-    <hyperlink ref="L80" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-28"/>
-    <hyperlink ref="L99" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-28"/>
-    <hyperlink ref="L126" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-28"/>
-    <hyperlink ref="L139" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-29"/>
-    <hyperlink ref="L114" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-39"/>
+    <hyperlink ref="L88" r:id="rId5" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="L107" r:id="rId6" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="L134" r:id="rId7" display="http://192.168.199.122:8880/browse/BG-28"/>
+    <hyperlink ref="L147" r:id="rId8" display="http://192.168.199.122:8880/browse/BG-29"/>
+    <hyperlink ref="L122" r:id="rId9" display="http://192.168.199.122:8880/browse/BG-39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -14035,67 +14154,67 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="84">
         <v>42137</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
+++ b/qa/01.测试用例/数值规划/伤害公式/伤害公式测试用例.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="617">
   <si>
     <t>目录与修改历史</t>
   </si>
@@ -2952,6 +2952,19 @@
   </si>
   <si>
     <t>svn://192.168.199.122/gd/数值规划/怪物属性配置及伤害公式.xlsx</t>
+  </si>
+  <si>
+    <t>wangl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端：6012
+服务器：5973</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理五行加成测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3326,7 +3339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3643,6 +3656,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3667,7 +3683,43 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="192">
+  <dxfs count="196">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5753,7 +5805,7 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -5819,10 +5871,10 @@
     </row>
     <row r="11" spans="1:256" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="114"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6253,12 +6305,20 @@
         <v>5739</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="20"/>
+    <row r="24" spans="2:11" ht="29" x14ac:dyDescent="0.4">
+      <c r="B24" s="13">
+        <v>42340</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>614</v>
+      </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="22" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="13"/>
@@ -7190,10 +7250,10 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="N77 C77">
-    <cfRule type="cellIs" dxfId="191" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7238,14 +7298,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115" t="s">
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:19" s="88" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
@@ -10265,418 +10325,418 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="A120:J120 A59:J59 F185:N186 A193:JB193 A133:J133 F56:J58 F118:J119 F169:JB170 E5:E25 A4:D25 E178:E181 A79:E85 G79:G85 A51:JB51 A86:J86 F183:J183 A185:D190 A191:E192 A195:D195 F195:JB195 A78:G78 M78:JB78 K64 M64:JB64 K65:JB77 K79:JB86 K118:JB164 L191:JB192 L189:N190 G188:G192 F30:JB30 K56:JB63 F2:JB25 I78:K78 I79:J85 I178:J182 I189:K192 F187:G187 I187:N188 A206:JB65590 A202:D202 F202:JB202 A203:A205 H203:JB205 F178:G182 A178:D183 K171:JB183 A196:JB200">
-    <cfRule type="cellIs" dxfId="189" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="155" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="156" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63:J66 B67:B77">
-    <cfRule type="cellIs" dxfId="187" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="99" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="100" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O185:O187 O189:O190 E188:E190 P185:JB190 E2 A2:D3 A177:G177 I177:J177">
-    <cfRule type="cellIs" dxfId="185" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="139" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="140" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:D30">
-    <cfRule type="cellIs" dxfId="183" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="135" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="136" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="136" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:E58 A56:D58 A60:J62 A63:A77 C67:J67 C77:J77 C69:E76 C68:G68 I68:J68">
-    <cfRule type="cellIs" dxfId="181" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119 A118:D119 A121:J123 A124:A127 A128:J132">
-    <cfRule type="cellIs" dxfId="179" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="129" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="130" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E170 A169:D170 A171:J173 A174:G176 I174:J176">
-    <cfRule type="cellIs" dxfId="177" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="125" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="126" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:J127">
-    <cfRule type="cellIs" dxfId="175" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="95" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="96" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E89 A87:D89 A91:J93 A94:A108 C98:J98 C108:J108 C100:E107 C99:G99 I99:J99">
-    <cfRule type="cellIs" dxfId="173" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="77" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="78" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:JB32 A33:D33 F33:JB33 A34:JB50">
-    <cfRule type="cellIs" dxfId="171" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F76">
-    <cfRule type="cellIs" dxfId="169" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G76 I69:J76">
-    <cfRule type="cellIs" dxfId="167" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F85">
-    <cfRule type="cellIs" dxfId="165" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A90:J90 F87:J89 A110:E116 G110:J116 A117:J117 K87:JB108 K110:JB117 A109:K109 M109:JB109">
-    <cfRule type="cellIs" dxfId="163" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="79" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="80" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94:J97 B98:B108">
-    <cfRule type="cellIs" dxfId="161" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="75" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="76" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100:F107">
-    <cfRule type="cellIs" dxfId="159" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="73" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="74" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:G107 I100:J107">
-    <cfRule type="cellIs" dxfId="157" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="71" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="72" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110:F116">
-    <cfRule type="cellIs" dxfId="155" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="69" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="70" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A137:J138 F134:J136 A157:G157 A158:E163 G158:G163 A164:J164 I157:J163">
-    <cfRule type="cellIs" dxfId="153" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142:J145 B146:B156">
-    <cfRule type="cellIs" dxfId="151" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E136 A134:D136 A139:J141 A142:A156 C146:J146 C156:J156 C148:E155 C147:G147 I147:J147">
-    <cfRule type="cellIs" dxfId="149" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F148:F155">
-    <cfRule type="cellIs" dxfId="147" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:G155 I148:J155">
-    <cfRule type="cellIs" dxfId="145" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158:F163">
-    <cfRule type="cellIs" dxfId="143" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184:JB184">
-    <cfRule type="cellIs" dxfId="141" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184:D184">
-    <cfRule type="cellIs" dxfId="139" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E185">
-    <cfRule type="cellIs" dxfId="137" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F188">
-    <cfRule type="cellIs" dxfId="135" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F189">
-    <cfRule type="cellIs" dxfId="133" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F190">
-    <cfRule type="cellIs" dxfId="131" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191">
-    <cfRule type="cellIs" dxfId="129" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F192">
-    <cfRule type="cellIs" dxfId="127" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:JB194">
-    <cfRule type="cellIs" dxfId="125" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194:D194">
-    <cfRule type="cellIs" dxfId="123" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="cellIs" dxfId="121" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:JB29">
-    <cfRule type="cellIs" dxfId="119" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="117" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="31" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="32" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:JB55">
-    <cfRule type="cellIs" dxfId="115" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K165:JB168">
-    <cfRule type="cellIs" dxfId="113" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165:J168">
-    <cfRule type="cellIs" dxfId="111" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A165:A168">
-    <cfRule type="cellIs" dxfId="109" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H76">
-    <cfRule type="cellIs" dxfId="107" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78:H85">
-    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H107">
-    <cfRule type="cellIs" dxfId="103" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:H155">
-    <cfRule type="cellIs" dxfId="101" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H157:H163">
-    <cfRule type="cellIs" dxfId="99" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174:H182">
-    <cfRule type="cellIs" dxfId="97" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187:H192">
-    <cfRule type="cellIs" dxfId="95" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F201:JB201">
-    <cfRule type="cellIs" dxfId="93" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201:D201">
-    <cfRule type="cellIs" dxfId="91" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="89" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:G205">
-    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10695,10 +10755,10 @@
   <dimension ref="A1:S158"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -10724,14 +10784,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116" t="s">
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:19" s="39" customFormat="1" ht="33" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
@@ -11762,7 +11822,9 @@
       <c r="G57" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="H57" s="112"/>
+      <c r="H57" s="114" t="s">
+        <v>95</v>
+      </c>
       <c r="K57" s="112"/>
       <c r="L57" s="112"/>
       <c r="M57" s="67"/>
@@ -11780,7 +11842,9 @@
       <c r="G58" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="H58" s="112"/>
+      <c r="H58" s="114" t="s">
+        <v>95</v>
+      </c>
       <c r="K58" s="112"/>
       <c r="L58" s="112"/>
       <c r="M58" s="67"/>
@@ -12061,7 +12125,9 @@
       <c r="G71" s="113" t="s">
         <v>609</v>
       </c>
-      <c r="H71" s="104"/>
+      <c r="H71" s="114" t="s">
+        <v>95</v>
+      </c>
       <c r="K71" s="79"/>
       <c r="L71" s="79"/>
       <c r="M71" s="67"/>
@@ -12079,7 +12145,9 @@
       <c r="G72" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="H72" s="112"/>
+      <c r="H72" s="114" t="s">
+        <v>95</v>
+      </c>
       <c r="K72" s="112"/>
       <c r="L72" s="112"/>
       <c r="M72" s="67"/>
@@ -13787,346 +13855,346 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E2 A2:D3 A21:E25 A19:J20 A26:JB27 A4:JB8 A9:K9 M9:JB9 A28:D35 E29:E36 A125:JB125 A159:JB65365 A154:E158 A16:JB17 M15:JB15 A10:G15 K19:JB25 F35:J35 L35:JB35 A36:K36 M36:JB36 A53:J53 M53:JB53 F80:JB83 F88:J88 M88:JB88 A37:JB43 E81:E124 A80:D124 F106:J107 M106:JB107 L106 E127:E153 A126:D153 M147:JB147 F85:JB87 F84:J84 M84:JB84 F124:JB124 M122:JB122 F28:JB34 K149:JB158 F2:JB3 F108:JB109 F110:I110 K110:JB110 F89:JB95 I111:JB121 I122:K122 F111:G123 I123:JB123 I146:JB146 F146:G153 I147:K147 I148:JB148 I149:J153 I10:JB14 I15:K15 A48:JB52 A44:G47 I44:JB47 F100:JB105 F96:G99 I96:JB99 A54:JB78">
-    <cfRule type="cellIs" dxfId="85" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="229" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="230" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="230" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="83" priority="145" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="145" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="146" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="146" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:J25 G23:G24 I23:J24">
-    <cfRule type="cellIs" dxfId="81" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="141" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="142" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="79" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="133" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="134" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="77" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="93" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="94" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="75" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="91" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="92" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="73" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="89" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="90" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="71" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="87" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="88" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="69" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="85" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="86" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:JB79">
-    <cfRule type="cellIs" dxfId="67" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="83" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="84" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="65" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="81" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="82" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F126:JB129 F139:JB139 M130:JB134 F140:F145 N140:JB145 F130:J133 I134:J134 F134:G138 I135:JB138">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="61" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="63" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="64" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F154">
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G154 I154:J154">
-    <cfRule type="cellIs" dxfId="57" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="cellIs" dxfId="55" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G156 I156:J156">
-    <cfRule type="cellIs" dxfId="53" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F157">
-    <cfRule type="cellIs" dxfId="51" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157 I157:J157">
-    <cfRule type="cellIs" dxfId="49" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="52" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F158">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G158 I158:J158">
-    <cfRule type="cellIs" dxfId="45" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="cellIs" dxfId="43" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G155 I155:J155">
-    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:J21">
-    <cfRule type="cellIs" dxfId="39" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:J22">
-    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K88">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K107">
-    <cfRule type="cellIs" dxfId="31" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:M143 G144:G145 I144:M145">
-    <cfRule type="cellIs" dxfId="29" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K106">
-    <cfRule type="cellIs" dxfId="27" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K130:L133">
-    <cfRule type="cellIs" dxfId="25" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K134">
-    <cfRule type="cellIs" dxfId="23" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K84">
-    <cfRule type="cellIs" dxfId="21" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:H123">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H134:H138">
-    <cfRule type="cellIs" dxfId="17" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="17" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H146">
-    <cfRule type="cellIs" dxfId="15" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H144:H145">
-    <cfRule type="cellIs" dxfId="13" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H147:H152">
-    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H153:H158">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H15">
-    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H47">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:H99">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
